--- a/static/classes/experimentacao/dados_biost_exp.xlsx
+++ b/static/classes/experimentacao/dados_biost_exp.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DD50D48-1EF0-4792-B41F-90CBD4905848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4E850F-1A96-4A8C-A1E7-826609CD166D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIC-DBC" sheetId="20" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="85">
   <si>
     <t>AMB</t>
   </si>
@@ -195,21 +195,6 @@
   </si>
   <si>
     <t>NP_5</t>
-  </si>
-  <si>
-    <t>NP_6</t>
-  </si>
-  <si>
-    <t>NP_7</t>
-  </si>
-  <si>
-    <t>NP_8</t>
-  </si>
-  <si>
-    <t>NP_9</t>
-  </si>
-  <si>
-    <t>NP_10</t>
   </si>
   <si>
     <t>C</t>
@@ -856,7 +841,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -869,16 +854,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -28621,34 +28606,34 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
         <v>84</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -29197,37 +29182,37 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -29241,7 +29226,7 @@
         <v>12.30785</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>41</v>
@@ -29278,7 +29263,7 @@
         <v>10.73315</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>42</v>
@@ -29349,7 +29334,7 @@
         <v>10.9785</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H5" s="18">
         <f>SUM(H2:H4)</f>
@@ -29384,7 +29369,7 @@
         <v>15.751799999999999</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H6" s="19">
         <f>H5/3</f>
@@ -29416,7 +29401,7 @@
         <v>13.30495</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H7" s="18">
         <f>L5^2 / 12</f>
@@ -29450,7 +29435,7 @@
         <v>13.09225</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -29464,23 +29449,23 @@
         <v>16.9224</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -29527,7 +29512,7 @@
         <v>16.129000000000001</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G12" s="18">
         <f>G13-G11</f>
@@ -29557,7 +29542,7 @@
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G13" s="21">
         <v>11</v>
@@ -29589,7 +29574,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -29607,23 +29592,23 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G16" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>69</v>
       </c>
       <c r="K16" s="22"/>
       <c r="L16" s="22" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
@@ -29656,7 +29641,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F18" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G18" s="18">
         <v>3</v>
@@ -29681,7 +29666,7 @@
     <row r="19" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
       <c r="F19" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G19" s="18">
         <f>G20-G17-G18</f>
@@ -29702,7 +29687,7 @@
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
       <c r="F20" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G20" s="15">
         <v>11</v>
@@ -29728,18 +29713,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD12D3-5558-4C12-84C9-B868DE19547D}">
   <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -29761,7 +29743,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="2">
-        <v>8.234</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -29772,7 +29754,7 @@
         <v>47</v>
       </c>
       <c r="C3" s="2">
-        <v>8.58</v>
+        <v>9.1229999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -29783,7 +29765,7 @@
         <v>48</v>
       </c>
       <c r="C4" s="2">
-        <v>8.82</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -29794,7 +29776,7 @@
         <v>49</v>
       </c>
       <c r="C5" s="2">
-        <v>9.1229999999999993</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -29805,398 +29787,175 @@
         <v>50</v>
       </c>
       <c r="C6" s="2">
-        <v>7.74</v>
+        <v>4.0599999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2">
-        <v>6.1</v>
+        <v>9.36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2">
-        <v>6.06</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2">
-        <v>6.48</v>
+        <v>8.1229999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2">
-        <v>6.1</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2">
-        <v>4.0599999999999996</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="2">
-        <v>10.202</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="2">
-        <v>7.234</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="2">
-        <v>9.36</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="2">
-        <v>7.86</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="2">
-        <v>8.1229999999999993</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2">
-        <v>6.8230000000000004</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2">
-        <v>5.82</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2">
-        <v>6.72</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2">
-        <v>5.1289999999999996</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="2">
-        <v>9.9819999999999993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>3</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="2">
-        <v>8.2799999999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="2">
-        <v>7.98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="2">
-        <v>8.82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>3</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="2">
-        <v>7.92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="2">
-        <v>6.42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="2">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>3</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="2">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>3</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="2">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>3</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="2">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>4</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="2">
-        <v>12.692</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>4</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="2">
-        <v>11.234</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>4</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="2">
-        <v>11.76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>4</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="2">
-        <v>12.12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>4</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="2">
-        <v>11.22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>4</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="2">
-        <v>10.002000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>4</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="2">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>4</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="2">
-        <v>9.66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>4</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="2">
-        <v>10.039999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>4</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="2">
         <v>9.9920000000000009</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C41">
-    <sortCondition ref="A2"/>
-  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -31267,19 +31026,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">

--- a/static/classes/experimentacao/dados_biost_exp.xlsx
+++ b/static/classes/experimentacao/dados_biost_exp.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4E850F-1A96-4A8C-A1E7-826609CD166D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F34329-8867-4F69-8011-7D5B7AB3E187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIC-DBC" sheetId="20" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="86">
   <si>
     <t>AMB</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>eij2</t>
+  </si>
+  <si>
+    <t>AF_M2</t>
   </si>
 </sst>
 </file>
@@ -839,10 +842,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF27393-9ED7-4794-B0FA-9CCE826526BB}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,7 +855,7 @@
     <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -863,10 +866,13 @@
         <v>72</v>
       </c>
       <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>50</v>
       </c>
@@ -877,10 +883,13 @@
         <v>5016.42875</v>
       </c>
       <c r="D2">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="E2">
         <v>12.30785</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>50</v>
       </c>
@@ -891,10 +900,13 @@
         <v>3648.3589000000002</v>
       </c>
       <c r="D3">
+        <v>3.65</v>
+      </c>
+      <c r="E3">
         <v>10.73315</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>50</v>
       </c>
@@ -905,10 +917,13 @@
         <v>3925.3332500000001</v>
       </c>
       <c r="D4">
+        <v>3.93</v>
+      </c>
+      <c r="E4">
         <v>10.8614</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>50</v>
       </c>
@@ -919,10 +934,13 @@
         <v>4705.2685000000001</v>
       </c>
       <c r="D5">
+        <v>4.71</v>
+      </c>
+      <c r="E5">
         <v>10.9785</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>70</v>
       </c>
@@ -933,10 +951,13 @@
         <v>6118.4251000000004</v>
       </c>
       <c r="D6">
+        <v>6.12</v>
+      </c>
+      <c r="E6">
         <v>15.751799999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>70</v>
       </c>
@@ -947,10 +968,13 @@
         <v>5614.2330499999998</v>
       </c>
       <c r="D7">
+        <v>5.61</v>
+      </c>
+      <c r="E7">
         <v>13.30495</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>70</v>
       </c>
@@ -961,10 +985,13 @@
         <v>5109.9443499999998</v>
       </c>
       <c r="D8">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E8">
         <v>13.88435</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>70</v>
       </c>
@@ -975,10 +1002,13 @@
         <v>4975.8569500000003</v>
       </c>
       <c r="D9">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E9">
         <v>13.09225</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>100</v>
       </c>
@@ -989,10 +1019,13 @@
         <v>5464.5280000000002</v>
       </c>
       <c r="D10">
+        <v>5.46</v>
+      </c>
+      <c r="E10">
         <v>16.9224</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>100</v>
       </c>
@@ -1003,10 +1036,13 @@
         <v>5551.9511499999999</v>
       </c>
       <c r="D11">
+        <v>5.55</v>
+      </c>
+      <c r="E11">
         <v>14.93085</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>100</v>
       </c>
@@ -1017,10 +1053,13 @@
         <v>5723.8487500000001</v>
       </c>
       <c r="D12">
+        <v>5.72</v>
+      </c>
+      <c r="E12">
         <v>16.129000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>100</v>
       </c>
@@ -1031,18 +1070,21 @@
         <v>5869.6974499999997</v>
       </c>
       <c r="D13">
+        <v>5.87</v>
+      </c>
+      <c r="E13">
         <v>15.78145</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
     </row>
@@ -29715,7 +29757,7 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/static/classes/experimentacao/dados_biost_exp.xlsx
+++ b/static/classes/experimentacao/dados_biost_exp.xlsx
@@ -3,27 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F34329-8867-4F69-8011-7D5B7AB3E187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3685F5F-F7BC-4884-9F43-7A09E41788D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="934" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIC-DBC" sheetId="20" r:id="rId1"/>
     <sheet name="EFEITOS" sheetId="24" r:id="rId2"/>
-    <sheet name="DIC-DBC-ANOVA" sheetId="22" r:id="rId3"/>
-    <sheet name="QUALI" sheetId="3" r:id="rId4"/>
-    <sheet name="QUANTI_LINEAR" sheetId="4" r:id="rId5"/>
-    <sheet name="QUANTI_QUADRATICA" sheetId="23" r:id="rId6"/>
-    <sheet name="FAT1_SI" sheetId="8" r:id="rId7"/>
-    <sheet name="FAT1_CI" sheetId="19" r:id="rId8"/>
-    <sheet name="FAT2_SI" sheetId="6" r:id="rId9"/>
-    <sheet name="FAT2_CI" sheetId="5" r:id="rId10"/>
-    <sheet name="FAT3" sheetId="14" r:id="rId11"/>
-    <sheet name="maize" sheetId="2" r:id="rId12"/>
+    <sheet name="TABELA_AF_RAD" sheetId="25" r:id="rId3"/>
+    <sheet name="DIC-DBC-ANOVA" sheetId="22" r:id="rId4"/>
+    <sheet name="QUALI" sheetId="3" r:id="rId5"/>
+    <sheet name="QUANTI_LINEAR" sheetId="4" r:id="rId6"/>
+    <sheet name="QUANTI_QUADRATICA" sheetId="23" r:id="rId7"/>
+    <sheet name="FAT1_SI" sheetId="8" r:id="rId8"/>
+    <sheet name="FAT1_CI" sheetId="19" r:id="rId9"/>
+    <sheet name="FAT2_SI" sheetId="6" r:id="rId10"/>
+    <sheet name="FAT2_CI" sheetId="5" r:id="rId11"/>
+    <sheet name="FAT3" sheetId="14" r:id="rId12"/>
+    <sheet name="maize" sheetId="2" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">FAT1_CI!$A$1:$C$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">FAT2_CI!$A$1:$D$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">FAT1_CI!$A$1:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">FAT2_CI!$A$1:$D$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="88">
   <si>
     <t>AMB</t>
   </si>
@@ -301,15 +302,22 @@
   <si>
     <t>AF_M2</t>
   </si>
+  <si>
+    <t>yi.</t>
+  </si>
+  <si>
+    <t>y.j</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -409,7 +417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -459,6 +467,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -844,8 +856,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1104,6 +1116,600 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401611ED-38E0-4C81-9133-A1F57F372C3A}">
+  <sheetPr codeName="Planilha8"/>
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>6.9499999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>7.0299999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>7.4439999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="7">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="7">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>7.3419999999999987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="7">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="7">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>7.3599999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="7">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>7.3360000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="7">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="7">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="7">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>7.2619999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="7">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>7.5299999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="7">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="7">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>7.5559999999999992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="7">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="7">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>7.6999999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="7">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <v>7.3630000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="7">
+        <v>75</v>
+      </c>
+      <c r="D26">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="7">
+        <v>75</v>
+      </c>
+      <c r="D27">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="7">
+        <v>75</v>
+      </c>
+      <c r="D28">
+        <v>7.4499999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="7">
+        <v>75</v>
+      </c>
+      <c r="D29">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="7">
+        <v>75</v>
+      </c>
+      <c r="D30">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="7">
+        <v>75</v>
+      </c>
+      <c r="D31">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="7">
+        <v>75</v>
+      </c>
+      <c r="D32">
+        <v>7.4700000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="7">
+        <v>75</v>
+      </c>
+      <c r="D33">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="7">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>7.0299999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="7">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="7">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>7.1099999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="7">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="7">
+        <v>100</v>
+      </c>
+      <c r="D38">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="7">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="7">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>6.9329999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="7">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <v>6.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D41">
+    <sortCondition ref="C2"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FB33A-3173-4008-92A5-2ADAD8D660C1}">
   <sheetPr codeName="Planilha9"/>
   <dimension ref="A1:D41"/>
@@ -1699,7 +2305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0844D76-2BC5-4A45-BC59-B5F493E31ACD}">
   <sheetPr codeName="Planilha10"/>
   <dimension ref="A1:D81"/>
@@ -2850,7 +3456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DEF979-DB47-4432-9EA7-72C5A215002C}">
   <sheetPr codeName="Planilha11"/>
   <dimension ref="A1:J781"/>
@@ -29197,12 +29803,132 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6066454C-EECC-4A99-8C31-06D5BE28F536}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>50</v>
+      </c>
+      <c r="B2" s="11">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="C2" s="11">
+        <v>3.65</v>
+      </c>
+      <c r="D2" s="11">
+        <v>3.93</v>
+      </c>
+      <c r="E2" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F2" s="11">
+        <v>17.309999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>70</v>
+      </c>
+      <c r="B3" s="11">
+        <v>6.12</v>
+      </c>
+      <c r="C3" s="11">
+        <v>5.61</v>
+      </c>
+      <c r="D3" s="11">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E3" s="11">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="F3" s="11">
+        <v>21.82</v>
+      </c>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>100</v>
+      </c>
+      <c r="B4" s="11">
+        <v>5.46</v>
+      </c>
+      <c r="C4" s="11">
+        <v>5.55</v>
+      </c>
+      <c r="D4" s="11">
+        <v>5.72</v>
+      </c>
+      <c r="E4" s="11">
+        <v>5.87</v>
+      </c>
+      <c r="F4" s="11">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="11">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C5" s="11">
+        <v>14.81</v>
+      </c>
+      <c r="D5" s="11">
+        <v>14.76</v>
+      </c>
+      <c r="E5" s="11">
+        <v>15.56</v>
+      </c>
+      <c r="F5" s="25">
+        <v>61.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E83BA65-BE39-48CB-ADBD-ADA748DC0265}">
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29752,7 +30478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD12D3-5558-4C12-84C9-B868DE19547D}">
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:C21"/>
@@ -30002,7 +30728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE66694-A8F5-4857-BCC5-776DE2699524}">
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:J21"/>
@@ -30256,7 +30982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E7D567-6F21-4263-A1B5-162912FCCED1}">
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:I21"/>
@@ -30513,7 +31239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF7B468-35FD-4AB5-AC58-CBF0CAE0BCDF}">
   <sheetPr codeName="Planilha6"/>
   <dimension ref="A1:D37"/>
@@ -31055,7 +31781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA737F51-98FF-4434-B2A9-78368E16AF2F}">
   <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:E37"/>
@@ -31698,598 +32424,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401611ED-38E0-4C81-9133-A1F57F372C3A}">
-  <sheetPr codeName="Planilha8"/>
-  <dimension ref="A1:D41"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>6.68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>6.65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>6.9499999999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>6.83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>7.0299999999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>6.76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="7">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>7.4439999999999991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="7">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>7.14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="7">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>7.3419999999999987</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="7">
-        <v>25</v>
-      </c>
-      <c r="D13">
-        <v>7.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="7">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>7.3599999999999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="7">
-        <v>25</v>
-      </c>
-      <c r="D15">
-        <v>7.23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="7">
-        <v>25</v>
-      </c>
-      <c r="D16">
-        <v>7.3360000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="7">
-        <v>25</v>
-      </c>
-      <c r="D17">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="7">
-        <v>50</v>
-      </c>
-      <c r="D18">
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="7">
-        <v>50</v>
-      </c>
-      <c r="D19">
-        <v>7.2619999999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="7">
-        <v>50</v>
-      </c>
-      <c r="D20">
-        <v>7.5299999999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="7">
-        <v>50</v>
-      </c>
-      <c r="D21">
-        <v>7.32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="7">
-        <v>50</v>
-      </c>
-      <c r="D22">
-        <v>7.5559999999999992</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="7">
-        <v>50</v>
-      </c>
-      <c r="D23">
-        <v>7.46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="7">
-        <v>50</v>
-      </c>
-      <c r="D24">
-        <v>7.6999999999999993</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="7">
-        <v>50</v>
-      </c>
-      <c r="D25">
-        <v>7.3630000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="7">
-        <v>75</v>
-      </c>
-      <c r="D26">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="7">
-        <v>75</v>
-      </c>
-      <c r="D27">
-        <v>7.03</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="7">
-        <v>75</v>
-      </c>
-      <c r="D28">
-        <v>7.4499999999999993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="7">
-        <v>75</v>
-      </c>
-      <c r="D29">
-        <v>7.13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="7">
-        <v>75</v>
-      </c>
-      <c r="D30">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="7">
-        <v>75</v>
-      </c>
-      <c r="D31">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="7">
-        <v>75</v>
-      </c>
-      <c r="D32">
-        <v>7.4700000000000006</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="7">
-        <v>75</v>
-      </c>
-      <c r="D33">
-        <v>7.19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="7">
-        <v>100</v>
-      </c>
-      <c r="D34">
-        <v>7.0299999999999994</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="7">
-        <v>100</v>
-      </c>
-      <c r="D35">
-        <v>6.69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="7">
-        <v>100</v>
-      </c>
-      <c r="D36">
-        <v>7.1099999999999994</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="7">
-        <v>100</v>
-      </c>
-      <c r="D37">
-        <v>6.58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>3</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="7">
-        <v>100</v>
-      </c>
-      <c r="D38">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>3</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="7">
-        <v>100</v>
-      </c>
-      <c r="D39">
-        <v>6.74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>4</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="7">
-        <v>100</v>
-      </c>
-      <c r="D40">
-        <v>6.9329999999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>4</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="7">
-        <v>100</v>
-      </c>
-      <c r="D41">
-        <v>6.61</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D41">
-    <sortCondition ref="C2"/>
-  </sortState>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/static/classes/experimentacao/dados_biost_exp.xlsx
+++ b/static/classes/experimentacao/dados_biost_exp.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3685F5F-F7BC-4884-9F43-7A09E41788D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C490BF90-A1C7-439F-9AC3-F9B028007B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="934" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIC-DBC" sheetId="20" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="92">
   <si>
     <t>AMB</t>
   </si>
@@ -308,6 +308,18 @@
   <si>
     <t>y.j</t>
   </si>
+  <si>
+    <t>SQTOTAL</t>
+  </si>
+  <si>
+    <t>SQTRAT</t>
+  </si>
+  <si>
+    <t>SQBLOCO</t>
+  </si>
+  <si>
+    <t>SQERRO</t>
+  </si>
 </sst>
 </file>
 
@@ -493,6 +505,141 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106440</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>124865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>117960</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128105</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Tinta 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D38E616A-5F45-484E-A47C-861736903E02}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2544840" y="2850480"/>
+            <a:ext cx="11520" cy="3240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Tinta 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D38E616A-5F45-484E-A47C-861736903E02}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2536200" y="2841480"/>
+              <a:ext cx="29160" cy="20880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>639240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>151929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>651120</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>170649</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Tinta 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E32F0C-394E-4CBF-B16B-DBE585DC102C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4906440" y="878760"/>
+            <a:ext cx="11880" cy="18720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Tinta 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E32F0C-394E-4CBF-B16B-DBE585DC102C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4897440" y="870120"/>
+              <a:ext cx="29520" cy="36360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -588,6 +735,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-15T13:28:03.205"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">31 8 960,'0'-8'721,"-15"8"-1,0 0-800,30 4-880</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-02-15T16:58:32.264"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 51 80,'0'-1'22,"0"0"0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,3-1 0,0-1 109,-4 2-117,0 0-1,0 0 1,0-1-1,0 1 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,0 0 1,1-1 0,-1 1-1,0 0 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,1 0 1,-1 0-1,0 0 1,0-1-1,0 1 1,0 0 0,0 0-1,0 0 1,0-1-1,0 1 1,0 0-1,0 0 1,0 0-1,0-1 1,0 1-1,0 0 1,0 0 0,0 0-1,-1-1 1,1-8 378,0 8-312</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -854,20 +1055,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF27393-9ED7-4794-B0FA-9CCE826526BB}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -875,228 +1077,229 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
         <v>72</v>
-      </c>
-      <c r="D1" t="s">
-        <v>85</v>
       </c>
       <c r="E1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>50</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="17">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="D2" s="17">
         <v>5016.42875</v>
-      </c>
-      <c r="D2">
-        <v>5.0199999999999996</v>
       </c>
       <c r="E2">
         <v>12.30785</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>50</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="17">
+        <v>3.65</v>
+      </c>
+      <c r="D3" s="17">
         <v>3648.3589000000002</v>
-      </c>
-      <c r="D3">
-        <v>3.65</v>
       </c>
       <c r="E3">
         <v>10.73315</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>50</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="17">
+        <v>3.93</v>
+      </c>
+      <c r="D4" s="17">
         <v>3925.3332500000001</v>
-      </c>
-      <c r="D4">
-        <v>3.93</v>
       </c>
       <c r="E4">
         <v>10.8614</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>50</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="17">
+        <v>4.71</v>
+      </c>
+      <c r="D5" s="17">
         <v>4705.2685000000001</v>
-      </c>
-      <c r="D5">
-        <v>4.71</v>
       </c>
       <c r="E5">
         <v>10.9785</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>70</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="17">
+        <v>6.12</v>
+      </c>
+      <c r="D6" s="17">
         <v>6118.4251000000004</v>
-      </c>
-      <c r="D6">
-        <v>6.12</v>
       </c>
       <c r="E6">
         <v>15.751799999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>70</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="17">
+        <v>5.61</v>
+      </c>
+      <c r="D7" s="17">
         <v>5614.2330499999998</v>
-      </c>
-      <c r="D7">
-        <v>5.61</v>
       </c>
       <c r="E7">
         <v>13.30495</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>70</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="17">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D8" s="17">
         <v>5109.9443499999998</v>
-      </c>
-      <c r="D8">
-        <v>5.1100000000000003</v>
       </c>
       <c r="E8">
         <v>13.88435</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>70</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="17">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="D9" s="17">
         <v>4975.8569500000003</v>
-      </c>
-      <c r="D9">
-        <v>4.9800000000000004</v>
       </c>
       <c r="E9">
         <v>13.09225</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>100</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="17">
+        <v>5.46</v>
+      </c>
+      <c r="D10" s="17">
         <v>5464.5280000000002</v>
-      </c>
-      <c r="D10">
-        <v>5.46</v>
       </c>
       <c r="E10">
         <v>16.9224</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>100</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="17">
+        <v>5.55</v>
+      </c>
+      <c r="D11" s="17">
         <v>5551.9511499999999</v>
-      </c>
-      <c r="D11">
-        <v>5.55</v>
       </c>
       <c r="E11">
         <v>14.93085</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>100</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="17">
+        <v>5.72</v>
+      </c>
+      <c r="D12" s="17">
         <v>5723.8487500000001</v>
-      </c>
-      <c r="D12">
-        <v>5.72</v>
       </c>
       <c r="E12">
         <v>16.129000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>100</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="17">
+        <v>5.87</v>
+      </c>
+      <c r="D13" s="17">
         <v>5869.6974499999997</v>
-      </c>
-      <c r="D13">
-        <v>5.87</v>
       </c>
       <c r="E13">
         <v>15.78145</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
     </row>
@@ -29804,18 +30007,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6066454C-EECC-4A99-8C31-06D5BE28F536}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5">
         <v>1</v>
@@ -29832,8 +30035,9 @@
       <c r="F1" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>50</v>
       </c>
@@ -29852,8 +30056,19 @@
       <c r="F2" s="11">
         <v>17.309999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G2" s="11">
+        <f>F2/4</f>
+        <v>4.3274999999999997</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2">
+        <f>F5^2/12</f>
+        <v>317.5494083333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>70</v>
       </c>
@@ -29872,9 +30087,20 @@
       <c r="F3" s="11">
         <v>21.82</v>
       </c>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G5" si="0">F3/4</f>
+        <v>5.4550000000000001</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="26">
+        <f>SUMSQ(B2:E4) -I2</f>
+        <v>6.2308916666667074</v>
+      </c>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>100</v>
       </c>
@@ -29893,8 +30119,19 @@
       <c r="F4" s="11">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
+        <v>5.65</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4">
+        <f>SUMSQ(F2:F4)/4-I2</f>
+        <v>4.0777166666666744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>87</v>
       </c>
@@ -29913,12 +30150,34 @@
       <c r="F5" s="25">
         <v>61.73</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I6" s="26"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5">
+        <f>SUMSQ(B5:E5)/3-I2</f>
+        <v>0.73969166666671526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="26">
+        <f>I3-I4-I5</f>
+        <v>1.4134833333333177</v>
+      </c>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f>VARA(B2:E4)</f>
+        <v>0.56644469696970579</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/static/classes/experimentacao/dados_biost_exp.xlsx
+++ b/static/classes/experimentacao/dados_biost_exp.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C490BF90-A1C7-439F-9AC3-F9B028007B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C26CCE-8B18-4FF8-A285-A62F4A8F8087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="934" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIC-DBC" sheetId="20" r:id="rId1"/>
@@ -16,15 +16,17 @@
     <sheet name="QUANTI_LINEAR" sheetId="4" r:id="rId6"/>
     <sheet name="QUANTI_QUADRATICA" sheetId="23" r:id="rId7"/>
     <sheet name="FAT1_SI" sheetId="8" r:id="rId8"/>
-    <sheet name="FAT1_CI" sheetId="19" r:id="rId9"/>
-    <sheet name="FAT2_SI" sheetId="6" r:id="rId10"/>
-    <sheet name="FAT2_CI" sheetId="5" r:id="rId11"/>
-    <sheet name="FAT3" sheetId="14" r:id="rId12"/>
-    <sheet name="maize" sheetId="2" r:id="rId13"/>
+    <sheet name="FAT1_CI2" sheetId="26" r:id="rId9"/>
+    <sheet name="FAT1_CI2_TAB" sheetId="27" r:id="rId10"/>
+    <sheet name="FAT1_CI" sheetId="19" r:id="rId11"/>
+    <sheet name="FAT2_SI" sheetId="6" r:id="rId12"/>
+    <sheet name="FAT2_CI" sheetId="5" r:id="rId13"/>
+    <sheet name="FAT3" sheetId="14" r:id="rId14"/>
+    <sheet name="maize" sheetId="2" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">FAT1_CI!$A$1:$C$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">FAT2_CI!$A$1:$D$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">FAT1_CI!$A$1:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">FAT2_CI!$A$1:$D$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="115">
   <si>
     <t>AMB</t>
   </si>
@@ -320,6 +322,75 @@
   <si>
     <t>SQERRO</t>
   </si>
+  <si>
+    <t>ENX</t>
+  </si>
+  <si>
+    <t>NIT</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>AF+DA</t>
+  </si>
+  <si>
+    <t>DA+ES</t>
+  </si>
+  <si>
+    <t>S+</t>
+  </si>
+  <si>
+    <t>S-</t>
+  </si>
+  <si>
+    <t>FATOR A</t>
+  </si>
+  <si>
+    <t>Enxofre</t>
+  </si>
+  <si>
+    <t>FATOR B</t>
+  </si>
+  <si>
+    <t>Nitrogênio</t>
+  </si>
+  <si>
+    <t>Blocos</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Total (Y.j.)</t>
+  </si>
+  <si>
+    <t>Total (Yi..)</t>
+  </si>
+  <si>
+    <t>(Y..k)</t>
+  </si>
+  <si>
+    <t>SQTOT</t>
+  </si>
+  <si>
+    <t>Sqbloco</t>
+  </si>
+  <si>
+    <t>Sqa</t>
+  </si>
+  <si>
+    <t>SQB</t>
+  </si>
+  <si>
+    <t>Sqint</t>
+  </si>
+  <si>
+    <t>Sqerro</t>
+  </si>
 </sst>
 </file>
 
@@ -331,7 +402,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,8 +446,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,8 +505,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -424,12 +546,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -483,6 +620,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,8 +682,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>128105</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Tinta 1">
@@ -536,7 +702,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Tinta 1">
@@ -581,8 +747,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>170649</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Tinta 2">
@@ -601,7 +767,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Tinta 2">
@@ -1319,6 +1485,1074 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928D47F0-6F2C-426A-B704-744224E9AA4C}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="J2" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="36">
+        <v>286</v>
+      </c>
+      <c r="L2" s="36">
+        <v>373</v>
+      </c>
+      <c r="M2" s="36">
+        <v>347</v>
+      </c>
+      <c r="N2" s="38">
+        <f>SUM(K2:M2)</f>
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="31">
+        <v>96</v>
+      </c>
+      <c r="D3" s="31">
+        <v>94</v>
+      </c>
+      <c r="E3" s="31">
+        <v>95</v>
+      </c>
+      <c r="F3" s="31">
+        <v>88</v>
+      </c>
+      <c r="G3" s="32">
+        <f>SUM(C3:F3)</f>
+        <v>373</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="36">
+        <v>297</v>
+      </c>
+      <c r="L3" s="36">
+        <v>316</v>
+      </c>
+      <c r="M3" s="36">
+        <v>310</v>
+      </c>
+      <c r="N3" s="38">
+        <f>SUM(K3:M3)</f>
+        <v>923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="31">
+        <v>67</v>
+      </c>
+      <c r="D4" s="31">
+        <v>67</v>
+      </c>
+      <c r="E4" s="31">
+        <v>78</v>
+      </c>
+      <c r="F4" s="31">
+        <v>74</v>
+      </c>
+      <c r="G4" s="32">
+        <f t="shared" ref="G4:G9" si="0">SUM(C4:F4)</f>
+        <v>286</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" s="38">
+        <f>SUM(K2:K3)</f>
+        <v>583</v>
+      </c>
+      <c r="L4" s="38">
+        <f t="shared" ref="L4:M4" si="1">SUM(L2:L3)</f>
+        <v>689</v>
+      </c>
+      <c r="M4" s="38">
+        <f t="shared" si="1"/>
+        <v>657</v>
+      </c>
+      <c r="N4" s="38"/>
+    </row>
+    <row r="5" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="31">
+        <v>89</v>
+      </c>
+      <c r="D5" s="31">
+        <v>92</v>
+      </c>
+      <c r="E5" s="31">
+        <v>84</v>
+      </c>
+      <c r="F5" s="31">
+        <v>82</v>
+      </c>
+      <c r="G5" s="32">
+        <f t="shared" si="0"/>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="33">
+        <f>SUM(G3:G5)</f>
+        <v>1006</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="17">
+        <f>G11^2/24</f>
+        <v>155043.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="31">
+        <v>83</v>
+      </c>
+      <c r="D7" s="31">
+        <v>77</v>
+      </c>
+      <c r="E7" s="31">
+        <v>78</v>
+      </c>
+      <c r="F7" s="31">
+        <v>78</v>
+      </c>
+      <c r="G7" s="32">
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
+      <c r="J7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="17">
+        <f>SUMSQ(C3:F9)-K6</f>
+        <v>1635.625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="31">
+        <v>71</v>
+      </c>
+      <c r="D8" s="31">
+        <v>69</v>
+      </c>
+      <c r="E8" s="31">
+        <v>78</v>
+      </c>
+      <c r="F8" s="31">
+        <v>79</v>
+      </c>
+      <c r="G8" s="32">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+      <c r="J8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="17">
+        <f>SUMSQ(C11:F11) / 6 -K6</f>
+        <v>10.458333333343035</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8" s="4">
+        <f>K8/L8</f>
+        <v>3.486111111114345</v>
+      </c>
+      <c r="N8" s="4">
+        <f>M8/$M$12</f>
+        <v>0.17798893773949873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="30">
+        <v>79</v>
+      </c>
+      <c r="D9" s="30">
+        <v>78</v>
+      </c>
+      <c r="E9" s="30">
+        <v>74</v>
+      </c>
+      <c r="F9" s="30">
+        <v>79</v>
+      </c>
+      <c r="G9" s="32">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="17">
+        <f>SUMSQ(N2:N3)/12-K6</f>
+        <v>287.04166666665697</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" ref="M9:M12" si="2">K9/L9</f>
+        <v>287.04166666665697</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" ref="N9:N11" si="3">M9/$M$12</f>
+        <v>14.655368032903121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="33">
+        <f>SUM(G7:G9)</f>
+        <v>923</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="17">
+        <f>SUMSQ(K4:M4)/8-K6</f>
+        <v>739</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="2"/>
+        <v>369.5</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="3"/>
+        <v>18.865409161821638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="31">
+        <f>SUM(C3:C9)</f>
+        <v>485</v>
+      </c>
+      <c r="D11" s="31">
+        <f t="shared" ref="D11:F11" si="4">SUM(D3:D9)</f>
+        <v>477</v>
+      </c>
+      <c r="E11" s="31">
+        <f t="shared" si="4"/>
+        <v>487</v>
+      </c>
+      <c r="F11" s="31">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+      <c r="G11" s="34">
+        <f>SUM(C11:F11)</f>
+        <v>1929</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="17">
+        <f>SUMSQ(K2:M3)/4-K6-K9-K10</f>
+        <v>305.33333333334303</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="2"/>
+        <v>152.66666666667152</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="3"/>
+        <v>7.7946390582901088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="17">
+        <f>K7-SUM(K8:K11)</f>
+        <v>293.79166666665697</v>
+      </c>
+      <c r="L12">
+        <v>15</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="2"/>
+        <v>19.586111111110466</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA737F51-98FF-4434-B2A9-78368E16AF2F}">
+  <sheetPr codeName="Planilha7"/>
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>846.98384999999996</v>
+      </c>
+      <c r="E2">
+        <v>4.3054500000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1607.2771</v>
+      </c>
+      <c r="E3">
+        <v>5.24885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1320.0308500000001</v>
+      </c>
+      <c r="E4">
+        <v>4.4986499999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1566.6075499999999</v>
+      </c>
+      <c r="E5">
+        <v>4.6109499999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1206.1421</v>
+      </c>
+      <c r="E6">
+        <v>4.1178999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1863.11625</v>
+      </c>
+      <c r="E7">
+        <v>5.5217999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1774.0291500000001</v>
+      </c>
+      <c r="E8">
+        <v>5.2691999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1307.2599499999999</v>
+      </c>
+      <c r="E9">
+        <v>4.2625000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1203.2936999999999</v>
+      </c>
+      <c r="E10">
+        <v>5.2399500000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1298.6271999999999</v>
+      </c>
+      <c r="E11">
+        <v>5.6995500000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1110.1564000000001</v>
+      </c>
+      <c r="E12">
+        <v>4.7304500000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1265.78765</v>
+      </c>
+      <c r="E13">
+        <v>5.3509500000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3016.8854999999999</v>
+      </c>
+      <c r="E14">
+        <v>7.5705999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2723.6284999999998</v>
+      </c>
+      <c r="E15">
+        <v>6.5639000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2590.2910999999999</v>
+      </c>
+      <c r="E16">
+        <v>6.1563999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>2929.7400499999999</v>
+      </c>
+      <c r="E17">
+        <v>8.4304500000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>70</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>3804.1091999999999</v>
+      </c>
+      <c r="E18">
+        <v>9.0960999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>70</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3543.1405500000001</v>
+      </c>
+      <c r="E19">
+        <v>8.0465999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>70</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>2991.0481</v>
+      </c>
+      <c r="E20">
+        <v>7.6820000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>70</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>2914.0295500000002</v>
+      </c>
+      <c r="E21">
+        <v>8.0063499999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3400.01305</v>
+      </c>
+      <c r="E22">
+        <v>11.7117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3581.6527500000002</v>
+      </c>
+      <c r="E23">
+        <v>11.4009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>1900.6995999999999</v>
+      </c>
+      <c r="E24">
+        <v>7.26755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>2644.4789500000002</v>
+      </c>
+      <c r="E25">
+        <v>8.3606499999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>5016.42875</v>
+      </c>
+      <c r="E26">
+        <v>12.30785</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>3648.3589000000002</v>
+      </c>
+      <c r="E27">
+        <v>10.73315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>3925.3332500000001</v>
+      </c>
+      <c r="E28">
+        <v>10.8614</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>4705.2685000000001</v>
+      </c>
+      <c r="E29">
+        <v>10.9785</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>70</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>6118.4251000000004</v>
+      </c>
+      <c r="E30">
+        <v>15.751799999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>5614.2330499999998</v>
+      </c>
+      <c r="E31">
+        <v>13.30495</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>70</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>5109.9443499999998</v>
+      </c>
+      <c r="E32">
+        <v>13.88435</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>70</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>4975.8569500000003</v>
+      </c>
+      <c r="E33">
+        <v>13.09225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>5464.5280000000002</v>
+      </c>
+      <c r="E34">
+        <v>16.9224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>5551.9511499999999</v>
+      </c>
+      <c r="E35">
+        <v>14.93085</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>5723.8487500000001</v>
+      </c>
+      <c r="E36">
+        <v>16.129000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>5869.6974499999997</v>
+      </c>
+      <c r="E37">
+        <v>15.78145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401611ED-38E0-4C81-9133-A1F57F372C3A}">
   <sheetPr codeName="Planilha8"/>
   <dimension ref="A1:D41"/>
@@ -1912,7 +3146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FB33A-3173-4008-92A5-2ADAD8D660C1}">
   <sheetPr codeName="Planilha9"/>
   <dimension ref="A1:D41"/>
@@ -2508,7 +3742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0844D76-2BC5-4A45-BC59-B5F493E31ACD}">
   <sheetPr codeName="Planilha10"/>
   <dimension ref="A1:D81"/>
@@ -3659,7 +4893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DEF979-DB47-4432-9EA7-72C5A215002C}">
   <sheetPr codeName="Planilha11"/>
   <dimension ref="A1:J781"/>
@@ -30009,7 +31243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6066454C-EECC-4A99-8C31-06D5BE28F536}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -30088,7 +31322,7 @@
         <v>21.82</v>
       </c>
       <c r="G3" s="11">
-        <f t="shared" ref="G3:G5" si="0">F3/4</f>
+        <f t="shared" ref="G3:G4" si="0">F3/4</f>
         <v>5.4550000000000001</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -32041,643 +33275,369 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA737F51-98FF-4434-B2A9-78368E16AF2F}">
-  <sheetPr codeName="Planilha7"/>
-  <dimension ref="A1:E37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E46922-7E70-4D9F-BA36-FFADF1FA5641}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>846.98384999999996</v>
-      </c>
-      <c r="E2">
-        <v>4.3054500000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
+      <c r="D2" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>1607.2771</v>
-      </c>
-      <c r="E3">
-        <v>5.24885</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
+      <c r="D3" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>1320.0308500000001</v>
-      </c>
-      <c r="E4">
-        <v>4.4986499999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>21</v>
-      </c>
-      <c r="B5">
-        <v>50</v>
+      <c r="D4" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>1566.6075499999999</v>
-      </c>
-      <c r="E5">
-        <v>4.6109499999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>70</v>
+      <c r="D5" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>1206.1421</v>
-      </c>
-      <c r="E6">
-        <v>4.1178999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>70</v>
+      <c r="D6" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>1863.11625</v>
-      </c>
-      <c r="E7">
-        <v>5.5217999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>70</v>
+      <c r="D7" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8">
-        <v>1774.0291500000001</v>
-      </c>
-      <c r="E8">
-        <v>5.2691999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>70</v>
+      <c r="D8" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>1307.2599499999999</v>
-      </c>
-      <c r="E9">
-        <v>4.2625000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>100</v>
+      <c r="D9" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>1203.2936999999999</v>
-      </c>
-      <c r="E10">
-        <v>5.2399500000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
+      <c r="D10" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>1298.6271999999999</v>
-      </c>
-      <c r="E11">
-        <v>5.6995500000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
+      <c r="D11" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12">
-        <v>1110.1564000000001</v>
-      </c>
-      <c r="E12">
-        <v>4.7304500000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>100</v>
+      <c r="D12" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="D13">
-        <v>1265.78765</v>
-      </c>
-      <c r="E13">
-        <v>5.3509500000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>28</v>
-      </c>
-      <c r="B14">
-        <v>50</v>
+      <c r="D13" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>3016.8854999999999</v>
-      </c>
-      <c r="E14">
-        <v>7.5705999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>28</v>
-      </c>
-      <c r="B15">
-        <v>50</v>
+      <c r="D14" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15">
-        <v>2723.6284999999998</v>
-      </c>
-      <c r="E15">
-        <v>6.5639000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>28</v>
-      </c>
-      <c r="B16">
-        <v>50</v>
+      <c r="D15" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16">
-        <v>2590.2910999999999</v>
-      </c>
-      <c r="E16">
-        <v>6.1563999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>50</v>
+      <c r="D16" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
-      <c r="D17">
-        <v>2929.7400499999999</v>
-      </c>
-      <c r="E17">
-        <v>8.4304500000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>28</v>
-      </c>
-      <c r="B18">
-        <v>70</v>
+      <c r="D17" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>3804.1091999999999</v>
-      </c>
-      <c r="E18">
-        <v>9.0960999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>28</v>
-      </c>
-      <c r="B19">
-        <v>70</v>
+      <c r="D18" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19">
-        <v>3543.1405500000001</v>
-      </c>
-      <c r="E19">
-        <v>8.0465999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>28</v>
-      </c>
-      <c r="B20">
-        <v>70</v>
+      <c r="D19" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="D20">
-        <v>2991.0481</v>
-      </c>
-      <c r="E20">
-        <v>7.6820000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>28</v>
-      </c>
-      <c r="B21">
-        <v>70</v>
+      <c r="D20" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21">
-        <v>2914.0295500000002</v>
-      </c>
-      <c r="E21">
-        <v>8.0063499999999994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>28</v>
-      </c>
-      <c r="B22">
-        <v>100</v>
+      <c r="D21" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22">
-        <v>3400.01305</v>
-      </c>
-      <c r="E22">
-        <v>11.7117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>100</v>
+      <c r="D22" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23">
-        <v>3581.6527500000002</v>
-      </c>
-      <c r="E23">
-        <v>11.4009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>100</v>
+      <c r="D23" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24">
-        <v>1900.6995999999999</v>
-      </c>
-      <c r="E24">
-        <v>7.26755</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>100</v>
+      <c r="D24" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25">
-        <v>2644.4789500000002</v>
-      </c>
-      <c r="E25">
-        <v>8.3606499999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>35</v>
-      </c>
-      <c r="B26">
-        <v>50</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>5016.42875</v>
-      </c>
-      <c r="E26">
-        <v>12.30785</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>35</v>
-      </c>
-      <c r="B27">
-        <v>50</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>3648.3589000000002</v>
-      </c>
-      <c r="E27">
-        <v>10.73315</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>35</v>
-      </c>
-      <c r="B28">
-        <v>50</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>3925.3332500000001</v>
-      </c>
-      <c r="E28">
-        <v>10.8614</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>35</v>
-      </c>
-      <c r="B29">
-        <v>50</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>4705.2685000000001</v>
-      </c>
-      <c r="E29">
-        <v>10.9785</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>70</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>6118.4251000000004</v>
-      </c>
-      <c r="E30">
-        <v>15.751799999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>35</v>
-      </c>
-      <c r="B31">
-        <v>70</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>5614.2330499999998</v>
-      </c>
-      <c r="E31">
-        <v>13.30495</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>35</v>
-      </c>
-      <c r="B32">
-        <v>70</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>5109.9443499999998</v>
-      </c>
-      <c r="E32">
-        <v>13.88435</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>35</v>
-      </c>
-      <c r="B33">
-        <v>70</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>4975.8569500000003</v>
-      </c>
-      <c r="E33">
-        <v>13.09225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>100</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>5464.5280000000002</v>
-      </c>
-      <c r="E34">
-        <v>16.9224</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>100</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>5551.9511499999999</v>
-      </c>
-      <c r="E35">
-        <v>14.93085</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>100</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>5723.8487500000001</v>
-      </c>
-      <c r="E36">
-        <v>16.129000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>100</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <v>5869.6974499999997</v>
-      </c>
-      <c r="E37">
-        <v>15.78145</v>
+      <c r="D25" s="4">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/static/classes/experimentacao/dados_biost_exp.xlsx
+++ b/static/classes/experimentacao/dados_biost_exp.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C26CCE-8B18-4FF8-A285-A62F4A8F8087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFF1686-6929-49C5-A4F5-78A4F8B66F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="934" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIC-DBC" sheetId="20" r:id="rId1"/>
@@ -19,14 +19,16 @@
     <sheet name="FAT1_CI2" sheetId="26" r:id="rId9"/>
     <sheet name="FAT1_CI2_TAB" sheetId="27" r:id="rId10"/>
     <sheet name="FAT1_CI" sheetId="19" r:id="rId11"/>
-    <sheet name="FAT2_SI" sheetId="6" r:id="rId12"/>
-    <sheet name="FAT2_CI" sheetId="5" r:id="rId13"/>
-    <sheet name="FAT3" sheetId="14" r:id="rId14"/>
-    <sheet name="maize" sheetId="2" r:id="rId15"/>
+    <sheet name="FAT1_CI_PRATICA" sheetId="28" r:id="rId12"/>
+    <sheet name="FAT2_SI" sheetId="6" r:id="rId13"/>
+    <sheet name="FAT2_CI" sheetId="5" r:id="rId14"/>
+    <sheet name="FAT3" sheetId="14" r:id="rId15"/>
+    <sheet name="maize" sheetId="2" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">FAT1_CI!$A$1:$C$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">FAT2_CI!$A$1:$D$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">FAT1_CI_PRATICA!$H$2:$I$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">FAT2_CI!$A$1:$D$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="142">
   <si>
     <t>AMB</t>
   </si>
@@ -391,6 +393,87 @@
   <si>
     <t>Sqerro</t>
   </si>
+  <si>
+    <t>row_sums</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>y..k</t>
+  </si>
+  <si>
+    <t>Erro</t>
+  </si>
+  <si>
+    <t>Pr&gt;Fc</t>
+  </si>
+  <si>
+    <t>Médias</t>
+  </si>
+  <si>
+    <t>50-70</t>
+  </si>
+  <si>
+    <t>50-100</t>
+  </si>
+  <si>
+    <t>70-100</t>
+  </si>
+  <si>
+    <t>diferença ||</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>DAP*RAD</t>
+  </si>
+  <si>
+    <t>DAP/RAD 50</t>
+  </si>
+  <si>
+    <t>RAD/DAP 21</t>
+  </si>
+  <si>
+    <t>RAD/DAP 28</t>
+  </si>
+  <si>
+    <t>RAD/DAP 35</t>
+  </si>
+  <si>
+    <t>DAP/RAD 70</t>
+  </si>
+  <si>
+    <t>DAP/RAD 100</t>
+  </si>
+  <si>
+    <t>21-28</t>
+  </si>
+  <si>
+    <t>21-35</t>
+  </si>
+  <si>
+    <t>28-35</t>
+  </si>
+  <si>
+    <t>I=3</t>
+  </si>
+  <si>
+    <t>J=3</t>
+  </si>
+  <si>
+    <t>K=4</t>
+  </si>
 </sst>
 </file>
 
@@ -402,7 +485,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +568,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -518,7 +608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -561,12 +651,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -625,9 +786,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -649,6 +807,93 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,6 +1048,289 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>61126</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>94085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390940</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160887</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D90AF04-1C11-452A-BD2D-CD94E1B8BEC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="61126" y="2669119"/>
+          <a:ext cx="1549014" cy="618596"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>169198</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>79513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67AE42D-8E6F-4A20-8A1E-2BADCD43FEB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4868514"/>
+          <a:ext cx="778798" cy="591382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228204</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>112511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77DF8D8A-EC16-48F4-809D-8EFA5FB9F21A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2213541"/>
+          <a:ext cx="2057004" cy="474004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>37686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>303982</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>6626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4FA15C7-6682-4F43-87D0-90D2B0EF4FFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3748295"/>
+          <a:ext cx="1523182" cy="525531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>20376</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>86973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>192158</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F7DCA8-52C4-4CC0-8189-DBC17CA1E51A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20376" y="3240990"/>
+          <a:ext cx="1390982" cy="583631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>39757</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>13252</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>15585</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>39757</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4098" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4098"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F664A5-BA59-4D91-8DFA-34EFC607D879}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1224,7 +1752,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1508,26 +2036,26 @@
       <c r="B1" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
       <c r="G1" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="36" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1538,32 +2066,32 @@
       <c r="B2" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>105</v>
       </c>
       <c r="G2" s="28"/>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="36">
+      <c r="K2" s="35">
         <v>286</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="35">
         <v>373</v>
       </c>
-      <c r="M2" s="36">
+      <c r="M2" s="35">
         <v>347</v>
       </c>
-      <c r="N2" s="38">
+      <c r="N2" s="37">
         <f>SUM(K2:M2)</f>
         <v>1006</v>
       </c>
@@ -1575,35 +2103,35 @@
       <c r="B3" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="30">
         <v>96</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <v>94</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <v>95</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="30">
         <v>88</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="31">
         <f>SUM(C3:F3)</f>
         <v>373</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="35">
         <v>297</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="35">
         <v>316</v>
       </c>
-      <c r="M3" s="36">
+      <c r="M3" s="35">
         <v>310</v>
       </c>
-      <c r="N3" s="38">
+      <c r="N3" s="37">
         <f>SUM(K3:M3)</f>
         <v>923</v>
       </c>
@@ -1615,38 +2143,38 @@
       <c r="B4" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="30">
         <v>67</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="30">
         <v>67</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <v>78</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="30">
         <v>74</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="31">
         <f t="shared" ref="G4:G9" si="0">SUM(C4:F4)</f>
         <v>286</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="37">
         <f>SUM(K2:K3)</f>
         <v>583</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="37">
         <f t="shared" ref="L4:M4" si="1">SUM(L2:L3)</f>
         <v>689</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="37">
         <f t="shared" si="1"/>
         <v>657</v>
       </c>
-      <c r="N4" s="38"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
@@ -1655,19 +2183,19 @@
       <c r="B5" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="30">
         <v>89</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="30">
         <v>92</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <v>84</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="30">
         <v>82</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="31">
         <f t="shared" si="0"/>
         <v>347</v>
       </c>
@@ -1675,11 +2203,11 @@
     <row r="6" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="33">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="32">
         <f>SUM(G3:G5)</f>
         <v>1006</v>
       </c>
@@ -1698,19 +2226,19 @@
       <c r="B7" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="30">
         <v>83</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="30">
         <v>77</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <v>78</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="30">
         <v>78</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="31">
         <f t="shared" si="0"/>
         <v>316</v>
       </c>
@@ -1729,19 +2257,19 @@
       <c r="B8" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="30">
         <v>71</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="30">
         <v>69</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <v>78</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <v>79</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="31">
         <f t="shared" si="0"/>
         <v>297</v>
       </c>
@@ -1771,19 +2299,19 @@
       <c r="B9" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <v>79</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="29">
         <v>78</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <v>74</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <v>79</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="31">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
@@ -1809,11 +2337,11 @@
     <row r="10" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="33">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="32">
         <f>SUM(G7:G9)</f>
         <v>923</v>
       </c>
@@ -1840,26 +2368,26 @@
       <c r="A11" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="30">
         <f>SUM(C3:C9)</f>
         <v>485</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="30">
         <f t="shared" ref="D11:F11" si="4">SUM(D3:D9)</f>
         <v>477</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="30">
         <f t="shared" si="4"/>
         <v>487</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <f t="shared" si="4"/>
         <v>480</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="33">
         <f>SUM(C11:F11)</f>
         <v>1929</v>
       </c>
@@ -1910,15 +2438,22 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA737F51-98FF-4434-B2A9-78368E16AF2F}">
   <sheetPr codeName="Planilha7"/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -1929,13 +2464,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>21</v>
       </c>
@@ -1945,14 +2480,18 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
+        <v>4.3054500000000004</v>
+      </c>
+      <c r="E2" s="4">
         <v>846.98384999999996</v>
       </c>
-      <c r="E2">
-        <v>4.3054500000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>21</v>
       </c>
@@ -1962,14 +2501,14 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
+        <v>5.24885</v>
+      </c>
+      <c r="E3" s="4">
         <v>1607.2771</v>
       </c>
-      <c r="E3">
-        <v>5.24885</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>21</v>
       </c>
@@ -1979,14 +2518,14 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
+        <v>4.4986499999999996</v>
+      </c>
+      <c r="E4" s="4">
         <v>1320.0308500000001</v>
       </c>
-      <c r="E4">
-        <v>4.4986499999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>21</v>
       </c>
@@ -1996,14 +2535,14 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
+        <v>4.6109499999999999</v>
+      </c>
+      <c r="E5" s="4">
         <v>1566.6075499999999</v>
       </c>
-      <c r="E5">
-        <v>4.6109499999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>21</v>
       </c>
@@ -2013,14 +2552,14 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
+        <v>4.1178999999999997</v>
+      </c>
+      <c r="E6" s="4">
         <v>1206.1421</v>
       </c>
-      <c r="E6">
-        <v>4.1178999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>21</v>
       </c>
@@ -2030,14 +2569,14 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
+        <v>5.5217999999999998</v>
+      </c>
+      <c r="E7" s="4">
         <v>1863.11625</v>
       </c>
-      <c r="E7">
-        <v>5.5217999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>21</v>
       </c>
@@ -2047,14 +2586,14 @@
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
+        <v>5.2691999999999997</v>
+      </c>
+      <c r="E8" s="4">
         <v>1774.0291500000001</v>
       </c>
-      <c r="E8">
-        <v>5.2691999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>21</v>
       </c>
@@ -2064,14 +2603,14 @@
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
+        <v>4.2625000000000002</v>
+      </c>
+      <c r="E9" s="4">
         <v>1307.2599499999999</v>
       </c>
-      <c r="E9">
-        <v>4.2625000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>21</v>
       </c>
@@ -2081,14 +2620,14 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
+        <v>5.2399500000000003</v>
+      </c>
+      <c r="E10" s="4">
         <v>1203.2936999999999</v>
       </c>
-      <c r="E10">
-        <v>5.2399500000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21</v>
       </c>
@@ -2098,14 +2637,14 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
+        <v>5.6995500000000003</v>
+      </c>
+      <c r="E11" s="4">
         <v>1298.6271999999999</v>
       </c>
-      <c r="E11">
-        <v>5.6995500000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>21</v>
       </c>
@@ -2115,14 +2654,14 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
+        <v>4.7304500000000003</v>
+      </c>
+      <c r="E12" s="4">
         <v>1110.1564000000001</v>
       </c>
-      <c r="E12">
-        <v>4.7304500000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>21</v>
       </c>
@@ -2132,14 +2671,14 @@
       <c r="C13">
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
+        <v>5.3509500000000001</v>
+      </c>
+      <c r="E13" s="4">
         <v>1265.78765</v>
       </c>
-      <c r="E13">
-        <v>5.3509500000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>28</v>
       </c>
@@ -2149,14 +2688,14 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
+        <v>7.5705999999999998</v>
+      </c>
+      <c r="E14" s="4">
         <v>3016.8854999999999</v>
       </c>
-      <c r="E14">
-        <v>7.5705999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>28</v>
       </c>
@@ -2166,14 +2705,14 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
+        <v>6.5639000000000003</v>
+      </c>
+      <c r="E15" s="4">
         <v>2723.6284999999998</v>
       </c>
-      <c r="E15">
-        <v>6.5639000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>28</v>
       </c>
@@ -2183,11 +2722,11 @@
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
+        <v>6.1563999999999997</v>
+      </c>
+      <c r="E16" s="4">
         <v>2590.2910999999999</v>
-      </c>
-      <c r="E16">
-        <v>6.1563999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2200,11 +2739,11 @@
       <c r="C17">
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
+        <v>8.4304500000000004</v>
+      </c>
+      <c r="E17" s="4">
         <v>2929.7400499999999</v>
-      </c>
-      <c r="E17">
-        <v>8.4304500000000004</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2217,11 +2756,11 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
+        <v>9.0960999999999999</v>
+      </c>
+      <c r="E18" s="4">
         <v>3804.1091999999999</v>
-      </c>
-      <c r="E18">
-        <v>9.0960999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2234,11 +2773,11 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
+        <v>8.0465999999999998</v>
+      </c>
+      <c r="E19" s="4">
         <v>3543.1405500000001</v>
-      </c>
-      <c r="E19">
-        <v>8.0465999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2251,11 +2790,11 @@
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
+        <v>7.6820000000000004</v>
+      </c>
+      <c r="E20" s="4">
         <v>2991.0481</v>
-      </c>
-      <c r="E20">
-        <v>7.6820000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2268,11 +2807,11 @@
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
+        <v>8.0063499999999994</v>
+      </c>
+      <c r="E21" s="4">
         <v>2914.0295500000002</v>
-      </c>
-      <c r="E21">
-        <v>8.0063499999999994</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2285,11 +2824,11 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
+        <v>11.7117</v>
+      </c>
+      <c r="E22" s="4">
         <v>3400.01305</v>
-      </c>
-      <c r="E22">
-        <v>11.7117</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2302,11 +2841,11 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
+        <v>11.4009</v>
+      </c>
+      <c r="E23" s="4">
         <v>3581.6527500000002</v>
-      </c>
-      <c r="E23">
-        <v>11.4009</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2319,11 +2858,11 @@
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
+        <v>7.26755</v>
+      </c>
+      <c r="E24" s="4">
         <v>1900.6995999999999</v>
-      </c>
-      <c r="E24">
-        <v>7.26755</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2336,11 +2875,11 @@
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
+        <v>8.3606499999999997</v>
+      </c>
+      <c r="E25" s="4">
         <v>2644.4789500000002</v>
-      </c>
-      <c r="E25">
-        <v>8.3606499999999997</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2353,11 +2892,11 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
+        <v>12.30785</v>
+      </c>
+      <c r="E26" s="4">
         <v>5016.42875</v>
-      </c>
-      <c r="E26">
-        <v>12.30785</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2370,11 +2909,11 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
+        <v>10.73315</v>
+      </c>
+      <c r="E27" s="4">
         <v>3648.3589000000002</v>
-      </c>
-      <c r="E27">
-        <v>10.73315</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2387,11 +2926,11 @@
       <c r="C28">
         <v>3</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
+        <v>10.8614</v>
+      </c>
+      <c r="E28" s="4">
         <v>3925.3332500000001</v>
-      </c>
-      <c r="E28">
-        <v>10.8614</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2404,11 +2943,11 @@
       <c r="C29">
         <v>4</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
+        <v>10.9785</v>
+      </c>
+      <c r="E29" s="4">
         <v>4705.2685000000001</v>
-      </c>
-      <c r="E29">
-        <v>10.9785</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2421,11 +2960,11 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
+        <v>15.751799999999999</v>
+      </c>
+      <c r="E30" s="4">
         <v>6118.4251000000004</v>
-      </c>
-      <c r="E30">
-        <v>15.751799999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2438,11 +2977,11 @@
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="4">
+        <v>13.30495</v>
+      </c>
+      <c r="E31" s="4">
         <v>5614.2330499999998</v>
-      </c>
-      <c r="E31">
-        <v>13.30495</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2455,11 +2994,11 @@
       <c r="C32">
         <v>3</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
+        <v>13.88435</v>
+      </c>
+      <c r="E32" s="4">
         <v>5109.9443499999998</v>
-      </c>
-      <c r="E32">
-        <v>13.88435</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2472,11 +3011,11 @@
       <c r="C33">
         <v>4</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="4">
+        <v>13.09225</v>
+      </c>
+      <c r="E33" s="4">
         <v>4975.8569500000003</v>
-      </c>
-      <c r="E33">
-        <v>13.09225</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2489,11 +3028,11 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="4">
+        <v>16.9224</v>
+      </c>
+      <c r="E34" s="4">
         <v>5464.5280000000002</v>
-      </c>
-      <c r="E34">
-        <v>16.9224</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2506,11 +3045,11 @@
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="4">
+        <v>14.93085</v>
+      </c>
+      <c r="E35" s="4">
         <v>5551.9511499999999</v>
-      </c>
-      <c r="E35">
-        <v>14.93085</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2523,11 +3062,11 @@
       <c r="C36">
         <v>3</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="4">
+        <v>16.129000000000001</v>
+      </c>
+      <c r="E36" s="4">
         <v>5723.8487500000001</v>
-      </c>
-      <c r="E36">
-        <v>16.129000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2540,11 +3079,11 @@
       <c r="C37">
         <v>4</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="4">
+        <v>15.78145</v>
+      </c>
+      <c r="E37" s="4">
         <v>5869.6974499999997</v>
-      </c>
-      <c r="E37">
-        <v>15.78145</v>
       </c>
     </row>
   </sheetData>
@@ -2553,6 +3092,856 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13D253-5E88-4C61-836C-2FFDAD90BAC1}">
+  <dimension ref="A1:S30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="3.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" customWidth="1"/>
+    <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.77734375" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5">
+        <v>50</v>
+      </c>
+      <c r="C2" s="11">
+        <v>4.3054500000000004</v>
+      </c>
+      <c r="D2" s="11">
+        <v>5.24885</v>
+      </c>
+      <c r="E2" s="11">
+        <v>4.4986499999999996</v>
+      </c>
+      <c r="F2" s="11">
+        <v>4.6109499999999999</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="5">
+        <v>50</v>
+      </c>
+      <c r="J2" s="5">
+        <v>70</v>
+      </c>
+      <c r="K2" s="5">
+        <v>100</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5">
+        <v>70</v>
+      </c>
+      <c r="C3" s="11">
+        <v>4.1178999999999997</v>
+      </c>
+      <c r="D3" s="11">
+        <v>5.5217999999999998</v>
+      </c>
+      <c r="E3" s="11">
+        <v>5.2691999999999997</v>
+      </c>
+      <c r="F3" s="11">
+        <v>4.2625000000000002</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="5">
+        <v>21</v>
+      </c>
+      <c r="I3" s="43">
+        <v>18.663900000000002</v>
+      </c>
+      <c r="J3" s="21">
+        <v>19.171399999999998</v>
+      </c>
+      <c r="K3" s="44">
+        <v>21.020900000000001</v>
+      </c>
+      <c r="L3" s="57">
+        <f>SUM(I3:K3)</f>
+        <v>58.856200000000001</v>
+      </c>
+      <c r="M3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5">
+        <v>100</v>
+      </c>
+      <c r="C4" s="11">
+        <v>5.2399500000000003</v>
+      </c>
+      <c r="D4" s="11">
+        <v>5.6995500000000003</v>
+      </c>
+      <c r="E4" s="11">
+        <v>4.7304500000000003</v>
+      </c>
+      <c r="F4" s="11">
+        <v>5.3509500000000001</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="5">
+        <v>28</v>
+      </c>
+      <c r="I4" s="45">
+        <v>28.721350000000001</v>
+      </c>
+      <c r="J4" s="46">
+        <v>32.831049999999998</v>
+      </c>
+      <c r="K4" s="47">
+        <v>38.7408</v>
+      </c>
+      <c r="L4" s="57">
+        <f t="shared" ref="L4:L6" si="0">SUM(I4:K4)</f>
+        <v>100.2932</v>
+      </c>
+      <c r="M4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5">
+        <v>50</v>
+      </c>
+      <c r="C5" s="11">
+        <v>7.5705999999999998</v>
+      </c>
+      <c r="D5" s="11">
+        <v>6.5639000000000003</v>
+      </c>
+      <c r="E5" s="11">
+        <v>6.1563999999999997</v>
+      </c>
+      <c r="F5" s="11">
+        <v>8.4304500000000004</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="5">
+        <v>35</v>
+      </c>
+      <c r="I5" s="48">
+        <v>44.880899999999997</v>
+      </c>
+      <c r="J5" s="49">
+        <v>56.033349999999999</v>
+      </c>
+      <c r="K5" s="50">
+        <v>63.7637</v>
+      </c>
+      <c r="L5" s="57">
+        <f t="shared" si="0"/>
+        <v>164.67795000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5">
+        <v>70</v>
+      </c>
+      <c r="C6" s="11">
+        <v>9.0960999999999999</v>
+      </c>
+      <c r="D6" s="11">
+        <v>8.0465999999999998</v>
+      </c>
+      <c r="E6" s="11">
+        <v>7.6820000000000004</v>
+      </c>
+      <c r="F6" s="11">
+        <v>8.0063499999999994</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="57">
+        <f>SUM(I3:I5)</f>
+        <v>92.266149999999996</v>
+      </c>
+      <c r="J6" s="57">
+        <f t="shared" ref="J6:K6" si="1">SUM(J3:J5)</f>
+        <v>108.03579999999999</v>
+      </c>
+      <c r="K6" s="57">
+        <f t="shared" si="1"/>
+        <v>123.5254</v>
+      </c>
+      <c r="L6" s="71">
+        <f t="shared" si="0"/>
+        <v>323.82734999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5">
+        <v>100</v>
+      </c>
+      <c r="C7" s="11">
+        <v>11.7117</v>
+      </c>
+      <c r="D7" s="11">
+        <v>11.4009</v>
+      </c>
+      <c r="E7" s="11">
+        <v>7.26755</v>
+      </c>
+      <c r="F7" s="11">
+        <v>8.3606499999999997</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7">
+        <f>L6^2/36</f>
+        <v>2912.8931280006241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5">
+        <v>50</v>
+      </c>
+      <c r="C8" s="11">
+        <v>12.30785</v>
+      </c>
+      <c r="D8" s="11">
+        <v>10.73315</v>
+      </c>
+      <c r="E8" s="11">
+        <v>10.8614</v>
+      </c>
+      <c r="F8" s="11">
+        <v>10.9785</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5">
+        <v>70</v>
+      </c>
+      <c r="C9" s="11">
+        <v>15.751799999999999</v>
+      </c>
+      <c r="D9" s="11">
+        <v>13.30495</v>
+      </c>
+      <c r="E9" s="11">
+        <v>13.88435</v>
+      </c>
+      <c r="F9" s="11">
+        <v>13.09225</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="54">
+        <v>3</v>
+      </c>
+      <c r="J9" s="52">
+        <f>SUMSQ(C11:F11)/9-I7</f>
+        <v>6.8266901957645132</v>
+      </c>
+      <c r="K9" s="52">
+        <f>J9/I9</f>
+        <v>2.2755633985881709</v>
+      </c>
+      <c r="L9" s="52">
+        <f>K9/$K$13</f>
+        <v>2.4146560798384158</v>
+      </c>
+      <c r="M9" s="52">
+        <v>3</v>
+      </c>
+      <c r="N9" s="52"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5">
+        <v>100</v>
+      </c>
+      <c r="C10" s="11">
+        <v>16.9224</v>
+      </c>
+      <c r="D10" s="11">
+        <v>14.93085</v>
+      </c>
+      <c r="E10" s="11">
+        <v>16.129000000000001</v>
+      </c>
+      <c r="F10" s="11">
+        <v>15.78145</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="54">
+        <v>2</v>
+      </c>
+      <c r="J10" s="52">
+        <f>SUMSQ(L3:L5)/12-I7</f>
+        <v>473.90732707291772</v>
+      </c>
+      <c r="K10" s="52">
+        <f t="shared" ref="K10:K13" si="2">J10/I10</f>
+        <v>236.95366353645886</v>
+      </c>
+      <c r="L10" s="52">
+        <f t="shared" ref="L10:L12" si="3">K10/$K$13</f>
+        <v>251.43733839860636</v>
+      </c>
+      <c r="M10" s="52">
+        <v>3.403</v>
+      </c>
+      <c r="N10" s="52"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="56">
+        <f>SUM(C2:C10)</f>
+        <v>87.023749999999993</v>
+      </c>
+      <c r="D11" s="56">
+        <f t="shared" ref="D11:F11" si="4">SUM(D2:D10)</f>
+        <v>81.450549999999993</v>
+      </c>
+      <c r="E11" s="56">
+        <f t="shared" si="4"/>
+        <v>76.478999999999999</v>
+      </c>
+      <c r="F11" s="56">
+        <f t="shared" si="4"/>
+        <v>78.874049999999997</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="54">
+        <v>2</v>
+      </c>
+      <c r="J11" s="52">
+        <f>SUMSQ(I6:K6)/12-I7</f>
+        <v>40.715285551250417</v>
+      </c>
+      <c r="K11" s="52">
+        <f t="shared" si="2"/>
+        <v>20.357642775625209</v>
+      </c>
+      <c r="L11" s="52">
+        <f t="shared" si="3"/>
+        <v>21.601993567764509</v>
+      </c>
+      <c r="M11" s="52">
+        <v>3.403</v>
+      </c>
+      <c r="N11" s="52"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <f>C11/9</f>
+        <v>9.6693055555555549</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:F12" si="5">D11/9</f>
+        <v>9.0500611111111109</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="5"/>
+        <v>8.4976666666666674</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>8.7637833333333326</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="59">
+        <v>4</v>
+      </c>
+      <c r="J12" s="73">
+        <f>SUMSQ(I3:K5)/4-I7-J10-J11</f>
+        <v>17.79583119208246</v>
+      </c>
+      <c r="K12" s="52">
+        <f t="shared" si="2"/>
+        <v>4.448957798020615</v>
+      </c>
+      <c r="L12" s="52">
+        <f t="shared" si="3"/>
+        <v>4.7208981312496547</v>
+      </c>
+      <c r="M12" s="73">
+        <v>2.7759999999999998</v>
+      </c>
+      <c r="N12" s="52"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H13" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="54">
+        <f>I14-I12-I11-I10-I9</f>
+        <v>24</v>
+      </c>
+      <c r="J13" s="52">
+        <f>J14-J9-J10-J11-J12</f>
+        <v>22.617515604860273</v>
+      </c>
+      <c r="K13" s="52">
+        <f t="shared" si="2"/>
+        <v>0.94239648353584471</v>
+      </c>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H14" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="55">
+        <v>35</v>
+      </c>
+      <c r="J14" s="53">
+        <f>SUMSQ(C2:F10)-I7</f>
+        <v>561.86264961687539</v>
+      </c>
+      <c r="K14" s="41"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I15" s="69"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="72"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" t="s">
+        <v>128</v>
+      </c>
+      <c r="P16" s="70">
+        <f>3.53*SQRT(K13/4)</f>
+        <v>1.7134109505378303</v>
+      </c>
+      <c r="R16" t="s">
+        <v>128</v>
+      </c>
+      <c r="S16" s="70"/>
+    </row>
+    <row r="17" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="O17" t="s">
+        <v>131</v>
+      </c>
+      <c r="P17" t="s">
+        <v>127</v>
+      </c>
+      <c r="R17" t="s">
+        <v>130</v>
+      </c>
+      <c r="S17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="5">
+        <v>50</v>
+      </c>
+      <c r="J18" s="5">
+        <v>70</v>
+      </c>
+      <c r="K18" s="5">
+        <v>100</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="O18" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" s="17">
+        <f>I19-J19</f>
+        <v>-0.12687499999999918</v>
+      </c>
+      <c r="R18" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="S18" s="17">
+        <f>I19-I20</f>
+        <v>-2.5143624999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H19" s="5">
+        <v>21</v>
+      </c>
+      <c r="I19" s="60">
+        <f>I3/4</f>
+        <v>4.6659750000000004</v>
+      </c>
+      <c r="J19" s="61">
+        <f>J3/4</f>
+        <v>4.7928499999999996</v>
+      </c>
+      <c r="K19" s="62">
+        <f>K3/4</f>
+        <v>5.2552250000000003</v>
+      </c>
+      <c r="L19" s="11">
+        <f>AVERAGE(I19:K19)</f>
+        <v>4.9046833333333337</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P19" s="17">
+        <f>I19-K19</f>
+        <v>-0.58924999999999983</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="S19" s="17">
+        <f>I19-I21</f>
+        <v>-6.5542499999999988</v>
+      </c>
+    </row>
+    <row r="20" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H20" s="5">
+        <v>28</v>
+      </c>
+      <c r="I20" s="63">
+        <f>I4/4</f>
+        <v>7.1803375000000003</v>
+      </c>
+      <c r="J20" s="64">
+        <f>J4/4</f>
+        <v>8.2077624999999994</v>
+      </c>
+      <c r="K20" s="65">
+        <f>K4/4</f>
+        <v>9.6852</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" ref="L20:L21" si="6">AVERAGE(I20:K20)</f>
+        <v>8.3577666666666666</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" s="17">
+        <f>J19-K19</f>
+        <v>-0.46237500000000065</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S20" s="17">
+        <f>I20-I21</f>
+        <v>-4.039887499999999</v>
+      </c>
+    </row>
+    <row r="21" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H21" s="5">
+        <v>35</v>
+      </c>
+      <c r="I21" s="66">
+        <f>I5/4</f>
+        <v>11.220224999999999</v>
+      </c>
+      <c r="J21" s="67">
+        <f>J5/4</f>
+        <v>14.0083375</v>
+      </c>
+      <c r="K21" s="68">
+        <f>K5/4</f>
+        <v>15.940925</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="6"/>
+        <v>13.723162500000001</v>
+      </c>
+    </row>
+    <row r="22" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="H22" s="5"/>
+      <c r="I22" s="11">
+        <f>AVERAGE(I19:I21)</f>
+        <v>7.6888458333333327</v>
+      </c>
+      <c r="J22" s="11">
+        <f t="shared" ref="J22:K22" si="7">AVERAGE(J19:J21)</f>
+        <v>9.0029833333333329</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" si="7"/>
+        <v>10.293783333333334</v>
+      </c>
+      <c r="L22" s="25">
+        <f>AVERAGE(I19:K21)</f>
+        <v>8.9952041666666673</v>
+      </c>
+      <c r="O22" t="s">
+        <v>132</v>
+      </c>
+      <c r="R22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="O23" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="P23" s="17">
+        <f>I20-J20</f>
+        <v>-1.0274249999999991</v>
+      </c>
+      <c r="R23" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="S23" s="17">
+        <f>J19-J20</f>
+        <v>-3.4149124999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="O24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P24" s="17">
+        <f>I20-K20</f>
+        <v>-2.5048624999999998</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="S24" s="17">
+        <f>J19-J21</f>
+        <v>-9.2154875000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="O25" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" s="17">
+        <f>J20-K20</f>
+        <v>-1.4774375000000006</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S25" s="17">
+        <f>J20-J21</f>
+        <v>-5.8005750000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="O27" t="s">
+        <v>133</v>
+      </c>
+      <c r="R27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="O28" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="P28" s="17">
+        <f>I21-J21</f>
+        <v>-2.7881125000000004</v>
+      </c>
+      <c r="R28" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="S28" s="17">
+        <f>K19-K20</f>
+        <v>-4.4299749999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="O29" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P29" s="17">
+        <f>I21-K21</f>
+        <v>-4.7207000000000008</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="S29" s="17">
+        <f>K19-K21</f>
+        <v>-10.685700000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="8:19" x14ac:dyDescent="0.3">
+      <c r="O30" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="P30" s="17">
+        <f>J21-K21</f>
+        <v>-1.9325875000000003</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S30" s="17">
+        <f>K20-K21</f>
+        <v>-6.255725</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="4098" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>15240</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>15240</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="4098" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401611ED-38E0-4C81-9133-A1F57F372C3A}">
   <sheetPr codeName="Planilha8"/>
   <dimension ref="A1:D41"/>
@@ -3146,7 +4535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FB33A-3173-4008-92A5-2ADAD8D660C1}">
   <sheetPr codeName="Planilha9"/>
   <dimension ref="A1:D41"/>
@@ -3742,7 +5131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0844D76-2BC5-4A45-BC59-B5F493E31ACD}">
   <sheetPr codeName="Planilha10"/>
   <dimension ref="A1:D81"/>
@@ -4893,7 +6282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DEF979-DB47-4432-9EA7-72C5A215002C}">
   <sheetPr codeName="Planilha11"/>
   <dimension ref="A1:J781"/>
@@ -33278,7 +34667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E46922-7E70-4D9F-BA36-FFADF1FA5641}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>

--- a/static/classes/experimentacao/dados_biost_exp.xlsx
+++ b/static/classes/experimentacao/dados_biost_exp.xlsx
@@ -3,32 +3,38 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFF1686-6929-49C5-A4F5-78A4F8B66F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA06CE2A-02A1-4CA4-A35E-438BE16F4D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="934" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DIC-DBC" sheetId="20" r:id="rId1"/>
-    <sheet name="EFEITOS" sheetId="24" r:id="rId2"/>
-    <sheet name="TABELA_AF_RAD" sheetId="25" r:id="rId3"/>
-    <sheet name="DIC-DBC-ANOVA" sheetId="22" r:id="rId4"/>
-    <sheet name="QUALI" sheetId="3" r:id="rId5"/>
-    <sheet name="QUANTI_LINEAR" sheetId="4" r:id="rId6"/>
-    <sheet name="QUANTI_QUADRATICA" sheetId="23" r:id="rId7"/>
-    <sheet name="FAT1_SI" sheetId="8" r:id="rId8"/>
-    <sheet name="FAT1_CI2" sheetId="26" r:id="rId9"/>
-    <sheet name="FAT1_CI2_TAB" sheetId="27" r:id="rId10"/>
-    <sheet name="FAT1_CI" sheetId="19" r:id="rId11"/>
-    <sheet name="FAT1_CI_PRATICA" sheetId="28" r:id="rId12"/>
-    <sheet name="FAT2_SI" sheetId="6" r:id="rId13"/>
-    <sheet name="FAT2_CI" sheetId="5" r:id="rId14"/>
-    <sheet name="FAT3" sheetId="14" r:id="rId15"/>
-    <sheet name="maize" sheetId="2" r:id="rId16"/>
+    <sheet name="REG_DATA" sheetId="32" r:id="rId1"/>
+    <sheet name="REG_ANALISE" sheetId="29" r:id="rId2"/>
+    <sheet name="REG_DEL_DATA" sheetId="30" r:id="rId3"/>
+    <sheet name="REG_DEL_ANALISE" sheetId="33" r:id="rId4"/>
+    <sheet name="CORRELACAO_DATA" sheetId="31" r:id="rId5"/>
+    <sheet name="CORRELACAO_ANALISE" sheetId="34" r:id="rId6"/>
+    <sheet name="DIC-DBC" sheetId="20" r:id="rId7"/>
+    <sheet name="EFEITOS" sheetId="24" r:id="rId8"/>
+    <sheet name="TABELA_AF_RAD" sheetId="25" r:id="rId9"/>
+    <sheet name="DIC-DBC-ANOVA" sheetId="22" r:id="rId10"/>
+    <sheet name="QUALI" sheetId="3" r:id="rId11"/>
+    <sheet name="QUANTI_LINEAR" sheetId="4" r:id="rId12"/>
+    <sheet name="QUANTI_QUADRATICA" sheetId="23" r:id="rId13"/>
+    <sheet name="FAT1_SI" sheetId="8" r:id="rId14"/>
+    <sheet name="FAT1_CI2" sheetId="26" r:id="rId15"/>
+    <sheet name="FAT1_CI2_TAB" sheetId="27" r:id="rId16"/>
+    <sheet name="FAT1_CI" sheetId="19" r:id="rId17"/>
+    <sheet name="FAT1_CI_PRATICA" sheetId="28" r:id="rId18"/>
+    <sheet name="FAT2_SI" sheetId="6" r:id="rId19"/>
+    <sheet name="FAT2_CI" sheetId="5" r:id="rId20"/>
+    <sheet name="FAT3" sheetId="14" r:id="rId21"/>
+    <sheet name="maize" sheetId="2" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">FAT1_CI!$A$1:$C$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">FAT1_CI_PRATICA!$H$2:$I$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">FAT2_CI!$A$1:$D$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">FAT1_CI!$A$1:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">FAT1_CI_PRATICA!$H$2:$I$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">FAT2_CI!$A$1:$D$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="184">
   <si>
     <t>AMB</t>
   </si>
@@ -474,18 +480,145 @@
   <si>
     <t>K=4</t>
   </si>
+  <si>
+    <t>x^2</t>
+  </si>
+  <si>
+    <t>y^2</t>
+  </si>
+  <si>
+    <t>xy</t>
+  </si>
+  <si>
+    <t>yi</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>di2</t>
+  </si>
+  <si>
+    <t>sxy</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Pr(&gt;|t|)</t>
+  </si>
+  <si>
+    <t>sxx</t>
+  </si>
+  <si>
+    <t>syy</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>sqtot</t>
+  </si>
+  <si>
+    <t>sqreg</t>
+  </si>
+  <si>
+    <t>sqres</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>sigmae</t>
+  </si>
+  <si>
+    <t>s2b</t>
+  </si>
+  <si>
+    <t>s2a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r  </t>
+  </si>
+  <si>
+    <t>totais (y)</t>
+  </si>
+  <si>
+    <t>x.y</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>p-valor</t>
+  </si>
+  <si>
+    <t>Regressão</t>
+  </si>
+  <si>
+    <t>Desvios</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>Planta</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>XY</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>tcal</t>
+  </si>
+  <si>
+    <t>Soma</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,6 +707,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -727,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -805,9 +944,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -894,6 +1030,22 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -934,7 +1086,7 @@
             <xdr14:cNvPr id="2" name="Tinta 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D38E616A-5F45-484E-A47C-861736903E02}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -999,7 +1151,7 @@
             <xdr14:cNvPr id="3" name="Tinta 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E32F0C-394E-4CBF-B16B-DBE585DC102C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1067,7 +1219,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D90AF04-1C11-452A-BD2D-CD94E1B8BEC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1109,7 +1261,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67AE42D-8E6F-4A20-8A1E-2BADCD43FEB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1151,7 +1303,7 @@
         <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77DF8D8A-EC16-48F4-809D-8EFA5FB9F21A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1193,7 +1345,7 @@
         <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4FA15C7-6682-4F43-87D0-90D2B0EF4FFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1235,7 +1387,7 @@
         <xdr:cNvPr id="6" name="Imagem 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F7DCA8-52C4-4CC0-8189-DBC17CA1E51A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,15 +1416,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>39757</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>13252</xdr:rowOff>
+          <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>15585</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>39757</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1282,7 +1434,7 @@
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F664A5-BA59-4D91-8DFA-34EFC607D879}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1303,23 +1455,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1350,7 +1489,7 @@
         <xdr:cNvPr id="14337" name="AutoShape 1" descr="http://127.0.0.1:9500/chunk_output/61CA297D42E8352A/8C91D2C9/cqv3jo1cg92uw/00004f.png?fixed_size=1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B58C24C4-8843-4033-9695-79C4120512EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000001380000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1398,7 +1537,7 @@
         <xdr:cNvPr id="14338" name="AutoShape 2" descr="http://127.0.0.1:9500/chunk_output/61CA297D42E8352A/8C91D2C9/cqv3jo1cg92uw/00004f.png?fixed_size=1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E68B533-9725-40BA-89D1-A837F8BCC674}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002380000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,23 +1886,143 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF27393-9ED7-4794-B0FA-9CCE826526BB}">
-  <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACBD233-2DD2-426F-9E3B-9D43ABB447EA}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="41">
+        <v>0</v>
+      </c>
+      <c r="B2" s="41">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="41">
+        <v>25</v>
+      </c>
+      <c r="B3" s="41">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="41">
+        <v>50</v>
+      </c>
+      <c r="B4" s="41">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="41">
+        <v>75</v>
+      </c>
+      <c r="B5" s="41">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="41">
+        <v>100</v>
+      </c>
+      <c r="B6" s="41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="41">
+        <v>125</v>
+      </c>
+      <c r="B7" s="41">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="41">
+        <v>150</v>
+      </c>
+      <c r="B8" s="41">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="41">
+        <f>SUM(A2:A8)</f>
+        <v>525</v>
+      </c>
+      <c r="B9" s="41">
+        <f t="shared" ref="B9" si="0">SUM(B2:B8)</f>
+        <v>67.599999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="41">
+        <f>AVERAGE(A2:A8)</f>
+        <v>75</v>
+      </c>
+      <c r="B10" s="11">
+        <f>AVERAGE(B2:B8)</f>
+        <v>9.6571428571428566</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E83BA65-BE39-48CB-ADBD-ADA748DC0265}">
+  <sheetPr codeName="Planilha2"/>
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.88671875" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -1771,240 +2030,521 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>50</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="17">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="D2" s="17">
-        <v>5016.42875</v>
-      </c>
-      <c r="E2">
+      <c r="C2">
         <v>12.30785</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="4">
+        <v>12.30785</v>
+      </c>
+      <c r="I2" s="4">
+        <v>10.73315</v>
+      </c>
+      <c r="J2" s="4">
+        <v>10.8614</v>
+      </c>
+      <c r="K2" s="4">
+        <v>10.9785</v>
+      </c>
+      <c r="L2" s="11">
+        <f>SUM(H2:K2)</f>
+        <v>44.880899999999997</v>
+      </c>
+      <c r="M2" s="11">
+        <f>L2/4</f>
+        <v>11.220224999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>50</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="17">
-        <v>3.65</v>
-      </c>
-      <c r="D3" s="17">
-        <v>3648.3589000000002</v>
-      </c>
-      <c r="E3">
+      <c r="C3">
         <v>10.73315</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="4">
+        <v>15.751799999999999</v>
+      </c>
+      <c r="I3" s="4">
+        <v>13.30495</v>
+      </c>
+      <c r="J3" s="4">
+        <v>13.88435</v>
+      </c>
+      <c r="K3" s="4">
+        <v>13.09225</v>
+      </c>
+      <c r="L3" s="11">
+        <f t="shared" ref="L3:L4" si="0">SUM(H3:K3)</f>
+        <v>56.033349999999999</v>
+      </c>
+      <c r="M3" s="11">
+        <f t="shared" ref="M3:M4" si="1">L3/4</f>
+        <v>14.0083375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>50</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="17">
-        <v>3.93</v>
-      </c>
-      <c r="D4" s="17">
-        <v>3925.3332500000001</v>
-      </c>
-      <c r="E4">
+      <c r="C4">
         <v>10.8614</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="4">
+        <v>16.9224</v>
+      </c>
+      <c r="I4" s="4">
+        <v>14.93085</v>
+      </c>
+      <c r="J4" s="4">
+        <v>16.129000000000001</v>
+      </c>
+      <c r="K4" s="4">
+        <v>15.78145</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" si="0"/>
+        <v>63.7637</v>
+      </c>
+      <c r="M4" s="11">
+        <f t="shared" si="1"/>
+        <v>15.940925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>50</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="17">
-        <v>4.71</v>
-      </c>
-      <c r="D5" s="17">
-        <v>4705.2685000000001</v>
-      </c>
-      <c r="E5">
+      <c r="C5">
         <v>10.9785</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="18">
+        <f>SUM(H2:H4)</f>
+        <v>44.982050000000001</v>
+      </c>
+      <c r="I5" s="18">
+        <f t="shared" ref="I5:K5" si="2">SUM(I2:I4)</f>
+        <v>38.96895</v>
+      </c>
+      <c r="J5" s="18">
+        <f t="shared" si="2"/>
+        <v>40.874750000000006</v>
+      </c>
+      <c r="K5" s="18">
+        <f t="shared" si="2"/>
+        <v>39.852199999999996</v>
+      </c>
+      <c r="L5" s="20">
+        <f>SUM(L2:L4)</f>
+        <v>164.67795000000001</v>
+      </c>
+      <c r="M5" s="18"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>70</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="17">
-        <v>6.12</v>
-      </c>
-      <c r="D6" s="17">
-        <v>6118.4251000000004</v>
-      </c>
-      <c r="E6">
+      <c r="C6">
         <v>15.751799999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="19">
+        <f>H5/3</f>
+        <v>14.994016666666667</v>
+      </c>
+      <c r="I6" s="19">
+        <f t="shared" ref="I6:K6" si="3">I5/3</f>
+        <v>12.989649999999999</v>
+      </c>
+      <c r="J6" s="19">
+        <f t="shared" si="3"/>
+        <v>13.624916666666669</v>
+      </c>
+      <c r="K6" s="19">
+        <f t="shared" si="3"/>
+        <v>13.284066666666666</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="M6" s="18"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>70</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="17">
-        <v>5.61</v>
-      </c>
-      <c r="D7" s="17">
-        <v>5614.2330499999998</v>
-      </c>
-      <c r="E7">
+      <c r="C7">
         <v>13.30495</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="18">
+        <f>L5^2 / 12</f>
+        <v>2259.902268016875</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>70</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="17">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="D8" s="17">
-        <v>5109.9443499999998</v>
-      </c>
-      <c r="E8">
+      <c r="C8">
         <v>13.88435</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>70</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" s="17">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="D9" s="17">
-        <v>4975.8569500000003</v>
-      </c>
-      <c r="E9">
+      <c r="C9">
         <v>13.09225</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>100</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="17">
-        <v>5.46</v>
-      </c>
-      <c r="D10" s="17">
-        <v>5464.5280000000002</v>
-      </c>
-      <c r="E10">
+      <c r="C10">
         <v>16.9224</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>100</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="17">
-        <v>5.55</v>
-      </c>
-      <c r="D11" s="17">
-        <v>5551.9511499999999</v>
-      </c>
-      <c r="E11">
+      <c r="C11">
         <v>14.93085</v>
       </c>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="18">
+        <v>2</v>
+      </c>
+      <c r="H11" s="18">
+        <f>SUMSQ(L2:L4) / 4 - H7</f>
+        <v>45.057965663749656</v>
+      </c>
+      <c r="I11" s="18">
+        <f>H11/G11</f>
+        <v>22.528982831874828</v>
+      </c>
+      <c r="J11" s="18">
+        <f>I11/I12</f>
+        <v>25.216782564117672</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="17">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>100</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" s="17">
-        <v>5.72</v>
-      </c>
-      <c r="D12" s="17">
-        <v>5723.8487500000001</v>
-      </c>
-      <c r="E12">
+      <c r="C12">
         <v>16.129000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="18">
+        <f>G13-G11</f>
+        <v>9</v>
+      </c>
+      <c r="H12" s="18">
+        <f>H13-H11</f>
+        <v>8.0407103868751619</v>
+      </c>
+      <c r="I12" s="18">
+        <f>H12/G12</f>
+        <v>0.89341226520835137</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>100</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="17">
-        <v>5.87</v>
-      </c>
-      <c r="D13" s="17">
-        <v>5869.6974499999997</v>
-      </c>
-      <c r="E13">
+      <c r="C13">
         <v>15.78145</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="21">
+        <v>11</v>
+      </c>
+      <c r="H13" s="21">
+        <f>SUMSQ(H2:K4) - H7</f>
+        <v>53.098676050624817</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="C16" s="24">
+        <f>_xlfn.VAR.S(C2:C13)</f>
+        <v>4.8271523682386199</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <f>53.1/11</f>
+        <v>4.8272727272727272</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="18">
+        <v>2</v>
+      </c>
+      <c r="H17" s="18">
+        <f>SUMSQ(L2:L4) / 4 - H7</f>
+        <v>45.057965663749656</v>
+      </c>
+      <c r="I17" s="18">
+        <f>H17/G17</f>
+        <v>22.528982831874828</v>
+      </c>
+      <c r="J17" s="18">
+        <f>I17/I19</f>
+        <v>138.78145125230816</v>
+      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="17">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F18" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="18">
+        <v>3</v>
+      </c>
+      <c r="H18" s="18">
+        <f>SUMSQ(H5:K5) / 3 - H7</f>
+        <v>7.0667048856248584</v>
+      </c>
+      <c r="I18" s="18">
+        <f>H18/G18</f>
+        <v>2.3555682952082861</v>
+      </c>
+      <c r="J18" s="18">
+        <f>I18/I19</f>
+        <v>14.510605692788241</v>
+      </c>
+      <c r="K18" s="18"/>
+      <c r="L18" s="17">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B19" s="9"/>
+      <c r="F19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="18">
+        <f>G20-G17-G18</f>
+        <v>6</v>
+      </c>
+      <c r="H19" s="18">
+        <f>H20-H17-H18</f>
+        <v>0.9740055012503035</v>
+      </c>
+      <c r="I19" s="23">
+        <f>H19/G19</f>
+        <v>0.16233425020838391</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
+      <c r="F20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="15">
+        <v>11</v>
+      </c>
+      <c r="H20" s="21">
+        <f>SUMSQ(H2:K4) - H7</f>
+        <v>53.098676050624817</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2012,7 +2552,1681 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD12D3-5558-4C12-84C9-B868DE19547D}">
+  <sheetPr codeName="Planilha3"/>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9.1229999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8.1229999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2">
+        <v>9.9920000000000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE66694-A8F5-4857-BCC5-776DE2699524}">
+  <sheetPr codeName="Planilha4"/>
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8.7639999999999993</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8.9440000000000008</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8.8420000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8.8360000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9.5559999999999992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9.843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>75</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10.006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>10.618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>75</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>75</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10.119999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>100</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10.792</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>100</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10.912000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>100</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>100</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E7D567-6F21-4263-A1B5-162912FCCED1}">
+  <sheetPr codeName="Planilha5"/>
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C2" activeCellId="1" sqref="A2:A21 C2:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>6.93</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>6.76</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>7.54</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>7.7619999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>8.2629999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>150</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>150</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>150</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>200</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>200</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>200</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>200</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>7.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF7B468-35FD-4AB5-AC58-CBF0CAE0BCDF}">
+  <sheetPr codeName="Planilha6"/>
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>11.406000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>8.1240000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>9.748800000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>10.518000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>14.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>8.1269999999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>9.7523999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>9.0269999999999992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>10.8324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>12.009600000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21">
+        <v>15.76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>11.56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26">
+        <v>8.7149999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>10.458</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>11.1129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>15.94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31">
+        <v>14.44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33">
+        <v>12.87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34">
+        <v>8.675279999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <v>7.8030000000000008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <v>9.3635999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
+    <sortCondition ref="A2:A37"/>
+    <sortCondition ref="B2:B37"/>
+    <sortCondition ref="C2:C37"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E46922-7E70-4D9F-BA36-FFADF1FA5641}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928D47F0-6F2C-426A-B704-744224E9AA4C}">
   <dimension ref="A1:N12"/>
   <sheetViews>
@@ -2036,12 +4250,12 @@
       <c r="B1" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
       <c r="G1" s="28" t="s">
         <v>63</v>
       </c>
@@ -2435,7 +4649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA737F51-98FF-4434-B2A9-78368E16AF2F}">
   <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:I37"/>
@@ -3091,11 +5305,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13D253-5E88-4C61-836C-2FFDAD90BAC1}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -3135,11 +5349,11 @@
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -3204,16 +5418,16 @@
       <c r="H3" s="5">
         <v>21</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="42">
         <v>18.663900000000002</v>
       </c>
       <c r="J3" s="21">
         <v>19.171399999999998</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K3" s="43">
         <v>21.020900000000001</v>
       </c>
-      <c r="L3" s="57">
+      <c r="L3" s="56">
         <f>SUM(I3:K3)</f>
         <v>58.856200000000001</v>
       </c>
@@ -3244,16 +5458,16 @@
       <c r="H4" s="5">
         <v>28</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="44">
         <v>28.721350000000001</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4" s="45">
         <v>32.831049999999998</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="46">
         <v>38.7408</v>
       </c>
-      <c r="L4" s="57">
+      <c r="L4" s="56">
         <f t="shared" ref="L4:L6" si="0">SUM(I4:K4)</f>
         <v>100.2932</v>
       </c>
@@ -3284,16 +5498,16 @@
       <c r="H5" s="5">
         <v>35</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="47">
         <v>44.880899999999997</v>
       </c>
-      <c r="J5" s="49">
+      <c r="J5" s="48">
         <v>56.033349999999999</v>
       </c>
-      <c r="K5" s="50">
+      <c r="K5" s="49">
         <v>63.7637</v>
       </c>
-      <c r="L5" s="57">
+      <c r="L5" s="56">
         <f t="shared" si="0"/>
         <v>164.67795000000001</v>
       </c>
@@ -3319,19 +5533,19 @@
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="57">
+      <c r="I6" s="56">
         <f>SUM(I3:I5)</f>
         <v>92.266149999999996</v>
       </c>
-      <c r="J6" s="57">
+      <c r="J6" s="56">
         <f t="shared" ref="J6:K6" si="1">SUM(J3:J5)</f>
         <v>108.03579999999999</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="56">
         <f t="shared" si="1"/>
         <v>123.5254</v>
       </c>
-      <c r="L6" s="71">
+      <c r="L6" s="70">
         <f t="shared" si="0"/>
         <v>323.82734999999997</v>
       </c>
@@ -3384,25 +5598,25 @@
         <v>10.9785</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="41" t="s">
+      <c r="L8" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="M8" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="40" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3426,28 +5640,28 @@
         <v>13.09225</v>
       </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="54">
+      <c r="I9" s="53">
         <v>3</v>
       </c>
-      <c r="J9" s="52">
+      <c r="J9" s="51">
         <f>SUMSQ(C11:F11)/9-I7</f>
         <v>6.8266901957645132</v>
       </c>
-      <c r="K9" s="52">
+      <c r="K9" s="51">
         <f>J9/I9</f>
         <v>2.2755633985881709</v>
       </c>
-      <c r="L9" s="52">
+      <c r="L9" s="51">
         <f>K9/$K$13</f>
         <v>2.4146560798384158</v>
       </c>
-      <c r="M9" s="52">
+      <c r="M9" s="51">
         <v>3</v>
       </c>
-      <c r="N9" s="52"/>
+      <c r="N9" s="51"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
@@ -3469,72 +5683,72 @@
         <v>15.78145</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="54">
+      <c r="I10" s="53">
         <v>2</v>
       </c>
-      <c r="J10" s="52">
+      <c r="J10" s="51">
         <f>SUMSQ(L3:L5)/12-I7</f>
         <v>473.90732707291772</v>
       </c>
-      <c r="K10" s="52">
+      <c r="K10" s="51">
         <f t="shared" ref="K10:K13" si="2">J10/I10</f>
         <v>236.95366353645886</v>
       </c>
-      <c r="L10" s="52">
+      <c r="L10" s="51">
         <f t="shared" ref="L10:L12" si="3">K10/$K$13</f>
         <v>251.43733839860636</v>
       </c>
-      <c r="M10" s="52">
+      <c r="M10" s="51">
         <v>3.403</v>
       </c>
-      <c r="N10" s="52"/>
+      <c r="N10" s="51"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="55">
         <f>SUM(C2:C10)</f>
         <v>87.023749999999993</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="55">
         <f t="shared" ref="D11:F11" si="4">SUM(D2:D10)</f>
         <v>81.450549999999993</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="55">
         <f t="shared" si="4"/>
         <v>76.478999999999999</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="55">
         <f t="shared" si="4"/>
         <v>78.874049999999997</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="54">
+      <c r="I11" s="53">
         <v>2</v>
       </c>
-      <c r="J11" s="52">
+      <c r="J11" s="51">
         <f>SUMSQ(I6:K6)/12-I7</f>
         <v>40.715285551250417</v>
       </c>
-      <c r="K11" s="52">
+      <c r="K11" s="51">
         <f t="shared" si="2"/>
         <v>20.357642775625209</v>
       </c>
-      <c r="L11" s="52">
+      <c r="L11" s="51">
         <f t="shared" si="3"/>
         <v>21.601993567764509</v>
       </c>
-      <c r="M11" s="52">
+      <c r="M11" s="51">
         <v>3.403</v>
       </c>
-      <c r="N11" s="52"/>
+      <c r="N11" s="51"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C12">
@@ -3553,69 +5767,69 @@
         <f t="shared" si="5"/>
         <v>8.7637833333333326</v>
       </c>
-      <c r="H12" s="58" t="s">
+      <c r="H12" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="I12" s="59">
+      <c r="I12" s="58">
         <v>4</v>
       </c>
-      <c r="J12" s="73">
+      <c r="J12" s="72">
         <f>SUMSQ(I3:K5)/4-I7-J10-J11</f>
         <v>17.79583119208246</v>
       </c>
-      <c r="K12" s="52">
+      <c r="K12" s="51">
         <f t="shared" si="2"/>
         <v>4.448957798020615</v>
       </c>
-      <c r="L12" s="52">
+      <c r="L12" s="51">
         <f t="shared" si="3"/>
         <v>4.7208981312496547</v>
       </c>
-      <c r="M12" s="73">
+      <c r="M12" s="72">
         <v>2.7759999999999998</v>
       </c>
-      <c r="N12" s="52"/>
+      <c r="N12" s="51"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="I13" s="54">
+      <c r="I13" s="53">
         <f>I14-I12-I11-I10-I9</f>
         <v>24</v>
       </c>
-      <c r="J13" s="52">
+      <c r="J13" s="51">
         <f>J14-J9-J10-J11-J12</f>
         <v>22.617515604860273</v>
       </c>
-      <c r="K13" s="52">
+      <c r="K13" s="51">
         <f t="shared" si="2"/>
         <v>0.94239648353584471</v>
       </c>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="54">
         <v>35</v>
       </c>
-      <c r="J14" s="53">
+      <c r="J14" s="52">
         <f>SUMSQ(C2:F10)-I7</f>
         <v>561.86264961687539</v>
       </c>
-      <c r="K14" s="41"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="I15" s="69"/>
+      <c r="I15" s="68"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="72"/>
+      <c r="K15" s="71"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="H16" t="s">
@@ -3624,14 +5838,14 @@
       <c r="O16" t="s">
         <v>128</v>
       </c>
-      <c r="P16" s="70">
+      <c r="P16" s="69">
         <f>3.53*SQRT(K13/4)</f>
         <v>1.7134109505378303</v>
       </c>
       <c r="R16" t="s">
         <v>128</v>
       </c>
-      <c r="S16" s="70"/>
+      <c r="S16" s="69"/>
     </row>
     <row r="17" spans="8:19" x14ac:dyDescent="0.3">
       <c r="H17" s="5"/>
@@ -3687,16 +5901,16 @@
       <c r="H19" s="5">
         <v>21</v>
       </c>
-      <c r="I19" s="60">
-        <f>I3/4</f>
+      <c r="I19" s="59">
+        <f t="shared" ref="I19:K21" si="6">I3/4</f>
         <v>4.6659750000000004</v>
       </c>
-      <c r="J19" s="61">
-        <f>J3/4</f>
+      <c r="J19" s="60">
+        <f t="shared" si="6"/>
         <v>4.7928499999999996</v>
       </c>
-      <c r="K19" s="62">
-        <f>K3/4</f>
+      <c r="K19" s="61">
+        <f t="shared" si="6"/>
         <v>5.2552250000000003</v>
       </c>
       <c r="L19" s="11">
@@ -3722,20 +5936,20 @@
       <c r="H20" s="5">
         <v>28</v>
       </c>
-      <c r="I20" s="63">
-        <f>I4/4</f>
+      <c r="I20" s="62">
+        <f t="shared" si="6"/>
         <v>7.1803375000000003</v>
       </c>
-      <c r="J20" s="64">
-        <f>J4/4</f>
+      <c r="J20" s="63">
+        <f t="shared" si="6"/>
         <v>8.2077624999999994</v>
       </c>
-      <c r="K20" s="65">
-        <f>K4/4</f>
+      <c r="K20" s="64">
+        <f t="shared" si="6"/>
         <v>9.6852</v>
       </c>
       <c r="L20" s="11">
-        <f t="shared" ref="L20:L21" si="6">AVERAGE(I20:K20)</f>
+        <f t="shared" ref="L20:L21" si="7">AVERAGE(I20:K20)</f>
         <v>8.3577666666666666</v>
       </c>
       <c r="O20" s="5" t="s">
@@ -3757,20 +5971,20 @@
       <c r="H21" s="5">
         <v>35</v>
       </c>
-      <c r="I21" s="66">
-        <f>I5/4</f>
+      <c r="I21" s="65">
+        <f t="shared" si="6"/>
         <v>11.220224999999999</v>
       </c>
-      <c r="J21" s="67">
-        <f>J5/4</f>
+      <c r="J21" s="66">
+        <f t="shared" si="6"/>
         <v>14.0083375</v>
       </c>
-      <c r="K21" s="68">
-        <f>K5/4</f>
+      <c r="K21" s="67">
+        <f t="shared" si="6"/>
         <v>15.940925</v>
       </c>
       <c r="L21" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13.723162500000001</v>
       </c>
     </row>
@@ -3781,11 +5995,11 @@
         <v>7.6888458333333327</v>
       </c>
       <c r="J22" s="11">
-        <f t="shared" ref="J22:K22" si="7">AVERAGE(J19:J21)</f>
+        <f t="shared" ref="J22:K22" si="8">AVERAGE(J19:J21)</f>
         <v>9.0029833333333329</v>
       </c>
       <c r="K22" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.293783333333334</v>
       </c>
       <c r="L22" s="25">
@@ -3941,7 +6155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401611ED-38E0-4C81-9133-A1F57F372C3A}">
   <sheetPr codeName="Planilha8"/>
   <dimension ref="A1:D41"/>
@@ -4535,7 +6749,463 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F011CA-47EC-46CA-B15F-BFDF5B6C501A}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1">
+        <f>F9-(B9*C9)/7</f>
+        <v>220</v>
+      </c>
+      <c r="L1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="41">
+        <v>0</v>
+      </c>
+      <c r="C2" s="41">
+        <v>8.6</v>
+      </c>
+      <c r="D2" s="41">
+        <f>B2^2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="41">
+        <f>C2^2</f>
+        <v>73.959999999999994</v>
+      </c>
+      <c r="F2" s="41">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <f>$K$5+$K$4*B2</f>
+        <v>8.7142857142857135</v>
+      </c>
+      <c r="H2" s="17">
+        <f>C2-G2</f>
+        <v>-0.11428571428571388</v>
+      </c>
+      <c r="I2" s="17">
+        <f>H2^2</f>
+        <v>1.3061224489795825E-2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2">
+        <f>D9-(B9^2)/7</f>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="41">
+        <v>25</v>
+      </c>
+      <c r="C3" s="41">
+        <v>8.9</v>
+      </c>
+      <c r="D3" s="41">
+        <f t="shared" ref="D3:E8" si="0">B3^2</f>
+        <v>625</v>
+      </c>
+      <c r="E3" s="41">
+        <f t="shared" si="0"/>
+        <v>79.210000000000008</v>
+      </c>
+      <c r="F3" s="41">
+        <f t="shared" ref="F3:F8" si="1">B3*C3</f>
+        <v>222.5</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G8" si="2">$K$5+$K$4*B3</f>
+        <v>9.0285714285714285</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" ref="H3:H8" si="3">C3-G3</f>
+        <v>-0.12857142857142811</v>
+      </c>
+      <c r="I3" s="17">
+        <f t="shared" ref="I3:I8" si="4">H3^2</f>
+        <v>1.6530612244897842E-2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3">
+        <f>E9-(C9^2)/7</f>
+        <v>2.8971428571429669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="41">
+        <v>50</v>
+      </c>
+      <c r="C4" s="41">
+        <v>9.5</v>
+      </c>
+      <c r="D4" s="41">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="E4" s="41">
+        <f t="shared" si="0"/>
+        <v>90.25</v>
+      </c>
+      <c r="F4" s="41">
+        <f t="shared" si="1"/>
+        <v>475</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="2"/>
+        <v>9.3428571428571416</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" si="3"/>
+        <v>0.15714285714285836</v>
+      </c>
+      <c r="I4" s="17">
+        <f t="shared" si="4"/>
+        <v>2.4693877551020791E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4">
+        <f>K1/K2</f>
+        <v>1.2571428571428572E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="41">
+        <v>75</v>
+      </c>
+      <c r="C5" s="41">
+        <v>9.9</v>
+      </c>
+      <c r="D5" s="41">
+        <f t="shared" si="0"/>
+        <v>5625</v>
+      </c>
+      <c r="E5" s="41">
+        <f t="shared" si="0"/>
+        <v>98.01</v>
+      </c>
+      <c r="F5" s="41">
+        <f t="shared" si="1"/>
+        <v>742.5</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="2"/>
+        <v>9.6571428571428566</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="3"/>
+        <v>0.24285714285714377</v>
+      </c>
+      <c r="I5" s="17">
+        <f t="shared" si="4"/>
+        <v>5.8979591836735137E-2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5">
+        <f>C10-K4*B10</f>
+        <v>8.7142857142857135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="41">
+        <v>100</v>
+      </c>
+      <c r="C6" s="41">
+        <v>10</v>
+      </c>
+      <c r="D6" s="41">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="E6" s="41">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F6" s="41">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="2"/>
+        <v>9.9714285714285715</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="3"/>
+        <v>2.857142857142847E-2</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="4"/>
+        <v>8.1632653061223907E-4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6">
+        <f>E9-C9^2/7</f>
+        <v>2.8971428571429669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="41">
+        <v>125</v>
+      </c>
+      <c r="C7" s="41">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D7" s="41">
+        <f t="shared" si="0"/>
+        <v>15625</v>
+      </c>
+      <c r="E7" s="41">
+        <f t="shared" si="0"/>
+        <v>104.03999999999999</v>
+      </c>
+      <c r="F7" s="41">
+        <f t="shared" si="1"/>
+        <v>1275</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="2"/>
+        <v>10.285714285714285</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="3"/>
+        <v>-8.571428571428541E-2</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="4"/>
+        <v>7.3469387755101517E-3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K7">
+        <f>K1^2/K2</f>
+        <v>2.7657142857142856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="41">
+        <v>150</v>
+      </c>
+      <c r="C8" s="41">
+        <v>10.5</v>
+      </c>
+      <c r="D8" s="41">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="E8" s="41">
+        <f t="shared" si="0"/>
+        <v>110.25</v>
+      </c>
+      <c r="F8" s="41">
+        <f t="shared" si="1"/>
+        <v>1575</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="2"/>
+        <v>10.6</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999291E-3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8">
+        <f>K6-K7</f>
+        <v>0.13142857142868136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="41">
+        <f>SUM(B2:B8)</f>
+        <v>525</v>
+      </c>
+      <c r="C9" s="41">
+        <f t="shared" ref="C9:F9" si="5">SUM(C2:C8)</f>
+        <v>67.599999999999994</v>
+      </c>
+      <c r="D9" s="41">
+        <f t="shared" si="5"/>
+        <v>56875</v>
+      </c>
+      <c r="E9" s="41">
+        <f t="shared" si="5"/>
+        <v>655.72</v>
+      </c>
+      <c r="F9" s="41">
+        <f t="shared" si="5"/>
+        <v>5290</v>
+      </c>
+      <c r="G9" s="41"/>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="24">
+        <f>SUM(I2:I8)</f>
+        <v>0.13142857142857192</v>
+      </c>
+      <c r="J9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9">
+        <f>K7/K6</f>
+        <v>0.95463510848122612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="41">
+        <f>AVERAGE(B2:B8)</f>
+        <v>75</v>
+      </c>
+      <c r="C10" s="11">
+        <f>AVERAGE(C2:C8)</f>
+        <v>9.6571428571428566</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="I10" s="17"/>
+      <c r="J10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10">
+        <f>(K3-K4*K1)/5</f>
+        <v>2.6285714285736183E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="I11" s="17"/>
+      <c r="J11" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11">
+        <f>SQRT(K10/K2)</f>
+        <v>1.2255777479734944E-3</v>
+      </c>
+      <c r="L11">
+        <f>K4/K11</f>
+        <v>10.257552890639179</v>
+      </c>
+      <c r="M11">
+        <f>_xlfn.T.DIST.2T(L11,5)</f>
+        <v>1.5130299893824671E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="I12" s="17"/>
+      <c r="J12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12">
+        <f>SQRT((1/7+B10^2/K2)*K10)</f>
+        <v>0.1104720853096529</v>
+      </c>
+      <c r="L12">
+        <f>K5/K12</f>
+        <v>78.882241517027566</v>
+      </c>
+      <c r="M12">
+        <f>_xlfn.T.DIST.2T(L12,5)</f>
+        <v>6.2038334663885402E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="I13" s="17"/>
+      <c r="J13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13">
+        <f>K1/SQRT(K2*K3)</f>
+        <v>0.977054301705502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FB33A-3173-4008-92A5-2ADAD8D660C1}">
   <sheetPr codeName="Planilha9"/>
   <dimension ref="A1:D41"/>
@@ -5131,7 +7801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0844D76-2BC5-4A45-BC59-B5F493E31ACD}">
   <sheetPr codeName="Planilha10"/>
   <dimension ref="A1:D81"/>
@@ -6282,7 +8952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DEF979-DB47-4432-9EA7-72C5A215002C}">
   <sheetPr codeName="Planilha11"/>
   <dimension ref="A1:J781"/>
@@ -32059,7 +34729,1698 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF42F5A-3F66-4273-9DE4-F5C5AC06B66F}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8.76</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8.94</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="41">
+        <v>8.84</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="41">
+        <v>8.86</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="41">
+        <v>8.84</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="41">
+        <v>9.52</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="41">
+        <v>9.64</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="18">
+        <v>9.56</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="18">
+        <v>9.84</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="18">
+        <v>10.01</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="18">
+        <v>10.62</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="18">
+        <v>10.24</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="41">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="41">
+        <v>10.79</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="41">
+        <v>10.91</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20">
+        <v>11.02</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21">
+        <v>10.9</v>
+      </c>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="J25" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAC6F4B-CCAE-4AAF-AE2E-C9668BE505A2}">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1">
+        <f>H7-(B7*G7)/5</f>
+        <v>605.55000000000291</v>
+      </c>
+      <c r="N1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F2" s="4">
+        <v>8.7639999999999993</v>
+      </c>
+      <c r="G2" s="4">
+        <f>SUM(C2:F2)</f>
+        <v>34.263999999999996</v>
+      </c>
+      <c r="H2">
+        <f>G2*B2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>B2^2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <f>G2^2</f>
+        <v>1174.0216959999998</v>
+      </c>
+      <c r="L2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2">
+        <f>4*(I7-(B7^2)/5 )</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8.9440000000000008</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8.8420000000000005</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8.86</v>
+      </c>
+      <c r="F3" s="4">
+        <v>8.8360000000000003</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G6" si="0">SUM(C3:F3)</f>
+        <v>35.481999999999999</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="1">G3*B3</f>
+        <v>887.05</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I6" si="2">B3^2</f>
+        <v>625</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J6" si="3">G3^2</f>
+        <v>1258.9723239999998</v>
+      </c>
+      <c r="L3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M3">
+        <f>J7-(G7^2)/5</f>
+        <v>59.447019200002615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9.52</v>
+      </c>
+      <c r="D4" s="4">
+        <v>9.64</v>
+      </c>
+      <c r="E4" s="4">
+        <v>9.5559999999999992</v>
+      </c>
+      <c r="F4" s="4">
+        <v>9.843</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>38.558999999999997</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>1927.9499999999998</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="3"/>
+        <v>1486.7964809999999</v>
+      </c>
+      <c r="L4" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4">
+        <f>M1/M2</f>
+        <v>2.4222000000000115E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10.006</v>
+      </c>
+      <c r="D5" s="4">
+        <v>10.618</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10.24</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>40.984000000000002</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>3073.8</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>5625</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="3"/>
+        <v>1679.6882560000001</v>
+      </c>
+      <c r="L5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5">
+        <f>G8-M4*B8</f>
+        <v>8.4345499999999962</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10.792</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10.912000000000001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>11.02</v>
+      </c>
+      <c r="F6" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>43.624000000000002</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>4362.4000000000005</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="3"/>
+        <v>1903.0533760000003</v>
+      </c>
+      <c r="L6" t="s">
+        <v>155</v>
+      </c>
+      <c r="M6">
+        <f>(J7-G7^2/5)/4</f>
+        <v>14.861754800000654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7">
+        <f>SUM(B2:B6)</f>
+        <v>250</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7">
+        <f>SUM(G2:G6)</f>
+        <v>192.91299999999998</v>
+      </c>
+      <c r="H7">
+        <f>SUM(H2:H6)</f>
+        <v>10251.200000000001</v>
+      </c>
+      <c r="I7">
+        <f>SUM(I2:I6)</f>
+        <v>18750</v>
+      </c>
+      <c r="J7" s="4">
+        <f>SUM(J2:J6)</f>
+        <v>7502.5321330000006</v>
+      </c>
+      <c r="L7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M7">
+        <f>M1^2/M2</f>
+        <v>14.667632100000141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8">
+        <f>AVERAGE(B2:B6)</f>
+        <v>50</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="4">
+        <f>AVERAGE(C2:F6)</f>
+        <v>9.6456500000000016</v>
+      </c>
+      <c r="L8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M8">
+        <f>M6-M7</f>
+        <v>0.19412270000051279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="L9" t="s">
+        <v>159</v>
+      </c>
+      <c r="M9">
+        <f>M7/M6</f>
+        <v>0.98693810370222879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.156828150000002</v>
+      </c>
+      <c r="D12" s="18">
+        <v>5.2276050000000601E-2</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1.63539994932005</v>
+      </c>
+      <c r="F12" s="75">
+        <v>0.233347631828799</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="18">
+        <v>14.8617548</v>
+      </c>
+      <c r="D13" s="18">
+        <v>3.7154387</v>
+      </c>
+      <c r="E13" s="18">
+        <v>116.233500076645</v>
+      </c>
+      <c r="F13" s="75">
+        <v>1.73766959711771E-9</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18">
+        <v>14.667632100000001</v>
+      </c>
+      <c r="D14" s="18">
+        <f>C14/B14</f>
+        <v>14.667632100000001</v>
+      </c>
+      <c r="E14" s="18">
+        <f>D14/D16</f>
+        <v>458.86108060928137</v>
+      </c>
+      <c r="F14" s="75">
+        <f>FDIST(E14,B14,B16)</f>
+        <v>6.2494307565524186E-11</v>
+      </c>
+      <c r="G14" s="41"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.19412270000000001</v>
+      </c>
+      <c r="D15" s="18">
+        <f>C15/B15</f>
+        <v>6.4707566666666674E-2</v>
+      </c>
+      <c r="E15" s="18">
+        <f>D15/D16</f>
+        <v>2.0243065657655666</v>
+      </c>
+      <c r="F15" s="75">
+        <f>FDIST(E15,B15,B16)</f>
+        <v>0.16426206011562317</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.38358360000000302</v>
+      </c>
+      <c r="D16" s="18">
+        <v>3.19653000000003E-2</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="41"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="J25" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD508DF-9F19-4BED-8F3A-513129BD06D5}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="77">
+        <v>1</v>
+      </c>
+      <c r="B2" s="77">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C2" s="77">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="77">
+        <v>2</v>
+      </c>
+      <c r="B3" s="77">
+        <v>2.5</v>
+      </c>
+      <c r="C3" s="77">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="77">
+        <v>3</v>
+      </c>
+      <c r="B4" s="77">
+        <v>2.69</v>
+      </c>
+      <c r="C4" s="77">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="77">
+        <v>4</v>
+      </c>
+      <c r="B5" s="77">
+        <v>2.8</v>
+      </c>
+      <c r="C5" s="77">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="77">
+        <v>5</v>
+      </c>
+      <c r="B6" s="77">
+        <v>2.62</v>
+      </c>
+      <c r="C6" s="77">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="77">
+        <v>6</v>
+      </c>
+      <c r="B7" s="77">
+        <v>2.12</v>
+      </c>
+      <c r="C7" s="77">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="77">
+        <v>7</v>
+      </c>
+      <c r="B8" s="77">
+        <v>3.15</v>
+      </c>
+      <c r="C8" s="77">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="77">
+        <v>8</v>
+      </c>
+      <c r="B9" s="77">
+        <v>2.97</v>
+      </c>
+      <c r="C9" s="77">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="77">
+        <v>9</v>
+      </c>
+      <c r="B10" s="77">
+        <v>3.1</v>
+      </c>
+      <c r="C10" s="77">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="77">
+        <v>10</v>
+      </c>
+      <c r="B11" s="77">
+        <v>3.02</v>
+      </c>
+      <c r="C11" s="77">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E60BC9F-3410-4F9E-80FE-AF662158432D}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="27"/>
+    <col min="2" max="2" width="9" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="8.88671875" style="27"/>
+    <col min="10" max="10" width="15.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="27">
+        <f>E12-(C12*D12)/10</f>
+        <v>0.36692000000000036</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="77">
+        <v>1</v>
+      </c>
+      <c r="C2" s="77">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D2" s="77">
+        <v>1.4</v>
+      </c>
+      <c r="E2" s="78">
+        <f>C2*D2</f>
+        <v>3.43</v>
+      </c>
+      <c r="F2" s="78">
+        <f>C2^2</f>
+        <v>6.0025000000000013</v>
+      </c>
+      <c r="G2" s="78">
+        <f>D2^2</f>
+        <v>1.9599999999999997</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="27">
+        <f>F12-(C12^2)/10</f>
+        <v>0.97556000000000154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="77">
+        <v>2</v>
+      </c>
+      <c r="C3" s="77">
+        <v>2.5</v>
+      </c>
+      <c r="D3" s="77">
+        <v>1.43</v>
+      </c>
+      <c r="E3" s="78">
+        <f t="shared" ref="E3:E11" si="0">C3*D3</f>
+        <v>3.5749999999999997</v>
+      </c>
+      <c r="F3" s="78">
+        <f t="shared" ref="F3:G11" si="1">C3^2</f>
+        <v>6.25</v>
+      </c>
+      <c r="G3" s="78">
+        <f t="shared" si="1"/>
+        <v>2.0448999999999997</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="27">
+        <f>G12-(D12^2)/10</f>
+        <v>0.21164000000000982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="77">
+        <v>3</v>
+      </c>
+      <c r="C4" s="77">
+        <v>2.69</v>
+      </c>
+      <c r="D4" s="77">
+        <v>1.52</v>
+      </c>
+      <c r="E4" s="78">
+        <f t="shared" si="0"/>
+        <v>4.0888</v>
+      </c>
+      <c r="F4" s="78">
+        <f t="shared" si="1"/>
+        <v>7.2360999999999995</v>
+      </c>
+      <c r="G4" s="78">
+        <f t="shared" si="1"/>
+        <v>2.3104</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="J4" s="27">
+        <f>J1/SQRT(J2*J3)</f>
+        <v>0.80750554993684098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="77">
+        <v>4</v>
+      </c>
+      <c r="C5" s="77">
+        <v>2.8</v>
+      </c>
+      <c r="D5" s="77">
+        <v>1.64</v>
+      </c>
+      <c r="E5" s="78">
+        <f t="shared" si="0"/>
+        <v>4.5919999999999996</v>
+      </c>
+      <c r="F5" s="78">
+        <f t="shared" si="1"/>
+        <v>7.839999999999999</v>
+      </c>
+      <c r="G5" s="78">
+        <f t="shared" si="1"/>
+        <v>2.6895999999999995</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="27">
+        <f>SQRT(8 /(1-J4^2) ) * J4</f>
+        <v>3.8720555867670892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="77">
+        <v>5</v>
+      </c>
+      <c r="C6" s="77">
+        <v>2.62</v>
+      </c>
+      <c r="D6" s="77">
+        <v>1.55</v>
+      </c>
+      <c r="E6" s="78">
+        <f t="shared" si="0"/>
+        <v>4.0609999999999999</v>
+      </c>
+      <c r="F6" s="78">
+        <f t="shared" si="1"/>
+        <v>6.8644000000000007</v>
+      </c>
+      <c r="G6" s="78">
+        <f t="shared" si="1"/>
+        <v>2.4025000000000003</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="J6" s="27">
+        <f>_xlfn.T.INV.2T(0.05, 8)</f>
+        <v>2.3060041352041671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="77">
+        <v>6</v>
+      </c>
+      <c r="C7" s="77">
+        <v>2.12</v>
+      </c>
+      <c r="D7" s="77">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="78">
+        <f t="shared" si="0"/>
+        <v>3.18</v>
+      </c>
+      <c r="F7" s="78">
+        <f t="shared" si="1"/>
+        <v>4.4944000000000006</v>
+      </c>
+      <c r="G7" s="78">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="77">
+        <v>7</v>
+      </c>
+      <c r="C8" s="77">
+        <v>3.15</v>
+      </c>
+      <c r="D8" s="77">
+        <v>1.78</v>
+      </c>
+      <c r="E8" s="78">
+        <f t="shared" si="0"/>
+        <v>5.6070000000000002</v>
+      </c>
+      <c r="F8" s="78">
+        <f t="shared" si="1"/>
+        <v>9.9224999999999994</v>
+      </c>
+      <c r="G8" s="78">
+        <f t="shared" si="1"/>
+        <v>3.1684000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="77">
+        <v>8</v>
+      </c>
+      <c r="C9" s="77">
+        <v>2.97</v>
+      </c>
+      <c r="D9" s="77">
+        <v>1.84</v>
+      </c>
+      <c r="E9" s="78">
+        <f t="shared" si="0"/>
+        <v>5.4648000000000003</v>
+      </c>
+      <c r="F9" s="78">
+        <f t="shared" si="1"/>
+        <v>8.8209000000000017</v>
+      </c>
+      <c r="G9" s="78">
+        <f t="shared" si="1"/>
+        <v>3.3856000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="77">
+        <v>9</v>
+      </c>
+      <c r="C10" s="77">
+        <v>3.1</v>
+      </c>
+      <c r="D10" s="77">
+        <v>1.78</v>
+      </c>
+      <c r="E10" s="78">
+        <f t="shared" si="0"/>
+        <v>5.5180000000000007</v>
+      </c>
+      <c r="F10" s="78">
+        <f t="shared" si="1"/>
+        <v>9.6100000000000012</v>
+      </c>
+      <c r="G10" s="78">
+        <f t="shared" si="1"/>
+        <v>3.1684000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="77">
+        <v>10</v>
+      </c>
+      <c r="C11" s="77">
+        <v>3.02</v>
+      </c>
+      <c r="D11" s="77">
+        <v>1.6</v>
+      </c>
+      <c r="E11" s="78">
+        <f t="shared" si="0"/>
+        <v>4.8320000000000007</v>
+      </c>
+      <c r="F11" s="78">
+        <f t="shared" si="1"/>
+        <v>9.1204000000000001</v>
+      </c>
+      <c r="G11" s="78">
+        <f t="shared" si="1"/>
+        <v>2.5600000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="78">
+        <f>SUM(C2:C11)</f>
+        <v>27.42</v>
+      </c>
+      <c r="D12" s="78">
+        <f>SUM(D2:D11)</f>
+        <v>16.04</v>
+      </c>
+      <c r="E12" s="78">
+        <f>SUM(E2:E11)</f>
+        <v>44.348599999999998</v>
+      </c>
+      <c r="F12" s="78">
+        <f t="shared" ref="F12:G12" si="2">SUM(F2:F11)</f>
+        <v>76.161200000000008</v>
+      </c>
+      <c r="G12" s="78">
+        <f t="shared" si="2"/>
+        <v>25.939800000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF27393-9ED7-4794-B0FA-9CCE826526BB}">
+  <sheetPr codeName="Planilha1"/>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="D2" s="17">
+        <v>5016.42875</v>
+      </c>
+      <c r="E2">
+        <v>12.30785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="17">
+        <v>3.65</v>
+      </c>
+      <c r="D3" s="17">
+        <v>3648.3589000000002</v>
+      </c>
+      <c r="E3">
+        <v>10.73315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17">
+        <v>3.93</v>
+      </c>
+      <c r="D4" s="17">
+        <v>3925.3332500000001</v>
+      </c>
+      <c r="E4">
+        <v>10.8614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="17">
+        <v>4.71</v>
+      </c>
+      <c r="D5" s="17">
+        <v>4705.2685000000001</v>
+      </c>
+      <c r="E5">
+        <v>10.9785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17">
+        <v>6.12</v>
+      </c>
+      <c r="D6" s="17">
+        <v>6118.4251000000004</v>
+      </c>
+      <c r="E6">
+        <v>15.751799999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="17">
+        <v>5.61</v>
+      </c>
+      <c r="D7" s="17">
+        <v>5614.2330499999998</v>
+      </c>
+      <c r="E7">
+        <v>13.30495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="17">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D8" s="17">
+        <v>5109.9443499999998</v>
+      </c>
+      <c r="E8">
+        <v>13.88435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="17">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="D9" s="17">
+        <v>4975.8569500000003</v>
+      </c>
+      <c r="E9">
+        <v>13.09225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17">
+        <v>5.46</v>
+      </c>
+      <c r="D10" s="17">
+        <v>5464.5280000000002</v>
+      </c>
+      <c r="E10">
+        <v>16.9224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>5.55</v>
+      </c>
+      <c r="D11" s="17">
+        <v>5551.9511499999999</v>
+      </c>
+      <c r="E11">
+        <v>14.93085</v>
+      </c>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="17">
+        <v>5.72</v>
+      </c>
+      <c r="D12" s="17">
+        <v>5723.8487500000001</v>
+      </c>
+      <c r="E12">
+        <v>16.129000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="17">
+        <v>5.87</v>
+      </c>
+      <c r="D13" s="17">
+        <v>5869.6974499999997</v>
+      </c>
+      <c r="E13">
+        <v>15.78145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04035592-A0D5-4A24-BF54-61F2A46CEECB}">
   <sheetPr codeName="Planilha12"/>
   <dimension ref="A1:N21"/>
@@ -32628,7 +36989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6066454C-EECC-4A99-8C31-06D5BE28F536}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -32802,2234 +37163,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E83BA65-BE39-48CB-ADBD-ADA748DC0265}">
-  <sheetPr codeName="Planilha2"/>
-  <dimension ref="A1:M21"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>50</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>12.30785</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="4">
-        <v>12.30785</v>
-      </c>
-      <c r="I2" s="4">
-        <v>10.73315</v>
-      </c>
-      <c r="J2" s="4">
-        <v>10.8614</v>
-      </c>
-      <c r="K2" s="4">
-        <v>10.9785</v>
-      </c>
-      <c r="L2" s="11">
-        <f>SUM(H2:K2)</f>
-        <v>44.880899999999997</v>
-      </c>
-      <c r="M2" s="11">
-        <f>L2/4</f>
-        <v>11.220224999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>50</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>10.73315</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="4">
-        <v>15.751799999999999</v>
-      </c>
-      <c r="I3" s="4">
-        <v>13.30495</v>
-      </c>
-      <c r="J3" s="4">
-        <v>13.88435</v>
-      </c>
-      <c r="K3" s="4">
-        <v>13.09225</v>
-      </c>
-      <c r="L3" s="11">
-        <f t="shared" ref="L3:L4" si="0">SUM(H3:K3)</f>
-        <v>56.033349999999999</v>
-      </c>
-      <c r="M3" s="11">
-        <f t="shared" ref="M3:M4" si="1">L3/4</f>
-        <v>14.0083375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>50</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>10.8614</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="4">
-        <v>16.9224</v>
-      </c>
-      <c r="I4" s="4">
-        <v>14.93085</v>
-      </c>
-      <c r="J4" s="4">
-        <v>16.129000000000001</v>
-      </c>
-      <c r="K4" s="4">
-        <v>15.78145</v>
-      </c>
-      <c r="L4" s="11">
-        <f t="shared" si="0"/>
-        <v>63.7637</v>
-      </c>
-      <c r="M4" s="11">
-        <f t="shared" si="1"/>
-        <v>15.940925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>50</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>10.9785</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="18">
-        <f>SUM(H2:H4)</f>
-        <v>44.982050000000001</v>
-      </c>
-      <c r="I5" s="18">
-        <f t="shared" ref="I5:K5" si="2">SUM(I2:I4)</f>
-        <v>38.96895</v>
-      </c>
-      <c r="J5" s="18">
-        <f t="shared" si="2"/>
-        <v>40.874750000000006</v>
-      </c>
-      <c r="K5" s="18">
-        <f t="shared" si="2"/>
-        <v>39.852199999999996</v>
-      </c>
-      <c r="L5" s="20">
-        <f>SUM(L2:L4)</f>
-        <v>164.67795000000001</v>
-      </c>
-      <c r="M5" s="18"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>70</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>15.751799999999999</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="19">
-        <f>H5/3</f>
-        <v>14.994016666666667</v>
-      </c>
-      <c r="I6" s="19">
-        <f t="shared" ref="I6:K6" si="3">I5/3</f>
-        <v>12.989649999999999</v>
-      </c>
-      <c r="J6" s="19">
-        <f t="shared" si="3"/>
-        <v>13.624916666666669</v>
-      </c>
-      <c r="K6" s="19">
-        <f t="shared" si="3"/>
-        <v>13.284066666666666</v>
-      </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="18"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>70</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>13.30495</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="18">
-        <f>L5^2 / 12</f>
-        <v>2259.902268016875</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>70</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>13.88435</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>13.09225</v>
-      </c>
-      <c r="F9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>100</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>16.9224</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>100</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>14.93085</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="18">
-        <v>2</v>
-      </c>
-      <c r="H11" s="18">
-        <f>SUMSQ(L2:L4) / 4 - H7</f>
-        <v>45.057965663749656</v>
-      </c>
-      <c r="I11" s="18">
-        <f>H11/G11</f>
-        <v>22.528982831874828</v>
-      </c>
-      <c r="J11" s="18">
-        <f>I11/I12</f>
-        <v>25.216782564117672</v>
-      </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="17">
-        <v>4.26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>100</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>16.129000000000001</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="18">
-        <f>G13-G11</f>
-        <v>9</v>
-      </c>
-      <c r="H12" s="18">
-        <f>H13-H11</f>
-        <v>8.0407103868751619</v>
-      </c>
-      <c r="I12" s="18">
-        <f>H12/G12</f>
-        <v>0.89341226520835137</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>15.78145</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="21">
-        <v>11</v>
-      </c>
-      <c r="H13" s="21">
-        <f>SUMSQ(H2:K4) - H7</f>
-        <v>53.098676050624817</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="17"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="17"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-      <c r="C16" s="24">
-        <f>_xlfn.VAR.S(C2:C13)</f>
-        <v>4.8271523682386199</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C17">
-        <f>53.1/11</f>
-        <v>4.8272727272727272</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="18">
-        <v>2</v>
-      </c>
-      <c r="H17" s="18">
-        <f>SUMSQ(L2:L4) / 4 - H7</f>
-        <v>45.057965663749656</v>
-      </c>
-      <c r="I17" s="18">
-        <f>H17/G17</f>
-        <v>22.528982831874828</v>
-      </c>
-      <c r="J17" s="18">
-        <f>I17/I19</f>
-        <v>138.78145125230816</v>
-      </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="17">
-        <v>5.14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="F18" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="18">
-        <v>3</v>
-      </c>
-      <c r="H18" s="18">
-        <f>SUMSQ(H5:K5) / 3 - H7</f>
-        <v>7.0667048856248584</v>
-      </c>
-      <c r="I18" s="18">
-        <f>H18/G18</f>
-        <v>2.3555682952082861</v>
-      </c>
-      <c r="J18" s="18">
-        <f>I18/I19</f>
-        <v>14.510605692788241</v>
-      </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="17">
-        <v>4.76</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="F19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="18">
-        <f>G20-G17-G18</f>
-        <v>6</v>
-      </c>
-      <c r="H19" s="18">
-        <f>H20-H17-H18</f>
-        <v>0.9740055012503035</v>
-      </c>
-      <c r="I19" s="23">
-        <f>H19/G19</f>
-        <v>0.16233425020838391</v>
-      </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="F20" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="15">
-        <v>11</v>
-      </c>
-      <c r="H20" s="21">
-        <f>SUMSQ(H2:K4) - H7</f>
-        <v>53.098676050624817</v>
-      </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD12D3-5558-4C12-84C9-B868DE19547D}">
-  <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.109375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8.82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9.1229999999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="2">
-        <v>7.74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="2">
-        <v>6.48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4.0599999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9.36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="2">
-        <v>7.86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8.1229999999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="2">
-        <v>6.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2">
-        <v>7.98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="2">
-        <v>8.82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="2">
-        <v>7.92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>3</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="2">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="2">
-        <v>11.76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="2">
-        <v>12.12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="2">
-        <v>11.22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="2">
-        <v>9.66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="2">
-        <v>9.9920000000000009</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE66694-A8F5-4857-BCC5-776DE2699524}">
-  <sheetPr codeName="Planilha4"/>
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.109375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>8.7639999999999993</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>8.9440000000000008</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>8.8420000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>8.86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8.8360000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>50</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9.52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>50</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9.64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>9.5559999999999992</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>50</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9.843</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>75</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>10.006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>75</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>10.618</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>75</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>10.24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>75</v>
-      </c>
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>10.119999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>100</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>10.792</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>100</v>
-      </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>10.912000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>100</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2">
-        <v>11.02</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>100</v>
-      </c>
-      <c r="B21" s="2">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2">
-        <v>10.9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E7D567-6F21-4263-A1B5-162912FCCED1}">
-  <sheetPr codeName="Planilha5"/>
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" activeCellId="1" sqref="A2:A21 C2:C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9.109375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>6.98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>6.93</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>6.76</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>7.54</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>50</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>7.55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>7.93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>100</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>7.7619999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>100</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>8.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>100</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>8.16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>8.2629999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>150</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>7.76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>150</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>7.69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>150</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>150</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>7.89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>200</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>7.49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>200</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>7.53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>200</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>7.44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>200</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>7.31</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF7B468-35FD-4AB5-AC58-CBF0CAE0BCDF}">
-  <sheetPr codeName="Planilha6"/>
-  <dimension ref="A1:D37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2">
-        <v>11.406000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3">
-        <v>15.43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4">
-        <v>13.98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6">
-        <v>11.34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7">
-        <v>9.23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8">
-        <v>8.1240000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10">
-        <v>9.748800000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11">
-        <v>10.518000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12">
-        <v>14.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13">
-        <v>12.83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14">
-        <v>8.1269999999999989</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16">
-        <v>9.7523999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17">
-        <v>9.0269999999999992</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18">
-        <v>12.69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19">
-        <v>10.8324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20">
-        <v>12.009600000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21">
-        <v>15.76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22">
-        <v>12.45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24">
-        <v>11.56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25">
-        <v>9.92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26">
-        <v>8.7149999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28">
-        <v>10.458</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29">
-        <v>11.1129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30">
-        <v>15.94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31">
-        <v>14.44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33">
-        <v>12.87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34">
-        <v>8.675279999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35">
-        <v>7.8030000000000008</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37">
-        <v>9.3635999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
-    <sortCondition ref="A2:A37"/>
-    <sortCondition ref="B2:B37"/>
-    <sortCondition ref="C2:C37"/>
-  </sortState>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E46922-7E70-4D9F-BA36-FFADF1FA5641}">
-  <dimension ref="A1:D25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" s="4">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20" s="4">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21" s="4">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" s="4">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24" s="4">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25" s="4">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/static/classes/experimentacao/dados_biost_exp.xlsx
+++ b/static/classes/experimentacao/dados_biost_exp.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA06CE2A-02A1-4CA4-A35E-438BE16F4D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5DD432-90CD-48BA-B90F-5A56A0267FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="934" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="934" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG_DATA" sheetId="32" r:id="rId1"/>
@@ -866,7 +866,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1030,12 +1030,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,6 +1040,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1086,7 +1089,7 @@
             <xdr14:cNvPr id="2" name="Tinta 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1151,7 +1154,7 @@
             <xdr14:cNvPr id="3" name="Tinta 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1219,7 +1222,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1261,7 +1264,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1303,7 +1306,7 @@
         <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1345,7 +1348,7 @@
         <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1390,7 @@
         <xdr:cNvPr id="6" name="Imagem 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1434,7 +1437,7 @@
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1489,7 +1492,7 @@
         <xdr:cNvPr id="14337" name="AutoShape 1" descr="http://127.0.0.1:9500/chunk_output/61CA297D42E8352A/8C91D2C9/cqv3jo1cg92uw/00004f.png?fixed_size=1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000001380000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000001380000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1540,7 @@
         <xdr:cNvPr id="14338" name="AutoShape 2" descr="http://127.0.0.1:9500/chunk_output/61CA297D42E8352A/8C91D2C9/cqv3jo1cg92uw/00004f.png?fixed_size=1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002380000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000002380000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4250,12 +4253,12 @@
       <c r="B1" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
       <c r="G1" s="28" t="s">
         <v>63</v>
       </c>
@@ -5349,11 +5352,11 @@
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -34733,8 +34736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF42F5A-3F66-4273-9DE4-F5C5AC06B66F}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34746,24 +34749,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="16">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="79">
         <v>8.1999999999999993</v>
       </c>
       <c r="D2" s="4"/>
@@ -34773,13 +34776,13 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="16">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="79">
         <v>8.5</v>
       </c>
       <c r="D3" s="4"/>
@@ -34789,13 +34792,13 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="16">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="79">
         <v>8.8000000000000007</v>
       </c>
       <c r="D4" s="4"/>
@@ -34805,14 +34808,14 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="16">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="4">
-        <v>8.76</v>
+      <c r="C5" s="79">
+        <v>8.7639999999999993</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -34821,14 +34824,14 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="16">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="4">
-        <v>8.94</v>
+      <c r="C6" s="79">
+        <v>8.9440000000000008</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -34837,14 +34840,14 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="16">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="41">
-        <v>8.84</v>
+      <c r="C7" s="79">
+        <v>8.8420000000000005</v>
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
@@ -34852,13 +34855,13 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="16">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="79">
         <v>8.86</v>
       </c>
       <c r="D8" s="11"/>
@@ -34867,14 +34870,14 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="16">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="41">
-        <v>8.84</v>
+      <c r="C9" s="79">
+        <v>8.8360000000000003</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
@@ -34885,13 +34888,13 @@
       <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="16">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="79">
         <v>9.52</v>
       </c>
       <c r="D10" s="41"/>
@@ -34903,13 +34906,13 @@
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="16">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="79">
         <v>9.64</v>
       </c>
       <c r="D11" s="41"/>
@@ -34921,103 +34924,103 @@
       <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="16">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="18">
-        <v>9.56</v>
+      <c r="C12" s="79">
+        <v>9.5559999999999992</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="75"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="41"/>
       <c r="H12" s="11"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="16">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="18">
-        <v>9.84</v>
+      <c r="C13" s="79">
+        <v>9.843</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="75"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="41"/>
       <c r="H13" s="11"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="16">
         <v>75</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="18">
-        <v>10.01</v>
+      <c r="C14" s="79">
+        <v>10.006</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="75"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="41"/>
       <c r="H14" s="11"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="16">
         <v>75</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="18">
-        <v>10.62</v>
+      <c r="C15" s="79">
+        <v>10.618</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="75"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="41"/>
       <c r="H15" s="11"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="16">
         <v>75</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="79">
         <v>10.24</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="76"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="41"/>
       <c r="H16" s="11"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="16">
         <v>75</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="79">
         <v>10.119999999999999</v>
       </c>
       <c r="D17" s="41"/>
@@ -35028,14 +35031,14 @@
       <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="16">
         <v>100</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="41">
-        <v>10.79</v>
+      <c r="C18" s="79">
+        <v>10.792</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="41"/>
@@ -35045,14 +35048,14 @@
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="16">
         <v>100</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="41">
-        <v>10.91</v>
+      <c r="C19" s="79">
+        <v>10.912000000000001</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
@@ -35062,13 +35065,13 @@
       <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="16">
         <v>100</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="79">
         <v>11.02</v>
       </c>
       <c r="G20" s="41"/>
@@ -35076,13 +35079,13 @@
       <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="16">
         <v>100</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="79">
         <v>10.9</v>
       </c>
       <c r="G21" s="41"/>
@@ -35119,7 +35122,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B1" sqref="B1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35176,16 +35179,16 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="17">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="17">
         <v>8.5</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="17">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="17">
         <v>8.7639999999999993</v>
       </c>
       <c r="G2" s="4">
@@ -35216,16 +35219,16 @@
       <c r="B3">
         <v>25</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="17">
         <v>8.9440000000000008</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="17">
         <v>8.8420000000000005</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="17">
         <v>8.86</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="17">
         <v>8.8360000000000003</v>
       </c>
       <c r="G3" s="4">
@@ -35256,16 +35259,16 @@
       <c r="B4">
         <v>50</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="17">
         <v>9.52</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="17">
         <v>9.64</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="17">
         <v>9.5559999999999992</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="17">
         <v>9.843</v>
       </c>
       <c r="G4" s="4">
@@ -35296,16 +35299,16 @@
       <c r="B5">
         <v>75</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="17">
         <v>10.006</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="17">
         <v>10.618</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="17">
         <v>10.24</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="17">
         <v>10.119999999999999</v>
       </c>
       <c r="G5" s="4">
@@ -35336,16 +35339,16 @@
       <c r="B6">
         <v>100</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="17">
         <v>10.792</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="17">
         <v>10.912000000000001</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="17">
         <v>11.02</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="17">
         <v>10.9</v>
       </c>
       <c r="G6" s="4">
@@ -35499,7 +35502,7 @@
       <c r="E12" s="18">
         <v>1.63539994932005</v>
       </c>
-      <c r="F12" s="75">
+      <c r="F12" s="73">
         <v>0.233347631828799</v>
       </c>
       <c r="G12" s="41"/>
@@ -35523,7 +35526,7 @@
       <c r="E13" s="18">
         <v>116.233500076645</v>
       </c>
-      <c r="F13" s="75">
+      <c r="F13" s="73">
         <v>1.73766959711771E-9</v>
       </c>
       <c r="G13" s="41"/>
@@ -35549,7 +35552,7 @@
         <f>D14/D16</f>
         <v>458.86108060928137</v>
       </c>
-      <c r="F14" s="75">
+      <c r="F14" s="73">
         <f>FDIST(E14,B14,B16)</f>
         <v>6.2494307565524186E-11</v>
       </c>
@@ -35576,7 +35579,7 @@
         <f>D15/D16</f>
         <v>2.0243065657655666</v>
       </c>
-      <c r="F15" s="75">
+      <c r="F15" s="73">
         <f>FDIST(E15,B15,B16)</f>
         <v>0.16426206011562317</v>
       </c>
@@ -35599,7 +35602,7 @@
         <v>3.19653000000003E-2</v>
       </c>
       <c r="E16" s="18"/>
-      <c r="F16" s="76"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="41"/>
       <c r="H16" s="11"/>
       <c r="I16" s="17"/>
@@ -35694,118 +35697,118 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="77">
+      <c r="A2" s="75">
         <v>1</v>
       </c>
-      <c r="B2" s="77">
+      <c r="B2" s="75">
         <v>2.4500000000000002</v>
       </c>
-      <c r="C2" s="77">
+      <c r="C2" s="75">
         <v>1.4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="77">
+      <c r="A3" s="75">
         <v>2</v>
       </c>
-      <c r="B3" s="77">
+      <c r="B3" s="75">
         <v>2.5</v>
       </c>
-      <c r="C3" s="77">
+      <c r="C3" s="75">
         <v>1.43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="77">
+      <c r="A4" s="75">
         <v>3</v>
       </c>
-      <c r="B4" s="77">
+      <c r="B4" s="75">
         <v>2.69</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="75">
         <v>1.52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="77">
+      <c r="A5" s="75">
         <v>4</v>
       </c>
-      <c r="B5" s="77">
+      <c r="B5" s="75">
         <v>2.8</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="75">
         <v>1.64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="77">
+      <c r="A6" s="75">
         <v>5</v>
       </c>
-      <c r="B6" s="77">
+      <c r="B6" s="75">
         <v>2.62</v>
       </c>
-      <c r="C6" s="77">
+      <c r="C6" s="75">
         <v>1.55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="77">
+      <c r="A7" s="75">
         <v>6</v>
       </c>
-      <c r="B7" s="77">
+      <c r="B7" s="75">
         <v>2.12</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="75">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="77">
+      <c r="A8" s="75">
         <v>7</v>
       </c>
-      <c r="B8" s="77">
+      <c r="B8" s="75">
         <v>3.15</v>
       </c>
-      <c r="C8" s="77">
+      <c r="C8" s="75">
         <v>1.78</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="77">
+      <c r="A9" s="75">
         <v>8</v>
       </c>
-      <c r="B9" s="77">
+      <c r="B9" s="75">
         <v>2.97</v>
       </c>
-      <c r="C9" s="77">
+      <c r="C9" s="75">
         <v>1.84</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="77">
+      <c r="A10" s="75">
         <v>9</v>
       </c>
-      <c r="B10" s="77">
+      <c r="B10" s="75">
         <v>3.1</v>
       </c>
-      <c r="C10" s="77">
+      <c r="C10" s="75">
         <v>1.78</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="77">
+      <c r="A11" s="75">
         <v>10</v>
       </c>
-      <c r="B11" s="77">
+      <c r="B11" s="75">
         <v>3.02</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="75">
         <v>1.6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -35817,7 +35820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E60BC9F-3410-4F9E-80FE-AF662158432D}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
@@ -35859,24 +35862,24 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="77">
+      <c r="B2" s="75">
         <v>1</v>
       </c>
-      <c r="C2" s="77">
+      <c r="C2" s="75">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D2" s="77">
+      <c r="D2" s="75">
         <v>1.4</v>
       </c>
-      <c r="E2" s="78">
+      <c r="E2" s="76">
         <f>C2*D2</f>
         <v>3.43</v>
       </c>
-      <c r="F2" s="78">
+      <c r="F2" s="76">
         <f>C2^2</f>
         <v>6.0025000000000013</v>
       </c>
-      <c r="G2" s="78">
+      <c r="G2" s="76">
         <f>D2^2</f>
         <v>1.9599999999999997</v>
       </c>
@@ -35889,24 +35892,24 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="77">
+      <c r="B3" s="75">
         <v>2</v>
       </c>
-      <c r="C3" s="77">
+      <c r="C3" s="75">
         <v>2.5</v>
       </c>
-      <c r="D3" s="77">
+      <c r="D3" s="75">
         <v>1.43</v>
       </c>
-      <c r="E3" s="78">
+      <c r="E3" s="76">
         <f t="shared" ref="E3:E11" si="0">C3*D3</f>
         <v>3.5749999999999997</v>
       </c>
-      <c r="F3" s="78">
+      <c r="F3" s="76">
         <f t="shared" ref="F3:G11" si="1">C3^2</f>
         <v>6.25</v>
       </c>
-      <c r="G3" s="78">
+      <c r="G3" s="76">
         <f t="shared" si="1"/>
         <v>2.0448999999999997</v>
       </c>
@@ -35919,24 +35922,24 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="77">
+      <c r="B4" s="75">
         <v>3</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="75">
         <v>2.69</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="75">
         <v>1.52</v>
       </c>
-      <c r="E4" s="78">
+      <c r="E4" s="76">
         <f t="shared" si="0"/>
         <v>4.0888</v>
       </c>
-      <c r="F4" s="78">
+      <c r="F4" s="76">
         <f t="shared" si="1"/>
         <v>7.2360999999999995</v>
       </c>
-      <c r="G4" s="78">
+      <c r="G4" s="76">
         <f t="shared" si="1"/>
         <v>2.3104</v>
       </c>
@@ -35949,24 +35952,24 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="77">
+      <c r="B5" s="75">
         <v>4</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="75">
         <v>2.8</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="75">
         <v>1.64</v>
       </c>
-      <c r="E5" s="78">
+      <c r="E5" s="76">
         <f t="shared" si="0"/>
         <v>4.5919999999999996</v>
       </c>
-      <c r="F5" s="78">
+      <c r="F5" s="76">
         <f t="shared" si="1"/>
         <v>7.839999999999999</v>
       </c>
-      <c r="G5" s="78">
+      <c r="G5" s="76">
         <f t="shared" si="1"/>
         <v>2.6895999999999995</v>
       </c>
@@ -35979,24 +35982,24 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="77">
+      <c r="B6" s="75">
         <v>5</v>
       </c>
-      <c r="C6" s="77">
+      <c r="C6" s="75">
         <v>2.62</v>
       </c>
-      <c r="D6" s="77">
+      <c r="D6" s="75">
         <v>1.55</v>
       </c>
-      <c r="E6" s="78">
+      <c r="E6" s="76">
         <f t="shared" si="0"/>
         <v>4.0609999999999999</v>
       </c>
-      <c r="F6" s="78">
+      <c r="F6" s="76">
         <f t="shared" si="1"/>
         <v>6.8644000000000007</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="76">
         <f t="shared" si="1"/>
         <v>2.4025000000000003</v>
       </c>
@@ -36009,116 +36012,116 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="77">
+      <c r="B7" s="75">
         <v>6</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="75">
         <v>2.12</v>
       </c>
-      <c r="D7" s="77">
+      <c r="D7" s="75">
         <v>1.5</v>
       </c>
-      <c r="E7" s="78">
+      <c r="E7" s="76">
         <f t="shared" si="0"/>
         <v>3.18</v>
       </c>
-      <c r="F7" s="78">
+      <c r="F7" s="76">
         <f t="shared" si="1"/>
         <v>4.4944000000000006</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="76">
         <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="77">
+      <c r="B8" s="75">
         <v>7</v>
       </c>
-      <c r="C8" s="77">
+      <c r="C8" s="75">
         <v>3.15</v>
       </c>
-      <c r="D8" s="77">
+      <c r="D8" s="75">
         <v>1.78</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="76">
         <f t="shared" si="0"/>
         <v>5.6070000000000002</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="76">
         <f t="shared" si="1"/>
         <v>9.9224999999999994</v>
       </c>
-      <c r="G8" s="78">
+      <c r="G8" s="76">
         <f t="shared" si="1"/>
         <v>3.1684000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="77">
+      <c r="B9" s="75">
         <v>8</v>
       </c>
-      <c r="C9" s="77">
+      <c r="C9" s="75">
         <v>2.97</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="75">
         <v>1.84</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="76">
         <f t="shared" si="0"/>
         <v>5.4648000000000003</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="76">
         <f t="shared" si="1"/>
         <v>8.8209000000000017</v>
       </c>
-      <c r="G9" s="78">
+      <c r="G9" s="76">
         <f t="shared" si="1"/>
         <v>3.3856000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="77">
+      <c r="B10" s="75">
         <v>9</v>
       </c>
-      <c r="C10" s="77">
+      <c r="C10" s="75">
         <v>3.1</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="75">
         <v>1.78</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="76">
         <f t="shared" si="0"/>
         <v>5.5180000000000007</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F10" s="76">
         <f t="shared" si="1"/>
         <v>9.6100000000000012</v>
       </c>
-      <c r="G10" s="78">
+      <c r="G10" s="76">
         <f t="shared" si="1"/>
         <v>3.1684000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="77">
+      <c r="B11" s="75">
         <v>10</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="75">
         <v>3.02</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="75">
         <v>1.6</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="76">
         <f t="shared" si="0"/>
         <v>4.8320000000000007</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="76">
         <f t="shared" si="1"/>
         <v>9.1204000000000001</v>
       </c>
-      <c r="G11" s="78">
+      <c r="G11" s="76">
         <f t="shared" si="1"/>
         <v>2.5600000000000005</v>
       </c>
@@ -36127,23 +36130,23 @@
       <c r="A12" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="76">
         <f>SUM(C2:C11)</f>
         <v>27.42</v>
       </c>
-      <c r="D12" s="78">
+      <c r="D12" s="76">
         <f>SUM(D2:D11)</f>
         <v>16.04</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="76">
         <f>SUM(E2:E11)</f>
         <v>44.348599999999998</v>
       </c>
-      <c r="F12" s="78">
+      <c r="F12" s="76">
         <f t="shared" ref="F12:G12" si="2">SUM(F2:F11)</f>
         <v>76.161200000000008</v>
       </c>
-      <c r="G12" s="78">
+      <c r="G12" s="76">
         <f t="shared" si="2"/>
         <v>25.939800000000005</v>
       </c>

--- a/static/classes/experimentacao/dados_biost_exp.xlsx
+++ b/static/classes/experimentacao/dados_biost_exp.xlsx
@@ -1,40 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5DD432-90CD-48BA-B90F-5A56A0267FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EFE1D9-7F4E-4C9B-AE50-D40D85F81E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="934" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG_DATA" sheetId="32" r:id="rId1"/>
     <sheet name="REG_ANALISE" sheetId="29" r:id="rId2"/>
     <sheet name="REG_DEL_DATA" sheetId="30" r:id="rId3"/>
-    <sheet name="REG_DEL_ANALISE" sheetId="33" r:id="rId4"/>
-    <sheet name="CORRELACAO_DATA" sheetId="31" r:id="rId5"/>
-    <sheet name="CORRELACAO_ANALISE" sheetId="34" r:id="rId6"/>
-    <sheet name="DIC-DBC" sheetId="20" r:id="rId7"/>
-    <sheet name="EFEITOS" sheetId="24" r:id="rId8"/>
-    <sheet name="TABELA_AF_RAD" sheetId="25" r:id="rId9"/>
-    <sheet name="DIC-DBC-ANOVA" sheetId="22" r:id="rId10"/>
-    <sheet name="QUALI" sheetId="3" r:id="rId11"/>
-    <sheet name="QUANTI_LINEAR" sheetId="4" r:id="rId12"/>
-    <sheet name="QUANTI_QUADRATICA" sheetId="23" r:id="rId13"/>
-    <sheet name="FAT1_SI" sheetId="8" r:id="rId14"/>
-    <sheet name="FAT1_CI2" sheetId="26" r:id="rId15"/>
-    <sheet name="FAT1_CI2_TAB" sheetId="27" r:id="rId16"/>
-    <sheet name="FAT1_CI" sheetId="19" r:id="rId17"/>
-    <sheet name="FAT1_CI_PRATICA" sheetId="28" r:id="rId18"/>
-    <sheet name="FAT2_SI" sheetId="6" r:id="rId19"/>
-    <sheet name="FAT2_CI" sheetId="5" r:id="rId20"/>
-    <sheet name="FAT3" sheetId="14" r:id="rId21"/>
-    <sheet name="maize" sheetId="2" r:id="rId22"/>
+    <sheet name="ESPECIES_NITROGENIO" sheetId="35" r:id="rId4"/>
+    <sheet name="ESPECIES_NITROGENIO_SOJA" sheetId="36" r:id="rId5"/>
+    <sheet name="REG_DEL_ANALISE" sheetId="33" r:id="rId6"/>
+    <sheet name="CORRELACAO_DATA" sheetId="31" r:id="rId7"/>
+    <sheet name="CORRELACAO_ANALISE" sheetId="34" r:id="rId8"/>
+    <sheet name="DIC-DBC" sheetId="20" r:id="rId9"/>
+    <sheet name="EFEITOS" sheetId="24" r:id="rId10"/>
+    <sheet name="TABELA_AF_RAD" sheetId="25" r:id="rId11"/>
+    <sheet name="DIC-DBC-ANOVA" sheetId="22" r:id="rId12"/>
+    <sheet name="QUALI" sheetId="3" r:id="rId13"/>
+    <sheet name="QUANTI_LINEAR" sheetId="4" r:id="rId14"/>
+    <sheet name="QUANTI_QUADRATICA" sheetId="23" r:id="rId15"/>
+    <sheet name="FAT1_SI" sheetId="8" r:id="rId16"/>
+    <sheet name="FAT1_CI2" sheetId="26" r:id="rId17"/>
+    <sheet name="FAT1_CI2_TAB" sheetId="27" r:id="rId18"/>
+    <sheet name="FAT1_CI" sheetId="19" r:id="rId19"/>
+    <sheet name="FAT1_CI_PRATICA" sheetId="28" r:id="rId20"/>
+    <sheet name="FAT2_SI" sheetId="6" r:id="rId21"/>
+    <sheet name="FAT2_CI" sheetId="5" r:id="rId22"/>
+    <sheet name="FAT3" sheetId="14" r:id="rId23"/>
+    <sheet name="maize" sheetId="2" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">FAT1_CI!$A$1:$C$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">FAT1_CI_PRATICA!$H$2:$I$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">FAT2_CI!$A$1:$D$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">FAT1_CI!$A$1:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">FAT1_CI_PRATICA!$H$2:$I$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">FAT2_CI!$A$1:$D$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="200">
   <si>
     <t>AMB</t>
   </si>
@@ -606,6 +608,54 @@
   <si>
     <t>AE</t>
   </si>
+  <si>
+    <t>NITROGENIO</t>
+  </si>
+  <si>
+    <t>ESPECIE</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MSR</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Sem N</t>
+  </si>
+  <si>
+    <t>Aveia Preta</t>
+  </si>
+  <si>
+    <t>Centeio</t>
+  </si>
+  <si>
+    <t>Triticale</t>
+  </si>
+  <si>
+    <t>Pousio</t>
+  </si>
+  <si>
+    <t>Com N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aveia Preta </t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>NGL</t>
+  </si>
 </sst>
 </file>
 
@@ -618,7 +668,7 @@
     <numFmt numFmtId="167" formatCode="0.00000000000000"/>
     <numFmt numFmtId="168" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,6 +763,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -866,7 +924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1040,14 +1098,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2000,6 +2073,751 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04035592-A0D5-4A24-BF54-61F2A46CEECB}">
+  <sheetPr codeName="Planilha12"/>
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17">
+        <v>12.30785</v>
+      </c>
+      <c r="D2" s="17">
+        <f>AVERAGE($C$2:$C$13)</f>
+        <v>13.723162500000001</v>
+      </c>
+      <c r="E2" s="17">
+        <f>AVERAGE($C$2:$C$5)</f>
+        <v>11.220224999999999</v>
+      </c>
+      <c r="F2" s="17">
+        <f>AVERAGE(C2,C6,C10)</f>
+        <v>14.994016666666667</v>
+      </c>
+      <c r="G2" s="17">
+        <f>E2-D2</f>
+        <v>-2.5029375000000016</v>
+      </c>
+      <c r="H2" s="17">
+        <f>C2-D2-G2</f>
+        <v>1.087625000000001</v>
+      </c>
+      <c r="I2" s="17">
+        <f>G2^2</f>
+        <v>6.2646961289062579</v>
+      </c>
+      <c r="J2" s="17">
+        <f>H2^2</f>
+        <v>1.1829281406250021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="17">
+        <v>10.73315</v>
+      </c>
+      <c r="D3" s="17">
+        <f t="shared" ref="D3:D13" si="0">AVERAGE($C$2:$C$13)</f>
+        <v>13.723162500000001</v>
+      </c>
+      <c r="E3" s="17">
+        <f t="shared" ref="E3:E5" si="1">AVERAGE($C$2:$C$5)</f>
+        <v>11.220224999999999</v>
+      </c>
+      <c r="F3" s="17">
+        <f>AVERAGE(C3,C7,C11)</f>
+        <v>12.989649999999999</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" ref="G3:G13" si="2">E3-D3</f>
+        <v>-2.5029375000000016</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" ref="H3:H13" si="3">C3-D3-G3</f>
+        <v>-0.48707499999999904</v>
+      </c>
+      <c r="I3" s="17">
+        <f t="shared" ref="I3:I13" si="4">G3^2</f>
+        <v>6.2646961289062579</v>
+      </c>
+      <c r="J3" s="17">
+        <f t="shared" ref="J3:J13" si="5">H3^2</f>
+        <v>0.23724205562499906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17">
+        <v>10.8614</v>
+      </c>
+      <c r="D4" s="17">
+        <f t="shared" si="0"/>
+        <v>13.723162500000001</v>
+      </c>
+      <c r="E4" s="17">
+        <f t="shared" si="1"/>
+        <v>11.220224999999999</v>
+      </c>
+      <c r="F4" s="17">
+        <f>AVERAGE(C4,C8,C12)</f>
+        <v>13.624916666666669</v>
+      </c>
+      <c r="G4" s="17">
+        <f t="shared" si="2"/>
+        <v>-2.5029375000000016</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.35882499999999951</v>
+      </c>
+      <c r="I4" s="17">
+        <f t="shared" si="4"/>
+        <v>6.2646961289062579</v>
+      </c>
+      <c r="J4" s="17">
+        <f t="shared" si="5"/>
+        <v>0.12875538062499964</v>
+      </c>
+      <c r="N4">
+        <v>-2.5029375000000016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="17">
+        <v>10.9785</v>
+      </c>
+      <c r="D5" s="17">
+        <f t="shared" si="0"/>
+        <v>13.723162500000001</v>
+      </c>
+      <c r="E5" s="17">
+        <f t="shared" si="1"/>
+        <v>11.220224999999999</v>
+      </c>
+      <c r="F5" s="17">
+        <f>AVERAGE(C5,C9,C13)</f>
+        <v>13.284066666666666</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="2"/>
+        <v>-2.5029375000000016</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.24172499999999886</v>
+      </c>
+      <c r="I5" s="17">
+        <f t="shared" si="4"/>
+        <v>6.2646961289062579</v>
+      </c>
+      <c r="J5" s="17">
+        <f t="shared" si="5"/>
+        <v>5.8430975624999451E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.28517499999999885</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17">
+        <v>15.751799999999999</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" si="0"/>
+        <v>13.723162500000001</v>
+      </c>
+      <c r="E6" s="17">
+        <f>AVERAGE($C$6:$C$9)</f>
+        <v>14.0083375</v>
+      </c>
+      <c r="F6" s="17">
+        <v>14.994016666666667</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="2"/>
+        <v>0.28517499999999885</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="3"/>
+        <v>1.7434624999999997</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="4"/>
+        <v>8.1324780624999343E-2</v>
+      </c>
+      <c r="J6" s="17">
+        <f t="shared" si="5"/>
+        <v>3.039661488906249</v>
+      </c>
+      <c r="N6">
+        <v>2.2177624999999992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="17">
+        <v>13.30495</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="0"/>
+        <v>13.723162500000001</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" ref="E7:E8" si="6">AVERAGE($C$6:$C$9)</f>
+        <v>14.0083375</v>
+      </c>
+      <c r="F7" s="17">
+        <v>12.989649999999999</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="2"/>
+        <v>0.28517499999999885</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.70338749999999983</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="4"/>
+        <v>8.1324780624999343E-2</v>
+      </c>
+      <c r="J7" s="17">
+        <f t="shared" si="5"/>
+        <v>0.49475397515624975</v>
+      </c>
+      <c r="N7">
+        <f>SUMSQ(N4:N6)</f>
+        <v>11.264491415937504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="17">
+        <v>13.88435</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="0"/>
+        <v>13.723162500000001</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="6"/>
+        <v>14.0083375</v>
+      </c>
+      <c r="F8" s="17">
+        <v>13.624916666666669</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="2"/>
+        <v>0.28517499999999885</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.12398750000000014</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="4"/>
+        <v>8.1324780624999343E-2</v>
+      </c>
+      <c r="J8" s="17">
+        <f t="shared" si="5"/>
+        <v>1.5372900156250034E-2</v>
+      </c>
+      <c r="N8">
+        <f>N7*4</f>
+        <v>45.057965663750018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="17">
+        <v>13.09225</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" si="0"/>
+        <v>13.723162500000001</v>
+      </c>
+      <c r="E9" s="17">
+        <f>AVERAGE($C$6:$C$9)</f>
+        <v>14.0083375</v>
+      </c>
+      <c r="F9" s="17">
+        <v>13.284066666666666</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="2"/>
+        <v>0.28517499999999885</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.91608749999999972</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" si="4"/>
+        <v>8.1324780624999343E-2</v>
+      </c>
+      <c r="J9" s="17">
+        <f t="shared" si="5"/>
+        <v>0.83921630765624944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17">
+        <v>16.9224</v>
+      </c>
+      <c r="D10" s="17">
+        <f t="shared" si="0"/>
+        <v>13.723162500000001</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" ref="E10:E13" si="7">AVERAGE($C$10:$C$13)</f>
+        <v>15.940925</v>
+      </c>
+      <c r="F10" s="17">
+        <v>14.994016666666667</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="2"/>
+        <v>2.2177624999999992</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="3"/>
+        <v>0.98147499999999965</v>
+      </c>
+      <c r="I10" s="17">
+        <f t="shared" si="4"/>
+        <v>4.9184705064062468</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="5"/>
+        <v>0.96329317562499928</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>14.93085</v>
+      </c>
+      <c r="D11" s="17">
+        <f t="shared" si="0"/>
+        <v>13.723162500000001</v>
+      </c>
+      <c r="E11" s="17">
+        <f t="shared" si="7"/>
+        <v>15.940925</v>
+      </c>
+      <c r="F11" s="17">
+        <v>12.989649999999999</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="2"/>
+        <v>2.2177624999999992</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="3"/>
+        <v>-1.0100750000000005</v>
+      </c>
+      <c r="I11" s="17">
+        <f t="shared" si="4"/>
+        <v>4.9184705064062468</v>
+      </c>
+      <c r="J11" s="17">
+        <f t="shared" si="5"/>
+        <v>1.020251505625001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="17">
+        <v>16.129000000000001</v>
+      </c>
+      <c r="D12" s="17">
+        <f t="shared" si="0"/>
+        <v>13.723162500000001</v>
+      </c>
+      <c r="E12" s="17">
+        <f t="shared" si="7"/>
+        <v>15.940925</v>
+      </c>
+      <c r="F12" s="17">
+        <v>13.624916666666669</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="2"/>
+        <v>2.2177624999999992</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="3"/>
+        <v>0.18807500000000132</v>
+      </c>
+      <c r="I12" s="17">
+        <f t="shared" si="4"/>
+        <v>4.9184705064062468</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="5"/>
+        <v>3.53722056250005E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="17">
+        <v>15.78145</v>
+      </c>
+      <c r="D13" s="17">
+        <f t="shared" si="0"/>
+        <v>13.723162500000001</v>
+      </c>
+      <c r="E13" s="17">
+        <f t="shared" si="7"/>
+        <v>15.940925</v>
+      </c>
+      <c r="F13" s="17">
+        <v>13.284066666666666</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="2"/>
+        <v>2.2177624999999992</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="3"/>
+        <v>-0.15947500000000048</v>
+      </c>
+      <c r="I13" s="17">
+        <f t="shared" si="4"/>
+        <v>4.9184705064062468</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="5"/>
+        <v>2.5432275625000153E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17">
+        <f>SUM(I2:I13)</f>
+        <v>45.057965663750011</v>
+      </c>
+      <c r="J14" s="17">
+        <f>SUM(J2:J13)</f>
+        <v>8.0407103868749985</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6066454C-EECC-4A99-8C31-06D5BE28F536}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>50</v>
+      </c>
+      <c r="B2" s="11">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="C2" s="11">
+        <v>3.65</v>
+      </c>
+      <c r="D2" s="11">
+        <v>3.93</v>
+      </c>
+      <c r="E2" s="11">
+        <v>4.71</v>
+      </c>
+      <c r="F2" s="11">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="G2" s="11">
+        <f>F2/4</f>
+        <v>4.3274999999999997</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2">
+        <f>F5^2/12</f>
+        <v>317.5494083333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>70</v>
+      </c>
+      <c r="B3" s="11">
+        <v>6.12</v>
+      </c>
+      <c r="C3" s="11">
+        <v>5.61</v>
+      </c>
+      <c r="D3" s="11">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E3" s="11">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="F3" s="11">
+        <v>21.82</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G4" si="0">F3/4</f>
+        <v>5.4550000000000001</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="26">
+        <f>SUMSQ(B2:E4) -I2</f>
+        <v>6.2308916666667074</v>
+      </c>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>100</v>
+      </c>
+      <c r="B4" s="11">
+        <v>5.46</v>
+      </c>
+      <c r="C4" s="11">
+        <v>5.55</v>
+      </c>
+      <c r="D4" s="11">
+        <v>5.72</v>
+      </c>
+      <c r="E4" s="11">
+        <v>5.87</v>
+      </c>
+      <c r="F4" s="11">
+        <v>22.6</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
+        <v>5.65</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4">
+        <f>SUMSQ(F2:F4)/4-I2</f>
+        <v>4.0777166666666744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="11">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C5" s="11">
+        <v>14.81</v>
+      </c>
+      <c r="D5" s="11">
+        <v>14.76</v>
+      </c>
+      <c r="E5" s="11">
+        <v>15.56</v>
+      </c>
+      <c r="F5" s="25">
+        <v>61.73</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5">
+        <f>SUMSQ(B5:E5)/3-I2</f>
+        <v>0.73969166666671526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="26">
+        <f>I3-I4-I5</f>
+        <v>1.4134833333333177</v>
+      </c>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f>VARA(B2:E4)</f>
+        <v>0.56644469696970579</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E83BA65-BE39-48CB-ADBD-ADA748DC0265}">
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:M21"/>
@@ -2555,7 +3373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD12D3-5558-4C12-84C9-B868DE19547D}">
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:C21"/>
@@ -2805,7 +3623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE66694-A8F5-4857-BCC5-776DE2699524}">
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:J21"/>
@@ -3059,7 +3877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E7D567-6F21-4263-A1B5-162912FCCED1}">
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:I21"/>
@@ -3316,7 +4134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF7B468-35FD-4AB5-AC58-CBF0CAE0BCDF}">
   <sheetPr codeName="Planilha6"/>
   <dimension ref="A1:D37"/>
@@ -3858,7 +4676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E46922-7E70-4D9F-BA36-FFADF1FA5641}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -4229,7 +5047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928D47F0-6F2C-426A-B704-744224E9AA4C}">
   <dimension ref="A1:N12"/>
   <sheetViews>
@@ -4253,12 +5071,12 @@
       <c r="B1" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
       <c r="G1" s="28" t="s">
         <v>63</v>
       </c>
@@ -4652,7 +5470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA737F51-98FF-4434-B2A9-78368E16AF2F}">
   <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:I37"/>
@@ -5308,7 +6126,463 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F011CA-47EC-46CA-B15F-BFDF5B6C501A}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1">
+        <f>F9-(B9*C9)/7</f>
+        <v>220</v>
+      </c>
+      <c r="L1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="41">
+        <v>0</v>
+      </c>
+      <c r="C2" s="41">
+        <v>8.6</v>
+      </c>
+      <c r="D2" s="41">
+        <f>B2^2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="41">
+        <f>C2^2</f>
+        <v>73.959999999999994</v>
+      </c>
+      <c r="F2" s="41">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <f>$K$5+$K$4*B2</f>
+        <v>8.7142857142857135</v>
+      </c>
+      <c r="H2" s="17">
+        <f>C2-G2</f>
+        <v>-0.11428571428571388</v>
+      </c>
+      <c r="I2" s="17">
+        <f>H2^2</f>
+        <v>1.3061224489795825E-2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2">
+        <f>D9-(B9^2)/7</f>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="41">
+        <v>25</v>
+      </c>
+      <c r="C3" s="41">
+        <v>8.9</v>
+      </c>
+      <c r="D3" s="41">
+        <f t="shared" ref="D3:E8" si="0">B3^2</f>
+        <v>625</v>
+      </c>
+      <c r="E3" s="41">
+        <f t="shared" si="0"/>
+        <v>79.210000000000008</v>
+      </c>
+      <c r="F3" s="41">
+        <f t="shared" ref="F3:F8" si="1">B3*C3</f>
+        <v>222.5</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G8" si="2">$K$5+$K$4*B3</f>
+        <v>9.0285714285714285</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" ref="H3:H8" si="3">C3-G3</f>
+        <v>-0.12857142857142811</v>
+      </c>
+      <c r="I3" s="17">
+        <f t="shared" ref="I3:I8" si="4">H3^2</f>
+        <v>1.6530612244897842E-2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3">
+        <f>E9-(C9^2)/7</f>
+        <v>2.8971428571429669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="41">
+        <v>50</v>
+      </c>
+      <c r="C4" s="41">
+        <v>9.5</v>
+      </c>
+      <c r="D4" s="41">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="E4" s="41">
+        <f t="shared" si="0"/>
+        <v>90.25</v>
+      </c>
+      <c r="F4" s="41">
+        <f t="shared" si="1"/>
+        <v>475</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="2"/>
+        <v>9.3428571428571416</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" si="3"/>
+        <v>0.15714285714285836</v>
+      </c>
+      <c r="I4" s="17">
+        <f t="shared" si="4"/>
+        <v>2.4693877551020791E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4">
+        <f>K1/K2</f>
+        <v>1.2571428571428572E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="41">
+        <v>75</v>
+      </c>
+      <c r="C5" s="41">
+        <v>9.9</v>
+      </c>
+      <c r="D5" s="41">
+        <f t="shared" si="0"/>
+        <v>5625</v>
+      </c>
+      <c r="E5" s="41">
+        <f t="shared" si="0"/>
+        <v>98.01</v>
+      </c>
+      <c r="F5" s="41">
+        <f t="shared" si="1"/>
+        <v>742.5</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="2"/>
+        <v>9.6571428571428566</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="3"/>
+        <v>0.24285714285714377</v>
+      </c>
+      <c r="I5" s="17">
+        <f t="shared" si="4"/>
+        <v>5.8979591836735137E-2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5">
+        <f>C10-K4*B10</f>
+        <v>8.7142857142857135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="41">
+        <v>100</v>
+      </c>
+      <c r="C6" s="41">
+        <v>10</v>
+      </c>
+      <c r="D6" s="41">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="E6" s="41">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F6" s="41">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="2"/>
+        <v>9.9714285714285715</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="3"/>
+        <v>2.857142857142847E-2</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="4"/>
+        <v>8.1632653061223907E-4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6">
+        <f>E9-C9^2/7</f>
+        <v>2.8971428571429669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="41">
+        <v>125</v>
+      </c>
+      <c r="C7" s="41">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D7" s="41">
+        <f t="shared" si="0"/>
+        <v>15625</v>
+      </c>
+      <c r="E7" s="41">
+        <f t="shared" si="0"/>
+        <v>104.03999999999999</v>
+      </c>
+      <c r="F7" s="41">
+        <f t="shared" si="1"/>
+        <v>1275</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="2"/>
+        <v>10.285714285714285</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="3"/>
+        <v>-8.571428571428541E-2</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="4"/>
+        <v>7.3469387755101517E-3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K7">
+        <f>K1^2/K2</f>
+        <v>2.7657142857142856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="41">
+        <v>150</v>
+      </c>
+      <c r="C8" s="41">
+        <v>10.5</v>
+      </c>
+      <c r="D8" s="41">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="E8" s="41">
+        <f t="shared" si="0"/>
+        <v>110.25</v>
+      </c>
+      <c r="F8" s="41">
+        <f t="shared" si="1"/>
+        <v>1575</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="2"/>
+        <v>10.6</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999291E-3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8">
+        <f>K6-K7</f>
+        <v>0.13142857142868136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="41">
+        <f>SUM(B2:B8)</f>
+        <v>525</v>
+      </c>
+      <c r="C9" s="41">
+        <f t="shared" ref="C9:F9" si="5">SUM(C2:C8)</f>
+        <v>67.599999999999994</v>
+      </c>
+      <c r="D9" s="41">
+        <f t="shared" si="5"/>
+        <v>56875</v>
+      </c>
+      <c r="E9" s="41">
+        <f t="shared" si="5"/>
+        <v>655.72</v>
+      </c>
+      <c r="F9" s="41">
+        <f t="shared" si="5"/>
+        <v>5290</v>
+      </c>
+      <c r="G9" s="41"/>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="24">
+        <f>SUM(I2:I8)</f>
+        <v>0.13142857142857192</v>
+      </c>
+      <c r="J9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9">
+        <f>K7/K6</f>
+        <v>0.95463510848122612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="41">
+        <f>AVERAGE(B2:B8)</f>
+        <v>75</v>
+      </c>
+      <c r="C10" s="11">
+        <f>AVERAGE(C2:C8)</f>
+        <v>9.6571428571428566</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="I10" s="17"/>
+      <c r="J10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10">
+        <f>(K3-K4*K1)/5</f>
+        <v>2.6285714285736183E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="I11" s="17"/>
+      <c r="J11" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11">
+        <f>SQRT(K10/K2)</f>
+        <v>1.2255777479734944E-3</v>
+      </c>
+      <c r="L11">
+        <f>K4/K11</f>
+        <v>10.257552890639179</v>
+      </c>
+      <c r="M11">
+        <f>_xlfn.T.DIST.2T(L11,5)</f>
+        <v>1.5130299893824671E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="I12" s="17"/>
+      <c r="J12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12">
+        <f>SQRT((1/7+B10^2/K2)*K10)</f>
+        <v>0.1104720853096529</v>
+      </c>
+      <c r="L12">
+        <f>K5/K12</f>
+        <v>78.882241517027566</v>
+      </c>
+      <c r="M12">
+        <f>_xlfn.T.DIST.2T(L12,5)</f>
+        <v>6.2038334663885402E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="I13" s="17"/>
+      <c r="J13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13">
+        <f>K1/SQRT(K2*K3)</f>
+        <v>0.977054301705502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13D253-5E88-4C61-836C-2FFDAD90BAC1}">
   <dimension ref="A1:S30"/>
   <sheetViews>
@@ -5352,11 +6626,11 @@
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -6158,7 +7432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401611ED-38E0-4C81-9133-A1F57F372C3A}">
   <sheetPr codeName="Planilha8"/>
   <dimension ref="A1:D41"/>
@@ -6752,463 +8026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F011CA-47EC-46CA-B15F-BFDF5B6C501A}">
-  <dimension ref="A1:M13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K1">
-        <f>F9-(B9*C9)/7</f>
-        <v>220</v>
-      </c>
-      <c r="L1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="41">
-        <v>0</v>
-      </c>
-      <c r="C2" s="41">
-        <v>8.6</v>
-      </c>
-      <c r="D2" s="41">
-        <f>B2^2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="41">
-        <f>C2^2</f>
-        <v>73.959999999999994</v>
-      </c>
-      <c r="F2" s="41">
-        <f>B2*C2</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="11">
-        <f>$K$5+$K$4*B2</f>
-        <v>8.7142857142857135</v>
-      </c>
-      <c r="H2" s="17">
-        <f>C2-G2</f>
-        <v>-0.11428571428571388</v>
-      </c>
-      <c r="I2" s="17">
-        <f>H2^2</f>
-        <v>1.3061224489795825E-2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K2">
-        <f>D9-(B9^2)/7</f>
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="41">
-        <v>25</v>
-      </c>
-      <c r="C3" s="41">
-        <v>8.9</v>
-      </c>
-      <c r="D3" s="41">
-        <f t="shared" ref="D3:E8" si="0">B3^2</f>
-        <v>625</v>
-      </c>
-      <c r="E3" s="41">
-        <f t="shared" si="0"/>
-        <v>79.210000000000008</v>
-      </c>
-      <c r="F3" s="41">
-        <f t="shared" ref="F3:F8" si="1">B3*C3</f>
-        <v>222.5</v>
-      </c>
-      <c r="G3" s="11">
-        <f t="shared" ref="G3:G8" si="2">$K$5+$K$4*B3</f>
-        <v>9.0285714285714285</v>
-      </c>
-      <c r="H3" s="17">
-        <f t="shared" ref="H3:H8" si="3">C3-G3</f>
-        <v>-0.12857142857142811</v>
-      </c>
-      <c r="I3" s="17">
-        <f t="shared" ref="I3:I8" si="4">H3^2</f>
-        <v>1.6530612244897842E-2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>152</v>
-      </c>
-      <c r="K3">
-        <f>E9-(C9^2)/7</f>
-        <v>2.8971428571429669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="41">
-        <v>50</v>
-      </c>
-      <c r="C4" s="41">
-        <v>9.5</v>
-      </c>
-      <c r="D4" s="41">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="E4" s="41">
-        <f t="shared" si="0"/>
-        <v>90.25</v>
-      </c>
-      <c r="F4" s="41">
-        <f t="shared" si="1"/>
-        <v>475</v>
-      </c>
-      <c r="G4" s="11">
-        <f t="shared" si="2"/>
-        <v>9.3428571428571416</v>
-      </c>
-      <c r="H4" s="17">
-        <f t="shared" si="3"/>
-        <v>0.15714285714285836</v>
-      </c>
-      <c r="I4" s="17">
-        <f t="shared" si="4"/>
-        <v>2.4693877551020791E-2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K4">
-        <f>K1/K2</f>
-        <v>1.2571428571428572E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="41">
-        <v>75</v>
-      </c>
-      <c r="C5" s="41">
-        <v>9.9</v>
-      </c>
-      <c r="D5" s="41">
-        <f t="shared" si="0"/>
-        <v>5625</v>
-      </c>
-      <c r="E5" s="41">
-        <f t="shared" si="0"/>
-        <v>98.01</v>
-      </c>
-      <c r="F5" s="41">
-        <f t="shared" si="1"/>
-        <v>742.5</v>
-      </c>
-      <c r="G5" s="11">
-        <f t="shared" si="2"/>
-        <v>9.6571428571428566</v>
-      </c>
-      <c r="H5" s="17">
-        <f t="shared" si="3"/>
-        <v>0.24285714285714377</v>
-      </c>
-      <c r="I5" s="17">
-        <f t="shared" si="4"/>
-        <v>5.8979591836735137E-2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K5">
-        <f>C10-K4*B10</f>
-        <v>8.7142857142857135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="41">
-        <v>100</v>
-      </c>
-      <c r="C6" s="41">
-        <v>10</v>
-      </c>
-      <c r="D6" s="41">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="E6" s="41">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F6" s="41">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="G6" s="11">
-        <f t="shared" si="2"/>
-        <v>9.9714285714285715</v>
-      </c>
-      <c r="H6" s="17">
-        <f t="shared" si="3"/>
-        <v>2.857142857142847E-2</v>
-      </c>
-      <c r="I6" s="17">
-        <f t="shared" si="4"/>
-        <v>8.1632653061223907E-4</v>
-      </c>
-      <c r="J6" t="s">
-        <v>155</v>
-      </c>
-      <c r="K6">
-        <f>E9-C9^2/7</f>
-        <v>2.8971428571429669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="41">
-        <v>125</v>
-      </c>
-      <c r="C7" s="41">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D7" s="41">
-        <f t="shared" si="0"/>
-        <v>15625</v>
-      </c>
-      <c r="E7" s="41">
-        <f t="shared" si="0"/>
-        <v>104.03999999999999</v>
-      </c>
-      <c r="F7" s="41">
-        <f t="shared" si="1"/>
-        <v>1275</v>
-      </c>
-      <c r="G7" s="11">
-        <f t="shared" si="2"/>
-        <v>10.285714285714285</v>
-      </c>
-      <c r="H7" s="17">
-        <f t="shared" si="3"/>
-        <v>-8.571428571428541E-2</v>
-      </c>
-      <c r="I7" s="17">
-        <f t="shared" si="4"/>
-        <v>7.3469387755101517E-3</v>
-      </c>
-      <c r="J7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K7">
-        <f>K1^2/K2</f>
-        <v>2.7657142857142856</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="41">
-        <v>150</v>
-      </c>
-      <c r="C8" s="41">
-        <v>10.5</v>
-      </c>
-      <c r="D8" s="41">
-        <f t="shared" si="0"/>
-        <v>22500</v>
-      </c>
-      <c r="E8" s="41">
-        <f t="shared" si="0"/>
-        <v>110.25</v>
-      </c>
-      <c r="F8" s="41">
-        <f t="shared" si="1"/>
-        <v>1575</v>
-      </c>
-      <c r="G8" s="11">
-        <f t="shared" si="2"/>
-        <v>10.6</v>
-      </c>
-      <c r="H8" s="17">
-        <f t="shared" si="3"/>
-        <v>-9.9999999999999645E-2</v>
-      </c>
-      <c r="I8" s="17">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999291E-3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K8">
-        <f>K6-K7</f>
-        <v>0.13142857142868136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="41">
-        <f>SUM(B2:B8)</f>
-        <v>525</v>
-      </c>
-      <c r="C9" s="41">
-        <f t="shared" ref="C9:F9" si="5">SUM(C2:C8)</f>
-        <v>67.599999999999994</v>
-      </c>
-      <c r="D9" s="41">
-        <f t="shared" si="5"/>
-        <v>56875</v>
-      </c>
-      <c r="E9" s="41">
-        <f t="shared" si="5"/>
-        <v>655.72</v>
-      </c>
-      <c r="F9" s="41">
-        <f t="shared" si="5"/>
-        <v>5290</v>
-      </c>
-      <c r="G9" s="41"/>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="24">
-        <f>SUM(I2:I8)</f>
-        <v>0.13142857142857192</v>
-      </c>
-      <c r="J9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K9">
-        <f>K7/K6</f>
-        <v>0.95463510848122612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="41">
-        <f>AVERAGE(B2:B8)</f>
-        <v>75</v>
-      </c>
-      <c r="C10" s="11">
-        <f>AVERAGE(C2:C8)</f>
-        <v>9.6571428571428566</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="I10" s="17"/>
-      <c r="J10" t="s">
-        <v>161</v>
-      </c>
-      <c r="K10">
-        <f>(K3-K4*K1)/5</f>
-        <v>2.6285714285736183E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="I11" s="17"/>
-      <c r="J11" t="s">
-        <v>162</v>
-      </c>
-      <c r="K11">
-        <f>SQRT(K10/K2)</f>
-        <v>1.2255777479734944E-3</v>
-      </c>
-      <c r="L11">
-        <f>K4/K11</f>
-        <v>10.257552890639179</v>
-      </c>
-      <c r="M11">
-        <f>_xlfn.T.DIST.2T(L11,5)</f>
-        <v>1.5130299893824671E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="I12" s="17"/>
-      <c r="J12" t="s">
-        <v>163</v>
-      </c>
-      <c r="K12">
-        <f>SQRT((1/7+B10^2/K2)*K10)</f>
-        <v>0.1104720853096529</v>
-      </c>
-      <c r="L12">
-        <f>K5/K12</f>
-        <v>78.882241517027566</v>
-      </c>
-      <c r="M12">
-        <f>_xlfn.T.DIST.2T(L12,5)</f>
-        <v>6.2038334663885402E-9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="I13" s="17"/>
-      <c r="J13" t="s">
-        <v>164</v>
-      </c>
-      <c r="K13">
-        <f>K1/SQRT(K2*K3)</f>
-        <v>0.977054301705502</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FB33A-3173-4008-92A5-2ADAD8D660C1}">
   <sheetPr codeName="Planilha9"/>
   <dimension ref="A1:D41"/>
@@ -7804,7 +8622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0844D76-2BC5-4A45-BC59-B5F493E31ACD}">
   <sheetPr codeName="Planilha10"/>
   <dimension ref="A1:D81"/>
@@ -8955,7 +9773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DEF979-DB47-4432-9EA7-72C5A215002C}">
   <sheetPr codeName="Planilha11"/>
   <dimension ref="A1:J781"/>
@@ -34736,7 +35554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF42F5A-3F66-4273-9DE4-F5C5AC06B66F}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -34766,7 +35584,7 @@
       <c r="B2" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="79">
+      <c r="C2" s="77">
         <v>8.1999999999999993</v>
       </c>
       <c r="D2" s="4"/>
@@ -34782,7 +35600,7 @@
       <c r="B3" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="77">
         <v>8.5</v>
       </c>
       <c r="D3" s="4"/>
@@ -34798,7 +35616,7 @@
       <c r="B4" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="77">
         <v>8.8000000000000007</v>
       </c>
       <c r="D4" s="4"/>
@@ -34814,7 +35632,7 @@
       <c r="B5" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="77">
         <v>8.7639999999999993</v>
       </c>
       <c r="D5" s="4"/>
@@ -34830,7 +35648,7 @@
       <c r="B6" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="77">
         <v>8.9440000000000008</v>
       </c>
       <c r="D6" s="4"/>
@@ -34846,7 +35664,7 @@
       <c r="B7" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="77">
         <v>8.8420000000000005</v>
       </c>
       <c r="D7" s="41"/>
@@ -34861,7 +35679,7 @@
       <c r="B8" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="77">
         <v>8.86</v>
       </c>
       <c r="D8" s="11"/>
@@ -34876,7 +35694,7 @@
       <c r="B9" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="77">
         <v>8.8360000000000003</v>
       </c>
       <c r="D9" s="41"/>
@@ -34894,7 +35712,7 @@
       <c r="B10" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="79">
+      <c r="C10" s="77">
         <v>9.52</v>
       </c>
       <c r="D10" s="41"/>
@@ -34912,7 +35730,7 @@
       <c r="B11" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="77">
         <v>9.64</v>
       </c>
       <c r="D11" s="41"/>
@@ -34930,7 +35748,7 @@
       <c r="B12" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="79">
+      <c r="C12" s="77">
         <v>9.5559999999999992</v>
       </c>
       <c r="D12" s="18"/>
@@ -34948,7 +35766,7 @@
       <c r="B13" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="79">
+      <c r="C13" s="77">
         <v>9.843</v>
       </c>
       <c r="D13" s="18"/>
@@ -34966,7 +35784,7 @@
       <c r="B14" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="77">
         <v>10.006</v>
       </c>
       <c r="D14" s="18"/>
@@ -34984,7 +35802,7 @@
       <c r="B15" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="79">
+      <c r="C15" s="77">
         <v>10.618</v>
       </c>
       <c r="D15" s="18"/>
@@ -35002,7 +35820,7 @@
       <c r="B16" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="79">
+      <c r="C16" s="77">
         <v>10.24</v>
       </c>
       <c r="D16" s="18"/>
@@ -35020,7 +35838,7 @@
       <c r="B17" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="79">
+      <c r="C17" s="77">
         <v>10.119999999999999</v>
       </c>
       <c r="D17" s="41"/>
@@ -35037,7 +35855,7 @@
       <c r="B18" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="79">
+      <c r="C18" s="77">
         <v>10.792</v>
       </c>
       <c r="D18" s="11"/>
@@ -35054,7 +35872,7 @@
       <c r="B19" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="79">
+      <c r="C19" s="77">
         <v>10.912000000000001</v>
       </c>
       <c r="D19" s="41"/>
@@ -35071,7 +35889,7 @@
       <c r="B20" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="77">
         <v>11.02</v>
       </c>
       <c r="G20" s="41"/>
@@ -35085,7 +35903,7 @@
       <c r="B21" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="79">
+      <c r="C21" s="77">
         <v>10.9</v>
       </c>
       <c r="G21" s="41"/>
@@ -35118,6 +35936,1673 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B05892-965F-431E-B5BF-049795D175A8}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="83" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="81">
+        <v>1</v>
+      </c>
+      <c r="D2" s="82">
+        <v>17938.800000000003</v>
+      </c>
+      <c r="E2" s="82">
+        <v>3640.4</v>
+      </c>
+      <c r="F2" s="82">
+        <v>53.2</v>
+      </c>
+      <c r="G2" s="82">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="81">
+        <v>2</v>
+      </c>
+      <c r="D3" s="82">
+        <v>20737.600000000002</v>
+      </c>
+      <c r="E3" s="82">
+        <v>4190.4000000000005</v>
+      </c>
+      <c r="F3" s="82">
+        <v>708.8</v>
+      </c>
+      <c r="G3" s="82">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="81">
+        <v>3</v>
+      </c>
+      <c r="D4" s="82">
+        <v>37780</v>
+      </c>
+      <c r="E4" s="82">
+        <v>6958.4000000000005</v>
+      </c>
+      <c r="F4" s="82">
+        <v>688</v>
+      </c>
+      <c r="G4" s="82">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="81">
+        <v>4</v>
+      </c>
+      <c r="D5" s="82">
+        <v>15448</v>
+      </c>
+      <c r="E5" s="82">
+        <v>3055.2</v>
+      </c>
+      <c r="F5" s="82">
+        <v>98</v>
+      </c>
+      <c r="G5" s="82">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="81">
+        <v>1</v>
+      </c>
+      <c r="D6" s="82">
+        <v>30835.599999999999</v>
+      </c>
+      <c r="E6" s="82">
+        <v>7000.8</v>
+      </c>
+      <c r="F6" s="82">
+        <v>347.2</v>
+      </c>
+      <c r="G6" s="82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="81">
+        <v>2</v>
+      </c>
+      <c r="D7" s="82">
+        <v>22246</v>
+      </c>
+      <c r="E7" s="82">
+        <v>5540</v>
+      </c>
+      <c r="F7" s="82">
+        <v>245.6</v>
+      </c>
+      <c r="G7" s="82">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="81">
+        <v>3</v>
+      </c>
+      <c r="D8" s="82">
+        <v>12422</v>
+      </c>
+      <c r="E8" s="82">
+        <v>3330.4</v>
+      </c>
+      <c r="F8" s="82">
+        <v>169.20000000000002</v>
+      </c>
+      <c r="G8" s="82">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="81">
+        <v>4</v>
+      </c>
+      <c r="D9" s="82">
+        <v>15219.6</v>
+      </c>
+      <c r="E9" s="82">
+        <v>3796.8</v>
+      </c>
+      <c r="F9" s="82">
+        <v>212.8</v>
+      </c>
+      <c r="G9" s="82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="81">
+        <v>1</v>
+      </c>
+      <c r="D10" s="82">
+        <v>14700.4</v>
+      </c>
+      <c r="E10" s="82">
+        <v>2989.2000000000003</v>
+      </c>
+      <c r="F10" s="82">
+        <v>267.60000000000002</v>
+      </c>
+      <c r="G10" s="82">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="81">
+        <v>2</v>
+      </c>
+      <c r="D11" s="82">
+        <v>19146.400000000001</v>
+      </c>
+      <c r="E11" s="82">
+        <v>3652.4</v>
+      </c>
+      <c r="F11" s="82">
+        <v>399.20000000000005</v>
+      </c>
+      <c r="G11" s="82">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="81">
+        <v>3</v>
+      </c>
+      <c r="D12" s="82">
+        <v>33226.400000000001</v>
+      </c>
+      <c r="E12" s="82">
+        <v>6418.8</v>
+      </c>
+      <c r="F12" s="82">
+        <v>523.20000000000005</v>
+      </c>
+      <c r="G12" s="82">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="81">
+        <v>4</v>
+      </c>
+      <c r="D13" s="82">
+        <v>17372.8</v>
+      </c>
+      <c r="E13" s="82">
+        <v>4747.2000000000007</v>
+      </c>
+      <c r="F13" s="82">
+        <v>349.6</v>
+      </c>
+      <c r="G13" s="82">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="81">
+        <v>1</v>
+      </c>
+      <c r="D14" s="82">
+        <v>17760</v>
+      </c>
+      <c r="E14" s="82">
+        <v>3728.3999999999996</v>
+      </c>
+      <c r="F14" s="82">
+        <v>210</v>
+      </c>
+      <c r="G14" s="82">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="81">
+        <v>2</v>
+      </c>
+      <c r="D15" s="82">
+        <v>19689.599999999999</v>
+      </c>
+      <c r="E15" s="82">
+        <v>3909.2000000000003</v>
+      </c>
+      <c r="F15" s="82">
+        <v>254.8</v>
+      </c>
+      <c r="G15" s="82">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="81">
+        <v>3</v>
+      </c>
+      <c r="D16" s="82">
+        <v>6413.2000000000007</v>
+      </c>
+      <c r="E16" s="82">
+        <v>1576.3999999999999</v>
+      </c>
+      <c r="F16" s="82">
+        <v>70</v>
+      </c>
+      <c r="G16" s="82">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="81">
+        <v>4</v>
+      </c>
+      <c r="D17" s="82">
+        <v>25316.799999999999</v>
+      </c>
+      <c r="E17" s="82">
+        <v>5676.4</v>
+      </c>
+      <c r="F17" s="82">
+        <v>312.8</v>
+      </c>
+      <c r="G17" s="82">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="81">
+        <v>1</v>
+      </c>
+      <c r="D18" s="82">
+        <v>44237.600000000006</v>
+      </c>
+      <c r="E18" s="82">
+        <v>7444.8</v>
+      </c>
+      <c r="F18" s="82">
+        <v>214.4</v>
+      </c>
+      <c r="G18" s="82">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="81">
+        <v>2</v>
+      </c>
+      <c r="D19" s="82">
+        <v>26322.800000000003</v>
+      </c>
+      <c r="E19" s="82">
+        <v>4369.2</v>
+      </c>
+      <c r="F19" s="82">
+        <v>538</v>
+      </c>
+      <c r="G19" s="82">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="81">
+        <v>3</v>
+      </c>
+      <c r="D20" s="82">
+        <v>45075.600000000006</v>
+      </c>
+      <c r="E20" s="82">
+        <v>7343.6</v>
+      </c>
+      <c r="F20" s="82">
+        <v>738</v>
+      </c>
+      <c r="G20" s="82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="81">
+        <v>4</v>
+      </c>
+      <c r="D21" s="82">
+        <v>36212.800000000003</v>
+      </c>
+      <c r="E21" s="82">
+        <v>6216</v>
+      </c>
+      <c r="F21" s="82">
+        <v>207.2</v>
+      </c>
+      <c r="G21" s="82">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="81">
+        <v>1</v>
+      </c>
+      <c r="D22" s="82">
+        <v>32367.199999999997</v>
+      </c>
+      <c r="E22" s="82">
+        <v>7124.4000000000005</v>
+      </c>
+      <c r="F22" s="82">
+        <v>583.6</v>
+      </c>
+      <c r="G22" s="82">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="81">
+        <v>2</v>
+      </c>
+      <c r="D23" s="82">
+        <v>27846.399999999998</v>
+      </c>
+      <c r="E23" s="82">
+        <v>6886.4</v>
+      </c>
+      <c r="F23" s="82">
+        <v>517.6</v>
+      </c>
+      <c r="G23" s="82">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="81">
+        <v>3</v>
+      </c>
+      <c r="D24" s="82">
+        <v>23167.600000000002</v>
+      </c>
+      <c r="E24" s="82">
+        <v>5132.7999999999993</v>
+      </c>
+      <c r="F24" s="82">
+        <v>401.59999999999997</v>
+      </c>
+      <c r="G24" s="82">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="81">
+        <v>4</v>
+      </c>
+      <c r="D25" s="82">
+        <v>28570.400000000001</v>
+      </c>
+      <c r="E25" s="82">
+        <v>6368.8</v>
+      </c>
+      <c r="F25" s="82">
+        <v>447.2</v>
+      </c>
+      <c r="G25" s="82">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="81">
+        <v>1</v>
+      </c>
+      <c r="D26" s="82">
+        <v>25033.200000000001</v>
+      </c>
+      <c r="E26" s="82">
+        <v>4857.2000000000007</v>
+      </c>
+      <c r="F26" s="82">
+        <v>374</v>
+      </c>
+      <c r="G26" s="82">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="81">
+        <v>2</v>
+      </c>
+      <c r="D27" s="82">
+        <v>39969.599999999999</v>
+      </c>
+      <c r="E27" s="82">
+        <v>7573.2000000000007</v>
+      </c>
+      <c r="F27" s="82">
+        <v>684.80000000000007</v>
+      </c>
+      <c r="G27" s="82">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="81">
+        <v>3</v>
+      </c>
+      <c r="D28" s="82">
+        <v>36924.800000000003</v>
+      </c>
+      <c r="E28" s="82">
+        <v>7040</v>
+      </c>
+      <c r="F28" s="82">
+        <v>616.4</v>
+      </c>
+      <c r="G28" s="82">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="81">
+        <v>4</v>
+      </c>
+      <c r="D29" s="82">
+        <v>20400.8</v>
+      </c>
+      <c r="E29" s="82">
+        <v>3488.8</v>
+      </c>
+      <c r="F29" s="82">
+        <v>447.59999999999997</v>
+      </c>
+      <c r="G29" s="82">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="81">
+        <v>1</v>
+      </c>
+      <c r="D30" s="82">
+        <v>15811.6</v>
+      </c>
+      <c r="E30" s="82">
+        <v>2684</v>
+      </c>
+      <c r="F30" s="82">
+        <v>136</v>
+      </c>
+      <c r="G30" s="82">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="81">
+        <v>2</v>
+      </c>
+      <c r="D31" s="82">
+        <v>24537.199999999997</v>
+      </c>
+      <c r="E31" s="82">
+        <v>4491.2</v>
+      </c>
+      <c r="F31" s="82">
+        <v>354.79999999999995</v>
+      </c>
+      <c r="G31" s="82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="81">
+        <v>3</v>
+      </c>
+      <c r="D32" s="82">
+        <v>26057.199999999997</v>
+      </c>
+      <c r="E32" s="82">
+        <v>5295.5999999999995</v>
+      </c>
+      <c r="F32" s="82">
+        <v>362.8</v>
+      </c>
+      <c r="G32" s="82">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="81">
+        <v>4</v>
+      </c>
+      <c r="D33" s="82">
+        <v>27948</v>
+      </c>
+      <c r="E33" s="82">
+        <v>5165.5999999999995</v>
+      </c>
+      <c r="F33" s="82">
+        <v>414</v>
+      </c>
+      <c r="G33" s="82">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED55377-163A-4B20-8400-2B183BDC37F4}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="5" style="80" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="80" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="80"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="85" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="85">
+        <v>15</v>
+      </c>
+      <c r="E2" s="85">
+        <v>30</v>
+      </c>
+      <c r="F2" s="85">
+        <v>2.25</v>
+      </c>
+      <c r="G2" s="86">
+        <v>180</v>
+      </c>
+      <c r="H2" s="85">
+        <v>3547.2222222222222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="85">
+        <v>14.6</v>
+      </c>
+      <c r="E3" s="85">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="F3" s="85">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G3" s="86">
+        <v>190</v>
+      </c>
+      <c r="H3" s="85">
+        <v>4116.666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="85">
+        <v>13.2</v>
+      </c>
+      <c r="E4" s="85">
+        <v>34.6</v>
+      </c>
+      <c r="F4" s="85">
+        <v>2.6</v>
+      </c>
+      <c r="G4" s="86">
+        <v>170</v>
+      </c>
+      <c r="H4" s="85">
+        <v>3380.5555555555557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="85">
+        <v>13</v>
+      </c>
+      <c r="E5" s="85">
+        <v>37.6</v>
+      </c>
+      <c r="F5" s="85">
+        <v>2.52</v>
+      </c>
+      <c r="G5" s="86">
+        <v>160</v>
+      </c>
+      <c r="H5" s="85">
+        <v>3733.333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="85">
+        <v>15.2</v>
+      </c>
+      <c r="E6" s="85">
+        <v>38.6</v>
+      </c>
+      <c r="F6" s="85">
+        <v>2.15</v>
+      </c>
+      <c r="G6" s="86">
+        <v>180</v>
+      </c>
+      <c r="H6" s="85">
+        <v>3819.4444444444443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="85">
+        <v>13</v>
+      </c>
+      <c r="E7" s="85">
+        <v>40.6</v>
+      </c>
+      <c r="F7" s="85">
+        <v>2.1</v>
+      </c>
+      <c r="G7" s="86">
+        <v>170</v>
+      </c>
+      <c r="H7" s="85">
+        <v>1738.8888888888889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="85">
+        <v>14.4</v>
+      </c>
+      <c r="E8" s="85">
+        <v>37.6</v>
+      </c>
+      <c r="F8" s="85">
+        <v>2.48</v>
+      </c>
+      <c r="G8" s="86">
+        <v>180</v>
+      </c>
+      <c r="H8" s="85">
+        <v>3927.7777777777778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="85">
+        <v>13</v>
+      </c>
+      <c r="E9" s="85">
+        <v>38</v>
+      </c>
+      <c r="F9" s="85">
+        <v>2.39</v>
+      </c>
+      <c r="G9" s="86">
+        <v>150</v>
+      </c>
+      <c r="H9" s="85">
+        <v>3338.8888888888887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="85">
+        <v>13.6</v>
+      </c>
+      <c r="E10" s="85">
+        <v>35.6</v>
+      </c>
+      <c r="F10" s="85">
+        <v>2.46</v>
+      </c>
+      <c r="G10" s="86">
+        <v>210</v>
+      </c>
+      <c r="H10" s="85">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="85">
+        <v>13.6</v>
+      </c>
+      <c r="E11" s="85">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F11" s="85">
+        <v>2.42</v>
+      </c>
+      <c r="G11" s="86">
+        <v>200</v>
+      </c>
+      <c r="H11" s="85">
+        <v>4377.7777777777774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="85">
+        <v>14.2</v>
+      </c>
+      <c r="E12" s="85">
+        <v>39.6</v>
+      </c>
+      <c r="F12" s="85">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G12" s="86">
+        <v>160</v>
+      </c>
+      <c r="H12" s="85">
+        <v>3761.1111111111113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="85">
+        <v>14</v>
+      </c>
+      <c r="E13" s="85">
+        <v>41.8</v>
+      </c>
+      <c r="F13" s="85">
+        <v>2.52</v>
+      </c>
+      <c r="G13" s="86">
+        <v>160</v>
+      </c>
+      <c r="H13" s="85">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="85">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E14" s="85">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="F14" s="85">
+        <v>2.25</v>
+      </c>
+      <c r="G14" s="86">
+        <v>210</v>
+      </c>
+      <c r="H14" s="85">
+        <v>4297.2222222222217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="85">
+        <v>16.2</v>
+      </c>
+      <c r="E15" s="85">
+        <v>50</v>
+      </c>
+      <c r="F15" s="85">
+        <v>2.35</v>
+      </c>
+      <c r="G15" s="86">
+        <v>210</v>
+      </c>
+      <c r="H15" s="85">
+        <v>4694.4444444444443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="85">
+        <v>15.4</v>
+      </c>
+      <c r="E16" s="85">
+        <v>43.2</v>
+      </c>
+      <c r="F16" s="85">
+        <v>2.42</v>
+      </c>
+      <c r="G16" s="86">
+        <v>170</v>
+      </c>
+      <c r="H16" s="85">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="85">
+        <v>14</v>
+      </c>
+      <c r="E17" s="85">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F17" s="85">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G17" s="86">
+        <v>170</v>
+      </c>
+      <c r="H17" s="85">
+        <v>1644.4444444444443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="85">
+        <v>16</v>
+      </c>
+      <c r="E18" s="85">
+        <v>50.6</v>
+      </c>
+      <c r="F18" s="85">
+        <v>2.25</v>
+      </c>
+      <c r="G18" s="86">
+        <v>180</v>
+      </c>
+      <c r="H18" s="85">
+        <v>4227.7777777777774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="85">
+        <v>16.2</v>
+      </c>
+      <c r="E19" s="85">
+        <v>42.6</v>
+      </c>
+      <c r="F19" s="85">
+        <v>2.46</v>
+      </c>
+      <c r="G19" s="86">
+        <v>200</v>
+      </c>
+      <c r="H19" s="85">
+        <v>3047.2222222222222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="85">
+        <v>14.8</v>
+      </c>
+      <c r="E20" s="85">
+        <v>43.4</v>
+      </c>
+      <c r="F20" s="85">
+        <v>2.78</v>
+      </c>
+      <c r="G20" s="86">
+        <v>160</v>
+      </c>
+      <c r="H20" s="85">
+        <v>3836.1111111111109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="85">
+        <v>15</v>
+      </c>
+      <c r="E21" s="85">
+        <v>42</v>
+      </c>
+      <c r="F21" s="85">
+        <v>1.97</v>
+      </c>
+      <c r="G21" s="86">
+        <v>170</v>
+      </c>
+      <c r="H21" s="85">
+        <v>1058.3333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="85">
+        <v>15.4</v>
+      </c>
+      <c r="E22" s="85">
+        <v>42.8</v>
+      </c>
+      <c r="F22" s="85">
+        <v>2.35</v>
+      </c>
+      <c r="G22" s="86">
+        <v>180</v>
+      </c>
+      <c r="H22" s="85">
+        <v>4316.666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="85">
+        <v>16.2</v>
+      </c>
+      <c r="E23" s="85">
+        <v>43.6</v>
+      </c>
+      <c r="F23" s="85">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="G23" s="86">
+        <v>180</v>
+      </c>
+      <c r="H23" s="85">
+        <v>3677.7777777777778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="85">
+        <v>13.8</v>
+      </c>
+      <c r="E24" s="85">
+        <v>34.6</v>
+      </c>
+      <c r="F24" s="85">
+        <v>2.54</v>
+      </c>
+      <c r="G24" s="86">
+        <v>170</v>
+      </c>
+      <c r="H24" s="85">
+        <v>4619.4444444444443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="85">
+        <v>17</v>
+      </c>
+      <c r="E25" s="85">
+        <v>53.2</v>
+      </c>
+      <c r="F25" s="85">
+        <v>2.15</v>
+      </c>
+      <c r="G25" s="86">
+        <v>160</v>
+      </c>
+      <c r="H25" s="85">
+        <v>1005.5555555555555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="85">
+        <v>15.2</v>
+      </c>
+      <c r="E26" s="85">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="F26" s="85">
+        <v>2.38</v>
+      </c>
+      <c r="G26" s="86">
+        <v>190</v>
+      </c>
+      <c r="H26" s="85">
+        <v>4444.4444444444443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="85">
+        <v>14</v>
+      </c>
+      <c r="E27" s="85">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F27" s="85">
+        <v>2.58</v>
+      </c>
+      <c r="G27" s="86">
+        <v>160</v>
+      </c>
+      <c r="H27" s="85">
+        <v>1008.3333333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="85">
+        <v>16.2</v>
+      </c>
+      <c r="E28" s="85">
+        <v>47.4</v>
+      </c>
+      <c r="F28" s="85">
+        <v>2.82</v>
+      </c>
+      <c r="G28" s="86">
+        <v>170</v>
+      </c>
+      <c r="H28" s="85">
+        <v>3138.8888888888882</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="85">
+        <v>13</v>
+      </c>
+      <c r="E29" s="85">
+        <v>26.8</v>
+      </c>
+      <c r="F29" s="85">
+        <v>2.66</v>
+      </c>
+      <c r="G29" s="86">
+        <v>170</v>
+      </c>
+      <c r="H29" s="85">
+        <v>2416.6666666666665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="85">
+        <v>14.6</v>
+      </c>
+      <c r="E30" s="85">
+        <v>35</v>
+      </c>
+      <c r="F30" s="85">
+        <v>2.7</v>
+      </c>
+      <c r="G30" s="86">
+        <v>180</v>
+      </c>
+      <c r="H30" s="85">
+        <v>4130.5555555555557</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="85">
+        <v>15</v>
+      </c>
+      <c r="E31" s="85">
+        <v>33.4</v>
+      </c>
+      <c r="F31" s="85">
+        <v>2.54</v>
+      </c>
+      <c r="G31" s="86">
+        <v>200</v>
+      </c>
+      <c r="H31" s="85">
+        <v>3591.6666666666665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="85">
+        <v>10</v>
+      </c>
+      <c r="E32" s="85">
+        <v>22.6</v>
+      </c>
+      <c r="F32" s="85">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="G32" s="86">
+        <v>170</v>
+      </c>
+      <c r="H32" s="85">
+        <v>1305.5555555555554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="85">
+        <v>14.2</v>
+      </c>
+      <c r="E33" s="85">
+        <v>31.6</v>
+      </c>
+      <c r="F33" s="85">
+        <v>2.56</v>
+      </c>
+      <c r="G33" s="86">
+        <v>200</v>
+      </c>
+      <c r="H33" s="85">
+        <v>4861.1111111111113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAC6F4B-CCAE-4AAF-AE2E-C9668BE505A2}">
   <dimension ref="A1:O25"/>
   <sheetViews>
@@ -35670,7 +38155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD508DF-9F19-4BED-8F3A-513129BD06D5}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -35816,7 +38301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E60BC9F-3410-4F9E-80FE-AF662158432D}">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -36157,7 +38642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF27393-9ED7-4794-B0FA-9CCE826526BB}">
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:F21"/>
@@ -36421,749 +38906,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04035592-A0D5-4A24-BF54-61F2A46CEECB}">
-  <sheetPr codeName="Planilha12"/>
-  <dimension ref="A1:N21"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>50</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17">
-        <v>12.30785</v>
-      </c>
-      <c r="D2" s="17">
-        <f>AVERAGE($C$2:$C$13)</f>
-        <v>13.723162500000001</v>
-      </c>
-      <c r="E2" s="17">
-        <f>AVERAGE($C$2:$C$5)</f>
-        <v>11.220224999999999</v>
-      </c>
-      <c r="F2" s="17">
-        <f>AVERAGE(C2,C6,C10)</f>
-        <v>14.994016666666667</v>
-      </c>
-      <c r="G2" s="17">
-        <f>E2-D2</f>
-        <v>-2.5029375000000016</v>
-      </c>
-      <c r="H2" s="17">
-        <f>C2-D2-G2</f>
-        <v>1.087625000000001</v>
-      </c>
-      <c r="I2" s="17">
-        <f>G2^2</f>
-        <v>6.2646961289062579</v>
-      </c>
-      <c r="J2" s="17">
-        <f>H2^2</f>
-        <v>1.1829281406250021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>50</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="17">
-        <v>10.73315</v>
-      </c>
-      <c r="D3" s="17">
-        <f t="shared" ref="D3:D13" si="0">AVERAGE($C$2:$C$13)</f>
-        <v>13.723162500000001</v>
-      </c>
-      <c r="E3" s="17">
-        <f t="shared" ref="E3:E5" si="1">AVERAGE($C$2:$C$5)</f>
-        <v>11.220224999999999</v>
-      </c>
-      <c r="F3" s="17">
-        <f>AVERAGE(C3,C7,C11)</f>
-        <v>12.989649999999999</v>
-      </c>
-      <c r="G3" s="17">
-        <f t="shared" ref="G3:G13" si="2">E3-D3</f>
-        <v>-2.5029375000000016</v>
-      </c>
-      <c r="H3" s="17">
-        <f t="shared" ref="H3:H13" si="3">C3-D3-G3</f>
-        <v>-0.48707499999999904</v>
-      </c>
-      <c r="I3" s="17">
-        <f t="shared" ref="I3:I13" si="4">G3^2</f>
-        <v>6.2646961289062579</v>
-      </c>
-      <c r="J3" s="17">
-        <f t="shared" ref="J3:J13" si="5">H3^2</f>
-        <v>0.23724205562499906</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>50</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="17">
-        <v>10.8614</v>
-      </c>
-      <c r="D4" s="17">
-        <f t="shared" si="0"/>
-        <v>13.723162500000001</v>
-      </c>
-      <c r="E4" s="17">
-        <f t="shared" si="1"/>
-        <v>11.220224999999999</v>
-      </c>
-      <c r="F4" s="17">
-        <f>AVERAGE(C4,C8,C12)</f>
-        <v>13.624916666666669</v>
-      </c>
-      <c r="G4" s="17">
-        <f t="shared" si="2"/>
-        <v>-2.5029375000000016</v>
-      </c>
-      <c r="H4" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.35882499999999951</v>
-      </c>
-      <c r="I4" s="17">
-        <f t="shared" si="4"/>
-        <v>6.2646961289062579</v>
-      </c>
-      <c r="J4" s="17">
-        <f t="shared" si="5"/>
-        <v>0.12875538062499964</v>
-      </c>
-      <c r="N4">
-        <v>-2.5029375000000016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>50</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="17">
-        <v>10.9785</v>
-      </c>
-      <c r="D5" s="17">
-        <f t="shared" si="0"/>
-        <v>13.723162500000001</v>
-      </c>
-      <c r="E5" s="17">
-        <f t="shared" si="1"/>
-        <v>11.220224999999999</v>
-      </c>
-      <c r="F5" s="17">
-        <f>AVERAGE(C5,C9,C13)</f>
-        <v>13.284066666666666</v>
-      </c>
-      <c r="G5" s="17">
-        <f t="shared" si="2"/>
-        <v>-2.5029375000000016</v>
-      </c>
-      <c r="H5" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.24172499999999886</v>
-      </c>
-      <c r="I5" s="17">
-        <f t="shared" si="4"/>
-        <v>6.2646961289062579</v>
-      </c>
-      <c r="J5" s="17">
-        <f t="shared" si="5"/>
-        <v>5.8430975624999451E-2</v>
-      </c>
-      <c r="N5">
-        <v>0.28517499999999885</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>70</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="17">
-        <v>15.751799999999999</v>
-      </c>
-      <c r="D6" s="17">
-        <f t="shared" si="0"/>
-        <v>13.723162500000001</v>
-      </c>
-      <c r="E6" s="17">
-        <f>AVERAGE($C$6:$C$9)</f>
-        <v>14.0083375</v>
-      </c>
-      <c r="F6" s="17">
-        <v>14.994016666666667</v>
-      </c>
-      <c r="G6" s="17">
-        <f t="shared" si="2"/>
-        <v>0.28517499999999885</v>
-      </c>
-      <c r="H6" s="17">
-        <f t="shared" si="3"/>
-        <v>1.7434624999999997</v>
-      </c>
-      <c r="I6" s="17">
-        <f t="shared" si="4"/>
-        <v>8.1324780624999343E-2</v>
-      </c>
-      <c r="J6" s="17">
-        <f t="shared" si="5"/>
-        <v>3.039661488906249</v>
-      </c>
-      <c r="N6">
-        <v>2.2177624999999992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>70</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="17">
-        <v>13.30495</v>
-      </c>
-      <c r="D7" s="17">
-        <f t="shared" si="0"/>
-        <v>13.723162500000001</v>
-      </c>
-      <c r="E7" s="17">
-        <f t="shared" ref="E7:E8" si="6">AVERAGE($C$6:$C$9)</f>
-        <v>14.0083375</v>
-      </c>
-      <c r="F7" s="17">
-        <v>12.989649999999999</v>
-      </c>
-      <c r="G7" s="17">
-        <f t="shared" si="2"/>
-        <v>0.28517499999999885</v>
-      </c>
-      <c r="H7" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.70338749999999983</v>
-      </c>
-      <c r="I7" s="17">
-        <f t="shared" si="4"/>
-        <v>8.1324780624999343E-2</v>
-      </c>
-      <c r="J7" s="17">
-        <f t="shared" si="5"/>
-        <v>0.49475397515624975</v>
-      </c>
-      <c r="N7">
-        <f>SUMSQ(N4:N6)</f>
-        <v>11.264491415937504</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>70</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="17">
-        <v>13.88435</v>
-      </c>
-      <c r="D8" s="17">
-        <f t="shared" si="0"/>
-        <v>13.723162500000001</v>
-      </c>
-      <c r="E8" s="17">
-        <f t="shared" si="6"/>
-        <v>14.0083375</v>
-      </c>
-      <c r="F8" s="17">
-        <v>13.624916666666669</v>
-      </c>
-      <c r="G8" s="17">
-        <f t="shared" si="2"/>
-        <v>0.28517499999999885</v>
-      </c>
-      <c r="H8" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.12398750000000014</v>
-      </c>
-      <c r="I8" s="17">
-        <f t="shared" si="4"/>
-        <v>8.1324780624999343E-2</v>
-      </c>
-      <c r="J8" s="17">
-        <f t="shared" si="5"/>
-        <v>1.5372900156250034E-2</v>
-      </c>
-      <c r="N8">
-        <f>N7*4</f>
-        <v>45.057965663750018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="17">
-        <v>13.09225</v>
-      </c>
-      <c r="D9" s="17">
-        <f t="shared" si="0"/>
-        <v>13.723162500000001</v>
-      </c>
-      <c r="E9" s="17">
-        <f>AVERAGE($C$6:$C$9)</f>
-        <v>14.0083375</v>
-      </c>
-      <c r="F9" s="17">
-        <v>13.284066666666666</v>
-      </c>
-      <c r="G9" s="17">
-        <f t="shared" si="2"/>
-        <v>0.28517499999999885</v>
-      </c>
-      <c r="H9" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.91608749999999972</v>
-      </c>
-      <c r="I9" s="17">
-        <f t="shared" si="4"/>
-        <v>8.1324780624999343E-2</v>
-      </c>
-      <c r="J9" s="17">
-        <f t="shared" si="5"/>
-        <v>0.83921630765624944</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>100</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="17">
-        <v>16.9224</v>
-      </c>
-      <c r="D10" s="17">
-        <f t="shared" si="0"/>
-        <v>13.723162500000001</v>
-      </c>
-      <c r="E10" s="17">
-        <f t="shared" ref="E10:E13" si="7">AVERAGE($C$10:$C$13)</f>
-        <v>15.940925</v>
-      </c>
-      <c r="F10" s="17">
-        <v>14.994016666666667</v>
-      </c>
-      <c r="G10" s="17">
-        <f t="shared" si="2"/>
-        <v>2.2177624999999992</v>
-      </c>
-      <c r="H10" s="17">
-        <f t="shared" si="3"/>
-        <v>0.98147499999999965</v>
-      </c>
-      <c r="I10" s="17">
-        <f t="shared" si="4"/>
-        <v>4.9184705064062468</v>
-      </c>
-      <c r="J10" s="17">
-        <f t="shared" si="5"/>
-        <v>0.96329317562499928</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>100</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="17">
-        <v>14.93085</v>
-      </c>
-      <c r="D11" s="17">
-        <f t="shared" si="0"/>
-        <v>13.723162500000001</v>
-      </c>
-      <c r="E11" s="17">
-        <f t="shared" si="7"/>
-        <v>15.940925</v>
-      </c>
-      <c r="F11" s="17">
-        <v>12.989649999999999</v>
-      </c>
-      <c r="G11" s="17">
-        <f t="shared" si="2"/>
-        <v>2.2177624999999992</v>
-      </c>
-      <c r="H11" s="17">
-        <f t="shared" si="3"/>
-        <v>-1.0100750000000005</v>
-      </c>
-      <c r="I11" s="17">
-        <f t="shared" si="4"/>
-        <v>4.9184705064062468</v>
-      </c>
-      <c r="J11" s="17">
-        <f t="shared" si="5"/>
-        <v>1.020251505625001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>100</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" s="17">
-        <v>16.129000000000001</v>
-      </c>
-      <c r="D12" s="17">
-        <f t="shared" si="0"/>
-        <v>13.723162500000001</v>
-      </c>
-      <c r="E12" s="17">
-        <f t="shared" si="7"/>
-        <v>15.940925</v>
-      </c>
-      <c r="F12" s="17">
-        <v>13.624916666666669</v>
-      </c>
-      <c r="G12" s="17">
-        <f t="shared" si="2"/>
-        <v>2.2177624999999992</v>
-      </c>
-      <c r="H12" s="17">
-        <f t="shared" si="3"/>
-        <v>0.18807500000000132</v>
-      </c>
-      <c r="I12" s="17">
-        <f t="shared" si="4"/>
-        <v>4.9184705064062468</v>
-      </c>
-      <c r="J12" s="17">
-        <f t="shared" si="5"/>
-        <v>3.53722056250005E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" s="17">
-        <v>15.78145</v>
-      </c>
-      <c r="D13" s="17">
-        <f t="shared" si="0"/>
-        <v>13.723162500000001</v>
-      </c>
-      <c r="E13" s="17">
-        <f t="shared" si="7"/>
-        <v>15.940925</v>
-      </c>
-      <c r="F13" s="17">
-        <v>13.284066666666666</v>
-      </c>
-      <c r="G13" s="17">
-        <f t="shared" si="2"/>
-        <v>2.2177624999999992</v>
-      </c>
-      <c r="H13" s="17">
-        <f t="shared" si="3"/>
-        <v>-0.15947500000000048</v>
-      </c>
-      <c r="I13" s="17">
-        <f t="shared" si="4"/>
-        <v>4.9184705064062468</v>
-      </c>
-      <c r="J13" s="17">
-        <f t="shared" si="5"/>
-        <v>2.5432275625000153E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17">
-        <f>SUM(I2:I13)</f>
-        <v>45.057965663750011</v>
-      </c>
-      <c r="J14" s="17">
-        <f>SUM(J2:J13)</f>
-        <v>8.0407103868749985</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6066454C-EECC-4A99-8C31-06D5BE28F536}">
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>50</v>
-      </c>
-      <c r="B2" s="11">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="C2" s="11">
-        <v>3.65</v>
-      </c>
-      <c r="D2" s="11">
-        <v>3.93</v>
-      </c>
-      <c r="E2" s="11">
-        <v>4.71</v>
-      </c>
-      <c r="F2" s="11">
-        <v>17.309999999999999</v>
-      </c>
-      <c r="G2" s="11">
-        <f>F2/4</f>
-        <v>4.3274999999999997</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2">
-        <f>F5^2/12</f>
-        <v>317.5494083333333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>70</v>
-      </c>
-      <c r="B3" s="11">
-        <v>6.12</v>
-      </c>
-      <c r="C3" s="11">
-        <v>5.61</v>
-      </c>
-      <c r="D3" s="11">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="E3" s="11">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="F3" s="11">
-        <v>21.82</v>
-      </c>
-      <c r="G3" s="11">
-        <f t="shared" ref="G3:G4" si="0">F3/4</f>
-        <v>5.4550000000000001</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="26">
-        <f>SUMSQ(B2:E4) -I2</f>
-        <v>6.2308916666667074</v>
-      </c>
-      <c r="J3" s="26"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>100</v>
-      </c>
-      <c r="B4" s="11">
-        <v>5.46</v>
-      </c>
-      <c r="C4" s="11">
-        <v>5.55</v>
-      </c>
-      <c r="D4" s="11">
-        <v>5.72</v>
-      </c>
-      <c r="E4" s="11">
-        <v>5.87</v>
-      </c>
-      <c r="F4" s="11">
-        <v>22.6</v>
-      </c>
-      <c r="G4" s="11">
-        <f t="shared" si="0"/>
-        <v>5.65</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I4">
-        <f>SUMSQ(F2:F4)/4-I2</f>
-        <v>4.0777166666666744</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="11">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="C5" s="11">
-        <v>14.81</v>
-      </c>
-      <c r="D5" s="11">
-        <v>14.76</v>
-      </c>
-      <c r="E5" s="11">
-        <v>15.56</v>
-      </c>
-      <c r="F5" s="25">
-        <v>61.73</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5">
-        <f>SUMSQ(B5:E5)/3-I2</f>
-        <v>0.73969166666671526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="26">
-        <f>I3-I4-I5</f>
-        <v>1.4134833333333177</v>
-      </c>
-      <c r="J6" s="26"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <f>VARA(B2:E4)</f>
-        <v>0.56644469696970579</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/static/classes/experimentacao/dados_biost_exp.xlsx
+++ b/static/classes/experimentacao/dados_biost_exp.xlsx
@@ -3,19 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EFE1D9-7F4E-4C9B-AE50-D40D85F81E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEE64B2-AF7B-453B-A098-BFD6148323A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="934" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG_DATA" sheetId="32" r:id="rId1"/>
     <sheet name="REG_ANALISE" sheetId="29" r:id="rId2"/>
     <sheet name="REG_DEL_DATA" sheetId="30" r:id="rId3"/>
-    <sheet name="ESPECIES_NITROGENIO" sheetId="35" r:id="rId4"/>
-    <sheet name="ESPECIES_NITROGENIO_SOJA" sheetId="36" r:id="rId5"/>
-    <sheet name="REG_DEL_ANALISE" sheetId="33" r:id="rId6"/>
-    <sheet name="CORRELACAO_DATA" sheetId="31" r:id="rId7"/>
-    <sheet name="CORRELACAO_ANALISE" sheetId="34" r:id="rId8"/>
+    <sheet name="REG_DEL_ANALISE" sheetId="33" r:id="rId4"/>
+    <sheet name="CORRELACAO_DATA" sheetId="31" r:id="rId5"/>
+    <sheet name="CORRELACAO_ANALISE" sheetId="34" r:id="rId6"/>
+    <sheet name="COBERTURA_N_MASSA" sheetId="35" r:id="rId7"/>
+    <sheet name="COBERTURA_N_SOJA" sheetId="36" r:id="rId8"/>
     <sheet name="DIC-DBC" sheetId="20" r:id="rId9"/>
     <sheet name="EFEITOS" sheetId="24" r:id="rId10"/>
     <sheet name="TABELA_AF_RAD" sheetId="25" r:id="rId11"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="199">
   <si>
     <t>AMB</t>
   </si>
@@ -622,9 +622,6 @@
   </si>
   <si>
     <t>MSR</t>
-  </si>
-  <si>
-    <t>HP</t>
   </si>
   <si>
     <t>Sem N</t>
@@ -1966,7 +1963,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2036,24 +2033,12 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
-        <f>SUM(A2:A8)</f>
-        <v>525</v>
-      </c>
-      <c r="B9" s="41">
-        <f t="shared" ref="B9" si="0">SUM(B2:B8)</f>
-        <v>67.599999999999994</v>
-      </c>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
-        <f>AVERAGE(A2:A8)</f>
-        <v>75</v>
-      </c>
-      <c r="B10" s="11">
-        <f>AVERAGE(B2:B8)</f>
-        <v>9.6571428571428566</v>
-      </c>
+      <c r="A10" s="41"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="41"/>
@@ -35936,1678 +35921,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B05892-965F-431E-B5BF-049795D175A8}">
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="83" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="83" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="83" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="G1" s="83" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="81">
-        <v>1</v>
-      </c>
-      <c r="D2" s="82">
-        <v>17938.800000000003</v>
-      </c>
-      <c r="E2" s="82">
-        <v>3640.4</v>
-      </c>
-      <c r="F2" s="82">
-        <v>53.2</v>
-      </c>
-      <c r="G2" s="82">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="81">
-        <v>2</v>
-      </c>
-      <c r="D3" s="82">
-        <v>20737.600000000002</v>
-      </c>
-      <c r="E3" s="82">
-        <v>4190.4000000000005</v>
-      </c>
-      <c r="F3" s="82">
-        <v>708.8</v>
-      </c>
-      <c r="G3" s="82">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="81">
-        <v>3</v>
-      </c>
-      <c r="D4" s="82">
-        <v>37780</v>
-      </c>
-      <c r="E4" s="82">
-        <v>6958.4000000000005</v>
-      </c>
-      <c r="F4" s="82">
-        <v>688</v>
-      </c>
-      <c r="G4" s="82">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="81">
-        <v>4</v>
-      </c>
-      <c r="D5" s="82">
-        <v>15448</v>
-      </c>
-      <c r="E5" s="82">
-        <v>3055.2</v>
-      </c>
-      <c r="F5" s="82">
-        <v>98</v>
-      </c>
-      <c r="G5" s="82">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="81">
-        <v>1</v>
-      </c>
-      <c r="D6" s="82">
-        <v>30835.599999999999</v>
-      </c>
-      <c r="E6" s="82">
-        <v>7000.8</v>
-      </c>
-      <c r="F6" s="82">
-        <v>347.2</v>
-      </c>
-      <c r="G6" s="82">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="81">
-        <v>2</v>
-      </c>
-      <c r="D7" s="82">
-        <v>22246</v>
-      </c>
-      <c r="E7" s="82">
-        <v>5540</v>
-      </c>
-      <c r="F7" s="82">
-        <v>245.6</v>
-      </c>
-      <c r="G7" s="82">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="81">
-        <v>3</v>
-      </c>
-      <c r="D8" s="82">
-        <v>12422</v>
-      </c>
-      <c r="E8" s="82">
-        <v>3330.4</v>
-      </c>
-      <c r="F8" s="82">
-        <v>169.20000000000002</v>
-      </c>
-      <c r="G8" s="82">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="81">
-        <v>4</v>
-      </c>
-      <c r="D9" s="82">
-        <v>15219.6</v>
-      </c>
-      <c r="E9" s="82">
-        <v>3796.8</v>
-      </c>
-      <c r="F9" s="82">
-        <v>212.8</v>
-      </c>
-      <c r="G9" s="82">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="81">
-        <v>1</v>
-      </c>
-      <c r="D10" s="82">
-        <v>14700.4</v>
-      </c>
-      <c r="E10" s="82">
-        <v>2989.2000000000003</v>
-      </c>
-      <c r="F10" s="82">
-        <v>267.60000000000002</v>
-      </c>
-      <c r="G10" s="82">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" s="81">
-        <v>2</v>
-      </c>
-      <c r="D11" s="82">
-        <v>19146.400000000001</v>
-      </c>
-      <c r="E11" s="82">
-        <v>3652.4</v>
-      </c>
-      <c r="F11" s="82">
-        <v>399.20000000000005</v>
-      </c>
-      <c r="G11" s="82">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="B12" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" s="81">
-        <v>3</v>
-      </c>
-      <c r="D12" s="82">
-        <v>33226.400000000001</v>
-      </c>
-      <c r="E12" s="82">
-        <v>6418.8</v>
-      </c>
-      <c r="F12" s="82">
-        <v>523.20000000000005</v>
-      </c>
-      <c r="G12" s="82">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="81">
-        <v>4</v>
-      </c>
-      <c r="D13" s="82">
-        <v>17372.8</v>
-      </c>
-      <c r="E13" s="82">
-        <v>4747.2000000000007</v>
-      </c>
-      <c r="F13" s="82">
-        <v>349.6</v>
-      </c>
-      <c r="G13" s="82">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="B14" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="81">
-        <v>1</v>
-      </c>
-      <c r="D14" s="82">
-        <v>17760</v>
-      </c>
-      <c r="E14" s="82">
-        <v>3728.3999999999996</v>
-      </c>
-      <c r="F14" s="82">
-        <v>210</v>
-      </c>
-      <c r="G14" s="82">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="B15" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="81">
-        <v>2</v>
-      </c>
-      <c r="D15" s="82">
-        <v>19689.599999999999</v>
-      </c>
-      <c r="E15" s="82">
-        <v>3909.2000000000003</v>
-      </c>
-      <c r="F15" s="82">
-        <v>254.8</v>
-      </c>
-      <c r="G15" s="82">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="B16" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="81">
-        <v>3</v>
-      </c>
-      <c r="D16" s="82">
-        <v>6413.2000000000007</v>
-      </c>
-      <c r="E16" s="82">
-        <v>1576.3999999999999</v>
-      </c>
-      <c r="F16" s="82">
-        <v>70</v>
-      </c>
-      <c r="G16" s="82">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="81">
-        <v>4</v>
-      </c>
-      <c r="D17" s="82">
-        <v>25316.799999999999</v>
-      </c>
-      <c r="E17" s="82">
-        <v>5676.4</v>
-      </c>
-      <c r="F17" s="82">
-        <v>312.8</v>
-      </c>
-      <c r="G17" s="82">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="B18" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="81">
-        <v>1</v>
-      </c>
-      <c r="D18" s="82">
-        <v>44237.600000000006</v>
-      </c>
-      <c r="E18" s="82">
-        <v>7444.8</v>
-      </c>
-      <c r="F18" s="82">
-        <v>214.4</v>
-      </c>
-      <c r="G18" s="82">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="B19" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19" s="81">
-        <v>2</v>
-      </c>
-      <c r="D19" s="82">
-        <v>26322.800000000003</v>
-      </c>
-      <c r="E19" s="82">
-        <v>4369.2</v>
-      </c>
-      <c r="F19" s="82">
-        <v>538</v>
-      </c>
-      <c r="G19" s="82">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="B20" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="81">
-        <v>3</v>
-      </c>
-      <c r="D20" s="82">
-        <v>45075.600000000006</v>
-      </c>
-      <c r="E20" s="82">
-        <v>7343.6</v>
-      </c>
-      <c r="F20" s="82">
-        <v>738</v>
-      </c>
-      <c r="G20" s="82">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="B21" s="80" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="81">
-        <v>4</v>
-      </c>
-      <c r="D21" s="82">
-        <v>36212.800000000003</v>
-      </c>
-      <c r="E21" s="82">
-        <v>6216</v>
-      </c>
-      <c r="F21" s="82">
-        <v>207.2</v>
-      </c>
-      <c r="G21" s="82">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="B22" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="81">
-        <v>1</v>
-      </c>
-      <c r="D22" s="82">
-        <v>32367.199999999997</v>
-      </c>
-      <c r="E22" s="82">
-        <v>7124.4000000000005</v>
-      </c>
-      <c r="F22" s="82">
-        <v>583.6</v>
-      </c>
-      <c r="G22" s="82">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="81">
-        <v>2</v>
-      </c>
-      <c r="D23" s="82">
-        <v>27846.399999999998</v>
-      </c>
-      <c r="E23" s="82">
-        <v>6886.4</v>
-      </c>
-      <c r="F23" s="82">
-        <v>517.6</v>
-      </c>
-      <c r="G23" s="82">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" s="81">
-        <v>3</v>
-      </c>
-      <c r="D24" s="82">
-        <v>23167.600000000002</v>
-      </c>
-      <c r="E24" s="82">
-        <v>5132.7999999999993</v>
-      </c>
-      <c r="F24" s="82">
-        <v>401.59999999999997</v>
-      </c>
-      <c r="G24" s="82">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="C25" s="81">
-        <v>4</v>
-      </c>
-      <c r="D25" s="82">
-        <v>28570.400000000001</v>
-      </c>
-      <c r="E25" s="82">
-        <v>6368.8</v>
-      </c>
-      <c r="F25" s="82">
-        <v>447.2</v>
-      </c>
-      <c r="G25" s="82">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="B26" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="81">
-        <v>1</v>
-      </c>
-      <c r="D26" s="82">
-        <v>25033.200000000001</v>
-      </c>
-      <c r="E26" s="82">
-        <v>4857.2000000000007</v>
-      </c>
-      <c r="F26" s="82">
-        <v>374</v>
-      </c>
-      <c r="G26" s="82">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="B27" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="C27" s="81">
-        <v>2</v>
-      </c>
-      <c r="D27" s="82">
-        <v>39969.599999999999</v>
-      </c>
-      <c r="E27" s="82">
-        <v>7573.2000000000007</v>
-      </c>
-      <c r="F27" s="82">
-        <v>684.80000000000007</v>
-      </c>
-      <c r="G27" s="82">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="B28" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="C28" s="81">
-        <v>3</v>
-      </c>
-      <c r="D28" s="82">
-        <v>36924.800000000003</v>
-      </c>
-      <c r="E28" s="82">
-        <v>7040</v>
-      </c>
-      <c r="F28" s="82">
-        <v>616.4</v>
-      </c>
-      <c r="G28" s="82">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="B29" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="81">
-        <v>4</v>
-      </c>
-      <c r="D29" s="82">
-        <v>20400.8</v>
-      </c>
-      <c r="E29" s="82">
-        <v>3488.8</v>
-      </c>
-      <c r="F29" s="82">
-        <v>447.59999999999997</v>
-      </c>
-      <c r="G29" s="82">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="B30" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="C30" s="81">
-        <v>1</v>
-      </c>
-      <c r="D30" s="82">
-        <v>15811.6</v>
-      </c>
-      <c r="E30" s="82">
-        <v>2684</v>
-      </c>
-      <c r="F30" s="82">
-        <v>136</v>
-      </c>
-      <c r="G30" s="82">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="B31" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="81">
-        <v>2</v>
-      </c>
-      <c r="D31" s="82">
-        <v>24537.199999999997</v>
-      </c>
-      <c r="E31" s="82">
-        <v>4491.2</v>
-      </c>
-      <c r="F31" s="82">
-        <v>354.79999999999995</v>
-      </c>
-      <c r="G31" s="82">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="B32" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="81">
-        <v>3</v>
-      </c>
-      <c r="D32" s="82">
-        <v>26057.199999999997</v>
-      </c>
-      <c r="E32" s="82">
-        <v>5295.5999999999995</v>
-      </c>
-      <c r="F32" s="82">
-        <v>362.8</v>
-      </c>
-      <c r="G32" s="82">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="B33" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="C33" s="81">
-        <v>4</v>
-      </c>
-      <c r="D33" s="82">
-        <v>27948</v>
-      </c>
-      <c r="E33" s="82">
-        <v>5165.5999999999995</v>
-      </c>
-      <c r="F33" s="82">
-        <v>414</v>
-      </c>
-      <c r="G33" s="82">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED55377-163A-4B20-8400-2B183BDC37F4}">
-  <dimension ref="A1:H33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.21875" style="80" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" style="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="5" style="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="80" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="80"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="85" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="85" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="85" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="85" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="85">
-        <v>15</v>
-      </c>
-      <c r="E2" s="85">
-        <v>30</v>
-      </c>
-      <c r="F2" s="85">
-        <v>2.25</v>
-      </c>
-      <c r="G2" s="86">
-        <v>180</v>
-      </c>
-      <c r="H2" s="85">
-        <v>3547.2222222222222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="85">
-        <v>14.6</v>
-      </c>
-      <c r="E3" s="85">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="F3" s="85">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="G3" s="86">
-        <v>190</v>
-      </c>
-      <c r="H3" s="85">
-        <v>4116.666666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="85">
-        <v>13.2</v>
-      </c>
-      <c r="E4" s="85">
-        <v>34.6</v>
-      </c>
-      <c r="F4" s="85">
-        <v>2.6</v>
-      </c>
-      <c r="G4" s="86">
-        <v>170</v>
-      </c>
-      <c r="H4" s="85">
-        <v>3380.5555555555557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="85">
-        <v>13</v>
-      </c>
-      <c r="E5" s="85">
-        <v>37.6</v>
-      </c>
-      <c r="F5" s="85">
-        <v>2.52</v>
-      </c>
-      <c r="G5" s="86">
-        <v>160</v>
-      </c>
-      <c r="H5" s="85">
-        <v>3733.333333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="85" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="85">
-        <v>15.2</v>
-      </c>
-      <c r="E6" s="85">
-        <v>38.6</v>
-      </c>
-      <c r="F6" s="85">
-        <v>2.15</v>
-      </c>
-      <c r="G6" s="86">
-        <v>180</v>
-      </c>
-      <c r="H6" s="85">
-        <v>3819.4444444444443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="85" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="85">
-        <v>13</v>
-      </c>
-      <c r="E7" s="85">
-        <v>40.6</v>
-      </c>
-      <c r="F7" s="85">
-        <v>2.1</v>
-      </c>
-      <c r="G7" s="86">
-        <v>170</v>
-      </c>
-      <c r="H7" s="85">
-        <v>1738.8888888888889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="85" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="85">
-        <v>14.4</v>
-      </c>
-      <c r="E8" s="85">
-        <v>37.6</v>
-      </c>
-      <c r="F8" s="85">
-        <v>2.48</v>
-      </c>
-      <c r="G8" s="86">
-        <v>180</v>
-      </c>
-      <c r="H8" s="85">
-        <v>3927.7777777777778</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="85" t="s">
-        <v>192</v>
-      </c>
-      <c r="B9" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="85">
-        <v>13</v>
-      </c>
-      <c r="E9" s="85">
-        <v>38</v>
-      </c>
-      <c r="F9" s="85">
-        <v>2.39</v>
-      </c>
-      <c r="G9" s="86">
-        <v>150</v>
-      </c>
-      <c r="H9" s="85">
-        <v>3338.8888888888887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="85" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="85">
-        <v>13.6</v>
-      </c>
-      <c r="E10" s="85">
-        <v>35.6</v>
-      </c>
-      <c r="F10" s="85">
-        <v>2.46</v>
-      </c>
-      <c r="G10" s="86">
-        <v>210</v>
-      </c>
-      <c r="H10" s="85">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="85" t="s">
-        <v>193</v>
-      </c>
-      <c r="B11" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="85">
-        <v>13.6</v>
-      </c>
-      <c r="E11" s="85">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="F11" s="85">
-        <v>2.42</v>
-      </c>
-      <c r="G11" s="86">
-        <v>200</v>
-      </c>
-      <c r="H11" s="85">
-        <v>4377.7777777777774</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="85" t="s">
-        <v>193</v>
-      </c>
-      <c r="B12" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="85">
-        <v>14.2</v>
-      </c>
-      <c r="E12" s="85">
-        <v>39.6</v>
-      </c>
-      <c r="F12" s="85">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G12" s="86">
-        <v>160</v>
-      </c>
-      <c r="H12" s="85">
-        <v>3761.1111111111113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="85" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="85">
-        <v>14</v>
-      </c>
-      <c r="E13" s="85">
-        <v>41.8</v>
-      </c>
-      <c r="F13" s="85">
-        <v>2.52</v>
-      </c>
-      <c r="G13" s="86">
-        <v>160</v>
-      </c>
-      <c r="H13" s="85">
-        <v>3075</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="B14" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="85">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E14" s="85">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="F14" s="85">
-        <v>2.25</v>
-      </c>
-      <c r="G14" s="86">
-        <v>210</v>
-      </c>
-      <c r="H14" s="85">
-        <v>4297.2222222222217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="85">
-        <v>16.2</v>
-      </c>
-      <c r="E15" s="85">
-        <v>50</v>
-      </c>
-      <c r="F15" s="85">
-        <v>2.35</v>
-      </c>
-      <c r="G15" s="86">
-        <v>210</v>
-      </c>
-      <c r="H15" s="85">
-        <v>4694.4444444444443</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="B16" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="85">
-        <v>15.4</v>
-      </c>
-      <c r="E16" s="85">
-        <v>43.2</v>
-      </c>
-      <c r="F16" s="85">
-        <v>2.42</v>
-      </c>
-      <c r="G16" s="86">
-        <v>170</v>
-      </c>
-      <c r="H16" s="85">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="B17" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="85">
-        <v>14</v>
-      </c>
-      <c r="E17" s="85">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="F17" s="85">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="G17" s="86">
-        <v>170</v>
-      </c>
-      <c r="H17" s="85">
-        <v>1644.4444444444443</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="B18" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="85">
-        <v>16</v>
-      </c>
-      <c r="E18" s="85">
-        <v>50.6</v>
-      </c>
-      <c r="F18" s="85">
-        <v>2.25</v>
-      </c>
-      <c r="G18" s="86">
-        <v>180</v>
-      </c>
-      <c r="H18" s="85">
-        <v>4227.7777777777774</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="85">
-        <v>16.2</v>
-      </c>
-      <c r="E19" s="85">
-        <v>42.6</v>
-      </c>
-      <c r="F19" s="85">
-        <v>2.46</v>
-      </c>
-      <c r="G19" s="86">
-        <v>200</v>
-      </c>
-      <c r="H19" s="85">
-        <v>3047.2222222222222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="B20" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="85">
-        <v>14.8</v>
-      </c>
-      <c r="E20" s="85">
-        <v>43.4</v>
-      </c>
-      <c r="F20" s="85">
-        <v>2.78</v>
-      </c>
-      <c r="G20" s="86">
-        <v>160</v>
-      </c>
-      <c r="H20" s="85">
-        <v>3836.1111111111109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="B21" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="C21" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="85">
-        <v>15</v>
-      </c>
-      <c r="E21" s="85">
-        <v>42</v>
-      </c>
-      <c r="F21" s="85">
-        <v>1.97</v>
-      </c>
-      <c r="G21" s="86">
-        <v>170</v>
-      </c>
-      <c r="H21" s="85">
-        <v>1058.3333333333333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="85" t="s">
-        <v>192</v>
-      </c>
-      <c r="B22" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="C22" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="85">
-        <v>15.4</v>
-      </c>
-      <c r="E22" s="85">
-        <v>42.8</v>
-      </c>
-      <c r="F22" s="85">
-        <v>2.35</v>
-      </c>
-      <c r="G22" s="86">
-        <v>180</v>
-      </c>
-      <c r="H22" s="85">
-        <v>4316.666666666667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="85" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="85">
-        <v>16.2</v>
-      </c>
-      <c r="E23" s="85">
-        <v>43.6</v>
-      </c>
-      <c r="F23" s="85">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="G23" s="86">
-        <v>180</v>
-      </c>
-      <c r="H23" s="85">
-        <v>3677.7777777777778</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="85" t="s">
-        <v>192</v>
-      </c>
-      <c r="B24" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="C24" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="85">
-        <v>13.8</v>
-      </c>
-      <c r="E24" s="85">
-        <v>34.6</v>
-      </c>
-      <c r="F24" s="85">
-        <v>2.54</v>
-      </c>
-      <c r="G24" s="86">
-        <v>170</v>
-      </c>
-      <c r="H24" s="85">
-        <v>4619.4444444444443</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="85" t="s">
-        <v>192</v>
-      </c>
-      <c r="B25" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="C25" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="85">
-        <v>17</v>
-      </c>
-      <c r="E25" s="85">
-        <v>53.2</v>
-      </c>
-      <c r="F25" s="85">
-        <v>2.15</v>
-      </c>
-      <c r="G25" s="86">
-        <v>160</v>
-      </c>
-      <c r="H25" s="85">
-        <v>1005.5555555555555</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="85" t="s">
-        <v>193</v>
-      </c>
-      <c r="B26" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="C26" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="85">
-        <v>15.2</v>
-      </c>
-      <c r="E26" s="85">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="F26" s="85">
-        <v>2.38</v>
-      </c>
-      <c r="G26" s="86">
-        <v>190</v>
-      </c>
-      <c r="H26" s="85">
-        <v>4444.4444444444443</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="85" t="s">
-        <v>193</v>
-      </c>
-      <c r="B27" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="C27" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="85">
-        <v>14</v>
-      </c>
-      <c r="E27" s="85">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="F27" s="85">
-        <v>2.58</v>
-      </c>
-      <c r="G27" s="86">
-        <v>160</v>
-      </c>
-      <c r="H27" s="85">
-        <v>1008.3333333333333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="85" t="s">
-        <v>193</v>
-      </c>
-      <c r="B28" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="C28" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="85">
-        <v>16.2</v>
-      </c>
-      <c r="E28" s="85">
-        <v>47.4</v>
-      </c>
-      <c r="F28" s="85">
-        <v>2.82</v>
-      </c>
-      <c r="G28" s="86">
-        <v>170</v>
-      </c>
-      <c r="H28" s="85">
-        <v>3138.8888888888882</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="85" t="s">
-        <v>193</v>
-      </c>
-      <c r="B29" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="C29" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="85">
-        <v>13</v>
-      </c>
-      <c r="E29" s="85">
-        <v>26.8</v>
-      </c>
-      <c r="F29" s="85">
-        <v>2.66</v>
-      </c>
-      <c r="G29" s="86">
-        <v>170</v>
-      </c>
-      <c r="H29" s="85">
-        <v>2416.6666666666665</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="C30" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="85">
-        <v>14.6</v>
-      </c>
-      <c r="E30" s="85">
-        <v>35</v>
-      </c>
-      <c r="F30" s="85">
-        <v>2.7</v>
-      </c>
-      <c r="G30" s="86">
-        <v>180</v>
-      </c>
-      <c r="H30" s="85">
-        <v>4130.5555555555557</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="B31" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="C31" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="85">
-        <v>15</v>
-      </c>
-      <c r="E31" s="85">
-        <v>33.4</v>
-      </c>
-      <c r="F31" s="85">
-        <v>2.54</v>
-      </c>
-      <c r="G31" s="86">
-        <v>200</v>
-      </c>
-      <c r="H31" s="85">
-        <v>3591.6666666666665</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="B32" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="C32" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="85">
-        <v>10</v>
-      </c>
-      <c r="E32" s="85">
-        <v>22.6</v>
-      </c>
-      <c r="F32" s="85">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="G32" s="86">
-        <v>170</v>
-      </c>
-      <c r="H32" s="85">
-        <v>1305.5555555555554</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="85" t="s">
-        <v>194</v>
-      </c>
-      <c r="B33" s="85" t="s">
-        <v>195</v>
-      </c>
-      <c r="C33" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="85">
-        <v>14.2</v>
-      </c>
-      <c r="E33" s="85">
-        <v>31.6</v>
-      </c>
-      <c r="F33" s="85">
-        <v>2.56</v>
-      </c>
-      <c r="G33" s="86">
-        <v>200</v>
-      </c>
-      <c r="H33" s="85">
-        <v>4861.1111111111113</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAC6F4B-CCAE-4AAF-AE2E-C9668BE505A2}">
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F6"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38155,7 +36473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD508DF-9F19-4BED-8F3A-513129BD06D5}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -38301,7 +36619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E60BC9F-3410-4F9E-80FE-AF662158432D}">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -38634,6 +36952,1573 @@
       <c r="G12" s="76">
         <f t="shared" si="2"/>
         <v>25.939800000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B05892-965F-431E-B5BF-049795D175A8}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="81">
+        <v>1</v>
+      </c>
+      <c r="D2" s="82">
+        <v>17938.800000000003</v>
+      </c>
+      <c r="E2" s="82">
+        <v>3640.4</v>
+      </c>
+      <c r="F2" s="82">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="81">
+        <v>2</v>
+      </c>
+      <c r="D3" s="82">
+        <v>20737.600000000002</v>
+      </c>
+      <c r="E3" s="82">
+        <v>4190.4000000000005</v>
+      </c>
+      <c r="F3" s="82">
+        <v>708.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="81">
+        <v>3</v>
+      </c>
+      <c r="D4" s="82">
+        <v>37780</v>
+      </c>
+      <c r="E4" s="82">
+        <v>6958.4000000000005</v>
+      </c>
+      <c r="F4" s="82">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="81">
+        <v>4</v>
+      </c>
+      <c r="D5" s="82">
+        <v>15448</v>
+      </c>
+      <c r="E5" s="82">
+        <v>3055.2</v>
+      </c>
+      <c r="F5" s="82">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="81">
+        <v>1</v>
+      </c>
+      <c r="D6" s="82">
+        <v>30835.599999999999</v>
+      </c>
+      <c r="E6" s="82">
+        <v>7000.8</v>
+      </c>
+      <c r="F6" s="82">
+        <v>347.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="81">
+        <v>2</v>
+      </c>
+      <c r="D7" s="82">
+        <v>22246</v>
+      </c>
+      <c r="E7" s="82">
+        <v>5540</v>
+      </c>
+      <c r="F7" s="82">
+        <v>245.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="81">
+        <v>3</v>
+      </c>
+      <c r="D8" s="82">
+        <v>12422</v>
+      </c>
+      <c r="E8" s="82">
+        <v>3330.4</v>
+      </c>
+      <c r="F8" s="82">
+        <v>169.20000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="81">
+        <v>4</v>
+      </c>
+      <c r="D9" s="82">
+        <v>15219.6</v>
+      </c>
+      <c r="E9" s="82">
+        <v>3796.8</v>
+      </c>
+      <c r="F9" s="82">
+        <v>212.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="81">
+        <v>1</v>
+      </c>
+      <c r="D10" s="82">
+        <v>14700.4</v>
+      </c>
+      <c r="E10" s="82">
+        <v>2989.2000000000003</v>
+      </c>
+      <c r="F10" s="82">
+        <v>267.60000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="81">
+        <v>2</v>
+      </c>
+      <c r="D11" s="82">
+        <v>19146.400000000001</v>
+      </c>
+      <c r="E11" s="82">
+        <v>3652.4</v>
+      </c>
+      <c r="F11" s="82">
+        <v>399.20000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="81">
+        <v>3</v>
+      </c>
+      <c r="D12" s="82">
+        <v>33226.400000000001</v>
+      </c>
+      <c r="E12" s="82">
+        <v>6418.8</v>
+      </c>
+      <c r="F12" s="82">
+        <v>523.20000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="81">
+        <v>4</v>
+      </c>
+      <c r="D13" s="82">
+        <v>17372.8</v>
+      </c>
+      <c r="E13" s="82">
+        <v>4747.2000000000007</v>
+      </c>
+      <c r="F13" s="82">
+        <v>349.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="81">
+        <v>1</v>
+      </c>
+      <c r="D14" s="82">
+        <v>17760</v>
+      </c>
+      <c r="E14" s="82">
+        <v>3728.3999999999996</v>
+      </c>
+      <c r="F14" s="82">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="81">
+        <v>2</v>
+      </c>
+      <c r="D15" s="82">
+        <v>19689.599999999999</v>
+      </c>
+      <c r="E15" s="82">
+        <v>3909.2000000000003</v>
+      </c>
+      <c r="F15" s="82">
+        <v>254.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="81">
+        <v>3</v>
+      </c>
+      <c r="D16" s="82">
+        <v>6413.2000000000007</v>
+      </c>
+      <c r="E16" s="82">
+        <v>1576.3999999999999</v>
+      </c>
+      <c r="F16" s="82">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="81">
+        <v>4</v>
+      </c>
+      <c r="D17" s="82">
+        <v>25316.799999999999</v>
+      </c>
+      <c r="E17" s="82">
+        <v>5676.4</v>
+      </c>
+      <c r="F17" s="82">
+        <v>312.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="81">
+        <v>1</v>
+      </c>
+      <c r="D18" s="82">
+        <v>44237.600000000006</v>
+      </c>
+      <c r="E18" s="82">
+        <v>7444.8</v>
+      </c>
+      <c r="F18" s="82">
+        <v>214.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="81">
+        <v>2</v>
+      </c>
+      <c r="D19" s="82">
+        <v>26322.800000000003</v>
+      </c>
+      <c r="E19" s="82">
+        <v>4369.2</v>
+      </c>
+      <c r="F19" s="82">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="81">
+        <v>3</v>
+      </c>
+      <c r="D20" s="82">
+        <v>45075.600000000006</v>
+      </c>
+      <c r="E20" s="82">
+        <v>7343.6</v>
+      </c>
+      <c r="F20" s="82">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="81">
+        <v>4</v>
+      </c>
+      <c r="D21" s="82">
+        <v>36212.800000000003</v>
+      </c>
+      <c r="E21" s="82">
+        <v>6216</v>
+      </c>
+      <c r="F21" s="82">
+        <v>207.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="81">
+        <v>1</v>
+      </c>
+      <c r="D22" s="82">
+        <v>32367.199999999997</v>
+      </c>
+      <c r="E22" s="82">
+        <v>7124.4000000000005</v>
+      </c>
+      <c r="F22" s="82">
+        <v>583.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="81">
+        <v>2</v>
+      </c>
+      <c r="D23" s="82">
+        <v>27846.399999999998</v>
+      </c>
+      <c r="E23" s="82">
+        <v>6886.4</v>
+      </c>
+      <c r="F23" s="82">
+        <v>517.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="81">
+        <v>3</v>
+      </c>
+      <c r="D24" s="82">
+        <v>23167.600000000002</v>
+      </c>
+      <c r="E24" s="82">
+        <v>5132.7999999999993</v>
+      </c>
+      <c r="F24" s="82">
+        <v>401.59999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="81">
+        <v>4</v>
+      </c>
+      <c r="D25" s="82">
+        <v>28570.400000000001</v>
+      </c>
+      <c r="E25" s="82">
+        <v>6368.8</v>
+      </c>
+      <c r="F25" s="82">
+        <v>447.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="81">
+        <v>1</v>
+      </c>
+      <c r="D26" s="82">
+        <v>25033.200000000001</v>
+      </c>
+      <c r="E26" s="82">
+        <v>4857.2000000000007</v>
+      </c>
+      <c r="F26" s="82">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="81">
+        <v>2</v>
+      </c>
+      <c r="D27" s="82">
+        <v>39969.599999999999</v>
+      </c>
+      <c r="E27" s="82">
+        <v>7573.2000000000007</v>
+      </c>
+      <c r="F27" s="82">
+        <v>684.80000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="81">
+        <v>3</v>
+      </c>
+      <c r="D28" s="82">
+        <v>36924.800000000003</v>
+      </c>
+      <c r="E28" s="82">
+        <v>7040</v>
+      </c>
+      <c r="F28" s="82">
+        <v>616.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="81">
+        <v>4</v>
+      </c>
+      <c r="D29" s="82">
+        <v>20400.8</v>
+      </c>
+      <c r="E29" s="82">
+        <v>3488.8</v>
+      </c>
+      <c r="F29" s="82">
+        <v>447.59999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="81">
+        <v>1</v>
+      </c>
+      <c r="D30" s="82">
+        <v>15811.6</v>
+      </c>
+      <c r="E30" s="82">
+        <v>2684</v>
+      </c>
+      <c r="F30" s="82">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="81">
+        <v>2</v>
+      </c>
+      <c r="D31" s="82">
+        <v>24537.199999999997</v>
+      </c>
+      <c r="E31" s="82">
+        <v>4491.2</v>
+      </c>
+      <c r="F31" s="82">
+        <v>354.79999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="81">
+        <v>3</v>
+      </c>
+      <c r="D32" s="82">
+        <v>26057.199999999997</v>
+      </c>
+      <c r="E32" s="82">
+        <v>5295.5999999999995</v>
+      </c>
+      <c r="F32" s="82">
+        <v>362.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="81">
+        <v>4</v>
+      </c>
+      <c r="D33" s="82">
+        <v>27948</v>
+      </c>
+      <c r="E33" s="82">
+        <v>5165.5999999999995</v>
+      </c>
+      <c r="F33" s="82">
+        <v>414</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED55377-163A-4B20-8400-2B183BDC37F4}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="5" style="80" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="80"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="85" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="85">
+        <v>15</v>
+      </c>
+      <c r="E2" s="85">
+        <v>30</v>
+      </c>
+      <c r="F2" s="85">
+        <v>2.25</v>
+      </c>
+      <c r="G2" s="86">
+        <v>180</v>
+      </c>
+      <c r="H2" s="4">
+        <v>3547.2222222222222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="85">
+        <v>14.6</v>
+      </c>
+      <c r="E3" s="85">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="F3" s="85">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="G3" s="86">
+        <v>190</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4116.666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="85">
+        <v>13.2</v>
+      </c>
+      <c r="E4" s="85">
+        <v>34.6</v>
+      </c>
+      <c r="F4" s="85">
+        <v>2.6</v>
+      </c>
+      <c r="G4" s="86">
+        <v>170</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3380.5555555555557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="85">
+        <v>13</v>
+      </c>
+      <c r="E5" s="85">
+        <v>37.6</v>
+      </c>
+      <c r="F5" s="85">
+        <v>2.52</v>
+      </c>
+      <c r="G5" s="86">
+        <v>160</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3733.333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="85">
+        <v>15.2</v>
+      </c>
+      <c r="E6" s="85">
+        <v>38.6</v>
+      </c>
+      <c r="F6" s="85">
+        <v>2.15</v>
+      </c>
+      <c r="G6" s="86">
+        <v>180</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3819.4444444444443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="85">
+        <v>13</v>
+      </c>
+      <c r="E7" s="85">
+        <v>40.6</v>
+      </c>
+      <c r="F7" s="85">
+        <v>2.1</v>
+      </c>
+      <c r="G7" s="86">
+        <v>170</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1738.8888888888889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="85">
+        <v>14.4</v>
+      </c>
+      <c r="E8" s="85">
+        <v>37.6</v>
+      </c>
+      <c r="F8" s="85">
+        <v>2.48</v>
+      </c>
+      <c r="G8" s="86">
+        <v>180</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3927.7777777777778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="85">
+        <v>13</v>
+      </c>
+      <c r="E9" s="85">
+        <v>38</v>
+      </c>
+      <c r="F9" s="85">
+        <v>2.39</v>
+      </c>
+      <c r="G9" s="86">
+        <v>150</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3338.8888888888887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="85">
+        <v>13.6</v>
+      </c>
+      <c r="E10" s="85">
+        <v>35.6</v>
+      </c>
+      <c r="F10" s="85">
+        <v>2.46</v>
+      </c>
+      <c r="G10" s="86">
+        <v>210</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="85">
+        <v>13.6</v>
+      </c>
+      <c r="E11" s="85">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F11" s="85">
+        <v>2.42</v>
+      </c>
+      <c r="G11" s="86">
+        <v>200</v>
+      </c>
+      <c r="H11" s="4">
+        <v>4377.7777777777774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="85">
+        <v>14.2</v>
+      </c>
+      <c r="E12" s="85">
+        <v>39.6</v>
+      </c>
+      <c r="F12" s="85">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G12" s="86">
+        <v>160</v>
+      </c>
+      <c r="H12" s="4">
+        <v>3761.1111111111113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="85">
+        <v>14</v>
+      </c>
+      <c r="E13" s="85">
+        <v>41.8</v>
+      </c>
+      <c r="F13" s="85">
+        <v>2.52</v>
+      </c>
+      <c r="G13" s="86">
+        <v>160</v>
+      </c>
+      <c r="H13" s="4">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="85">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E14" s="85">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="F14" s="85">
+        <v>2.25</v>
+      </c>
+      <c r="G14" s="86">
+        <v>210</v>
+      </c>
+      <c r="H14" s="4">
+        <v>4297.2222222222217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="85">
+        <v>16.2</v>
+      </c>
+      <c r="E15" s="85">
+        <v>50</v>
+      </c>
+      <c r="F15" s="85">
+        <v>2.35</v>
+      </c>
+      <c r="G15" s="86">
+        <v>210</v>
+      </c>
+      <c r="H15" s="4">
+        <v>4694.4444444444443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="85">
+        <v>15.4</v>
+      </c>
+      <c r="E16" s="85">
+        <v>43.2</v>
+      </c>
+      <c r="F16" s="85">
+        <v>2.42</v>
+      </c>
+      <c r="G16" s="86">
+        <v>170</v>
+      </c>
+      <c r="H16" s="4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="85">
+        <v>14</v>
+      </c>
+      <c r="E17" s="85">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F17" s="85">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G17" s="86">
+        <v>170</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1644.4444444444443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="85">
+        <v>16</v>
+      </c>
+      <c r="E18" s="85">
+        <v>50.6</v>
+      </c>
+      <c r="F18" s="85">
+        <v>2.25</v>
+      </c>
+      <c r="G18" s="86">
+        <v>180</v>
+      </c>
+      <c r="H18" s="4">
+        <v>4227.7777777777774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="85">
+        <v>16.2</v>
+      </c>
+      <c r="E19" s="85">
+        <v>42.6</v>
+      </c>
+      <c r="F19" s="85">
+        <v>2.46</v>
+      </c>
+      <c r="G19" s="86">
+        <v>200</v>
+      </c>
+      <c r="H19" s="4">
+        <v>3047.2222222222222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="85">
+        <v>14.8</v>
+      </c>
+      <c r="E20" s="85">
+        <v>43.4</v>
+      </c>
+      <c r="F20" s="85">
+        <v>2.78</v>
+      </c>
+      <c r="G20" s="86">
+        <v>160</v>
+      </c>
+      <c r="H20" s="4">
+        <v>3836.1111111111109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="85">
+        <v>15</v>
+      </c>
+      <c r="E21" s="85">
+        <v>42</v>
+      </c>
+      <c r="F21" s="85">
+        <v>1.97</v>
+      </c>
+      <c r="G21" s="86">
+        <v>170</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1058.3333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="85">
+        <v>15.4</v>
+      </c>
+      <c r="E22" s="85">
+        <v>42.8</v>
+      </c>
+      <c r="F22" s="85">
+        <v>2.35</v>
+      </c>
+      <c r="G22" s="86">
+        <v>180</v>
+      </c>
+      <c r="H22" s="4">
+        <v>4316.666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="85">
+        <v>16.2</v>
+      </c>
+      <c r="E23" s="85">
+        <v>43.6</v>
+      </c>
+      <c r="F23" s="85">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="G23" s="86">
+        <v>180</v>
+      </c>
+      <c r="H23" s="4">
+        <v>3677.7777777777778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="85">
+        <v>13.8</v>
+      </c>
+      <c r="E24" s="85">
+        <v>34.6</v>
+      </c>
+      <c r="F24" s="85">
+        <v>2.54</v>
+      </c>
+      <c r="G24" s="86">
+        <v>170</v>
+      </c>
+      <c r="H24" s="4">
+        <v>4619.4444444444443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="85">
+        <v>17</v>
+      </c>
+      <c r="E25" s="85">
+        <v>53.2</v>
+      </c>
+      <c r="F25" s="85">
+        <v>2.15</v>
+      </c>
+      <c r="G25" s="86">
+        <v>160</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1005.5555555555555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="85">
+        <v>15.2</v>
+      </c>
+      <c r="E26" s="85">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="F26" s="85">
+        <v>2.38</v>
+      </c>
+      <c r="G26" s="86">
+        <v>190</v>
+      </c>
+      <c r="H26" s="4">
+        <v>4444.4444444444443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="85">
+        <v>14</v>
+      </c>
+      <c r="E27" s="85">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F27" s="85">
+        <v>2.58</v>
+      </c>
+      <c r="G27" s="86">
+        <v>160</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1008.3333333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="85">
+        <v>16.2</v>
+      </c>
+      <c r="E28" s="85">
+        <v>47.4</v>
+      </c>
+      <c r="F28" s="85">
+        <v>2.82</v>
+      </c>
+      <c r="G28" s="86">
+        <v>170</v>
+      </c>
+      <c r="H28" s="4">
+        <v>3138.8888888888882</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="85">
+        <v>13</v>
+      </c>
+      <c r="E29" s="85">
+        <v>26.8</v>
+      </c>
+      <c r="F29" s="85">
+        <v>2.66</v>
+      </c>
+      <c r="G29" s="86">
+        <v>170</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2416.6666666666665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="85">
+        <v>14.6</v>
+      </c>
+      <c r="E30" s="85">
+        <v>35</v>
+      </c>
+      <c r="F30" s="85">
+        <v>2.7</v>
+      </c>
+      <c r="G30" s="86">
+        <v>180</v>
+      </c>
+      <c r="H30" s="4">
+        <v>4130.5555555555557</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="85">
+        <v>15</v>
+      </c>
+      <c r="E31" s="85">
+        <v>33.4</v>
+      </c>
+      <c r="F31" s="85">
+        <v>2.54</v>
+      </c>
+      <c r="G31" s="86">
+        <v>200</v>
+      </c>
+      <c r="H31" s="4">
+        <v>3591.6666666666665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="85">
+        <v>10</v>
+      </c>
+      <c r="E32" s="85">
+        <v>22.6</v>
+      </c>
+      <c r="F32" s="85">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="G32" s="86">
+        <v>170</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1305.5555555555554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="85">
+        <v>14.2</v>
+      </c>
+      <c r="E33" s="85">
+        <v>31.6</v>
+      </c>
+      <c r="F33" s="85">
+        <v>2.56</v>
+      </c>
+      <c r="G33" s="86">
+        <v>200</v>
+      </c>
+      <c r="H33" s="4">
+        <v>4861.1111111111113</v>
       </c>
     </row>
   </sheetData>

--- a/static/classes/experimentacao/dados_biost_exp.xlsx
+++ b/static/classes/experimentacao/dados_biost_exp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEE64B2-AF7B-453B-A098-BFD6148323A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E30BB20-7290-4ACA-A452-CD2F5E8245D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="934" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="198">
   <si>
     <t>AMB</t>
   </si>
@@ -645,9 +645,6 @@
     <t xml:space="preserve">Aveia Preta </t>
   </si>
   <si>
-    <t>MR</t>
-  </si>
-  <si>
     <t>NL</t>
   </si>
   <si>
@@ -1098,12 +1095,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1118,6 +1109,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1159,7 +1156,7 @@
             <xdr14:cNvPr id="2" name="Tinta 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1224,7 +1221,7 @@
             <xdr14:cNvPr id="3" name="Tinta 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1292,7 +1289,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1334,7 +1331,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1376,7 +1373,7 @@
         <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,7 +1415,7 @@
         <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1457,7 @@
         <xdr:cNvPr id="6" name="Imagem 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1504,7 @@
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000002100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1562,7 +1559,7 @@
         <xdr:cNvPr id="14337" name="AutoShape 1" descr="http://127.0.0.1:9500/chunk_output/61CA297D42E8352A/8C91D2C9/cqv3jo1cg92uw/00004f.png?fixed_size=1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000001380000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000001380000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1607,7 @@
         <xdr:cNvPr id="14338" name="AutoShape 2" descr="http://127.0.0.1:9500/chunk_output/61CA297D42E8352A/8C91D2C9/cqv3jo1cg92uw/00004f.png?fixed_size=1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000002380000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000002380000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5056,12 +5053,12 @@
       <c r="B1" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
       <c r="G1" s="28" t="s">
         <v>63</v>
       </c>
@@ -6611,11 +6608,11 @@
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -36979,662 +36976,662 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="81" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="81">
+      <c r="C2" s="79">
         <v>1</v>
       </c>
-      <c r="D2" s="82">
+      <c r="D2" s="80">
         <v>17938.800000000003</v>
       </c>
-      <c r="E2" s="82">
+      <c r="E2" s="80">
         <v>3640.4</v>
       </c>
-      <c r="F2" s="82">
+      <c r="F2" s="80">
         <v>53.2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="81">
+      <c r="C3" s="79">
         <v>2</v>
       </c>
-      <c r="D3" s="82">
+      <c r="D3" s="80">
         <v>20737.600000000002</v>
       </c>
-      <c r="E3" s="82">
+      <c r="E3" s="80">
         <v>4190.4000000000005</v>
       </c>
-      <c r="F3" s="82">
+      <c r="F3" s="80">
         <v>708.8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="81">
+      <c r="C4" s="79">
         <v>3</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="80">
         <v>37780</v>
       </c>
-      <c r="E4" s="82">
+      <c r="E4" s="80">
         <v>6958.4000000000005</v>
       </c>
-      <c r="F4" s="82">
+      <c r="F4" s="80">
         <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="81">
+      <c r="C5" s="79">
         <v>4</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="80">
         <v>15448</v>
       </c>
-      <c r="E5" s="82">
+      <c r="E5" s="80">
         <v>3055.2</v>
       </c>
-      <c r="F5" s="82">
+      <c r="F5" s="80">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="79">
         <v>1</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="80">
         <v>30835.599999999999</v>
       </c>
-      <c r="E6" s="82">
+      <c r="E6" s="80">
         <v>7000.8</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="80">
         <v>347.2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="79">
         <v>2</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="80">
         <v>22246</v>
       </c>
-      <c r="E7" s="82">
+      <c r="E7" s="80">
         <v>5540</v>
       </c>
-      <c r="F7" s="82">
+      <c r="F7" s="80">
         <v>245.6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="79">
         <v>3</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="80">
         <v>12422</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="80">
         <v>3330.4</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="80">
         <v>169.20000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="79">
         <v>4</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="80">
         <v>15219.6</v>
       </c>
-      <c r="E9" s="82">
+      <c r="E9" s="80">
         <v>3796.8</v>
       </c>
-      <c r="F9" s="82">
+      <c r="F9" s="80">
         <v>212.8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="79">
         <v>1</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="80">
         <v>14700.4</v>
       </c>
-      <c r="E10" s="82">
+      <c r="E10" s="80">
         <v>2989.2000000000003</v>
       </c>
-      <c r="F10" s="82">
+      <c r="F10" s="80">
         <v>267.60000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="79">
         <v>2</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="80">
         <v>19146.400000000001</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="80">
         <v>3652.4</v>
       </c>
-      <c r="F11" s="82">
+      <c r="F11" s="80">
         <v>399.20000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="79">
         <v>3</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="80">
         <v>33226.400000000001</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="80">
         <v>6418.8</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="80">
         <v>523.20000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="81">
+      <c r="C13" s="79">
         <v>4</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="80">
         <v>17372.8</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="80">
         <v>4747.2000000000007</v>
       </c>
-      <c r="F13" s="82">
+      <c r="F13" s="80">
         <v>349.6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="C14" s="81">
+      <c r="C14" s="79">
         <v>1</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="80">
         <v>17760</v>
       </c>
-      <c r="E14" s="82">
+      <c r="E14" s="80">
         <v>3728.3999999999996</v>
       </c>
-      <c r="F14" s="82">
+      <c r="F14" s="80">
         <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="81">
+      <c r="C15" s="79">
         <v>2</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="80">
         <v>19689.599999999999</v>
       </c>
-      <c r="E15" s="82">
+      <c r="E15" s="80">
         <v>3909.2000000000003</v>
       </c>
-      <c r="F15" s="82">
+      <c r="F15" s="80">
         <v>254.8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="81">
+      <c r="C16" s="79">
         <v>3</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="80">
         <v>6413.2000000000007</v>
       </c>
-      <c r="E16" s="82">
+      <c r="E16" s="80">
         <v>1576.3999999999999</v>
       </c>
-      <c r="F16" s="82">
+      <c r="F16" s="80">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="81">
+      <c r="C17" s="79">
         <v>4</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="80">
         <v>25316.799999999999</v>
       </c>
-      <c r="E17" s="82">
+      <c r="E17" s="80">
         <v>5676.4</v>
       </c>
-      <c r="F17" s="82">
+      <c r="F17" s="80">
         <v>312.8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="81">
+      <c r="C18" s="79">
         <v>1</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="80">
         <v>44237.600000000006</v>
       </c>
-      <c r="E18" s="82">
+      <c r="E18" s="80">
         <v>7444.8</v>
       </c>
-      <c r="F18" s="82">
+      <c r="F18" s="80">
         <v>214.4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="C19" s="81">
+      <c r="C19" s="79">
         <v>2</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="80">
         <v>26322.800000000003</v>
       </c>
-      <c r="E19" s="82">
+      <c r="E19" s="80">
         <v>4369.2</v>
       </c>
-      <c r="F19" s="82">
+      <c r="F19" s="80">
         <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="C20" s="81">
+      <c r="C20" s="79">
         <v>3</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="80">
         <v>45075.600000000006</v>
       </c>
-      <c r="E20" s="82">
+      <c r="E20" s="80">
         <v>7343.6</v>
       </c>
-      <c r="F20" s="82">
+      <c r="F20" s="80">
         <v>738</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="C21" s="81">
+      <c r="C21" s="79">
         <v>4</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="80">
         <v>36212.800000000003</v>
       </c>
-      <c r="E21" s="82">
+      <c r="E21" s="80">
         <v>6216</v>
       </c>
-      <c r="F21" s="82">
+      <c r="F21" s="80">
         <v>207.2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="81">
+      <c r="C22" s="79">
         <v>1</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="80">
         <v>32367.199999999997</v>
       </c>
-      <c r="E22" s="82">
+      <c r="E22" s="80">
         <v>7124.4000000000005</v>
       </c>
-      <c r="F22" s="82">
+      <c r="F22" s="80">
         <v>583.6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="81">
+      <c r="C23" s="79">
         <v>2</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="80">
         <v>27846.399999999998</v>
       </c>
-      <c r="E23" s="82">
+      <c r="E23" s="80">
         <v>6886.4</v>
       </c>
-      <c r="F23" s="82">
+      <c r="F23" s="80">
         <v>517.6</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="C24" s="81">
+      <c r="C24" s="79">
         <v>3</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="80">
         <v>23167.600000000002</v>
       </c>
-      <c r="E24" s="82">
+      <c r="E24" s="80">
         <v>5132.7999999999993</v>
       </c>
-      <c r="F24" s="82">
+      <c r="F24" s="80">
         <v>401.59999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="81">
+      <c r="C25" s="79">
         <v>4</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D25" s="80">
         <v>28570.400000000001</v>
       </c>
-      <c r="E25" s="82">
+      <c r="E25" s="80">
         <v>6368.8</v>
       </c>
-      <c r="F25" s="82">
+      <c r="F25" s="80">
         <v>447.2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="79">
         <v>1</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="80">
         <v>25033.200000000001</v>
       </c>
-      <c r="E26" s="82">
+      <c r="E26" s="80">
         <v>4857.2000000000007</v>
       </c>
-      <c r="F26" s="82">
+      <c r="F26" s="80">
         <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C27" s="79">
         <v>2</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="80">
         <v>39969.599999999999</v>
       </c>
-      <c r="E27" s="82">
+      <c r="E27" s="80">
         <v>7573.2000000000007</v>
       </c>
-      <c r="F27" s="82">
+      <c r="F27" s="80">
         <v>684.80000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="C28" s="81">
+      <c r="C28" s="79">
         <v>3</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="80">
         <v>36924.800000000003</v>
       </c>
-      <c r="E28" s="82">
+      <c r="E28" s="80">
         <v>7040</v>
       </c>
-      <c r="F28" s="82">
+      <c r="F28" s="80">
         <v>616.4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="80" t="s">
+      <c r="A29" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B29" s="80" t="s">
+      <c r="B29" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="C29" s="81">
+      <c r="C29" s="79">
         <v>4</v>
       </c>
-      <c r="D29" s="82">
+      <c r="D29" s="80">
         <v>20400.8</v>
       </c>
-      <c r="E29" s="82">
+      <c r="E29" s="80">
         <v>3488.8</v>
       </c>
-      <c r="F29" s="82">
+      <c r="F29" s="80">
         <v>447.59999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="C30" s="81">
+      <c r="C30" s="79">
         <v>1</v>
       </c>
-      <c r="D30" s="82">
+      <c r="D30" s="80">
         <v>15811.6</v>
       </c>
-      <c r="E30" s="82">
+      <c r="E30" s="80">
         <v>2684</v>
       </c>
-      <c r="F30" s="82">
+      <c r="F30" s="80">
         <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="80" t="s">
+      <c r="A31" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="C31" s="81">
+      <c r="C31" s="79">
         <v>2</v>
       </c>
-      <c r="D31" s="82">
+      <c r="D31" s="80">
         <v>24537.199999999997</v>
       </c>
-      <c r="E31" s="82">
+      <c r="E31" s="80">
         <v>4491.2</v>
       </c>
-      <c r="F31" s="82">
+      <c r="F31" s="80">
         <v>354.79999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="C32" s="81">
+      <c r="C32" s="79">
         <v>3</v>
       </c>
-      <c r="D32" s="82">
+      <c r="D32" s="80">
         <v>26057.199999999997</v>
       </c>
-      <c r="E32" s="82">
+      <c r="E32" s="80">
         <v>5295.5999999999995</v>
       </c>
-      <c r="F32" s="82">
+      <c r="F32" s="80">
         <v>362.8</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="80" t="s">
+      <c r="A33" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="C33" s="81">
+      <c r="C33" s="79">
         <v>4</v>
       </c>
-      <c r="D33" s="82">
+      <c r="D33" s="80">
         <v>27948</v>
       </c>
-      <c r="E33" s="82">
+      <c r="E33" s="80">
         <v>5165.5999999999995</v>
       </c>
-      <c r="F33" s="82">
+      <c r="F33" s="80">
         <v>414</v>
       </c>
     </row>
@@ -37646,878 +37643,779 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED55377-163A-4B20-8400-2B183BDC37F4}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="80" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" style="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="5" style="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="80"/>
+    <col min="1" max="1" width="10.77734375" style="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5" style="78" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="83" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="85" t="s">
-        <v>198</v>
-      </c>
-      <c r="G1" s="86" t="s">
+      <c r="F1" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="G1" s="83" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="85">
-        <v>15</v>
-      </c>
-      <c r="E2" s="85">
+      <c r="D2" s="83">
         <v>30</v>
       </c>
-      <c r="F2" s="85">
+      <c r="E2" s="83">
         <v>2.25</v>
       </c>
-      <c r="G2" s="86">
+      <c r="F2" s="84">
         <v>180</v>
       </c>
-      <c r="H2" s="4">
+      <c r="G2" s="4">
         <v>3547.2222222222222</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="85">
-        <v>14.6</v>
-      </c>
-      <c r="E3" s="85">
+      <c r="D3" s="83">
         <v>40.799999999999997</v>
       </c>
-      <c r="F3" s="85">
+      <c r="E3" s="83">
         <v>2.5499999999999998</v>
       </c>
-      <c r="G3" s="86">
+      <c r="F3" s="84">
         <v>190</v>
       </c>
-      <c r="H3" s="4">
+      <c r="G3" s="4">
         <v>4116.666666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="85">
-        <v>13.2</v>
-      </c>
-      <c r="E4" s="85">
+      <c r="D4" s="83">
         <v>34.6</v>
       </c>
-      <c r="F4" s="85">
+      <c r="E4" s="83">
         <v>2.6</v>
       </c>
-      <c r="G4" s="86">
+      <c r="F4" s="84">
         <v>170</v>
       </c>
-      <c r="H4" s="4">
+      <c r="G4" s="4">
         <v>3380.5555555555557</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="85">
-        <v>13</v>
-      </c>
-      <c r="E5" s="85">
+      <c r="D5" s="83">
         <v>37.6</v>
       </c>
-      <c r="F5" s="85">
+      <c r="E5" s="83">
         <v>2.52</v>
       </c>
-      <c r="G5" s="86">
+      <c r="F5" s="84">
         <v>160</v>
       </c>
-      <c r="H5" s="4">
+      <c r="G5" s="4">
         <v>3733.333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="85" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="85">
-        <v>15.2</v>
-      </c>
-      <c r="E6" s="85">
+      <c r="D6" s="83">
         <v>38.6</v>
       </c>
-      <c r="F6" s="85">
+      <c r="E6" s="83">
         <v>2.15</v>
       </c>
-      <c r="G6" s="86">
+      <c r="F6" s="84">
         <v>180</v>
       </c>
-      <c r="H6" s="4">
+      <c r="G6" s="4">
         <v>3819.4444444444443</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="85" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="85">
-        <v>13</v>
-      </c>
-      <c r="E7" s="85">
+      <c r="D7" s="83">
         <v>40.6</v>
       </c>
-      <c r="F7" s="85">
+      <c r="E7" s="83">
         <v>2.1</v>
       </c>
-      <c r="G7" s="86">
+      <c r="F7" s="84">
         <v>170</v>
       </c>
-      <c r="H7" s="4">
+      <c r="G7" s="4">
         <v>1738.8888888888889</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="85" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="85">
-        <v>14.4</v>
-      </c>
-      <c r="E8" s="85">
+      <c r="D8" s="83">
         <v>37.6</v>
       </c>
-      <c r="F8" s="85">
+      <c r="E8" s="83">
         <v>2.48</v>
       </c>
-      <c r="G8" s="86">
+      <c r="F8" s="84">
         <v>180</v>
       </c>
-      <c r="H8" s="4">
+      <c r="G8" s="4">
         <v>3927.7777777777778</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="85" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="85">
-        <v>13</v>
-      </c>
-      <c r="E9" s="85">
+      <c r="D9" s="83">
         <v>38</v>
       </c>
-      <c r="F9" s="85">
+      <c r="E9" s="83">
         <v>2.39</v>
       </c>
-      <c r="G9" s="86">
+      <c r="F9" s="84">
         <v>150</v>
       </c>
-      <c r="H9" s="4">
+      <c r="G9" s="4">
         <v>3338.8888888888887</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="85" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="85">
-        <v>13.6</v>
-      </c>
-      <c r="E10" s="85">
+      <c r="D10" s="83">
         <v>35.6</v>
       </c>
-      <c r="F10" s="85">
+      <c r="E10" s="83">
         <v>2.46</v>
       </c>
-      <c r="G10" s="86">
+      <c r="F10" s="84">
         <v>210</v>
       </c>
-      <c r="H10" s="4">
+      <c r="G10" s="4">
         <v>4400</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="85" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="85">
-        <v>13.6</v>
-      </c>
-      <c r="E11" s="85">
+      <c r="D11" s="83">
         <v>32.200000000000003</v>
       </c>
-      <c r="F11" s="85">
+      <c r="E11" s="83">
         <v>2.42</v>
       </c>
-      <c r="G11" s="86">
+      <c r="F11" s="84">
         <v>200</v>
       </c>
-      <c r="H11" s="4">
+      <c r="G11" s="4">
         <v>4377.7777777777774</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="85" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="85">
-        <v>14.2</v>
-      </c>
-      <c r="E12" s="85">
+      <c r="D12" s="83">
         <v>39.6</v>
       </c>
-      <c r="F12" s="85">
+      <c r="E12" s="83">
         <v>2.3199999999999998</v>
       </c>
-      <c r="G12" s="86">
+      <c r="F12" s="84">
         <v>160</v>
       </c>
-      <c r="H12" s="4">
+      <c r="G12" s="4">
         <v>3761.1111111111113</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="85" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="85">
-        <v>14</v>
-      </c>
-      <c r="E13" s="85">
+      <c r="D13" s="83">
         <v>41.8</v>
       </c>
-      <c r="F13" s="85">
+      <c r="E13" s="83">
         <v>2.52</v>
       </c>
-      <c r="G13" s="86">
+      <c r="F13" s="84">
         <v>160</v>
       </c>
-      <c r="H13" s="4">
+      <c r="G13" s="4">
         <v>3075</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="85" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="85">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E14" s="85">
+      <c r="D14" s="83">
         <v>39.799999999999997</v>
       </c>
-      <c r="F14" s="85">
+      <c r="E14" s="83">
         <v>2.25</v>
       </c>
-      <c r="G14" s="86">
+      <c r="F14" s="84">
         <v>210</v>
       </c>
-      <c r="H14" s="4">
+      <c r="G14" s="4">
         <v>4297.2222222222217</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="85" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="85">
-        <v>16.2</v>
-      </c>
-      <c r="E15" s="85">
+      <c r="D15" s="83">
         <v>50</v>
       </c>
-      <c r="F15" s="85">
+      <c r="E15" s="83">
         <v>2.35</v>
       </c>
-      <c r="G15" s="86">
+      <c r="F15" s="84">
         <v>210</v>
       </c>
-      <c r="H15" s="4">
+      <c r="G15" s="4">
         <v>4694.4444444444443</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="85" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="85">
-        <v>15.4</v>
-      </c>
-      <c r="E16" s="85">
+      <c r="D16" s="83">
         <v>43.2</v>
       </c>
-      <c r="F16" s="85">
+      <c r="E16" s="83">
         <v>2.42</v>
       </c>
-      <c r="G16" s="86">
+      <c r="F16" s="84">
         <v>170</v>
       </c>
-      <c r="H16" s="4">
+      <c r="G16" s="4">
         <v>675</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="85" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="85">
-        <v>14</v>
-      </c>
-      <c r="E17" s="85">
+      <c r="D17" s="83">
         <v>32.200000000000003</v>
       </c>
-      <c r="F17" s="85">
+      <c r="E17" s="83">
         <v>2.2599999999999998</v>
       </c>
-      <c r="G17" s="86">
+      <c r="F17" s="84">
         <v>170</v>
       </c>
-      <c r="H17" s="4">
+      <c r="G17" s="4">
         <v>1644.4444444444443</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="85" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="85">
-        <v>16</v>
-      </c>
-      <c r="E18" s="85">
+      <c r="D18" s="83">
         <v>50.6</v>
       </c>
-      <c r="F18" s="85">
+      <c r="E18" s="83">
         <v>2.25</v>
       </c>
-      <c r="G18" s="86">
+      <c r="F18" s="84">
         <v>180</v>
       </c>
-      <c r="H18" s="4">
+      <c r="G18" s="4">
         <v>4227.7777777777774</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="85" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="85">
-        <v>16.2</v>
-      </c>
-      <c r="E19" s="85">
+      <c r="D19" s="83">
         <v>42.6</v>
       </c>
-      <c r="F19" s="85">
+      <c r="E19" s="83">
         <v>2.46</v>
       </c>
-      <c r="G19" s="86">
+      <c r="F19" s="84">
         <v>200</v>
       </c>
-      <c r="H19" s="4">
+      <c r="G19" s="4">
         <v>3047.2222222222222</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="85" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="85">
-        <v>14.8</v>
-      </c>
-      <c r="E20" s="85">
+      <c r="D20" s="83">
         <v>43.4</v>
       </c>
-      <c r="F20" s="85">
+      <c r="E20" s="83">
         <v>2.78</v>
       </c>
-      <c r="G20" s="86">
+      <c r="F20" s="84">
         <v>160</v>
       </c>
-      <c r="H20" s="4">
+      <c r="G20" s="4">
         <v>3836.1111111111109</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="85" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="85">
-        <v>15</v>
-      </c>
-      <c r="E21" s="85">
+      <c r="D21" s="83">
         <v>42</v>
       </c>
-      <c r="F21" s="85">
+      <c r="E21" s="83">
         <v>1.97</v>
       </c>
-      <c r="G21" s="86">
+      <c r="F21" s="84">
         <v>170</v>
       </c>
-      <c r="H21" s="4">
+      <c r="G21" s="4">
         <v>1058.3333333333333</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="85" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="85">
-        <v>15.4</v>
-      </c>
-      <c r="E22" s="85">
+      <c r="D22" s="83">
         <v>42.8</v>
       </c>
-      <c r="F22" s="85">
+      <c r="E22" s="83">
         <v>2.35</v>
       </c>
-      <c r="G22" s="86">
+      <c r="F22" s="84">
         <v>180</v>
       </c>
-      <c r="H22" s="4">
+      <c r="G22" s="4">
         <v>4316.666666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="85" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="85">
-        <v>16.2</v>
-      </c>
-      <c r="E23" s="85">
+      <c r="D23" s="83">
         <v>43.6</v>
       </c>
-      <c r="F23" s="85">
+      <c r="E23" s="83">
         <v>2.4700000000000002</v>
       </c>
-      <c r="G23" s="86">
+      <c r="F23" s="84">
         <v>180</v>
       </c>
-      <c r="H23" s="4">
+      <c r="G23" s="4">
         <v>3677.7777777777778</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="85" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="85">
-        <v>13.8</v>
-      </c>
-      <c r="E24" s="85">
+      <c r="D24" s="83">
         <v>34.6</v>
       </c>
-      <c r="F24" s="85">
+      <c r="E24" s="83">
         <v>2.54</v>
       </c>
-      <c r="G24" s="86">
+      <c r="F24" s="84">
         <v>170</v>
       </c>
-      <c r="H24" s="4">
+      <c r="G24" s="4">
         <v>4619.4444444444443</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="85" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="85">
-        <v>17</v>
-      </c>
-      <c r="E25" s="85">
+      <c r="D25" s="83">
         <v>53.2</v>
       </c>
-      <c r="F25" s="85">
+      <c r="E25" s="83">
         <v>2.15</v>
       </c>
-      <c r="G25" s="86">
+      <c r="F25" s="84">
         <v>160</v>
       </c>
-      <c r="H25" s="4">
+      <c r="G25" s="4">
         <v>1005.5555555555555</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="85" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="85">
-        <v>15.2</v>
-      </c>
-      <c r="E26" s="85">
+      <c r="D26" s="83">
         <v>37.200000000000003</v>
       </c>
-      <c r="F26" s="85">
+      <c r="E26" s="83">
         <v>2.38</v>
       </c>
-      <c r="G26" s="86">
+      <c r="F26" s="84">
         <v>190</v>
       </c>
-      <c r="H26" s="4">
+      <c r="G26" s="4">
         <v>4444.4444444444443</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="85" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="85">
-        <v>14</v>
-      </c>
-      <c r="E27" s="85">
+      <c r="D27" s="83">
         <v>34.799999999999997</v>
       </c>
-      <c r="F27" s="85">
+      <c r="E27" s="83">
         <v>2.58</v>
       </c>
-      <c r="G27" s="86">
+      <c r="F27" s="84">
         <v>160</v>
       </c>
-      <c r="H27" s="4">
+      <c r="G27" s="4">
         <v>1008.3333333333333</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="85" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="85">
-        <v>16.2</v>
-      </c>
-      <c r="E28" s="85">
+      <c r="D28" s="83">
         <v>47.4</v>
       </c>
-      <c r="F28" s="85">
+      <c r="E28" s="83">
         <v>2.82</v>
       </c>
-      <c r="G28" s="86">
+      <c r="F28" s="84">
         <v>170</v>
       </c>
-      <c r="H28" s="4">
+      <c r="G28" s="4">
         <v>3138.8888888888882</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="85" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="85">
-        <v>13</v>
-      </c>
-      <c r="E29" s="85">
+      <c r="D29" s="83">
         <v>26.8</v>
       </c>
-      <c r="F29" s="85">
+      <c r="E29" s="83">
         <v>2.66</v>
       </c>
-      <c r="G29" s="86">
+      <c r="F29" s="84">
         <v>170</v>
       </c>
-      <c r="H29" s="4">
+      <c r="G29" s="4">
         <v>2416.6666666666665</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="85" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="B30" s="85" t="s">
+      <c r="B30" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="85">
-        <v>14.6</v>
-      </c>
-      <c r="E30" s="85">
+      <c r="D30" s="83">
         <v>35</v>
       </c>
-      <c r="F30" s="85">
+      <c r="E30" s="83">
         <v>2.7</v>
       </c>
-      <c r="G30" s="86">
+      <c r="F30" s="84">
         <v>180</v>
       </c>
-      <c r="H30" s="4">
+      <c r="G30" s="4">
         <v>4130.5555555555557</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="85" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="85" t="s">
+      <c r="C31" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="85">
-        <v>15</v>
-      </c>
-      <c r="E31" s="85">
+      <c r="D31" s="83">
         <v>33.4</v>
       </c>
-      <c r="F31" s="85">
+      <c r="E31" s="83">
         <v>2.54</v>
       </c>
-      <c r="G31" s="86">
+      <c r="F31" s="84">
         <v>200</v>
       </c>
-      <c r="H31" s="4">
+      <c r="G31" s="4">
         <v>3591.6666666666665</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="85" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="C32" s="85" t="s">
+      <c r="C32" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="85">
-        <v>10</v>
-      </c>
-      <c r="E32" s="85">
+      <c r="D32" s="83">
         <v>22.6</v>
       </c>
-      <c r="F32" s="85">
+      <c r="E32" s="83">
         <v>2.4700000000000002</v>
       </c>
-      <c r="G32" s="86">
+      <c r="F32" s="84">
         <v>170</v>
       </c>
-      <c r="H32" s="4">
+      <c r="G32" s="4">
         <v>1305.5555555555554</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="85" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="B33" s="85" t="s">
+      <c r="B33" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="C33" s="85" t="s">
+      <c r="C33" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="85">
-        <v>14.2</v>
-      </c>
-      <c r="E33" s="85">
+      <c r="D33" s="83">
         <v>31.6</v>
       </c>
-      <c r="F33" s="85">
+      <c r="E33" s="83">
         <v>2.56</v>
       </c>
-      <c r="G33" s="86">
+      <c r="F33" s="84">
         <v>200</v>
       </c>
-      <c r="H33" s="4">
+      <c r="G33" s="4">
         <v>4861.1111111111113</v>
       </c>
     </row>

--- a/static/classes/experimentacao/dados_biost_exp.xlsx
+++ b/static/classes/experimentacao/dados_biost_exp.xlsx
@@ -3,40 +3,42 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E30BB20-7290-4ACA-A452-CD2F5E8245D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B41D00-C4B8-4F1F-8127-C299B5113AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="934" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG_DATA" sheetId="32" r:id="rId1"/>
     <sheet name="REG_ANALISE" sheetId="29" r:id="rId2"/>
     <sheet name="REG_DEL_DATA" sheetId="30" r:id="rId3"/>
     <sheet name="REG_DEL_ANALISE" sheetId="33" r:id="rId4"/>
-    <sheet name="CORRELACAO_DATA" sheetId="31" r:id="rId5"/>
-    <sheet name="CORRELACAO_ANALISE" sheetId="34" r:id="rId6"/>
-    <sheet name="COBERTURA_N_MASSA" sheetId="35" r:id="rId7"/>
-    <sheet name="COBERTURA_N_SOJA" sheetId="36" r:id="rId8"/>
-    <sheet name="DIC-DBC" sheetId="20" r:id="rId9"/>
-    <sheet name="EFEITOS" sheetId="24" r:id="rId10"/>
-    <sheet name="TABELA_AF_RAD" sheetId="25" r:id="rId11"/>
-    <sheet name="DIC-DBC-ANOVA" sheetId="22" r:id="rId12"/>
-    <sheet name="QUALI" sheetId="3" r:id="rId13"/>
-    <sheet name="QUANTI_LINEAR" sheetId="4" r:id="rId14"/>
-    <sheet name="QUANTI_QUADRATICA" sheetId="23" r:id="rId15"/>
-    <sheet name="FAT1_SI" sheetId="8" r:id="rId16"/>
-    <sheet name="FAT1_CI2" sheetId="26" r:id="rId17"/>
-    <sheet name="FAT1_CI2_TAB" sheetId="27" r:id="rId18"/>
-    <sheet name="FAT1_CI" sheetId="19" r:id="rId19"/>
-    <sheet name="FAT1_CI_PRATICA" sheetId="28" r:id="rId20"/>
-    <sheet name="FAT2_SI" sheetId="6" r:id="rId21"/>
-    <sheet name="FAT2_CI" sheetId="5" r:id="rId22"/>
-    <sheet name="FAT3" sheetId="14" r:id="rId23"/>
-    <sheet name="maize" sheetId="2" r:id="rId24"/>
+    <sheet name="REG_PRATICA" sheetId="37" r:id="rId5"/>
+    <sheet name="REG_PRATICA_ANALISE" sheetId="38" r:id="rId6"/>
+    <sheet name="CORRELACAO_DATA" sheetId="31" r:id="rId7"/>
+    <sheet name="CORRELACAO_ANALISE" sheetId="34" r:id="rId8"/>
+    <sheet name="COBERTURA_N_MASSA" sheetId="35" r:id="rId9"/>
+    <sheet name="COBERTURA_N_SOJA" sheetId="36" r:id="rId10"/>
+    <sheet name="DIC-DBC" sheetId="20" r:id="rId11"/>
+    <sheet name="EFEITOS" sheetId="24" r:id="rId12"/>
+    <sheet name="TABELA_AF_RAD" sheetId="25" r:id="rId13"/>
+    <sheet name="DIC-DBC-ANOVA" sheetId="22" r:id="rId14"/>
+    <sheet name="QUALI" sheetId="3" r:id="rId15"/>
+    <sheet name="QUANTI_LINEAR" sheetId="4" r:id="rId16"/>
+    <sheet name="QUANTI_QUADRATICA" sheetId="23" r:id="rId17"/>
+    <sheet name="FAT1_SI" sheetId="8" r:id="rId18"/>
+    <sheet name="FAT1_CI2" sheetId="26" r:id="rId19"/>
+    <sheet name="FAT1_CI2_TAB" sheetId="27" r:id="rId20"/>
+    <sheet name="FAT1_CI" sheetId="19" r:id="rId21"/>
+    <sheet name="FAT1_CI_PRATICA" sheetId="28" r:id="rId22"/>
+    <sheet name="FAT2_SI" sheetId="6" r:id="rId23"/>
+    <sheet name="FAT2_CI" sheetId="5" r:id="rId24"/>
+    <sheet name="FAT3" sheetId="14" r:id="rId25"/>
+    <sheet name="maize" sheetId="2" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">FAT1_CI!$A$1:$C$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">FAT1_CI_PRATICA!$H$2:$I$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">FAT2_CI!$A$1:$D$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">FAT1_CI!$A$1:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">FAT1_CI_PRATICA!$H$2:$I$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">FAT2_CI!$A$1:$D$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="207">
   <si>
     <t>AMB</t>
   </si>
@@ -650,17 +652,45 @@
   <si>
     <t>NGL</t>
   </si>
+  <si>
+    <t>SPxy</t>
+  </si>
+  <si>
+    <t>SQx</t>
+  </si>
+  <si>
+    <t>SQy</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b0</t>
+  </si>
+  <si>
+    <t>Sqtotal</t>
+  </si>
+  <si>
+    <t>Sqreg</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000000000000"/>
     <numFmt numFmtId="168" formatCode="0.000E+00"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -918,7 +948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1110,10 +1140,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2055,6 +2092,1056 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED55377-163A-4B20-8400-2B183BDC37F4}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.109375" style="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5" style="78" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="78"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="83">
+        <v>30</v>
+      </c>
+      <c r="E2" s="83">
+        <v>2.25</v>
+      </c>
+      <c r="F2" s="84">
+        <v>180</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3547.2222222222222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="83">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="E3" s="83">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F3" s="84">
+        <v>190</v>
+      </c>
+      <c r="G3" s="4">
+        <v>4116.666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="83">
+        <v>34.6</v>
+      </c>
+      <c r="E4" s="83">
+        <v>2.6</v>
+      </c>
+      <c r="F4" s="84">
+        <v>170</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3380.5555555555557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="83">
+        <v>37.6</v>
+      </c>
+      <c r="E5" s="83">
+        <v>2.52</v>
+      </c>
+      <c r="F5" s="84">
+        <v>160</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3733.333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="83">
+        <v>38.6</v>
+      </c>
+      <c r="E6" s="83">
+        <v>2.15</v>
+      </c>
+      <c r="F6" s="84">
+        <v>180</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3819.4444444444443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="83">
+        <v>40.6</v>
+      </c>
+      <c r="E7" s="83">
+        <v>2.1</v>
+      </c>
+      <c r="F7" s="84">
+        <v>170</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1738.8888888888889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="83">
+        <v>37.6</v>
+      </c>
+      <c r="E8" s="83">
+        <v>2.48</v>
+      </c>
+      <c r="F8" s="84">
+        <v>180</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3927.7777777777778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="83">
+        <v>38</v>
+      </c>
+      <c r="E9" s="83">
+        <v>2.39</v>
+      </c>
+      <c r="F9" s="84">
+        <v>150</v>
+      </c>
+      <c r="G9" s="4">
+        <v>3338.8888888888887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="83">
+        <v>35.6</v>
+      </c>
+      <c r="E10" s="83">
+        <v>2.46</v>
+      </c>
+      <c r="F10" s="84">
+        <v>210</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="83">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E11" s="83">
+        <v>2.42</v>
+      </c>
+      <c r="F11" s="84">
+        <v>200</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4377.7777777777774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="83">
+        <v>39.6</v>
+      </c>
+      <c r="E12" s="83">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F12" s="84">
+        <v>160</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3761.1111111111113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="83">
+        <v>41.8</v>
+      </c>
+      <c r="E13" s="83">
+        <v>2.52</v>
+      </c>
+      <c r="F13" s="84">
+        <v>160</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="83">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="E14" s="83">
+        <v>2.25</v>
+      </c>
+      <c r="F14" s="84">
+        <v>210</v>
+      </c>
+      <c r="G14" s="4">
+        <v>4297.2222222222217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="83">
+        <v>50</v>
+      </c>
+      <c r="E15" s="83">
+        <v>2.35</v>
+      </c>
+      <c r="F15" s="84">
+        <v>210</v>
+      </c>
+      <c r="G15" s="4">
+        <v>4694.4444444444443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="83">
+        <v>43.2</v>
+      </c>
+      <c r="E16" s="83">
+        <v>2.42</v>
+      </c>
+      <c r="F16" s="84">
+        <v>170</v>
+      </c>
+      <c r="G16" s="4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="83">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E17" s="83">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F17" s="84">
+        <v>170</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1644.4444444444443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="83">
+        <v>50.6</v>
+      </c>
+      <c r="E18" s="83">
+        <v>2.25</v>
+      </c>
+      <c r="F18" s="84">
+        <v>180</v>
+      </c>
+      <c r="G18" s="4">
+        <v>4227.7777777777774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="83">
+        <v>42.6</v>
+      </c>
+      <c r="E19" s="83">
+        <v>2.46</v>
+      </c>
+      <c r="F19" s="84">
+        <v>200</v>
+      </c>
+      <c r="G19" s="4">
+        <v>3047.2222222222222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="83">
+        <v>43.4</v>
+      </c>
+      <c r="E20" s="83">
+        <v>2.78</v>
+      </c>
+      <c r="F20" s="84">
+        <v>160</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3836.1111111111109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="83">
+        <v>42</v>
+      </c>
+      <c r="E21" s="83">
+        <v>1.97</v>
+      </c>
+      <c r="F21" s="84">
+        <v>170</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1058.3333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="83">
+        <v>42.8</v>
+      </c>
+      <c r="E22" s="83">
+        <v>2.35</v>
+      </c>
+      <c r="F22" s="84">
+        <v>180</v>
+      </c>
+      <c r="G22" s="4">
+        <v>4316.666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="83">
+        <v>43.6</v>
+      </c>
+      <c r="E23" s="83">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F23" s="84">
+        <v>180</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3677.7777777777778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="83">
+        <v>34.6</v>
+      </c>
+      <c r="E24" s="83">
+        <v>2.54</v>
+      </c>
+      <c r="F24" s="84">
+        <v>170</v>
+      </c>
+      <c r="G24" s="4">
+        <v>4619.4444444444443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="83">
+        <v>53.2</v>
+      </c>
+      <c r="E25" s="83">
+        <v>2.15</v>
+      </c>
+      <c r="F25" s="84">
+        <v>160</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1005.5555555555555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="83">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E26" s="83">
+        <v>2.38</v>
+      </c>
+      <c r="F26" s="84">
+        <v>190</v>
+      </c>
+      <c r="G26" s="4">
+        <v>4444.4444444444443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="83">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E27" s="83">
+        <v>2.58</v>
+      </c>
+      <c r="F27" s="84">
+        <v>160</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1008.3333333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="83">
+        <v>47.4</v>
+      </c>
+      <c r="E28" s="83">
+        <v>2.82</v>
+      </c>
+      <c r="F28" s="84">
+        <v>170</v>
+      </c>
+      <c r="G28" s="4">
+        <v>3138.8888888888882</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="83">
+        <v>26.8</v>
+      </c>
+      <c r="E29" s="83">
+        <v>2.66</v>
+      </c>
+      <c r="F29" s="84">
+        <v>170</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2416.6666666666665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="83">
+        <v>35</v>
+      </c>
+      <c r="E30" s="83">
+        <v>2.7</v>
+      </c>
+      <c r="F30" s="84">
+        <v>180</v>
+      </c>
+      <c r="G30" s="4">
+        <v>4130.5555555555557</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="83">
+        <v>33.4</v>
+      </c>
+      <c r="E31" s="83">
+        <v>2.54</v>
+      </c>
+      <c r="F31" s="84">
+        <v>200</v>
+      </c>
+      <c r="G31" s="4">
+        <v>3591.6666666666665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="83">
+        <v>22.6</v>
+      </c>
+      <c r="E32" s="83">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="F32" s="84">
+        <v>170</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1305.5555555555554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="83">
+        <v>31.6</v>
+      </c>
+      <c r="E33" s="83">
+        <v>2.56</v>
+      </c>
+      <c r="F33" s="84">
+        <v>200</v>
+      </c>
+      <c r="G33" s="4">
+        <v>4861.1111111111113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF27393-9ED7-4794-B0FA-9CCE826526BB}">
+  <sheetPr codeName="Planilha1"/>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="D2" s="17">
+        <v>5016.42875</v>
+      </c>
+      <c r="E2">
+        <v>12.30785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="17">
+        <v>3.65</v>
+      </c>
+      <c r="D3" s="17">
+        <v>3648.3589000000002</v>
+      </c>
+      <c r="E3">
+        <v>10.73315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17">
+        <v>3.93</v>
+      </c>
+      <c r="D4" s="17">
+        <v>3925.3332500000001</v>
+      </c>
+      <c r="E4">
+        <v>10.8614</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="17">
+        <v>4.71</v>
+      </c>
+      <c r="D5" s="17">
+        <v>4705.2685000000001</v>
+      </c>
+      <c r="E5">
+        <v>10.9785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17">
+        <v>6.12</v>
+      </c>
+      <c r="D6" s="17">
+        <v>6118.4251000000004</v>
+      </c>
+      <c r="E6">
+        <v>15.751799999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="17">
+        <v>5.61</v>
+      </c>
+      <c r="D7" s="17">
+        <v>5614.2330499999998</v>
+      </c>
+      <c r="E7">
+        <v>13.30495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="17">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D8" s="17">
+        <v>5109.9443499999998</v>
+      </c>
+      <c r="E8">
+        <v>13.88435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="17">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="D9" s="17">
+        <v>4975.8569500000003</v>
+      </c>
+      <c r="E9">
+        <v>13.09225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17">
+        <v>5.46</v>
+      </c>
+      <c r="D10" s="17">
+        <v>5464.5280000000002</v>
+      </c>
+      <c r="E10">
+        <v>16.9224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>5.55</v>
+      </c>
+      <c r="D11" s="17">
+        <v>5551.9511499999999</v>
+      </c>
+      <c r="E11">
+        <v>14.93085</v>
+      </c>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="17">
+        <v>5.72</v>
+      </c>
+      <c r="D12" s="17">
+        <v>5723.8487500000001</v>
+      </c>
+      <c r="E12">
+        <v>16.129000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="17">
+        <v>5.87</v>
+      </c>
+      <c r="D13" s="17">
+        <v>5869.6974499999997</v>
+      </c>
+      <c r="E13">
+        <v>15.78145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04035592-A0D5-4A24-BF54-61F2A46CEECB}">
   <sheetPr codeName="Planilha12"/>
   <dimension ref="A1:N21"/>
@@ -2623,7 +3710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6066454C-EECC-4A99-8C31-06D5BE28F536}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -2799,7 +3886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E83BA65-BE39-48CB-ADBD-ADA748DC0265}">
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:M21"/>
@@ -3355,7 +4442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD12D3-5558-4C12-84C9-B868DE19547D}">
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:C21"/>
@@ -3605,7 +4692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE66694-A8F5-4857-BCC5-776DE2699524}">
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:J21"/>
@@ -3859,7 +4946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E7D567-6F21-4263-A1B5-162912FCCED1}">
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:I21"/>
@@ -4116,7 +5203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF7B468-35FD-4AB5-AC58-CBF0CAE0BCDF}">
   <sheetPr codeName="Planilha6"/>
   <dimension ref="A1:D37"/>
@@ -4658,7 +5745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E46922-7E70-4D9F-BA36-FFADF1FA5641}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -5029,7 +6116,463 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F011CA-47EC-46CA-B15F-BFDF5B6C501A}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1">
+        <f>F9-(B9*C9)/7</f>
+        <v>220</v>
+      </c>
+      <c r="L1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="41">
+        <v>0</v>
+      </c>
+      <c r="C2" s="41">
+        <v>8.6</v>
+      </c>
+      <c r="D2" s="41">
+        <f>B2^2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="41">
+        <f>C2^2</f>
+        <v>73.959999999999994</v>
+      </c>
+      <c r="F2" s="41">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <f>$K$5+$K$4*B2</f>
+        <v>8.7142857142857135</v>
+      </c>
+      <c r="H2" s="17">
+        <f>C2-G2</f>
+        <v>-0.11428571428571388</v>
+      </c>
+      <c r="I2" s="17">
+        <f>H2^2</f>
+        <v>1.3061224489795825E-2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2">
+        <f>D9-(B9^2)/7</f>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="41">
+        <v>25</v>
+      </c>
+      <c r="C3" s="41">
+        <v>8.9</v>
+      </c>
+      <c r="D3" s="41">
+        <f t="shared" ref="D3:E8" si="0">B3^2</f>
+        <v>625</v>
+      </c>
+      <c r="E3" s="41">
+        <f t="shared" si="0"/>
+        <v>79.210000000000008</v>
+      </c>
+      <c r="F3" s="41">
+        <f t="shared" ref="F3:F8" si="1">B3*C3</f>
+        <v>222.5</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G8" si="2">$K$5+$K$4*B3</f>
+        <v>9.0285714285714285</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" ref="H3:H8" si="3">C3-G3</f>
+        <v>-0.12857142857142811</v>
+      </c>
+      <c r="I3" s="17">
+        <f t="shared" ref="I3:I8" si="4">H3^2</f>
+        <v>1.6530612244897842E-2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3">
+        <f>E9-(C9^2)/7</f>
+        <v>2.8971428571429669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="41">
+        <v>50</v>
+      </c>
+      <c r="C4" s="41">
+        <v>9.5</v>
+      </c>
+      <c r="D4" s="41">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="E4" s="41">
+        <f t="shared" si="0"/>
+        <v>90.25</v>
+      </c>
+      <c r="F4" s="41">
+        <f t="shared" si="1"/>
+        <v>475</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="2"/>
+        <v>9.3428571428571416</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" si="3"/>
+        <v>0.15714285714285836</v>
+      </c>
+      <c r="I4" s="17">
+        <f t="shared" si="4"/>
+        <v>2.4693877551020791E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4">
+        <f>K1/K2</f>
+        <v>1.2571428571428572E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="41">
+        <v>75</v>
+      </c>
+      <c r="C5" s="41">
+        <v>9.9</v>
+      </c>
+      <c r="D5" s="41">
+        <f t="shared" si="0"/>
+        <v>5625</v>
+      </c>
+      <c r="E5" s="41">
+        <f t="shared" si="0"/>
+        <v>98.01</v>
+      </c>
+      <c r="F5" s="41">
+        <f t="shared" si="1"/>
+        <v>742.5</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="2"/>
+        <v>9.6571428571428566</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="3"/>
+        <v>0.24285714285714377</v>
+      </c>
+      <c r="I5" s="17">
+        <f t="shared" si="4"/>
+        <v>5.8979591836735137E-2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5">
+        <f>C10-K4*B10</f>
+        <v>8.7142857142857135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="41">
+        <v>100</v>
+      </c>
+      <c r="C6" s="41">
+        <v>10</v>
+      </c>
+      <c r="D6" s="41">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="E6" s="41">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F6" s="41">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="2"/>
+        <v>9.9714285714285715</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="3"/>
+        <v>2.857142857142847E-2</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="4"/>
+        <v>8.1632653061223907E-4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6">
+        <f>E9-C9^2/7</f>
+        <v>2.8971428571429669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="41">
+        <v>125</v>
+      </c>
+      <c r="C7" s="41">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D7" s="41">
+        <f t="shared" si="0"/>
+        <v>15625</v>
+      </c>
+      <c r="E7" s="41">
+        <f t="shared" si="0"/>
+        <v>104.03999999999999</v>
+      </c>
+      <c r="F7" s="41">
+        <f t="shared" si="1"/>
+        <v>1275</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="2"/>
+        <v>10.285714285714285</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="3"/>
+        <v>-8.571428571428541E-2</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="4"/>
+        <v>7.3469387755101517E-3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K7">
+        <f>K1^2/K2</f>
+        <v>2.7657142857142856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="41">
+        <v>150</v>
+      </c>
+      <c r="C8" s="41">
+        <v>10.5</v>
+      </c>
+      <c r="D8" s="41">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="E8" s="41">
+        <f t="shared" si="0"/>
+        <v>110.25</v>
+      </c>
+      <c r="F8" s="41">
+        <f t="shared" si="1"/>
+        <v>1575</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="2"/>
+        <v>10.6</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999291E-3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8">
+        <f>K6-K7</f>
+        <v>0.13142857142868136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="41">
+        <f>SUM(B2:B8)</f>
+        <v>525</v>
+      </c>
+      <c r="C9" s="41">
+        <f t="shared" ref="C9:F9" si="5">SUM(C2:C8)</f>
+        <v>67.599999999999994</v>
+      </c>
+      <c r="D9" s="41">
+        <f t="shared" si="5"/>
+        <v>56875</v>
+      </c>
+      <c r="E9" s="41">
+        <f t="shared" si="5"/>
+        <v>655.72</v>
+      </c>
+      <c r="F9" s="41">
+        <f t="shared" si="5"/>
+        <v>5290</v>
+      </c>
+      <c r="G9" s="41"/>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="24">
+        <f>SUM(I2:I8)</f>
+        <v>0.13142857142857192</v>
+      </c>
+      <c r="J9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9">
+        <f>K7/K6</f>
+        <v>0.95463510848122612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="41">
+        <f>AVERAGE(B2:B8)</f>
+        <v>75</v>
+      </c>
+      <c r="C10" s="11">
+        <f>AVERAGE(C2:C8)</f>
+        <v>9.6571428571428566</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="I10" s="17"/>
+      <c r="J10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10">
+        <f>(K3-K4*K1)/5</f>
+        <v>2.6285714285736183E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="I11" s="17"/>
+      <c r="J11" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11">
+        <f>SQRT(K10/K2)</f>
+        <v>1.2255777479734944E-3</v>
+      </c>
+      <c r="L11">
+        <f>K4/K11</f>
+        <v>10.257552890639179</v>
+      </c>
+      <c r="M11">
+        <f>_xlfn.T.DIST.2T(L11,5)</f>
+        <v>1.5130299893824671E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="I12" s="17"/>
+      <c r="J12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12">
+        <f>SQRT((1/7+B10^2/K2)*K10)</f>
+        <v>0.1104720853096529</v>
+      </c>
+      <c r="L12">
+        <f>K5/K12</f>
+        <v>78.882241517027566</v>
+      </c>
+      <c r="M12">
+        <f>_xlfn.T.DIST.2T(L12,5)</f>
+        <v>6.2038334663885402E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="I13" s="17"/>
+      <c r="J13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13">
+        <f>K1/SQRT(K2*K3)</f>
+        <v>0.977054301705502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928D47F0-6F2C-426A-B704-744224E9AA4C}">
   <dimension ref="A1:N12"/>
   <sheetViews>
@@ -5053,12 +6596,12 @@
       <c r="B1" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
       <c r="G1" s="28" t="s">
         <v>63</v>
       </c>
@@ -5452,7 +6995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA737F51-98FF-4434-B2A9-78368E16AF2F}">
   <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:I37"/>
@@ -6108,463 +7651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F011CA-47EC-46CA-B15F-BFDF5B6C501A}">
-  <dimension ref="A1:M13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K1">
-        <f>F9-(B9*C9)/7</f>
-        <v>220</v>
-      </c>
-      <c r="L1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="41">
-        <v>0</v>
-      </c>
-      <c r="C2" s="41">
-        <v>8.6</v>
-      </c>
-      <c r="D2" s="41">
-        <f>B2^2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="41">
-        <f>C2^2</f>
-        <v>73.959999999999994</v>
-      </c>
-      <c r="F2" s="41">
-        <f>B2*C2</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="11">
-        <f>$K$5+$K$4*B2</f>
-        <v>8.7142857142857135</v>
-      </c>
-      <c r="H2" s="17">
-        <f>C2-G2</f>
-        <v>-0.11428571428571388</v>
-      </c>
-      <c r="I2" s="17">
-        <f>H2^2</f>
-        <v>1.3061224489795825E-2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K2">
-        <f>D9-(B9^2)/7</f>
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="41">
-        <v>25</v>
-      </c>
-      <c r="C3" s="41">
-        <v>8.9</v>
-      </c>
-      <c r="D3" s="41">
-        <f t="shared" ref="D3:E8" si="0">B3^2</f>
-        <v>625</v>
-      </c>
-      <c r="E3" s="41">
-        <f t="shared" si="0"/>
-        <v>79.210000000000008</v>
-      </c>
-      <c r="F3" s="41">
-        <f t="shared" ref="F3:F8" si="1">B3*C3</f>
-        <v>222.5</v>
-      </c>
-      <c r="G3" s="11">
-        <f t="shared" ref="G3:G8" si="2">$K$5+$K$4*B3</f>
-        <v>9.0285714285714285</v>
-      </c>
-      <c r="H3" s="17">
-        <f t="shared" ref="H3:H8" si="3">C3-G3</f>
-        <v>-0.12857142857142811</v>
-      </c>
-      <c r="I3" s="17">
-        <f t="shared" ref="I3:I8" si="4">H3^2</f>
-        <v>1.6530612244897842E-2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>152</v>
-      </c>
-      <c r="K3">
-        <f>E9-(C9^2)/7</f>
-        <v>2.8971428571429669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="41">
-        <v>50</v>
-      </c>
-      <c r="C4" s="41">
-        <v>9.5</v>
-      </c>
-      <c r="D4" s="41">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="E4" s="41">
-        <f t="shared" si="0"/>
-        <v>90.25</v>
-      </c>
-      <c r="F4" s="41">
-        <f t="shared" si="1"/>
-        <v>475</v>
-      </c>
-      <c r="G4" s="11">
-        <f t="shared" si="2"/>
-        <v>9.3428571428571416</v>
-      </c>
-      <c r="H4" s="17">
-        <f t="shared" si="3"/>
-        <v>0.15714285714285836</v>
-      </c>
-      <c r="I4" s="17">
-        <f t="shared" si="4"/>
-        <v>2.4693877551020791E-2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K4">
-        <f>K1/K2</f>
-        <v>1.2571428571428572E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="41">
-        <v>75</v>
-      </c>
-      <c r="C5" s="41">
-        <v>9.9</v>
-      </c>
-      <c r="D5" s="41">
-        <f t="shared" si="0"/>
-        <v>5625</v>
-      </c>
-      <c r="E5" s="41">
-        <f t="shared" si="0"/>
-        <v>98.01</v>
-      </c>
-      <c r="F5" s="41">
-        <f t="shared" si="1"/>
-        <v>742.5</v>
-      </c>
-      <c r="G5" s="11">
-        <f t="shared" si="2"/>
-        <v>9.6571428571428566</v>
-      </c>
-      <c r="H5" s="17">
-        <f t="shared" si="3"/>
-        <v>0.24285714285714377</v>
-      </c>
-      <c r="I5" s="17">
-        <f t="shared" si="4"/>
-        <v>5.8979591836735137E-2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K5">
-        <f>C10-K4*B10</f>
-        <v>8.7142857142857135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="41">
-        <v>100</v>
-      </c>
-      <c r="C6" s="41">
-        <v>10</v>
-      </c>
-      <c r="D6" s="41">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="E6" s="41">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F6" s="41">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="G6" s="11">
-        <f t="shared" si="2"/>
-        <v>9.9714285714285715</v>
-      </c>
-      <c r="H6" s="17">
-        <f t="shared" si="3"/>
-        <v>2.857142857142847E-2</v>
-      </c>
-      <c r="I6" s="17">
-        <f t="shared" si="4"/>
-        <v>8.1632653061223907E-4</v>
-      </c>
-      <c r="J6" t="s">
-        <v>155</v>
-      </c>
-      <c r="K6">
-        <f>E9-C9^2/7</f>
-        <v>2.8971428571429669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="41">
-        <v>125</v>
-      </c>
-      <c r="C7" s="41">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D7" s="41">
-        <f t="shared" si="0"/>
-        <v>15625</v>
-      </c>
-      <c r="E7" s="41">
-        <f t="shared" si="0"/>
-        <v>104.03999999999999</v>
-      </c>
-      <c r="F7" s="41">
-        <f t="shared" si="1"/>
-        <v>1275</v>
-      </c>
-      <c r="G7" s="11">
-        <f t="shared" si="2"/>
-        <v>10.285714285714285</v>
-      </c>
-      <c r="H7" s="17">
-        <f t="shared" si="3"/>
-        <v>-8.571428571428541E-2</v>
-      </c>
-      <c r="I7" s="17">
-        <f t="shared" si="4"/>
-        <v>7.3469387755101517E-3</v>
-      </c>
-      <c r="J7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K7">
-        <f>K1^2/K2</f>
-        <v>2.7657142857142856</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="41">
-        <v>150</v>
-      </c>
-      <c r="C8" s="41">
-        <v>10.5</v>
-      </c>
-      <c r="D8" s="41">
-        <f t="shared" si="0"/>
-        <v>22500</v>
-      </c>
-      <c r="E8" s="41">
-        <f t="shared" si="0"/>
-        <v>110.25</v>
-      </c>
-      <c r="F8" s="41">
-        <f t="shared" si="1"/>
-        <v>1575</v>
-      </c>
-      <c r="G8" s="11">
-        <f t="shared" si="2"/>
-        <v>10.6</v>
-      </c>
-      <c r="H8" s="17">
-        <f t="shared" si="3"/>
-        <v>-9.9999999999999645E-2</v>
-      </c>
-      <c r="I8" s="17">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999291E-3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K8">
-        <f>K6-K7</f>
-        <v>0.13142857142868136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="41">
-        <f>SUM(B2:B8)</f>
-        <v>525</v>
-      </c>
-      <c r="C9" s="41">
-        <f t="shared" ref="C9:F9" si="5">SUM(C2:C8)</f>
-        <v>67.599999999999994</v>
-      </c>
-      <c r="D9" s="41">
-        <f t="shared" si="5"/>
-        <v>56875</v>
-      </c>
-      <c r="E9" s="41">
-        <f t="shared" si="5"/>
-        <v>655.72</v>
-      </c>
-      <c r="F9" s="41">
-        <f t="shared" si="5"/>
-        <v>5290</v>
-      </c>
-      <c r="G9" s="41"/>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="24">
-        <f>SUM(I2:I8)</f>
-        <v>0.13142857142857192</v>
-      </c>
-      <c r="J9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K9">
-        <f>K7/K6</f>
-        <v>0.95463510848122612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="41">
-        <f>AVERAGE(B2:B8)</f>
-        <v>75</v>
-      </c>
-      <c r="C10" s="11">
-        <f>AVERAGE(C2:C8)</f>
-        <v>9.6571428571428566</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="I10" s="17"/>
-      <c r="J10" t="s">
-        <v>161</v>
-      </c>
-      <c r="K10">
-        <f>(K3-K4*K1)/5</f>
-        <v>2.6285714285736183E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="I11" s="17"/>
-      <c r="J11" t="s">
-        <v>162</v>
-      </c>
-      <c r="K11">
-        <f>SQRT(K10/K2)</f>
-        <v>1.2255777479734944E-3</v>
-      </c>
-      <c r="L11">
-        <f>K4/K11</f>
-        <v>10.257552890639179</v>
-      </c>
-      <c r="M11">
-        <f>_xlfn.T.DIST.2T(L11,5)</f>
-        <v>1.5130299893824671E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="I12" s="17"/>
-      <c r="J12" t="s">
-        <v>163</v>
-      </c>
-      <c r="K12">
-        <f>SQRT((1/7+B10^2/K2)*K10)</f>
-        <v>0.1104720853096529</v>
-      </c>
-      <c r="L12">
-        <f>K5/K12</f>
-        <v>78.882241517027566</v>
-      </c>
-      <c r="M12">
-        <f>_xlfn.T.DIST.2T(L12,5)</f>
-        <v>6.2038334663885402E-9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="I13" s="17"/>
-      <c r="J13" t="s">
-        <v>164</v>
-      </c>
-      <c r="K13">
-        <f>K1/SQRT(K2*K3)</f>
-        <v>0.977054301705502</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13D253-5E88-4C61-836C-2FFDAD90BAC1}">
   <dimension ref="A1:S30"/>
   <sheetViews>
@@ -6608,11 +7695,11 @@
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -7414,13 +8501,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401611ED-38E0-4C81-9133-A1F57F372C3A}">
   <sheetPr codeName="Planilha8"/>
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7457,112 +8544,112 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>34</v>
+      <c r="B3" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>6.68</v>
+        <v>7.4439999999999991</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D5">
-        <v>6.65</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>6.9499999999999993</v>
+        <v>7.0299999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.83</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>7.0299999999999994</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>6.76</v>
+        <v>7.2619999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>33</v>
+      <c r="B10" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D10">
-        <v>7.4439999999999991</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -7573,10 +8660,10 @@
         <v>34</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>7.14</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -7587,10 +8674,10 @@
         <v>33</v>
       </c>
       <c r="C12" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>7.3419999999999987</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -7598,97 +8685,97 @@
         <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7">
         <v>25</v>
       </c>
       <c r="D13">
-        <v>7.05</v>
+        <v>7.3419999999999987</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>7.3599999999999994</v>
+        <v>7.5299999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="7">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="D15">
-        <v>7.23</v>
+        <v>7.4499999999999993</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="7">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D16">
-        <v>7.3360000000000003</v>
+        <v>7.1099999999999994</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>7.2</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C18" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>7.65</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="7">
         <v>50</v>
       </c>
       <c r="D19">
-        <v>7.2619999999999996</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -7696,13 +8783,13 @@
         <v>2</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D20">
-        <v>7.5299999999999994</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -7713,10 +8800,10 @@
         <v>34</v>
       </c>
       <c r="C21" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D21">
-        <v>7.32</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -7727,10 +8814,10 @@
         <v>33</v>
       </c>
       <c r="C22" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>7.5559999999999992</v>
+        <v>6.9499999999999993</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -7738,18 +8825,18 @@
         <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>7.46</v>
+        <v>7.3599999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>33</v>
@@ -7758,77 +8845,77 @@
         <v>50</v>
       </c>
       <c r="D24">
-        <v>7.6999999999999993</v>
+        <v>7.5559999999999992</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D25">
-        <v>7.3630000000000004</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="7">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D26">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>7.03</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="7">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>7.4499999999999993</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="7">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D29">
-        <v>7.13</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -7836,13 +8923,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" s="7">
         <v>75</v>
       </c>
       <c r="D30">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -7853,10 +8940,10 @@
         <v>34</v>
       </c>
       <c r="C31" s="7">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D31">
-        <v>7.2</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -7867,10 +8954,10 @@
         <v>33</v>
       </c>
       <c r="C32" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>7.4700000000000006</v>
+        <v>7.0299999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -7878,46 +8965,46 @@
         <v>4</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="7">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D33">
-        <v>7.19</v>
+        <v>7.3360000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D34">
-        <v>7.0299999999999994</v>
+        <v>7.6999999999999993</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C35" s="7">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D35">
-        <v>6.69</v>
+        <v>7.4700000000000006</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>33</v>
@@ -7926,49 +9013,49 @@
         <v>100</v>
       </c>
       <c r="D36">
-        <v>7.1099999999999994</v>
+        <v>6.9329999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>6.58</v>
+        <v>6.76</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" s="7">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D38">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D39">
-        <v>6.74</v>
+        <v>7.3630000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -7976,13 +9063,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40" s="7">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D40">
-        <v>6.9329999999999998</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -8001,23 +9088,31 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D41">
-    <sortCondition ref="C2"/>
+    <sortCondition ref="A2:A41"/>
+    <sortCondition ref="B2:B41"/>
+    <sortCondition ref="C2:C41"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FB33A-3173-4008-92A5-2ADAD8D660C1}">
   <sheetPr codeName="Planilha9"/>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -8604,7 +9699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0844D76-2BC5-4A45-BC59-B5F493E31ACD}">
   <sheetPr codeName="Planilha10"/>
   <dimension ref="A1:D81"/>
@@ -9755,7 +10850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DEF979-DB47-4432-9EA7-72C5A215002C}">
   <sheetPr codeName="Planilha11"/>
   <dimension ref="A1:J781"/>
@@ -35537,7 +36632,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35922,7 +37017,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36471,6 +37566,803 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F180D95-030C-4DFD-8D07-B60CA8851D7F}">
+  <dimension ref="A1:R25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="12.109375" style="83" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="83" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="83" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="83" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="83"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="83">
+        <v>75</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="83">
+        <v>100</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="83">
+        <v>100</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="83">
+        <v>120</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="83">
+        <v>130</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="83">
+        <v>130</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="83">
+        <v>160</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="83">
+        <v>190</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="83">
+        <v>200</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="83">
+        <v>240</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="83">
+        <v>250</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="82"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="85"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="J25" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C32DBF-F4F2-45D0-9265-E517EA6518FB}">
+  <dimension ref="A1:S25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" style="83" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.109375" style="83" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="83" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="83" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="83" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="83"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B1" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="83">
+        <f>D13-(B13*C13)/11</f>
+        <v>876.4545454545455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="83">
+        <v>75</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>B2^2</f>
+        <v>5625</v>
+      </c>
+      <c r="F2" s="4">
+        <f>C2^2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="83">
+        <f>E13-B13^2/11</f>
+        <v>34440.909090909088</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B3" s="83">
+        <v>100</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D12" si="0">B3*C3</f>
+        <v>65</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:F12" si="1">B3^2</f>
+        <v>10000</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="1"/>
+        <v>0.42250000000000004</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" s="83">
+        <f>F13-C13^2/11</f>
+        <v>22.872272727272716</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="83">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I4" s="83">
+        <f>I1/I2</f>
+        <v>2.5448066517091202E-2</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="83">
+        <v>120</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="1"/>
+        <v>14400</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I5" s="83">
+        <f>C14-I4*B14</f>
+        <v>-2.0758611587699622</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="83">
+        <v>130</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>123.5</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="1"/>
+        <v>16900</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" s="83">
+        <f>I3</f>
+        <v>22.872272727272716</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="83">
+        <v>130</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="1"/>
+        <v>16900</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="G7" s="85"/>
+      <c r="H7" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" s="83">
+        <f>I1^2/I2</f>
+        <v>22.304073571934207</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="83">
+        <v>160</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="1"/>
+        <v>25600</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>3.24</v>
+      </c>
+      <c r="G8" s="85"/>
+      <c r="H8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="83">
+        <f>I7/I6</f>
+        <v>0.97515773084233159</v>
+      </c>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="83">
+        <v>190</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>532</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>36100</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>7.839999999999999</v>
+      </c>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="83">
+        <f>I1/SQRT(I2*I3)</f>
+        <v>0.98750074979330082</v>
+      </c>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="83">
+        <v>200</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="83">
+        <v>240</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>1032</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="1"/>
+        <v>57600</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>18.489999999999998</v>
+      </c>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="83">
+        <v>250</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>1125</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="1"/>
+        <v>62500</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
+        <v>20.25</v>
+      </c>
+      <c r="G12" s="73"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="82">
+        <f>SUM(B2:B12)</f>
+        <v>1695</v>
+      </c>
+      <c r="C13" s="82">
+        <f>SUM(C2:C12)</f>
+        <v>20.3</v>
+      </c>
+      <c r="D13" s="88">
+        <f t="shared" ref="D13:F13" si="2">SUM(D2:D12)</f>
+        <v>4004.5</v>
+      </c>
+      <c r="E13" s="88">
+        <f t="shared" si="2"/>
+        <v>295625</v>
+      </c>
+      <c r="F13" s="88">
+        <f t="shared" si="2"/>
+        <v>60.334999999999994</v>
+      </c>
+      <c r="G13" s="73"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="17">
+        <f>AVERAGE(B2:B12)</f>
+        <v>154.09090909090909</v>
+      </c>
+      <c r="C14" s="17">
+        <f>AVERAGE(C2:C12)</f>
+        <v>1.8454545454545455</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D18" s="85"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="K25" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD508DF-9F19-4BED-8F3A-513129BD06D5}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -36616,7 +38508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E60BC9F-3410-4F9E-80FE-AF662158432D}">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -36957,12 +38849,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B05892-965F-431E-B5BF-049795D175A8}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection sqref="A1:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37639,1054 +39531,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED55377-163A-4B20-8400-2B183BDC37F4}">
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.77734375" style="78" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="78" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" style="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5" style="78" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" style="78" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" style="78" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="78"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="83" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="83" t="s">
-        <v>196</v>
-      </c>
-      <c r="E1" s="83" t="s">
-        <v>197</v>
-      </c>
-      <c r="F1" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="83" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="83">
-        <v>30</v>
-      </c>
-      <c r="E2" s="83">
-        <v>2.25</v>
-      </c>
-      <c r="F2" s="84">
-        <v>180</v>
-      </c>
-      <c r="G2" s="4">
-        <v>3547.2222222222222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="83">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="E3" s="83">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F3" s="84">
-        <v>190</v>
-      </c>
-      <c r="G3" s="4">
-        <v>4116.666666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="83">
-        <v>34.6</v>
-      </c>
-      <c r="E4" s="83">
-        <v>2.6</v>
-      </c>
-      <c r="F4" s="84">
-        <v>170</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3380.5555555555557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="B5" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="83">
-        <v>37.6</v>
-      </c>
-      <c r="E5" s="83">
-        <v>2.52</v>
-      </c>
-      <c r="F5" s="84">
-        <v>160</v>
-      </c>
-      <c r="G5" s="4">
-        <v>3733.333333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="83">
-        <v>38.6</v>
-      </c>
-      <c r="E6" s="83">
-        <v>2.15</v>
-      </c>
-      <c r="F6" s="84">
-        <v>180</v>
-      </c>
-      <c r="G6" s="4">
-        <v>3819.4444444444443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="83">
-        <v>40.6</v>
-      </c>
-      <c r="E7" s="83">
-        <v>2.1</v>
-      </c>
-      <c r="F7" s="84">
-        <v>170</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1738.8888888888889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="83">
-        <v>37.6</v>
-      </c>
-      <c r="E8" s="83">
-        <v>2.48</v>
-      </c>
-      <c r="F8" s="84">
-        <v>180</v>
-      </c>
-      <c r="G8" s="4">
-        <v>3927.7777777777778</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="C9" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="83">
-        <v>38</v>
-      </c>
-      <c r="E9" s="83">
-        <v>2.39</v>
-      </c>
-      <c r="F9" s="84">
-        <v>150</v>
-      </c>
-      <c r="G9" s="4">
-        <v>3338.8888888888887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="B10" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="83">
-        <v>35.6</v>
-      </c>
-      <c r="E10" s="83">
-        <v>2.46</v>
-      </c>
-      <c r="F10" s="84">
-        <v>210</v>
-      </c>
-      <c r="G10" s="4">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="B11" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="C11" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="83">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="E11" s="83">
-        <v>2.42</v>
-      </c>
-      <c r="F11" s="84">
-        <v>200</v>
-      </c>
-      <c r="G11" s="4">
-        <v>4377.7777777777774</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="83">
-        <v>39.6</v>
-      </c>
-      <c r="E12" s="83">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="F12" s="84">
-        <v>160</v>
-      </c>
-      <c r="G12" s="4">
-        <v>3761.1111111111113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="B13" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="83">
-        <v>41.8</v>
-      </c>
-      <c r="E13" s="83">
-        <v>2.52</v>
-      </c>
-      <c r="F13" s="84">
-        <v>160</v>
-      </c>
-      <c r="G13" s="4">
-        <v>3075</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="83" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="83">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="E14" s="83">
-        <v>2.25</v>
-      </c>
-      <c r="F14" s="84">
-        <v>210</v>
-      </c>
-      <c r="G14" s="4">
-        <v>4297.2222222222217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="83" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="C15" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="83">
-        <v>50</v>
-      </c>
-      <c r="E15" s="83">
-        <v>2.35</v>
-      </c>
-      <c r="F15" s="84">
-        <v>210</v>
-      </c>
-      <c r="G15" s="4">
-        <v>4694.4444444444443</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="83" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="83">
-        <v>43.2</v>
-      </c>
-      <c r="E16" s="83">
-        <v>2.42</v>
-      </c>
-      <c r="F16" s="84">
-        <v>170</v>
-      </c>
-      <c r="G16" s="4">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="83" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="83">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="E17" s="83">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="F17" s="84">
-        <v>170</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1644.4444444444443</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="83">
-        <v>50.6</v>
-      </c>
-      <c r="E18" s="83">
-        <v>2.25</v>
-      </c>
-      <c r="F18" s="84">
-        <v>180</v>
-      </c>
-      <c r="G18" s="4">
-        <v>4227.7777777777774</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="83">
-        <v>42.6</v>
-      </c>
-      <c r="E19" s="83">
-        <v>2.46</v>
-      </c>
-      <c r="F19" s="84">
-        <v>200</v>
-      </c>
-      <c r="G19" s="4">
-        <v>3047.2222222222222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="83">
-        <v>43.4</v>
-      </c>
-      <c r="E20" s="83">
-        <v>2.78</v>
-      </c>
-      <c r="F20" s="84">
-        <v>160</v>
-      </c>
-      <c r="G20" s="4">
-        <v>3836.1111111111109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="83" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="83">
-        <v>42</v>
-      </c>
-      <c r="E21" s="83">
-        <v>1.97</v>
-      </c>
-      <c r="F21" s="84">
-        <v>170</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1058.3333333333333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="83">
-        <v>42.8</v>
-      </c>
-      <c r="E22" s="83">
-        <v>2.35</v>
-      </c>
-      <c r="F22" s="84">
-        <v>180</v>
-      </c>
-      <c r="G22" s="4">
-        <v>4316.666666666667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="B23" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="83">
-        <v>43.6</v>
-      </c>
-      <c r="E23" s="83">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="F23" s="84">
-        <v>180</v>
-      </c>
-      <c r="G23" s="4">
-        <v>3677.7777777777778</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="B24" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="83">
-        <v>34.6</v>
-      </c>
-      <c r="E24" s="83">
-        <v>2.54</v>
-      </c>
-      <c r="F24" s="84">
-        <v>170</v>
-      </c>
-      <c r="G24" s="4">
-        <v>4619.4444444444443</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="B25" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="C25" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="83">
-        <v>53.2</v>
-      </c>
-      <c r="E25" s="83">
-        <v>2.15</v>
-      </c>
-      <c r="F25" s="84">
-        <v>160</v>
-      </c>
-      <c r="G25" s="4">
-        <v>1005.5555555555555</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="B26" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="C26" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="83">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="E26" s="83">
-        <v>2.38</v>
-      </c>
-      <c r="F26" s="84">
-        <v>190</v>
-      </c>
-      <c r="G26" s="4">
-        <v>4444.4444444444443</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="B27" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="83">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="E27" s="83">
-        <v>2.58</v>
-      </c>
-      <c r="F27" s="84">
-        <v>160</v>
-      </c>
-      <c r="G27" s="4">
-        <v>1008.3333333333333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="B28" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="83">
-        <v>47.4</v>
-      </c>
-      <c r="E28" s="83">
-        <v>2.82</v>
-      </c>
-      <c r="F28" s="84">
-        <v>170</v>
-      </c>
-      <c r="G28" s="4">
-        <v>3138.8888888888882</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="B29" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="83">
-        <v>26.8</v>
-      </c>
-      <c r="E29" s="83">
-        <v>2.66</v>
-      </c>
-      <c r="F29" s="84">
-        <v>170</v>
-      </c>
-      <c r="G29" s="4">
-        <v>2416.6666666666665</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="83" t="s">
-        <v>193</v>
-      </c>
-      <c r="B30" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="C30" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="83">
-        <v>35</v>
-      </c>
-      <c r="E30" s="83">
-        <v>2.7</v>
-      </c>
-      <c r="F30" s="84">
-        <v>180</v>
-      </c>
-      <c r="G30" s="4">
-        <v>4130.5555555555557</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="83" t="s">
-        <v>193</v>
-      </c>
-      <c r="B31" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="83">
-        <v>33.4</v>
-      </c>
-      <c r="E31" s="83">
-        <v>2.54</v>
-      </c>
-      <c r="F31" s="84">
-        <v>200</v>
-      </c>
-      <c r="G31" s="4">
-        <v>3591.6666666666665</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="83" t="s">
-        <v>193</v>
-      </c>
-      <c r="B32" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="83">
-        <v>22.6</v>
-      </c>
-      <c r="E32" s="83">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="F32" s="84">
-        <v>170</v>
-      </c>
-      <c r="G32" s="4">
-        <v>1305.5555555555554</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="83" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33" s="83" t="s">
-        <v>194</v>
-      </c>
-      <c r="C33" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="83">
-        <v>31.6</v>
-      </c>
-      <c r="E33" s="83">
-        <v>2.56</v>
-      </c>
-      <c r="F33" s="84">
-        <v>200</v>
-      </c>
-      <c r="G33" s="4">
-        <v>4861.1111111111113</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF27393-9ED7-4794-B0FA-9CCE826526BB}">
-  <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>50</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="17">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="D2" s="17">
-        <v>5016.42875</v>
-      </c>
-      <c r="E2">
-        <v>12.30785</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>50</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="17">
-        <v>3.65</v>
-      </c>
-      <c r="D3" s="17">
-        <v>3648.3589000000002</v>
-      </c>
-      <c r="E3">
-        <v>10.73315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>50</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="17">
-        <v>3.93</v>
-      </c>
-      <c r="D4" s="17">
-        <v>3925.3332500000001</v>
-      </c>
-      <c r="E4">
-        <v>10.8614</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>50</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="17">
-        <v>4.71</v>
-      </c>
-      <c r="D5" s="17">
-        <v>4705.2685000000001</v>
-      </c>
-      <c r="E5">
-        <v>10.9785</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>70</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="17">
-        <v>6.12</v>
-      </c>
-      <c r="D6" s="17">
-        <v>6118.4251000000004</v>
-      </c>
-      <c r="E6">
-        <v>15.751799999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>70</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="17">
-        <v>5.61</v>
-      </c>
-      <c r="D7" s="17">
-        <v>5614.2330499999998</v>
-      </c>
-      <c r="E7">
-        <v>13.30495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>70</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="17">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="D8" s="17">
-        <v>5109.9443499999998</v>
-      </c>
-      <c r="E8">
-        <v>13.88435</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>70</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="17">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="D9" s="17">
-        <v>4975.8569500000003</v>
-      </c>
-      <c r="E9">
-        <v>13.09225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>100</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="17">
-        <v>5.46</v>
-      </c>
-      <c r="D10" s="17">
-        <v>5464.5280000000002</v>
-      </c>
-      <c r="E10">
-        <v>16.9224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>100</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="17">
-        <v>5.55</v>
-      </c>
-      <c r="D11" s="17">
-        <v>5551.9511499999999</v>
-      </c>
-      <c r="E11">
-        <v>14.93085</v>
-      </c>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>100</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" s="17">
-        <v>5.72</v>
-      </c>
-      <c r="D12" s="17">
-        <v>5723.8487500000001</v>
-      </c>
-      <c r="E12">
-        <v>16.129000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" s="17">
-        <v>5.87</v>
-      </c>
-      <c r="D13" s="17">
-        <v>5869.6974499999997</v>
-      </c>
-      <c r="E13">
-        <v>15.78145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/static/classes/experimentacao/dados_biost_exp.xlsx
+++ b/static/classes/experimentacao/dados_biost_exp.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B41D00-C4B8-4F1F-8127-C299B5113AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF6BB31-E170-4E58-8036-A887F9BA58AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG_DATA" sheetId="32" r:id="rId1"/>
@@ -14,31 +14,33 @@
     <sheet name="REG_DEL_ANALISE" sheetId="33" r:id="rId4"/>
     <sheet name="REG_PRATICA" sheetId="37" r:id="rId5"/>
     <sheet name="REG_PRATICA_ANALISE" sheetId="38" r:id="rId6"/>
-    <sheet name="CORRELACAO_DATA" sheetId="31" r:id="rId7"/>
-    <sheet name="CORRELACAO_ANALISE" sheetId="34" r:id="rId8"/>
-    <sheet name="COBERTURA_N_MASSA" sheetId="35" r:id="rId9"/>
-    <sheet name="COBERTURA_N_SOJA" sheetId="36" r:id="rId10"/>
-    <sheet name="DIC-DBC" sheetId="20" r:id="rId11"/>
-    <sheet name="EFEITOS" sheetId="24" r:id="rId12"/>
-    <sheet name="TABELA_AF_RAD" sheetId="25" r:id="rId13"/>
-    <sheet name="DIC-DBC-ANOVA" sheetId="22" r:id="rId14"/>
-    <sheet name="QUALI" sheetId="3" r:id="rId15"/>
-    <sheet name="QUANTI_LINEAR" sheetId="4" r:id="rId16"/>
-    <sheet name="QUANTI_QUADRATICA" sheetId="23" r:id="rId17"/>
-    <sheet name="FAT1_SI" sheetId="8" r:id="rId18"/>
-    <sheet name="FAT1_CI2" sheetId="26" r:id="rId19"/>
-    <sheet name="FAT1_CI2_TAB" sheetId="27" r:id="rId20"/>
-    <sheet name="FAT1_CI" sheetId="19" r:id="rId21"/>
-    <sheet name="FAT1_CI_PRATICA" sheetId="28" r:id="rId22"/>
-    <sheet name="FAT2_SI" sheetId="6" r:id="rId23"/>
-    <sheet name="FAT2_CI" sheetId="5" r:id="rId24"/>
-    <sheet name="FAT3" sheetId="14" r:id="rId25"/>
-    <sheet name="maize" sheetId="2" r:id="rId26"/>
+    <sheet name="COR_DATA_DENSIDADE" sheetId="39" r:id="rId7"/>
+    <sheet name="COR_DATA_DENSIDADE_ANALISE" sheetId="40" r:id="rId8"/>
+    <sheet name="CORRELACAO_DATA" sheetId="31" r:id="rId9"/>
+    <sheet name="CORRELACAO_ANALISE" sheetId="34" r:id="rId10"/>
+    <sheet name="COBERTURA_N_MASSA" sheetId="35" r:id="rId11"/>
+    <sheet name="COBERTURA_N_SOJA" sheetId="36" r:id="rId12"/>
+    <sheet name="DIC-DBC" sheetId="20" r:id="rId13"/>
+    <sheet name="EFEITOS" sheetId="24" r:id="rId14"/>
+    <sheet name="TABELA_AF_RAD" sheetId="25" r:id="rId15"/>
+    <sheet name="DIC-DBC-ANOVA" sheetId="22" r:id="rId16"/>
+    <sheet name="QUALI" sheetId="3" r:id="rId17"/>
+    <sheet name="QUANTI_LINEAR" sheetId="4" r:id="rId18"/>
+    <sheet name="QUANTI_QUADRATICA" sheetId="23" r:id="rId19"/>
+    <sheet name="FAT1_SI" sheetId="8" r:id="rId20"/>
+    <sheet name="FAT1_CI2" sheetId="26" r:id="rId21"/>
+    <sheet name="FAT1_CI2_TAB" sheetId="27" r:id="rId22"/>
+    <sheet name="FAT1_CI" sheetId="19" r:id="rId23"/>
+    <sheet name="FAT1_CI_PRATICA" sheetId="28" r:id="rId24"/>
+    <sheet name="FAT2_SI" sheetId="6" r:id="rId25"/>
+    <sheet name="FAT2_CI" sheetId="5" r:id="rId26"/>
+    <sheet name="FAT3" sheetId="14" r:id="rId27"/>
+    <sheet name="maize" sheetId="2" r:id="rId28"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">FAT1_CI!$A$1:$C$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">FAT1_CI_PRATICA!$H$2:$I$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">FAT2_CI!$A$1:$D$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">FAT1_CI!$A$1:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">FAT1_CI_PRATICA!$H$2:$I$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">FAT2_CI!$A$1:$D$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="208">
   <si>
     <t>AMB</t>
   </si>
@@ -679,6 +681,9 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>Arvore</t>
+  </si>
 </sst>
 </file>
 
@@ -692,7 +697,7 @@
     <numFmt numFmtId="168" formatCode="0.000E+00"/>
     <numFmt numFmtId="170" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,6 +797,20 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -948,7 +967,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1151,6 +1170,37 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2092,6 +2142,1031 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E60BC9F-3410-4F9E-80FE-AF662158432D}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="27"/>
+    <col min="2" max="2" width="9" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="8.88671875" style="27"/>
+    <col min="10" max="10" width="15.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="27">
+        <f>E12-(C12*D12)/10</f>
+        <v>0.36692000000000036</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="75">
+        <v>1</v>
+      </c>
+      <c r="C2" s="75">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D2" s="75">
+        <v>1.4</v>
+      </c>
+      <c r="E2" s="76">
+        <f>C2*D2</f>
+        <v>3.43</v>
+      </c>
+      <c r="F2" s="76">
+        <f>C2^2</f>
+        <v>6.0025000000000013</v>
+      </c>
+      <c r="G2" s="76">
+        <f>D2^2</f>
+        <v>1.9599999999999997</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="27">
+        <f>F12-(C12^2)/10</f>
+        <v>0.97556000000000154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="75">
+        <v>2</v>
+      </c>
+      <c r="C3" s="75">
+        <v>2.5</v>
+      </c>
+      <c r="D3" s="75">
+        <v>1.43</v>
+      </c>
+      <c r="E3" s="76">
+        <f t="shared" ref="E3:E11" si="0">C3*D3</f>
+        <v>3.5749999999999997</v>
+      </c>
+      <c r="F3" s="76">
+        <f t="shared" ref="F3:G11" si="1">C3^2</f>
+        <v>6.25</v>
+      </c>
+      <c r="G3" s="76">
+        <f t="shared" si="1"/>
+        <v>2.0448999999999997</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="J3" s="27">
+        <f>G12-(D12^2)/10</f>
+        <v>0.21164000000000982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="75">
+        <v>3</v>
+      </c>
+      <c r="C4" s="75">
+        <v>2.69</v>
+      </c>
+      <c r="D4" s="75">
+        <v>1.52</v>
+      </c>
+      <c r="E4" s="76">
+        <f t="shared" si="0"/>
+        <v>4.0888</v>
+      </c>
+      <c r="F4" s="76">
+        <f t="shared" si="1"/>
+        <v>7.2360999999999995</v>
+      </c>
+      <c r="G4" s="76">
+        <f t="shared" si="1"/>
+        <v>2.3104</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="J4" s="27">
+        <f>J1/SQRT(J2*J3)</f>
+        <v>0.80750554993684098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="75">
+        <v>4</v>
+      </c>
+      <c r="C5" s="75">
+        <v>2.8</v>
+      </c>
+      <c r="D5" s="75">
+        <v>1.64</v>
+      </c>
+      <c r="E5" s="76">
+        <f t="shared" si="0"/>
+        <v>4.5919999999999996</v>
+      </c>
+      <c r="F5" s="76">
+        <f t="shared" si="1"/>
+        <v>7.839999999999999</v>
+      </c>
+      <c r="G5" s="76">
+        <f t="shared" si="1"/>
+        <v>2.6895999999999995</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="27">
+        <f>SQRT(8 /(1-J4^2) ) * J4</f>
+        <v>3.8720555867670892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="75">
+        <v>5</v>
+      </c>
+      <c r="C6" s="75">
+        <v>2.62</v>
+      </c>
+      <c r="D6" s="75">
+        <v>1.55</v>
+      </c>
+      <c r="E6" s="76">
+        <f t="shared" si="0"/>
+        <v>4.0609999999999999</v>
+      </c>
+      <c r="F6" s="76">
+        <f t="shared" si="1"/>
+        <v>6.8644000000000007</v>
+      </c>
+      <c r="G6" s="76">
+        <f t="shared" si="1"/>
+        <v>2.4025000000000003</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="J6" s="27">
+        <f>_xlfn.T.INV.2T(0.05, 8)</f>
+        <v>2.3060041352041671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="75">
+        <v>6</v>
+      </c>
+      <c r="C7" s="75">
+        <v>2.12</v>
+      </c>
+      <c r="D7" s="75">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="76">
+        <f t="shared" si="0"/>
+        <v>3.18</v>
+      </c>
+      <c r="F7" s="76">
+        <f t="shared" si="1"/>
+        <v>4.4944000000000006</v>
+      </c>
+      <c r="G7" s="76">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="75">
+        <v>7</v>
+      </c>
+      <c r="C8" s="75">
+        <v>3.15</v>
+      </c>
+      <c r="D8" s="75">
+        <v>1.78</v>
+      </c>
+      <c r="E8" s="76">
+        <f t="shared" si="0"/>
+        <v>5.6070000000000002</v>
+      </c>
+      <c r="F8" s="76">
+        <f t="shared" si="1"/>
+        <v>9.9224999999999994</v>
+      </c>
+      <c r="G8" s="76">
+        <f t="shared" si="1"/>
+        <v>3.1684000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="75">
+        <v>8</v>
+      </c>
+      <c r="C9" s="75">
+        <v>2.97</v>
+      </c>
+      <c r="D9" s="75">
+        <v>1.84</v>
+      </c>
+      <c r="E9" s="76">
+        <f t="shared" si="0"/>
+        <v>5.4648000000000003</v>
+      </c>
+      <c r="F9" s="76">
+        <f t="shared" si="1"/>
+        <v>8.8209000000000017</v>
+      </c>
+      <c r="G9" s="76">
+        <f t="shared" si="1"/>
+        <v>3.3856000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="75">
+        <v>9</v>
+      </c>
+      <c r="C10" s="75">
+        <v>3.1</v>
+      </c>
+      <c r="D10" s="75">
+        <v>1.78</v>
+      </c>
+      <c r="E10" s="76">
+        <f t="shared" si="0"/>
+        <v>5.5180000000000007</v>
+      </c>
+      <c r="F10" s="76">
+        <f t="shared" si="1"/>
+        <v>9.6100000000000012</v>
+      </c>
+      <c r="G10" s="76">
+        <f t="shared" si="1"/>
+        <v>3.1684000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="75">
+        <v>10</v>
+      </c>
+      <c r="C11" s="75">
+        <v>3.02</v>
+      </c>
+      <c r="D11" s="75">
+        <v>1.6</v>
+      </c>
+      <c r="E11" s="76">
+        <f t="shared" si="0"/>
+        <v>4.8320000000000007</v>
+      </c>
+      <c r="F11" s="76">
+        <f t="shared" si="1"/>
+        <v>9.1204000000000001</v>
+      </c>
+      <c r="G11" s="76">
+        <f t="shared" si="1"/>
+        <v>2.5600000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="76">
+        <f>SUM(C2:C11)</f>
+        <v>27.42</v>
+      </c>
+      <c r="D12" s="76">
+        <f>SUM(D2:D11)</f>
+        <v>16.04</v>
+      </c>
+      <c r="E12" s="76">
+        <f>SUM(E2:E11)</f>
+        <v>44.348599999999998</v>
+      </c>
+      <c r="F12" s="76">
+        <f t="shared" ref="F12:G12" si="2">SUM(F2:F11)</f>
+        <v>76.161200000000008</v>
+      </c>
+      <c r="G12" s="76">
+        <f t="shared" si="2"/>
+        <v>25.939800000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B05892-965F-431E-B5BF-049795D175A8}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="79">
+        <v>1</v>
+      </c>
+      <c r="D2" s="80">
+        <v>17938.800000000003</v>
+      </c>
+      <c r="E2" s="80">
+        <v>3640.4</v>
+      </c>
+      <c r="F2" s="80">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="79">
+        <v>2</v>
+      </c>
+      <c r="D3" s="80">
+        <v>20737.600000000002</v>
+      </c>
+      <c r="E3" s="80">
+        <v>4190.4000000000005</v>
+      </c>
+      <c r="F3" s="80">
+        <v>708.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="79">
+        <v>3</v>
+      </c>
+      <c r="D4" s="80">
+        <v>37780</v>
+      </c>
+      <c r="E4" s="80">
+        <v>6958.4000000000005</v>
+      </c>
+      <c r="F4" s="80">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="79">
+        <v>4</v>
+      </c>
+      <c r="D5" s="80">
+        <v>15448</v>
+      </c>
+      <c r="E5" s="80">
+        <v>3055.2</v>
+      </c>
+      <c r="F5" s="80">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="79">
+        <v>1</v>
+      </c>
+      <c r="D6" s="80">
+        <v>30835.599999999999</v>
+      </c>
+      <c r="E6" s="80">
+        <v>7000.8</v>
+      </c>
+      <c r="F6" s="80">
+        <v>347.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="79">
+        <v>2</v>
+      </c>
+      <c r="D7" s="80">
+        <v>22246</v>
+      </c>
+      <c r="E7" s="80">
+        <v>5540</v>
+      </c>
+      <c r="F7" s="80">
+        <v>245.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="79">
+        <v>3</v>
+      </c>
+      <c r="D8" s="80">
+        <v>12422</v>
+      </c>
+      <c r="E8" s="80">
+        <v>3330.4</v>
+      </c>
+      <c r="F8" s="80">
+        <v>169.20000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="79">
+        <v>4</v>
+      </c>
+      <c r="D9" s="80">
+        <v>15219.6</v>
+      </c>
+      <c r="E9" s="80">
+        <v>3796.8</v>
+      </c>
+      <c r="F9" s="80">
+        <v>212.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="79">
+        <v>1</v>
+      </c>
+      <c r="D10" s="80">
+        <v>14700.4</v>
+      </c>
+      <c r="E10" s="80">
+        <v>2989.2000000000003</v>
+      </c>
+      <c r="F10" s="80">
+        <v>267.60000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="79">
+        <v>2</v>
+      </c>
+      <c r="D11" s="80">
+        <v>19146.400000000001</v>
+      </c>
+      <c r="E11" s="80">
+        <v>3652.4</v>
+      </c>
+      <c r="F11" s="80">
+        <v>399.20000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="79">
+        <v>3</v>
+      </c>
+      <c r="D12" s="80">
+        <v>33226.400000000001</v>
+      </c>
+      <c r="E12" s="80">
+        <v>6418.8</v>
+      </c>
+      <c r="F12" s="80">
+        <v>523.20000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="79">
+        <v>4</v>
+      </c>
+      <c r="D13" s="80">
+        <v>17372.8</v>
+      </c>
+      <c r="E13" s="80">
+        <v>4747.2000000000007</v>
+      </c>
+      <c r="F13" s="80">
+        <v>349.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="79">
+        <v>1</v>
+      </c>
+      <c r="D14" s="80">
+        <v>17760</v>
+      </c>
+      <c r="E14" s="80">
+        <v>3728.3999999999996</v>
+      </c>
+      <c r="F14" s="80">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="79">
+        <v>2</v>
+      </c>
+      <c r="D15" s="80">
+        <v>19689.599999999999</v>
+      </c>
+      <c r="E15" s="80">
+        <v>3909.2000000000003</v>
+      </c>
+      <c r="F15" s="80">
+        <v>254.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="79">
+        <v>3</v>
+      </c>
+      <c r="D16" s="80">
+        <v>6413.2000000000007</v>
+      </c>
+      <c r="E16" s="80">
+        <v>1576.3999999999999</v>
+      </c>
+      <c r="F16" s="80">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="79">
+        <v>4</v>
+      </c>
+      <c r="D17" s="80">
+        <v>25316.799999999999</v>
+      </c>
+      <c r="E17" s="80">
+        <v>5676.4</v>
+      </c>
+      <c r="F17" s="80">
+        <v>312.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="79">
+        <v>1</v>
+      </c>
+      <c r="D18" s="80">
+        <v>44237.600000000006</v>
+      </c>
+      <c r="E18" s="80">
+        <v>7444.8</v>
+      </c>
+      <c r="F18" s="80">
+        <v>214.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="79">
+        <v>2</v>
+      </c>
+      <c r="D19" s="80">
+        <v>26322.800000000003</v>
+      </c>
+      <c r="E19" s="80">
+        <v>4369.2</v>
+      </c>
+      <c r="F19" s="80">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="79">
+        <v>3</v>
+      </c>
+      <c r="D20" s="80">
+        <v>45075.600000000006</v>
+      </c>
+      <c r="E20" s="80">
+        <v>7343.6</v>
+      </c>
+      <c r="F20" s="80">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" s="79">
+        <v>4</v>
+      </c>
+      <c r="D21" s="80">
+        <v>36212.800000000003</v>
+      </c>
+      <c r="E21" s="80">
+        <v>6216</v>
+      </c>
+      <c r="F21" s="80">
+        <v>207.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="79">
+        <v>1</v>
+      </c>
+      <c r="D22" s="80">
+        <v>32367.199999999997</v>
+      </c>
+      <c r="E22" s="80">
+        <v>7124.4000000000005</v>
+      </c>
+      <c r="F22" s="80">
+        <v>583.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="79">
+        <v>2</v>
+      </c>
+      <c r="D23" s="80">
+        <v>27846.399999999998</v>
+      </c>
+      <c r="E23" s="80">
+        <v>6886.4</v>
+      </c>
+      <c r="F23" s="80">
+        <v>517.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="79">
+        <v>3</v>
+      </c>
+      <c r="D24" s="80">
+        <v>23167.600000000002</v>
+      </c>
+      <c r="E24" s="80">
+        <v>5132.7999999999993</v>
+      </c>
+      <c r="F24" s="80">
+        <v>401.59999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="79">
+        <v>4</v>
+      </c>
+      <c r="D25" s="80">
+        <v>28570.400000000001</v>
+      </c>
+      <c r="E25" s="80">
+        <v>6368.8</v>
+      </c>
+      <c r="F25" s="80">
+        <v>447.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="79">
+        <v>1</v>
+      </c>
+      <c r="D26" s="80">
+        <v>25033.200000000001</v>
+      </c>
+      <c r="E26" s="80">
+        <v>4857.2000000000007</v>
+      </c>
+      <c r="F26" s="80">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="79">
+        <v>2</v>
+      </c>
+      <c r="D27" s="80">
+        <v>39969.599999999999</v>
+      </c>
+      <c r="E27" s="80">
+        <v>7573.2000000000007</v>
+      </c>
+      <c r="F27" s="80">
+        <v>684.80000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="79">
+        <v>3</v>
+      </c>
+      <c r="D28" s="80">
+        <v>36924.800000000003</v>
+      </c>
+      <c r="E28" s="80">
+        <v>7040</v>
+      </c>
+      <c r="F28" s="80">
+        <v>616.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="79">
+        <v>4</v>
+      </c>
+      <c r="D29" s="80">
+        <v>20400.8</v>
+      </c>
+      <c r="E29" s="80">
+        <v>3488.8</v>
+      </c>
+      <c r="F29" s="80">
+        <v>447.59999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="79">
+        <v>1</v>
+      </c>
+      <c r="D30" s="80">
+        <v>15811.6</v>
+      </c>
+      <c r="E30" s="80">
+        <v>2684</v>
+      </c>
+      <c r="F30" s="80">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="79">
+        <v>2</v>
+      </c>
+      <c r="D31" s="80">
+        <v>24537.199999999997</v>
+      </c>
+      <c r="E31" s="80">
+        <v>4491.2</v>
+      </c>
+      <c r="F31" s="80">
+        <v>354.79999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="79">
+        <v>3</v>
+      </c>
+      <c r="D32" s="80">
+        <v>26057.199999999997</v>
+      </c>
+      <c r="E32" s="80">
+        <v>5295.5999999999995</v>
+      </c>
+      <c r="F32" s="80">
+        <v>362.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="79">
+        <v>4</v>
+      </c>
+      <c r="D33" s="80">
+        <v>27948</v>
+      </c>
+      <c r="E33" s="80">
+        <v>5165.5999999999995</v>
+      </c>
+      <c r="F33" s="80">
+        <v>414</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED55377-163A-4B20-8400-2B183BDC37F4}">
   <dimension ref="A1:G33"/>
   <sheetViews>
@@ -2875,7 +3950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF27393-9ED7-4794-B0FA-9CCE826526BB}">
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:F21"/>
@@ -3141,7 +4216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04035592-A0D5-4A24-BF54-61F2A46CEECB}">
   <sheetPr codeName="Planilha12"/>
   <dimension ref="A1:N21"/>
@@ -3710,7 +4785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6066454C-EECC-4A99-8C31-06D5BE28F536}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -3886,7 +4961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E83BA65-BE39-48CB-ADBD-ADA748DC0265}">
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:M21"/>
@@ -4442,7 +5517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD12D3-5558-4C12-84C9-B868DE19547D}">
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:C21"/>
@@ -4692,7 +5767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE66694-A8F5-4857-BCC5-776DE2699524}">
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A1:J21"/>
@@ -4946,7 +6021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E7D567-6F21-4263-A1B5-162912FCCED1}">
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:I21"/>
@@ -5203,7 +6278,463 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F011CA-47EC-46CA-B15F-BFDF5B6C501A}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1">
+        <f>F9-(B9*C9)/7</f>
+        <v>220</v>
+      </c>
+      <c r="L1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="41">
+        <v>0</v>
+      </c>
+      <c r="C2" s="41">
+        <v>8.6</v>
+      </c>
+      <c r="D2" s="41">
+        <f>B2^2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="41">
+        <f>C2^2</f>
+        <v>73.959999999999994</v>
+      </c>
+      <c r="F2" s="41">
+        <f>B2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <f>$K$5+$K$4*B2</f>
+        <v>8.7142857142857135</v>
+      </c>
+      <c r="H2" s="17">
+        <f>C2-G2</f>
+        <v>-0.11428571428571388</v>
+      </c>
+      <c r="I2" s="17">
+        <f>H2^2</f>
+        <v>1.3061224489795825E-2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2">
+        <f>D9-(B9^2)/7</f>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="41">
+        <v>25</v>
+      </c>
+      <c r="C3" s="41">
+        <v>8.9</v>
+      </c>
+      <c r="D3" s="41">
+        <f t="shared" ref="D3:E8" si="0">B3^2</f>
+        <v>625</v>
+      </c>
+      <c r="E3" s="41">
+        <f t="shared" si="0"/>
+        <v>79.210000000000008</v>
+      </c>
+      <c r="F3" s="41">
+        <f t="shared" ref="F3:F8" si="1">B3*C3</f>
+        <v>222.5</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:G8" si="2">$K$5+$K$4*B3</f>
+        <v>9.0285714285714285</v>
+      </c>
+      <c r="H3" s="17">
+        <f t="shared" ref="H3:H8" si="3">C3-G3</f>
+        <v>-0.12857142857142811</v>
+      </c>
+      <c r="I3" s="17">
+        <f t="shared" ref="I3:I8" si="4">H3^2</f>
+        <v>1.6530612244897842E-2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3">
+        <f>E9-(C9^2)/7</f>
+        <v>2.8971428571429669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="41">
+        <v>50</v>
+      </c>
+      <c r="C4" s="41">
+        <v>9.5</v>
+      </c>
+      <c r="D4" s="41">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="E4" s="41">
+        <f t="shared" si="0"/>
+        <v>90.25</v>
+      </c>
+      <c r="F4" s="41">
+        <f t="shared" si="1"/>
+        <v>475</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="2"/>
+        <v>9.3428571428571416</v>
+      </c>
+      <c r="H4" s="17">
+        <f t="shared" si="3"/>
+        <v>0.15714285714285836</v>
+      </c>
+      <c r="I4" s="17">
+        <f t="shared" si="4"/>
+        <v>2.4693877551020791E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4">
+        <f>K1/K2</f>
+        <v>1.2571428571428572E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="41">
+        <v>75</v>
+      </c>
+      <c r="C5" s="41">
+        <v>9.9</v>
+      </c>
+      <c r="D5" s="41">
+        <f t="shared" si="0"/>
+        <v>5625</v>
+      </c>
+      <c r="E5" s="41">
+        <f t="shared" si="0"/>
+        <v>98.01</v>
+      </c>
+      <c r="F5" s="41">
+        <f t="shared" si="1"/>
+        <v>742.5</v>
+      </c>
+      <c r="G5" s="11">
+        <f t="shared" si="2"/>
+        <v>9.6571428571428566</v>
+      </c>
+      <c r="H5" s="17">
+        <f t="shared" si="3"/>
+        <v>0.24285714285714377</v>
+      </c>
+      <c r="I5" s="17">
+        <f t="shared" si="4"/>
+        <v>5.8979591836735137E-2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5">
+        <f>C10-K4*B10</f>
+        <v>8.7142857142857135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="41">
+        <v>100</v>
+      </c>
+      <c r="C6" s="41">
+        <v>10</v>
+      </c>
+      <c r="D6" s="41">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="E6" s="41">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F6" s="41">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="2"/>
+        <v>9.9714285714285715</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="3"/>
+        <v>2.857142857142847E-2</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="4"/>
+        <v>8.1632653061223907E-4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6">
+        <f>E9-C9^2/7</f>
+        <v>2.8971428571429669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="41">
+        <v>125</v>
+      </c>
+      <c r="C7" s="41">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D7" s="41">
+        <f t="shared" si="0"/>
+        <v>15625</v>
+      </c>
+      <c r="E7" s="41">
+        <f t="shared" si="0"/>
+        <v>104.03999999999999</v>
+      </c>
+      <c r="F7" s="41">
+        <f t="shared" si="1"/>
+        <v>1275</v>
+      </c>
+      <c r="G7" s="11">
+        <f t="shared" si="2"/>
+        <v>10.285714285714285</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="3"/>
+        <v>-8.571428571428541E-2</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="4"/>
+        <v>7.3469387755101517E-3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K7">
+        <f>K1^2/K2</f>
+        <v>2.7657142857142856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="41">
+        <v>150</v>
+      </c>
+      <c r="C8" s="41">
+        <v>10.5</v>
+      </c>
+      <c r="D8" s="41">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="E8" s="41">
+        <f t="shared" si="0"/>
+        <v>110.25</v>
+      </c>
+      <c r="F8" s="41">
+        <f t="shared" si="1"/>
+        <v>1575</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="2"/>
+        <v>10.6</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I8" s="17">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999291E-3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8">
+        <f>K6-K7</f>
+        <v>0.13142857142868136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="41">
+        <f>SUM(B2:B8)</f>
+        <v>525</v>
+      </c>
+      <c r="C9" s="41">
+        <f t="shared" ref="C9:F9" si="5">SUM(C2:C8)</f>
+        <v>67.599999999999994</v>
+      </c>
+      <c r="D9" s="41">
+        <f t="shared" si="5"/>
+        <v>56875</v>
+      </c>
+      <c r="E9" s="41">
+        <f t="shared" si="5"/>
+        <v>655.72</v>
+      </c>
+      <c r="F9" s="41">
+        <f t="shared" si="5"/>
+        <v>5290</v>
+      </c>
+      <c r="G9" s="41"/>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="24">
+        <f>SUM(I2:I8)</f>
+        <v>0.13142857142857192</v>
+      </c>
+      <c r="J9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9">
+        <f>K7/K6</f>
+        <v>0.95463510848122612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="41">
+        <f>AVERAGE(B2:B8)</f>
+        <v>75</v>
+      </c>
+      <c r="C10" s="11">
+        <f>AVERAGE(C2:C8)</f>
+        <v>9.6571428571428566</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="I10" s="17"/>
+      <c r="J10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10">
+        <f>(K3-K4*K1)/5</f>
+        <v>2.6285714285736183E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="I11" s="17"/>
+      <c r="J11" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11">
+        <f>SQRT(K10/K2)</f>
+        <v>1.2255777479734944E-3</v>
+      </c>
+      <c r="L11">
+        <f>K4/K11</f>
+        <v>10.257552890639179</v>
+      </c>
+      <c r="M11">
+        <f>_xlfn.T.DIST.2T(L11,5)</f>
+        <v>1.5130299893824671E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="I12" s="17"/>
+      <c r="J12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12">
+        <f>SQRT((1/7+B10^2/K2)*K10)</f>
+        <v>0.1104720853096529</v>
+      </c>
+      <c r="L12">
+        <f>K5/K12</f>
+        <v>78.882241517027566</v>
+      </c>
+      <c r="M12">
+        <f>_xlfn.T.DIST.2T(L12,5)</f>
+        <v>6.2038334663885402E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="I13" s="17"/>
+      <c r="J13" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13">
+        <f>K1/SQRT(K2*K3)</f>
+        <v>0.977054301705502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF7B468-35FD-4AB5-AC58-CBF0CAE0BCDF}">
   <sheetPr codeName="Planilha6"/>
   <dimension ref="A1:D37"/>
@@ -5745,7 +7276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E46922-7E70-4D9F-BA36-FFADF1FA5641}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -6116,463 +7647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F011CA-47EC-46CA-B15F-BFDF5B6C501A}">
-  <dimension ref="A1:M13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H1" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K1">
-        <f>F9-(B9*C9)/7</f>
-        <v>220</v>
-      </c>
-      <c r="L1" t="s">
-        <v>149</v>
-      </c>
-      <c r="M1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="41">
-        <v>0</v>
-      </c>
-      <c r="C2" s="41">
-        <v>8.6</v>
-      </c>
-      <c r="D2" s="41">
-        <f>B2^2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="41">
-        <f>C2^2</f>
-        <v>73.959999999999994</v>
-      </c>
-      <c r="F2" s="41">
-        <f>B2*C2</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="11">
-        <f>$K$5+$K$4*B2</f>
-        <v>8.7142857142857135</v>
-      </c>
-      <c r="H2" s="17">
-        <f>C2-G2</f>
-        <v>-0.11428571428571388</v>
-      </c>
-      <c r="I2" s="17">
-        <f>H2^2</f>
-        <v>1.3061224489795825E-2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K2">
-        <f>D9-(B9^2)/7</f>
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="41">
-        <v>25</v>
-      </c>
-      <c r="C3" s="41">
-        <v>8.9</v>
-      </c>
-      <c r="D3" s="41">
-        <f t="shared" ref="D3:E8" si="0">B3^2</f>
-        <v>625</v>
-      </c>
-      <c r="E3" s="41">
-        <f t="shared" si="0"/>
-        <v>79.210000000000008</v>
-      </c>
-      <c r="F3" s="41">
-        <f t="shared" ref="F3:F8" si="1">B3*C3</f>
-        <v>222.5</v>
-      </c>
-      <c r="G3" s="11">
-        <f t="shared" ref="G3:G8" si="2">$K$5+$K$4*B3</f>
-        <v>9.0285714285714285</v>
-      </c>
-      <c r="H3" s="17">
-        <f t="shared" ref="H3:H8" si="3">C3-G3</f>
-        <v>-0.12857142857142811</v>
-      </c>
-      <c r="I3" s="17">
-        <f t="shared" ref="I3:I8" si="4">H3^2</f>
-        <v>1.6530612244897842E-2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>152</v>
-      </c>
-      <c r="K3">
-        <f>E9-(C9^2)/7</f>
-        <v>2.8971428571429669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="41">
-        <v>50</v>
-      </c>
-      <c r="C4" s="41">
-        <v>9.5</v>
-      </c>
-      <c r="D4" s="41">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="E4" s="41">
-        <f t="shared" si="0"/>
-        <v>90.25</v>
-      </c>
-      <c r="F4" s="41">
-        <f t="shared" si="1"/>
-        <v>475</v>
-      </c>
-      <c r="G4" s="11">
-        <f t="shared" si="2"/>
-        <v>9.3428571428571416</v>
-      </c>
-      <c r="H4" s="17">
-        <f t="shared" si="3"/>
-        <v>0.15714285714285836</v>
-      </c>
-      <c r="I4" s="17">
-        <f t="shared" si="4"/>
-        <v>2.4693877551020791E-2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K4">
-        <f>K1/K2</f>
-        <v>1.2571428571428572E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="41">
-        <v>75</v>
-      </c>
-      <c r="C5" s="41">
-        <v>9.9</v>
-      </c>
-      <c r="D5" s="41">
-        <f t="shared" si="0"/>
-        <v>5625</v>
-      </c>
-      <c r="E5" s="41">
-        <f t="shared" si="0"/>
-        <v>98.01</v>
-      </c>
-      <c r="F5" s="41">
-        <f t="shared" si="1"/>
-        <v>742.5</v>
-      </c>
-      <c r="G5" s="11">
-        <f t="shared" si="2"/>
-        <v>9.6571428571428566</v>
-      </c>
-      <c r="H5" s="17">
-        <f t="shared" si="3"/>
-        <v>0.24285714285714377</v>
-      </c>
-      <c r="I5" s="17">
-        <f t="shared" si="4"/>
-        <v>5.8979591836735137E-2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K5">
-        <f>C10-K4*B10</f>
-        <v>8.7142857142857135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="41">
-        <v>100</v>
-      </c>
-      <c r="C6" s="41">
-        <v>10</v>
-      </c>
-      <c r="D6" s="41">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="E6" s="41">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F6" s="41">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="G6" s="11">
-        <f t="shared" si="2"/>
-        <v>9.9714285714285715</v>
-      </c>
-      <c r="H6" s="17">
-        <f t="shared" si="3"/>
-        <v>2.857142857142847E-2</v>
-      </c>
-      <c r="I6" s="17">
-        <f t="shared" si="4"/>
-        <v>8.1632653061223907E-4</v>
-      </c>
-      <c r="J6" t="s">
-        <v>155</v>
-      </c>
-      <c r="K6">
-        <f>E9-C9^2/7</f>
-        <v>2.8971428571429669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="41">
-        <v>125</v>
-      </c>
-      <c r="C7" s="41">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D7" s="41">
-        <f t="shared" si="0"/>
-        <v>15625</v>
-      </c>
-      <c r="E7" s="41">
-        <f t="shared" si="0"/>
-        <v>104.03999999999999</v>
-      </c>
-      <c r="F7" s="41">
-        <f t="shared" si="1"/>
-        <v>1275</v>
-      </c>
-      <c r="G7" s="11">
-        <f t="shared" si="2"/>
-        <v>10.285714285714285</v>
-      </c>
-      <c r="H7" s="17">
-        <f t="shared" si="3"/>
-        <v>-8.571428571428541E-2</v>
-      </c>
-      <c r="I7" s="17">
-        <f t="shared" si="4"/>
-        <v>7.3469387755101517E-3</v>
-      </c>
-      <c r="J7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K7">
-        <f>K1^2/K2</f>
-        <v>2.7657142857142856</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="41">
-        <v>150</v>
-      </c>
-      <c r="C8" s="41">
-        <v>10.5</v>
-      </c>
-      <c r="D8" s="41">
-        <f t="shared" si="0"/>
-        <v>22500</v>
-      </c>
-      <c r="E8" s="41">
-        <f t="shared" si="0"/>
-        <v>110.25</v>
-      </c>
-      <c r="F8" s="41">
-        <f t="shared" si="1"/>
-        <v>1575</v>
-      </c>
-      <c r="G8" s="11">
-        <f t="shared" si="2"/>
-        <v>10.6</v>
-      </c>
-      <c r="H8" s="17">
-        <f t="shared" si="3"/>
-        <v>-9.9999999999999645E-2</v>
-      </c>
-      <c r="I8" s="17">
-        <f t="shared" si="4"/>
-        <v>9.9999999999999291E-3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K8">
-        <f>K6-K7</f>
-        <v>0.13142857142868136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="41">
-        <f>SUM(B2:B8)</f>
-        <v>525</v>
-      </c>
-      <c r="C9" s="41">
-        <f t="shared" ref="C9:F9" si="5">SUM(C2:C8)</f>
-        <v>67.599999999999994</v>
-      </c>
-      <c r="D9" s="41">
-        <f t="shared" si="5"/>
-        <v>56875</v>
-      </c>
-      <c r="E9" s="41">
-        <f t="shared" si="5"/>
-        <v>655.72</v>
-      </c>
-      <c r="F9" s="41">
-        <f t="shared" si="5"/>
-        <v>5290</v>
-      </c>
-      <c r="G9" s="41"/>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="24">
-        <f>SUM(I2:I8)</f>
-        <v>0.13142857142857192</v>
-      </c>
-      <c r="J9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K9">
-        <f>K7/K6</f>
-        <v>0.95463510848122612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="41">
-        <f>AVERAGE(B2:B8)</f>
-        <v>75</v>
-      </c>
-      <c r="C10" s="11">
-        <f>AVERAGE(C2:C8)</f>
-        <v>9.6571428571428566</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="I10" s="17"/>
-      <c r="J10" t="s">
-        <v>161</v>
-      </c>
-      <c r="K10">
-        <f>(K3-K4*K1)/5</f>
-        <v>2.6285714285736183E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="I11" s="17"/>
-      <c r="J11" t="s">
-        <v>162</v>
-      </c>
-      <c r="K11">
-        <f>SQRT(K10/K2)</f>
-        <v>1.2255777479734944E-3</v>
-      </c>
-      <c r="L11">
-        <f>K4/K11</f>
-        <v>10.257552890639179</v>
-      </c>
-      <c r="M11">
-        <f>_xlfn.T.DIST.2T(L11,5)</f>
-        <v>1.5130299893824671E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="I12" s="17"/>
-      <c r="J12" t="s">
-        <v>163</v>
-      </c>
-      <c r="K12">
-        <f>SQRT((1/7+B10^2/K2)*K10)</f>
-        <v>0.1104720853096529</v>
-      </c>
-      <c r="L12">
-        <f>K5/K12</f>
-        <v>78.882241517027566</v>
-      </c>
-      <c r="M12">
-        <f>_xlfn.T.DIST.2T(L12,5)</f>
-        <v>6.2038334663885402E-9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="I13" s="17"/>
-      <c r="J13" t="s">
-        <v>164</v>
-      </c>
-      <c r="K13">
-        <f>K1/SQRT(K2*K3)</f>
-        <v>0.977054301705502</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928D47F0-6F2C-426A-B704-744224E9AA4C}">
   <dimension ref="A1:N12"/>
   <sheetViews>
@@ -6995,7 +8070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA737F51-98FF-4434-B2A9-78368E16AF2F}">
   <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:I37"/>
@@ -7651,7 +8726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13D253-5E88-4C61-836C-2FFDAD90BAC1}">
   <dimension ref="A1:S30"/>
   <sheetViews>
@@ -8501,7 +9576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401611ED-38E0-4C81-9133-A1F57F372C3A}">
   <sheetPr codeName="Planilha8"/>
   <dimension ref="A1:D41"/>
@@ -9097,7 +10172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795FB33A-3173-4008-92A5-2ADAD8D660C1}">
   <sheetPr codeName="Planilha9"/>
   <dimension ref="A1:D41"/>
@@ -9699,7 +10774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0844D76-2BC5-4A45-BC59-B5F493E31ACD}">
   <sheetPr codeName="Planilha10"/>
   <dimension ref="A1:D81"/>
@@ -10850,7 +11925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DEF979-DB47-4432-9EA7-72C5A215002C}">
   <sheetPr codeName="Planilha11"/>
   <dimension ref="A1:J781"/>
@@ -37569,8 +38644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F180D95-030C-4DFD-8D07-B60CA8851D7F}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37873,7 +38948,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38363,6 +39438,607 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756D3DDC-BE10-4B63-AF76-A436FCFFE5A6}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.77734375" style="90" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="93">
+        <v>1</v>
+      </c>
+      <c r="B2" s="94">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="C2" s="94">
+        <v>0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="93">
+        <v>2</v>
+      </c>
+      <c r="B3" s="94">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="C3" s="94">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="93">
+        <v>3</v>
+      </c>
+      <c r="B4" s="94">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="C4" s="94">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="93">
+        <v>4</v>
+      </c>
+      <c r="B5" s="94">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="C5" s="94">
+        <v>0.53800000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="93">
+        <v>5</v>
+      </c>
+      <c r="B6" s="94">
+        <v>0.59</v>
+      </c>
+      <c r="C6" s="94">
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="93">
+        <v>6</v>
+      </c>
+      <c r="B7" s="94">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="C7" s="94">
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="93">
+        <v>7</v>
+      </c>
+      <c r="B8" s="94">
+        <v>0.625</v>
+      </c>
+      <c r="C8" s="94">
+        <v>0.66400000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="93">
+        <v>8</v>
+      </c>
+      <c r="B9" s="94">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="C9" s="94">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="93">
+        <v>9</v>
+      </c>
+      <c r="B10" s="94">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="C10" s="94">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="93">
+        <v>10</v>
+      </c>
+      <c r="B11" s="94">
+        <v>0.502</v>
+      </c>
+      <c r="C11" s="94">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="100">
+        <v>11</v>
+      </c>
+      <c r="B12" s="101">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="C12" s="101">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="100">
+        <v>12</v>
+      </c>
+      <c r="B13" s="101">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="C13" s="101">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="100">
+        <v>13</v>
+      </c>
+      <c r="B14" s="101">
+        <v>0.626</v>
+      </c>
+      <c r="C14" s="101">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C406D57-738D-45F7-9FB6-D1DB8E58E523}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="91"/>
+    <col min="2" max="2" width="9.109375" style="91" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.88671875" style="91" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="91" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="91"/>
+    <col min="10" max="10" width="10.21875" style="91" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="91"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="91" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" s="92">
+        <f>E15-(C15*D15)/13</f>
+        <v>1.7445076923076286E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="93">
+        <v>1</v>
+      </c>
+      <c r="C2" s="94">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="D2" s="94">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="E2" s="95">
+        <f>C2*D2</f>
+        <v>0.37263799999999997</v>
+      </c>
+      <c r="F2" s="95">
+        <f>C2^2</f>
+        <v>0.36240399999999995</v>
+      </c>
+      <c r="G2" s="95">
+        <f>D2^2</f>
+        <v>0.38316099999999997</v>
+      </c>
+      <c r="H2" s="96"/>
+      <c r="I2" s="95" t="s">
+        <v>199</v>
+      </c>
+      <c r="J2" s="92">
+        <f>F15-C15^2/13</f>
+        <v>1.682323076922998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="93">
+        <v>2</v>
+      </c>
+      <c r="C3" s="94">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="D3" s="94">
+        <v>0.62</v>
+      </c>
+      <c r="E3" s="95">
+        <f t="shared" ref="E3:E12" si="0">C3*D3</f>
+        <v>0.39432</v>
+      </c>
+      <c r="F3" s="95">
+        <f t="shared" ref="F3:G12" si="1">C3^2</f>
+        <v>0.40449600000000002</v>
+      </c>
+      <c r="G3" s="95">
+        <f t="shared" si="1"/>
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="H3" s="96"/>
+      <c r="I3" s="95" t="s">
+        <v>200</v>
+      </c>
+      <c r="J3" s="92">
+        <f>G15-D15^2/13</f>
+        <v>2.2863692307692141E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="93">
+        <v>3</v>
+      </c>
+      <c r="C4" s="94">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="D4" s="94">
+        <v>0.62</v>
+      </c>
+      <c r="E4" s="95">
+        <f t="shared" si="0"/>
+        <v>0.37447999999999998</v>
+      </c>
+      <c r="F4" s="95">
+        <f t="shared" si="1"/>
+        <v>0.36481599999999997</v>
+      </c>
+      <c r="G4" s="95">
+        <f t="shared" si="1"/>
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="H4" s="96"/>
+      <c r="I4" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="J4" s="97">
+        <f>J1/SQRT(J2*J3)</f>
+        <v>0.88949805787377378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="93">
+        <v>4</v>
+      </c>
+      <c r="C5" s="94">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="D5" s="94">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="E5" s="95">
+        <f t="shared" si="0"/>
+        <v>0.29482400000000003</v>
+      </c>
+      <c r="F5" s="95">
+        <f t="shared" si="1"/>
+        <v>0.30030400000000007</v>
+      </c>
+      <c r="G5" s="95">
+        <f t="shared" si="1"/>
+        <v>0.28944400000000003</v>
+      </c>
+      <c r="H5" s="96"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="92"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="93">
+        <v>5</v>
+      </c>
+      <c r="C6" s="94">
+        <v>0.59</v>
+      </c>
+      <c r="D6" s="94">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="E6" s="95">
+        <f t="shared" si="0"/>
+        <v>0.36343999999999999</v>
+      </c>
+      <c r="F6" s="95">
+        <f t="shared" si="1"/>
+        <v>0.34809999999999997</v>
+      </c>
+      <c r="G6" s="95">
+        <f t="shared" si="1"/>
+        <v>0.37945600000000002</v>
+      </c>
+      <c r="H6" s="96"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="92"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="93">
+        <v>6</v>
+      </c>
+      <c r="C7" s="94">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="D7" s="94">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="E7" s="95">
+        <f t="shared" si="0"/>
+        <v>0.355792</v>
+      </c>
+      <c r="F7" s="95">
+        <f t="shared" si="1"/>
+        <v>0.35046399999999994</v>
+      </c>
+      <c r="G7" s="95">
+        <f t="shared" si="1"/>
+        <v>0.36120099999999999</v>
+      </c>
+      <c r="I7" s="95"/>
+      <c r="J7" s="92"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="93">
+        <v>7</v>
+      </c>
+      <c r="C8" s="94">
+        <v>0.625</v>
+      </c>
+      <c r="D8" s="94">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="E8" s="95">
+        <f t="shared" si="0"/>
+        <v>0.41500000000000004</v>
+      </c>
+      <c r="F8" s="95">
+        <f t="shared" si="1"/>
+        <v>0.390625</v>
+      </c>
+      <c r="G8" s="95">
+        <f t="shared" si="1"/>
+        <v>0.44089600000000007</v>
+      </c>
+      <c r="I8" s="95"/>
+      <c r="J8" s="92"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="93">
+        <v>8</v>
+      </c>
+      <c r="C9" s="94">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="D9" s="94">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="E9" s="95">
+        <f t="shared" si="0"/>
+        <v>0.41793200000000003</v>
+      </c>
+      <c r="F9" s="95">
+        <f t="shared" si="1"/>
+        <v>0.410881</v>
+      </c>
+      <c r="G9" s="95">
+        <f t="shared" si="1"/>
+        <v>0.42510400000000004</v>
+      </c>
+      <c r="J9" s="92"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="93">
+        <v>9</v>
+      </c>
+      <c r="C10" s="94">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="D10" s="94">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E10" s="95">
+        <f t="shared" si="0"/>
+        <v>0.35087399999999996</v>
+      </c>
+      <c r="F10" s="95">
+        <f t="shared" si="1"/>
+        <v>0.36723600000000001</v>
+      </c>
+      <c r="G10" s="95">
+        <f t="shared" si="1"/>
+        <v>0.33524099999999996</v>
+      </c>
+      <c r="J10" s="98"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="93">
+        <v>10</v>
+      </c>
+      <c r="C11" s="94">
+        <v>0.502</v>
+      </c>
+      <c r="D11" s="94">
+        <v>0.501</v>
+      </c>
+      <c r="E11" s="95">
+        <f t="shared" si="0"/>
+        <v>0.251502</v>
+      </c>
+      <c r="F11" s="95">
+        <f t="shared" si="1"/>
+        <v>0.25200400000000001</v>
+      </c>
+      <c r="G11" s="95">
+        <f t="shared" si="1"/>
+        <v>0.25100099999999997</v>
+      </c>
+      <c r="J11" s="99"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="100">
+        <v>11</v>
+      </c>
+      <c r="C12" s="101">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D12" s="101">
+        <v>0.59</v>
+      </c>
+      <c r="E12" s="95">
+        <f t="shared" si="0"/>
+        <v>0.34691999999999995</v>
+      </c>
+      <c r="F12" s="95">
+        <f t="shared" si="1"/>
+        <v>0.34574399999999994</v>
+      </c>
+      <c r="G12" s="95">
+        <f t="shared" si="1"/>
+        <v>0.34809999999999997</v>
+      </c>
+      <c r="H12" s="102"/>
+      <c r="J12" s="98"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="100">
+        <v>12</v>
+      </c>
+      <c r="C13" s="101">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="D13" s="101">
+        <v>0.622</v>
+      </c>
+      <c r="E13" s="95">
+        <f t="shared" ref="E13:E14" si="2">C13*D13</f>
+        <v>0.36946799999999996</v>
+      </c>
+      <c r="F13" s="95">
+        <f t="shared" ref="F13:F14" si="3">C13^2</f>
+        <v>0.35283599999999998</v>
+      </c>
+      <c r="G13" s="95">
+        <f t="shared" ref="G13:G14" si="4">D13^2</f>
+        <v>0.38688400000000001</v>
+      </c>
+      <c r="H13" s="102"/>
+      <c r="J13" s="99"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="100">
+        <v>13</v>
+      </c>
+      <c r="C14" s="101">
+        <v>0.626</v>
+      </c>
+      <c r="D14" s="101">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="E14" s="95">
+        <f t="shared" si="2"/>
+        <v>0.37935599999999997</v>
+      </c>
+      <c r="F14" s="95">
+        <f t="shared" si="3"/>
+        <v>0.391876</v>
+      </c>
+      <c r="G14" s="95">
+        <f t="shared" si="4"/>
+        <v>0.36723600000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="96">
+        <f>SUM(C2:C14)</f>
+        <v>7.7540000000000004</v>
+      </c>
+      <c r="D15" s="96">
+        <f>SUM(D2:D14)</f>
+        <v>7.8280000000000003</v>
+      </c>
+      <c r="E15" s="96">
+        <f t="shared" ref="E15:G15" si="5">SUM(E2:E14)</f>
+        <v>4.6865459999999999</v>
+      </c>
+      <c r="F15" s="96">
+        <f t="shared" si="5"/>
+        <v>4.6417859999999997</v>
+      </c>
+      <c r="G15" s="96">
+        <f t="shared" si="5"/>
+        <v>4.7365240000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="92"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD508DF-9F19-4BED-8F3A-513129BD06D5}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -38506,1029 +40182,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E60BC9F-3410-4F9E-80FE-AF662158432D}">
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="27"/>
-    <col min="2" max="2" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.77734375" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="8.88671875" style="27"/>
-    <col min="10" max="10" width="15.109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="27">
-        <f>E12-(C12*D12)/10</f>
-        <v>0.36692000000000036</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="75">
-        <v>1</v>
-      </c>
-      <c r="C2" s="75">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="D2" s="75">
-        <v>1.4</v>
-      </c>
-      <c r="E2" s="76">
-        <f>C2*D2</f>
-        <v>3.43</v>
-      </c>
-      <c r="F2" s="76">
-        <f>C2^2</f>
-        <v>6.0025000000000013</v>
-      </c>
-      <c r="G2" s="76">
-        <f>D2^2</f>
-        <v>1.9599999999999997</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="J2" s="27">
-        <f>F12-(C12^2)/10</f>
-        <v>0.97556000000000154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="75">
-        <v>2</v>
-      </c>
-      <c r="C3" s="75">
-        <v>2.5</v>
-      </c>
-      <c r="D3" s="75">
-        <v>1.43</v>
-      </c>
-      <c r="E3" s="76">
-        <f t="shared" ref="E3:E11" si="0">C3*D3</f>
-        <v>3.5749999999999997</v>
-      </c>
-      <c r="F3" s="76">
-        <f t="shared" ref="F3:G11" si="1">C3^2</f>
-        <v>6.25</v>
-      </c>
-      <c r="G3" s="76">
-        <f t="shared" si="1"/>
-        <v>2.0448999999999997</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="J3" s="27">
-        <f>G12-(D12^2)/10</f>
-        <v>0.21164000000000982</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="75">
-        <v>3</v>
-      </c>
-      <c r="C4" s="75">
-        <v>2.69</v>
-      </c>
-      <c r="D4" s="75">
-        <v>1.52</v>
-      </c>
-      <c r="E4" s="76">
-        <f t="shared" si="0"/>
-        <v>4.0888</v>
-      </c>
-      <c r="F4" s="76">
-        <f t="shared" si="1"/>
-        <v>7.2360999999999995</v>
-      </c>
-      <c r="G4" s="76">
-        <f t="shared" si="1"/>
-        <v>2.3104</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="J4" s="27">
-        <f>J1/SQRT(J2*J3)</f>
-        <v>0.80750554993684098</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="75">
-        <v>4</v>
-      </c>
-      <c r="C5" s="75">
-        <v>2.8</v>
-      </c>
-      <c r="D5" s="75">
-        <v>1.64</v>
-      </c>
-      <c r="E5" s="76">
-        <f t="shared" si="0"/>
-        <v>4.5919999999999996</v>
-      </c>
-      <c r="F5" s="76">
-        <f t="shared" si="1"/>
-        <v>7.839999999999999</v>
-      </c>
-      <c r="G5" s="76">
-        <f t="shared" si="1"/>
-        <v>2.6895999999999995</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="J5" s="27">
-        <f>SQRT(8 /(1-J4^2) ) * J4</f>
-        <v>3.8720555867670892</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="75">
-        <v>5</v>
-      </c>
-      <c r="C6" s="75">
-        <v>2.62</v>
-      </c>
-      <c r="D6" s="75">
-        <v>1.55</v>
-      </c>
-      <c r="E6" s="76">
-        <f t="shared" si="0"/>
-        <v>4.0609999999999999</v>
-      </c>
-      <c r="F6" s="76">
-        <f t="shared" si="1"/>
-        <v>6.8644000000000007</v>
-      </c>
-      <c r="G6" s="76">
-        <f t="shared" si="1"/>
-        <v>2.4025000000000003</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="J6" s="27">
-        <f>_xlfn.T.INV.2T(0.05, 8)</f>
-        <v>2.3060041352041671</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="75">
-        <v>6</v>
-      </c>
-      <c r="C7" s="75">
-        <v>2.12</v>
-      </c>
-      <c r="D7" s="75">
-        <v>1.5</v>
-      </c>
-      <c r="E7" s="76">
-        <f t="shared" si="0"/>
-        <v>3.18</v>
-      </c>
-      <c r="F7" s="76">
-        <f t="shared" si="1"/>
-        <v>4.4944000000000006</v>
-      </c>
-      <c r="G7" s="76">
-        <f t="shared" si="1"/>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="75">
-        <v>7</v>
-      </c>
-      <c r="C8" s="75">
-        <v>3.15</v>
-      </c>
-      <c r="D8" s="75">
-        <v>1.78</v>
-      </c>
-      <c r="E8" s="76">
-        <f t="shared" si="0"/>
-        <v>5.6070000000000002</v>
-      </c>
-      <c r="F8" s="76">
-        <f t="shared" si="1"/>
-        <v>9.9224999999999994</v>
-      </c>
-      <c r="G8" s="76">
-        <f t="shared" si="1"/>
-        <v>3.1684000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="75">
-        <v>8</v>
-      </c>
-      <c r="C9" s="75">
-        <v>2.97</v>
-      </c>
-      <c r="D9" s="75">
-        <v>1.84</v>
-      </c>
-      <c r="E9" s="76">
-        <f t="shared" si="0"/>
-        <v>5.4648000000000003</v>
-      </c>
-      <c r="F9" s="76">
-        <f t="shared" si="1"/>
-        <v>8.8209000000000017</v>
-      </c>
-      <c r="G9" s="76">
-        <f t="shared" si="1"/>
-        <v>3.3856000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="75">
-        <v>9</v>
-      </c>
-      <c r="C10" s="75">
-        <v>3.1</v>
-      </c>
-      <c r="D10" s="75">
-        <v>1.78</v>
-      </c>
-      <c r="E10" s="76">
-        <f t="shared" si="0"/>
-        <v>5.5180000000000007</v>
-      </c>
-      <c r="F10" s="76">
-        <f t="shared" si="1"/>
-        <v>9.6100000000000012</v>
-      </c>
-      <c r="G10" s="76">
-        <f t="shared" si="1"/>
-        <v>3.1684000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="75">
-        <v>10</v>
-      </c>
-      <c r="C11" s="75">
-        <v>3.02</v>
-      </c>
-      <c r="D11" s="75">
-        <v>1.6</v>
-      </c>
-      <c r="E11" s="76">
-        <f t="shared" si="0"/>
-        <v>4.8320000000000007</v>
-      </c>
-      <c r="F11" s="76">
-        <f t="shared" si="1"/>
-        <v>9.1204000000000001</v>
-      </c>
-      <c r="G11" s="76">
-        <f t="shared" si="1"/>
-        <v>2.5600000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" s="76">
-        <f>SUM(C2:C11)</f>
-        <v>27.42</v>
-      </c>
-      <c r="D12" s="76">
-        <f>SUM(D2:D11)</f>
-        <v>16.04</v>
-      </c>
-      <c r="E12" s="76">
-        <f>SUM(E2:E11)</f>
-        <v>44.348599999999998</v>
-      </c>
-      <c r="F12" s="76">
-        <f t="shared" ref="F12:G12" si="2">SUM(F2:F11)</f>
-        <v>76.161200000000008</v>
-      </c>
-      <c r="G12" s="76">
-        <f t="shared" si="2"/>
-        <v>25.939800000000005</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B05892-965F-431E-B5BF-049795D175A8}">
-  <dimension ref="A1:F33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="81" t="s">
-        <v>185</v>
-      </c>
-      <c r="C1" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="81" t="s">
-        <v>186</v>
-      </c>
-      <c r="E1" s="81" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="81" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="79">
-        <v>1</v>
-      </c>
-      <c r="D2" s="80">
-        <v>17938.800000000003</v>
-      </c>
-      <c r="E2" s="80">
-        <v>3640.4</v>
-      </c>
-      <c r="F2" s="80">
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="79">
-        <v>2</v>
-      </c>
-      <c r="D3" s="80">
-        <v>20737.600000000002</v>
-      </c>
-      <c r="E3" s="80">
-        <v>4190.4000000000005</v>
-      </c>
-      <c r="F3" s="80">
-        <v>708.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="79">
-        <v>3</v>
-      </c>
-      <c r="D4" s="80">
-        <v>37780</v>
-      </c>
-      <c r="E4" s="80">
-        <v>6958.4000000000005</v>
-      </c>
-      <c r="F4" s="80">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="79">
-        <v>4</v>
-      </c>
-      <c r="D5" s="80">
-        <v>15448</v>
-      </c>
-      <c r="E5" s="80">
-        <v>3055.2</v>
-      </c>
-      <c r="F5" s="80">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="79">
-        <v>1</v>
-      </c>
-      <c r="D6" s="80">
-        <v>30835.599999999999</v>
-      </c>
-      <c r="E6" s="80">
-        <v>7000.8</v>
-      </c>
-      <c r="F6" s="80">
-        <v>347.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="79">
-        <v>2</v>
-      </c>
-      <c r="D7" s="80">
-        <v>22246</v>
-      </c>
-      <c r="E7" s="80">
-        <v>5540</v>
-      </c>
-      <c r="F7" s="80">
-        <v>245.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="79">
-        <v>3</v>
-      </c>
-      <c r="D8" s="80">
-        <v>12422</v>
-      </c>
-      <c r="E8" s="80">
-        <v>3330.4</v>
-      </c>
-      <c r="F8" s="80">
-        <v>169.20000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="79">
-        <v>4</v>
-      </c>
-      <c r="D9" s="80">
-        <v>15219.6</v>
-      </c>
-      <c r="E9" s="80">
-        <v>3796.8</v>
-      </c>
-      <c r="F9" s="80">
-        <v>212.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="79">
-        <v>1</v>
-      </c>
-      <c r="D10" s="80">
-        <v>14700.4</v>
-      </c>
-      <c r="E10" s="80">
-        <v>2989.2000000000003</v>
-      </c>
-      <c r="F10" s="80">
-        <v>267.60000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="79">
-        <v>2</v>
-      </c>
-      <c r="D11" s="80">
-        <v>19146.400000000001</v>
-      </c>
-      <c r="E11" s="80">
-        <v>3652.4</v>
-      </c>
-      <c r="F11" s="80">
-        <v>399.20000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" s="79">
-        <v>3</v>
-      </c>
-      <c r="D12" s="80">
-        <v>33226.400000000001</v>
-      </c>
-      <c r="E12" s="80">
-        <v>6418.8</v>
-      </c>
-      <c r="F12" s="80">
-        <v>523.20000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="79">
-        <v>4</v>
-      </c>
-      <c r="D13" s="80">
-        <v>17372.8</v>
-      </c>
-      <c r="E13" s="80">
-        <v>4747.2000000000007</v>
-      </c>
-      <c r="F13" s="80">
-        <v>349.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="B14" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="79">
-        <v>1</v>
-      </c>
-      <c r="D14" s="80">
-        <v>17760</v>
-      </c>
-      <c r="E14" s="80">
-        <v>3728.3999999999996</v>
-      </c>
-      <c r="F14" s="80">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="79">
-        <v>2</v>
-      </c>
-      <c r="D15" s="80">
-        <v>19689.599999999999</v>
-      </c>
-      <c r="E15" s="80">
-        <v>3909.2000000000003</v>
-      </c>
-      <c r="F15" s="80">
-        <v>254.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="B16" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="C16" s="79">
-        <v>3</v>
-      </c>
-      <c r="D16" s="80">
-        <v>6413.2000000000007</v>
-      </c>
-      <c r="E16" s="80">
-        <v>1576.3999999999999</v>
-      </c>
-      <c r="F16" s="80">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" s="79">
-        <v>4</v>
-      </c>
-      <c r="D17" s="80">
-        <v>25316.799999999999</v>
-      </c>
-      <c r="E17" s="80">
-        <v>5676.4</v>
-      </c>
-      <c r="F17" s="80">
-        <v>312.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B18" s="78" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" s="79">
-        <v>1</v>
-      </c>
-      <c r="D18" s="80">
-        <v>44237.600000000006</v>
-      </c>
-      <c r="E18" s="80">
-        <v>7444.8</v>
-      </c>
-      <c r="F18" s="80">
-        <v>214.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B19" s="78" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" s="79">
-        <v>2</v>
-      </c>
-      <c r="D19" s="80">
-        <v>26322.800000000003</v>
-      </c>
-      <c r="E19" s="80">
-        <v>4369.2</v>
-      </c>
-      <c r="F19" s="80">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B20" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" s="79">
-        <v>3</v>
-      </c>
-      <c r="D20" s="80">
-        <v>45075.600000000006</v>
-      </c>
-      <c r="E20" s="80">
-        <v>7343.6</v>
-      </c>
-      <c r="F20" s="80">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B21" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="C21" s="79">
-        <v>4</v>
-      </c>
-      <c r="D21" s="80">
-        <v>36212.800000000003</v>
-      </c>
-      <c r="E21" s="80">
-        <v>6216</v>
-      </c>
-      <c r="F21" s="80">
-        <v>207.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B22" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="C22" s="79">
-        <v>1</v>
-      </c>
-      <c r="D22" s="80">
-        <v>32367.199999999997</v>
-      </c>
-      <c r="E22" s="80">
-        <v>7124.4000000000005</v>
-      </c>
-      <c r="F22" s="80">
-        <v>583.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B23" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="79">
-        <v>2</v>
-      </c>
-      <c r="D23" s="80">
-        <v>27846.399999999998</v>
-      </c>
-      <c r="E23" s="80">
-        <v>6886.4</v>
-      </c>
-      <c r="F23" s="80">
-        <v>517.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="79">
-        <v>3</v>
-      </c>
-      <c r="D24" s="80">
-        <v>23167.600000000002</v>
-      </c>
-      <c r="E24" s="80">
-        <v>5132.7999999999993</v>
-      </c>
-      <c r="F24" s="80">
-        <v>401.59999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="C25" s="79">
-        <v>4</v>
-      </c>
-      <c r="D25" s="80">
-        <v>28570.400000000001</v>
-      </c>
-      <c r="E25" s="80">
-        <v>6368.8</v>
-      </c>
-      <c r="F25" s="80">
-        <v>447.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B26" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="C26" s="79">
-        <v>1</v>
-      </c>
-      <c r="D26" s="80">
-        <v>25033.200000000001</v>
-      </c>
-      <c r="E26" s="80">
-        <v>4857.2000000000007</v>
-      </c>
-      <c r="F26" s="80">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B27" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="79">
-        <v>2</v>
-      </c>
-      <c r="D27" s="80">
-        <v>39969.599999999999</v>
-      </c>
-      <c r="E27" s="80">
-        <v>7573.2000000000007</v>
-      </c>
-      <c r="F27" s="80">
-        <v>684.80000000000007</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B28" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="C28" s="79">
-        <v>3</v>
-      </c>
-      <c r="D28" s="80">
-        <v>36924.800000000003</v>
-      </c>
-      <c r="E28" s="80">
-        <v>7040</v>
-      </c>
-      <c r="F28" s="80">
-        <v>616.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B29" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="C29" s="79">
-        <v>4</v>
-      </c>
-      <c r="D29" s="80">
-        <v>20400.8</v>
-      </c>
-      <c r="E29" s="80">
-        <v>3488.8</v>
-      </c>
-      <c r="F29" s="80">
-        <v>447.59999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="C30" s="79">
-        <v>1</v>
-      </c>
-      <c r="D30" s="80">
-        <v>15811.6</v>
-      </c>
-      <c r="E30" s="80">
-        <v>2684</v>
-      </c>
-      <c r="F30" s="80">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B31" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="C31" s="79">
-        <v>2</v>
-      </c>
-      <c r="D31" s="80">
-        <v>24537.199999999997</v>
-      </c>
-      <c r="E31" s="80">
-        <v>4491.2</v>
-      </c>
-      <c r="F31" s="80">
-        <v>354.79999999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B32" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="C32" s="79">
-        <v>3</v>
-      </c>
-      <c r="D32" s="80">
-        <v>26057.199999999997</v>
-      </c>
-      <c r="E32" s="80">
-        <v>5295.5999999999995</v>
-      </c>
-      <c r="F32" s="80">
-        <v>362.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B33" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="C33" s="79">
-        <v>4</v>
-      </c>
-      <c r="D33" s="80">
-        <v>27948</v>
-      </c>
-      <c r="E33" s="80">
-        <v>5165.5999999999995</v>
-      </c>
-      <c r="F33" s="80">
-        <v>414</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/static/classes/experimentacao/dados_biost_exp.xlsx
+++ b/static/classes/experimentacao/dados_biost_exp.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF6BB31-E170-4E58-8036-A887F9BA58AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BC0C7D-0F52-4B13-A900-860A868F3561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" firstSheet="13" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG_DATA" sheetId="32" r:id="rId1"/>
@@ -695,7 +695,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000000000000"/>
     <numFmt numFmtId="168" formatCode="0.000E+00"/>
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1162,14 +1162,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1187,8 +1181,8 @@
     </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1201,6 +1195,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1243,7 +1243,7 @@
             <xdr14:cNvPr id="2" name="Tinta 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1308,7 +1308,7 @@
             <xdr14:cNvPr id="3" name="Tinta 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1376,7 +1376,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,7 +1418,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1460,7 @@
         <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1502,7 +1502,7 @@
         <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1544,7 +1544,7 @@
         <xdr:cNvPr id="6" name="Imagem 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,7 +1591,7 @@
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000002100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000002100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1646,7 +1646,7 @@
         <xdr:cNvPr id="14337" name="AutoShape 1" descr="http://127.0.0.1:9500/chunk_output/61CA297D42E8352A/8C91D2C9/cqv3jo1cg92uw/00004f.png?fixed_size=1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000001380000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000001380000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1694,7 +1694,7 @@
         <xdr:cNvPr id="14338" name="AutoShape 2" descr="http://127.0.0.1:9500/chunk_output/61CA297D42E8352A/8C91D2C9/cqv3jo1cg92uw/00004f.png?fixed_size=1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000002380000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000002380000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,7 +2047,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7671,12 +7671,12 @@
       <c r="B1" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
       <c r="G1" s="28" t="s">
         <v>63</v>
       </c>
@@ -8075,8 +8075,8 @@
   <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8730,8 +8730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA13D253-5E88-4C61-836C-2FFDAD90BAC1}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8770,11 +8770,11 @@
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -9306,10 +9306,7 @@
       <c r="O18" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="P18" s="17">
-        <f>I19-J19</f>
-        <v>-0.12687499999999918</v>
-      </c>
+      <c r="P18" s="17"/>
       <c r="R18" s="18" t="s">
         <v>136</v>
       </c>
@@ -9323,11 +9320,11 @@
         <v>21</v>
       </c>
       <c r="I19" s="59">
-        <f t="shared" ref="I19:K21" si="6">I3/4</f>
+        <f>I3/4</f>
         <v>4.6659750000000004</v>
       </c>
       <c r="J19" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="I19:K21" si="6">J3/4</f>
         <v>4.7928499999999996</v>
       </c>
       <c r="K19" s="61">
@@ -9341,10 +9338,7 @@
       <c r="O19" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="P19" s="17">
-        <f>I19-K19</f>
-        <v>-0.58924999999999983</v>
-      </c>
+      <c r="P19" s="17"/>
       <c r="R19" s="5" t="s">
         <v>137</v>
       </c>
@@ -9376,10 +9370,7 @@
       <c r="O20" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="P20" s="17">
-        <f>J19-K19</f>
-        <v>-0.46237500000000065</v>
-      </c>
+      <c r="P20" s="17"/>
       <c r="R20" s="5" t="s">
         <v>138</v>
       </c>
@@ -9438,10 +9429,7 @@
       <c r="O23" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="P23" s="17">
-        <f>I20-J20</f>
-        <v>-1.0274249999999991</v>
-      </c>
+      <c r="P23" s="17"/>
       <c r="R23" s="18" t="s">
         <v>136</v>
       </c>
@@ -9454,10 +9442,7 @@
       <c r="O24" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="P24" s="17">
-        <f>I20-K20</f>
-        <v>-2.5048624999999998</v>
-      </c>
+      <c r="P24" s="17"/>
       <c r="R24" s="5" t="s">
         <v>137</v>
       </c>
@@ -9470,10 +9455,7 @@
       <c r="O25" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="P25" s="17">
-        <f>J20-K20</f>
-        <v>-1.4774375000000006</v>
-      </c>
+      <c r="P25" s="17"/>
       <c r="R25" s="5" t="s">
         <v>138</v>
       </c>
@@ -9494,10 +9476,7 @@
       <c r="O28" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="P28" s="17">
-        <f>I21-J21</f>
-        <v>-2.7881125000000004</v>
-      </c>
+      <c r="P28" s="17"/>
       <c r="R28" s="18" t="s">
         <v>136</v>
       </c>
@@ -9510,10 +9489,7 @@
       <c r="O29" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="P29" s="17">
-        <f>I21-K21</f>
-        <v>-4.7207000000000008</v>
-      </c>
+      <c r="P29" s="17"/>
       <c r="R29" s="5" t="s">
         <v>137</v>
       </c>
@@ -9526,10 +9502,7 @@
       <c r="O30" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="P30" s="17">
-        <f>J21-K21</f>
-        <v>-1.9325875000000003</v>
-      </c>
+      <c r="P30" s="17"/>
       <c r="R30" s="5" t="s">
         <v>138</v>
       </c>
@@ -11931,7 +11904,7 @@
   <dimension ref="A1:J781"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38797,7 +38770,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="85"/>
       <c r="G10" s="85"/>
-      <c r="H10" s="89"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="R10" s="4"/>
@@ -38831,7 +38804,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="73"/>
       <c r="G12" s="85"/>
-      <c r="H12" s="89"/>
+      <c r="H12" s="87"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="R12" s="4"/>
@@ -38839,9 +38812,9 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="82"/>
       <c r="B13" s="82"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
       <c r="F13" s="73"/>
       <c r="G13" s="85"/>
       <c r="H13" s="11"/>
@@ -39246,7 +39219,7 @@
       </c>
       <c r="G10" s="85"/>
       <c r="H10" s="85"/>
-      <c r="I10" s="89"/>
+      <c r="I10" s="87"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
       <c r="S10" s="4"/>
@@ -39298,7 +39271,7 @@
       </c>
       <c r="G12" s="73"/>
       <c r="H12" s="85"/>
-      <c r="I12" s="89"/>
+      <c r="I12" s="87"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="S12" s="4"/>
@@ -39315,15 +39288,15 @@
         <f>SUM(C2:C12)</f>
         <v>20.3</v>
       </c>
-      <c r="D13" s="88">
+      <c r="D13" s="86">
         <f t="shared" ref="D13:F13" si="2">SUM(D2:D12)</f>
         <v>4004.5</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="86">
         <f t="shared" si="2"/>
         <v>295625</v>
       </c>
-      <c r="F13" s="88">
+      <c r="F13" s="86">
         <f t="shared" si="2"/>
         <v>60.334999999999994</v>
       </c>
@@ -39447,162 +39420,162 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="90" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.77734375" style="90" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="90"/>
+    <col min="1" max="1" width="9" style="88" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.77734375" style="88" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="88"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="89" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="93">
+      <c r="A2" s="91">
         <v>1</v>
       </c>
-      <c r="B2" s="94">
+      <c r="B2" s="92">
         <v>0.60199999999999998</v>
       </c>
-      <c r="C2" s="94">
+      <c r="C2" s="92">
         <v>0.61899999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="93">
+      <c r="A3" s="91">
         <v>2</v>
       </c>
-      <c r="B3" s="94">
+      <c r="B3" s="92">
         <v>0.63600000000000001</v>
       </c>
-      <c r="C3" s="94">
+      <c r="C3" s="92">
         <v>0.62</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="93">
+      <c r="A4" s="91">
         <v>3</v>
       </c>
-      <c r="B4" s="94">
+      <c r="B4" s="92">
         <v>0.60399999999999998</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C4" s="92">
         <v>0.62</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="93">
+      <c r="A5" s="91">
         <v>4</v>
       </c>
-      <c r="B5" s="94">
+      <c r="B5" s="92">
         <v>0.54800000000000004</v>
       </c>
-      <c r="C5" s="94">
+      <c r="C5" s="92">
         <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="93">
+      <c r="A6" s="91">
         <v>5</v>
       </c>
-      <c r="B6" s="94">
+      <c r="B6" s="92">
         <v>0.59</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="92">
         <v>0.61599999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="93">
+      <c r="A7" s="91">
         <v>6</v>
       </c>
-      <c r="B7" s="94">
+      <c r="B7" s="92">
         <v>0.59199999999999997</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="92">
         <v>0.60099999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="93">
+      <c r="A8" s="91">
         <v>7</v>
       </c>
-      <c r="B8" s="94">
+      <c r="B8" s="92">
         <v>0.625</v>
       </c>
-      <c r="C8" s="94">
+      <c r="C8" s="92">
         <v>0.66400000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="93">
+      <c r="A9" s="91">
         <v>8</v>
       </c>
-      <c r="B9" s="94">
+      <c r="B9" s="92">
         <v>0.64100000000000001</v>
       </c>
-      <c r="C9" s="94">
+      <c r="C9" s="92">
         <v>0.65200000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="93">
+      <c r="A10" s="91">
         <v>9</v>
       </c>
-      <c r="B10" s="94">
+      <c r="B10" s="92">
         <v>0.60599999999999998</v>
       </c>
-      <c r="C10" s="94">
+      <c r="C10" s="92">
         <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="93">
+      <c r="A11" s="91">
         <v>10</v>
       </c>
-      <c r="B11" s="94">
+      <c r="B11" s="92">
         <v>0.502</v>
       </c>
-      <c r="C11" s="94">
+      <c r="C11" s="92">
         <v>0.501</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="100">
+      <c r="A12" s="98">
         <v>11</v>
       </c>
-      <c r="B12" s="101">
+      <c r="B12" s="99">
         <v>0.58799999999999997</v>
       </c>
-      <c r="C12" s="101">
+      <c r="C12" s="99">
         <v>0.59</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="100">
+      <c r="A13" s="98">
         <v>12</v>
       </c>
-      <c r="B13" s="101">
+      <c r="B13" s="99">
         <v>0.59399999999999997</v>
       </c>
-      <c r="C13" s="101">
+      <c r="C13" s="99">
         <v>0.622</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="100">
+      <c r="A14" s="98">
         <v>13</v>
       </c>
-      <c r="B14" s="101">
+      <c r="B14" s="99">
         <v>0.626</v>
       </c>
-      <c r="C14" s="101">
+      <c r="C14" s="99">
         <v>0.60599999999999998</v>
       </c>
     </row>
@@ -39616,421 +39589,421 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C406D57-738D-45F7-9FB6-D1DB8E58E523}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="91"/>
-    <col min="2" max="2" width="9.109375" style="91" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.88671875" style="91" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="91" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="91"/>
-    <col min="10" max="10" width="10.21875" style="91" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="91"/>
+    <col min="1" max="1" width="8.88671875" style="89"/>
+    <col min="2" max="2" width="9.109375" style="89" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.88671875" style="89" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" style="89" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="89"/>
+    <col min="10" max="10" width="10.21875" style="89" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="89"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92" t="s">
+      <c r="H1" s="90"/>
+      <c r="I1" s="90" t="s">
         <v>198</v>
       </c>
-      <c r="J1" s="92">
+      <c r="J1" s="90">
         <f>E15-(C15*D15)/13</f>
         <v>1.7445076923076286E-2</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="93">
+      <c r="B2" s="91">
         <v>1</v>
       </c>
-      <c r="C2" s="94">
+      <c r="C2" s="92">
         <v>0.60199999999999998</v>
       </c>
-      <c r="D2" s="94">
+      <c r="D2" s="92">
         <v>0.61899999999999999</v>
       </c>
-      <c r="E2" s="95">
+      <c r="E2" s="93">
         <f>C2*D2</f>
         <v>0.37263799999999997</v>
       </c>
-      <c r="F2" s="95">
+      <c r="F2" s="93">
         <f>C2^2</f>
         <v>0.36240399999999995</v>
       </c>
-      <c r="G2" s="95">
+      <c r="G2" s="93">
         <f>D2^2</f>
         <v>0.38316099999999997</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="95" t="s">
+      <c r="H2" s="94"/>
+      <c r="I2" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="J2" s="92">
+      <c r="J2" s="90">
         <f>F15-C15^2/13</f>
         <v>1.682323076922998E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="93">
+      <c r="B3" s="91">
         <v>2</v>
       </c>
-      <c r="C3" s="94">
+      <c r="C3" s="92">
         <v>0.63600000000000001</v>
       </c>
-      <c r="D3" s="94">
+      <c r="D3" s="92">
         <v>0.62</v>
       </c>
-      <c r="E3" s="95">
+      <c r="E3" s="93">
         <f t="shared" ref="E3:E12" si="0">C3*D3</f>
         <v>0.39432</v>
       </c>
-      <c r="F3" s="95">
+      <c r="F3" s="93">
         <f t="shared" ref="F3:G12" si="1">C3^2</f>
         <v>0.40449600000000002</v>
       </c>
-      <c r="G3" s="95">
+      <c r="G3" s="93">
         <f t="shared" si="1"/>
         <v>0.38440000000000002</v>
       </c>
-      <c r="H3" s="96"/>
-      <c r="I3" s="95" t="s">
+      <c r="H3" s="94"/>
+      <c r="I3" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="J3" s="92">
+      <c r="J3" s="90">
         <f>G15-D15^2/13</f>
         <v>2.2863692307692141E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="93">
+      <c r="B4" s="91">
         <v>3</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C4" s="92">
         <v>0.60399999999999998</v>
       </c>
-      <c r="D4" s="94">
+      <c r="D4" s="92">
         <v>0.62</v>
       </c>
-      <c r="E4" s="95">
+      <c r="E4" s="93">
         <f t="shared" si="0"/>
         <v>0.37447999999999998</v>
       </c>
-      <c r="F4" s="95">
+      <c r="F4" s="93">
         <f t="shared" si="1"/>
         <v>0.36481599999999997</v>
       </c>
-      <c r="G4" s="95">
+      <c r="G4" s="93">
         <f t="shared" si="1"/>
         <v>0.38440000000000002</v>
       </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="95" t="s">
+      <c r="H4" s="94"/>
+      <c r="I4" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="J4" s="97">
+      <c r="J4" s="95">
         <f>J1/SQRT(J2*J3)</f>
         <v>0.88949805787377378</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="93">
+      <c r="B5" s="91">
         <v>4</v>
       </c>
-      <c r="C5" s="94">
+      <c r="C5" s="92">
         <v>0.54800000000000004</v>
       </c>
-      <c r="D5" s="94">
+      <c r="D5" s="92">
         <v>0.53800000000000003</v>
       </c>
-      <c r="E5" s="95">
+      <c r="E5" s="93">
         <f t="shared" si="0"/>
         <v>0.29482400000000003</v>
       </c>
-      <c r="F5" s="95">
+      <c r="F5" s="93">
         <f t="shared" si="1"/>
         <v>0.30030400000000007</v>
       </c>
-      <c r="G5" s="95">
+      <c r="G5" s="93">
         <f t="shared" si="1"/>
         <v>0.28944400000000003</v>
       </c>
-      <c r="H5" s="96"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="92"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="90"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="93">
+      <c r="B6" s="91">
         <v>5</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="92">
         <v>0.59</v>
       </c>
-      <c r="D6" s="94">
+      <c r="D6" s="92">
         <v>0.61599999999999999</v>
       </c>
-      <c r="E6" s="95">
+      <c r="E6" s="93">
         <f t="shared" si="0"/>
         <v>0.36343999999999999</v>
       </c>
-      <c r="F6" s="95">
+      <c r="F6" s="93">
         <f t="shared" si="1"/>
         <v>0.34809999999999997</v>
       </c>
-      <c r="G6" s="95">
+      <c r="G6" s="93">
         <f t="shared" si="1"/>
         <v>0.37945600000000002</v>
       </c>
-      <c r="H6" s="96"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="92"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="93">
+      <c r="B7" s="91">
         <v>6</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="92">
         <v>0.59199999999999997</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="92">
         <v>0.60099999999999998</v>
       </c>
-      <c r="E7" s="95">
+      <c r="E7" s="93">
         <f t="shared" si="0"/>
         <v>0.355792</v>
       </c>
-      <c r="F7" s="95">
+      <c r="F7" s="93">
         <f t="shared" si="1"/>
         <v>0.35046399999999994</v>
       </c>
-      <c r="G7" s="95">
+      <c r="G7" s="93">
         <f t="shared" si="1"/>
         <v>0.36120099999999999</v>
       </c>
-      <c r="I7" s="95"/>
-      <c r="J7" s="92"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="90"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="93">
+      <c r="B8" s="91">
         <v>7</v>
       </c>
-      <c r="C8" s="94">
+      <c r="C8" s="92">
         <v>0.625</v>
       </c>
-      <c r="D8" s="94">
+      <c r="D8" s="92">
         <v>0.66400000000000003</v>
       </c>
-      <c r="E8" s="95">
+      <c r="E8" s="93">
         <f t="shared" si="0"/>
         <v>0.41500000000000004</v>
       </c>
-      <c r="F8" s="95">
+      <c r="F8" s="93">
         <f t="shared" si="1"/>
         <v>0.390625</v>
       </c>
-      <c r="G8" s="95">
+      <c r="G8" s="93">
         <f t="shared" si="1"/>
         <v>0.44089600000000007</v>
       </c>
-      <c r="I8" s="95"/>
-      <c r="J8" s="92"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="90"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="93">
+      <c r="B9" s="91">
         <v>8</v>
       </c>
-      <c r="C9" s="94">
+      <c r="C9" s="92">
         <v>0.64100000000000001</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="92">
         <v>0.65200000000000002</v>
       </c>
-      <c r="E9" s="95">
+      <c r="E9" s="93">
         <f t="shared" si="0"/>
         <v>0.41793200000000003</v>
       </c>
-      <c r="F9" s="95">
+      <c r="F9" s="93">
         <f t="shared" si="1"/>
         <v>0.410881</v>
       </c>
-      <c r="G9" s="95">
+      <c r="G9" s="93">
         <f t="shared" si="1"/>
         <v>0.42510400000000004</v>
       </c>
-      <c r="J9" s="92"/>
+      <c r="J9" s="90"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="93">
+      <c r="B10" s="91">
         <v>9</v>
       </c>
-      <c r="C10" s="94">
+      <c r="C10" s="92">
         <v>0.60599999999999998</v>
       </c>
-      <c r="D10" s="94">
+      <c r="D10" s="92">
         <v>0.57899999999999996</v>
       </c>
-      <c r="E10" s="95">
+      <c r="E10" s="93">
         <f t="shared" si="0"/>
         <v>0.35087399999999996</v>
       </c>
-      <c r="F10" s="95">
+      <c r="F10" s="93">
         <f t="shared" si="1"/>
         <v>0.36723600000000001</v>
       </c>
-      <c r="G10" s="95">
+      <c r="G10" s="93">
         <f t="shared" si="1"/>
         <v>0.33524099999999996</v>
       </c>
-      <c r="J10" s="98"/>
+      <c r="J10" s="96"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="93">
+      <c r="B11" s="91">
         <v>10</v>
       </c>
-      <c r="C11" s="94">
+      <c r="C11" s="92">
         <v>0.502</v>
       </c>
-      <c r="D11" s="94">
+      <c r="D11" s="92">
         <v>0.501</v>
       </c>
-      <c r="E11" s="95">
+      <c r="E11" s="93">
         <f t="shared" si="0"/>
         <v>0.251502</v>
       </c>
-      <c r="F11" s="95">
+      <c r="F11" s="93">
         <f t="shared" si="1"/>
         <v>0.25200400000000001</v>
       </c>
-      <c r="G11" s="95">
+      <c r="G11" s="93">
         <f t="shared" si="1"/>
         <v>0.25100099999999997</v>
       </c>
-      <c r="J11" s="99"/>
+      <c r="J11" s="97"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="100">
+      <c r="B12" s="98">
         <v>11</v>
       </c>
-      <c r="C12" s="101">
+      <c r="C12" s="99">
         <v>0.58799999999999997</v>
       </c>
-      <c r="D12" s="101">
+      <c r="D12" s="99">
         <v>0.59</v>
       </c>
-      <c r="E12" s="95">
+      <c r="E12" s="93">
         <f t="shared" si="0"/>
         <v>0.34691999999999995</v>
       </c>
-      <c r="F12" s="95">
+      <c r="F12" s="93">
         <f t="shared" si="1"/>
         <v>0.34574399999999994</v>
       </c>
-      <c r="G12" s="95">
+      <c r="G12" s="93">
         <f t="shared" si="1"/>
         <v>0.34809999999999997</v>
       </c>
-      <c r="H12" s="102"/>
-      <c r="J12" s="98"/>
+      <c r="H12" s="100"/>
+      <c r="J12" s="96"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="100">
+      <c r="B13" s="98">
         <v>12</v>
       </c>
-      <c r="C13" s="101">
+      <c r="C13" s="99">
         <v>0.59399999999999997</v>
       </c>
-      <c r="D13" s="101">
+      <c r="D13" s="99">
         <v>0.622</v>
       </c>
-      <c r="E13" s="95">
+      <c r="E13" s="93">
         <f t="shared" ref="E13:E14" si="2">C13*D13</f>
         <v>0.36946799999999996</v>
       </c>
-      <c r="F13" s="95">
+      <c r="F13" s="93">
         <f t="shared" ref="F13:F14" si="3">C13^2</f>
         <v>0.35283599999999998</v>
       </c>
-      <c r="G13" s="95">
+      <c r="G13" s="93">
         <f t="shared" ref="G13:G14" si="4">D13^2</f>
         <v>0.38688400000000001</v>
       </c>
-      <c r="H13" s="102"/>
-      <c r="J13" s="99"/>
+      <c r="H13" s="100"/>
+      <c r="J13" s="97"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="100">
+      <c r="B14" s="98">
         <v>13</v>
       </c>
-      <c r="C14" s="101">
+      <c r="C14" s="99">
         <v>0.626</v>
       </c>
-      <c r="D14" s="101">
+      <c r="D14" s="99">
         <v>0.60599999999999998</v>
       </c>
-      <c r="E14" s="95">
+      <c r="E14" s="93">
         <f t="shared" si="2"/>
         <v>0.37935599999999997</v>
       </c>
-      <c r="F14" s="95">
+      <c r="F14" s="93">
         <f t="shared" si="3"/>
         <v>0.391876</v>
       </c>
-      <c r="G14" s="95">
+      <c r="G14" s="93">
         <f t="shared" si="4"/>
         <v>0.36723600000000001</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="96">
+      <c r="C15" s="94">
         <f>SUM(C2:C14)</f>
         <v>7.7540000000000004</v>
       </c>
-      <c r="D15" s="96">
+      <c r="D15" s="94">
         <f>SUM(D2:D14)</f>
         <v>7.8280000000000003</v>
       </c>
-      <c r="E15" s="96">
+      <c r="E15" s="94">
         <f t="shared" ref="E15:G15" si="5">SUM(E2:E14)</f>
         <v>4.6865459999999999</v>
       </c>
-      <c r="F15" s="96">
+      <c r="F15" s="94">
         <f t="shared" si="5"/>
         <v>4.6417859999999997</v>
       </c>
-      <c r="G15" s="96">
+      <c r="G15" s="94">
         <f t="shared" si="5"/>
         <v>4.7365240000000002</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="92"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
+      <c r="A16" s="90"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/static/classes/experimentacao/dados_biost_exp.xlsx
+++ b/static/classes/experimentacao/dados_biost_exp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4F5DBC-51C2-4941-9C81-39BE33686C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9395E9-BA5E-4190-AE86-FEA5C772E0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1260,12 +1260,6 @@
     <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1277,6 +1271,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1318,7 +1318,7 @@
             <xdr14:cNvPr id="2" name="Tinta 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1383,7 +1383,7 @@
             <xdr14:cNvPr id="3" name="Tinta 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -1451,7 +1451,7 @@
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1493,7 +1493,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1535,7 +1535,7 @@
         <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1577,7 @@
         <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1619,7 @@
         <xdr:cNvPr id="6" name="Imagem 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1666,7 +1666,7 @@
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000002100000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000002100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1721,7 +1721,7 @@
         <xdr:cNvPr id="14337" name="AutoShape 1" descr="http://127.0.0.1:9500/chunk_output/61CA297D42E8352A/8C91D2C9/cqv3jo1cg92uw/00004f.png?fixed_size=1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000001380000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000001380000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1769,7 +1769,7 @@
         <xdr:cNvPr id="14338" name="AutoShape 2" descr="http://127.0.0.1:9500/chunk_output/61CA297D42E8352A/8C91D2C9/cqv3jo1cg92uw/00004f.png?fixed_size=1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000002380000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000002380000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2576,18 +2576,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="102" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="105">
+      <c r="A2" s="103">
         <v>519</v>
       </c>
-      <c r="B2" s="106">
+      <c r="B2" s="104">
         <v>173.5</v>
       </c>
       <c r="C2" s="75"/>
@@ -2597,10 +2597,10 @@
       <c r="G2" s="76"/>
     </row>
     <row r="3" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="105">
+      <c r="A3" s="103">
         <v>522</v>
       </c>
-      <c r="B3" s="106">
+      <c r="B3" s="104">
         <v>213.5</v>
       </c>
       <c r="C3" s="75"/>
@@ -2610,10 +2610,10 @@
       <c r="G3" s="76"/>
     </row>
     <row r="4" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="105">
+      <c r="A4" s="103">
         <v>624</v>
       </c>
-      <c r="B4" s="106">
+      <c r="B4" s="104">
         <v>221.1</v>
       </c>
       <c r="C4" s="75"/>
@@ -2623,10 +2623,10 @@
       <c r="G4" s="76"/>
     </row>
     <row r="5" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="105">
+      <c r="A5" s="103">
         <v>670</v>
       </c>
-      <c r="B5" s="106">
+      <c r="B5" s="104">
         <v>261.5</v>
       </c>
       <c r="C5" s="75"/>
@@ -2636,10 +2636,10 @@
       <c r="G5" s="76"/>
     </row>
     <row r="6" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="105">
+      <c r="A6" s="103">
         <v>518</v>
       </c>
-      <c r="B6" s="106">
+      <c r="B6" s="104">
         <v>220.1</v>
       </c>
       <c r="C6" s="75"/>
@@ -2649,10 +2649,10 @@
       <c r="G6" s="76"/>
     </row>
     <row r="7" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="105">
+      <c r="A7" s="103">
         <v>547</v>
       </c>
-      <c r="B7" s="106">
+      <c r="B7" s="104">
         <v>177.8</v>
       </c>
       <c r="C7" s="75"/>
@@ -2662,10 +2662,10 @@
       <c r="G7" s="76"/>
     </row>
     <row r="8" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="105">
+      <c r="A8" s="103">
         <v>670</v>
       </c>
-      <c r="B8" s="106">
+      <c r="B8" s="104">
         <v>250.8</v>
       </c>
       <c r="C8" s="75"/>
@@ -2675,10 +2675,10 @@
       <c r="G8" s="76"/>
     </row>
     <row r="9" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="105">
+      <c r="A9" s="103">
         <v>546</v>
       </c>
-      <c r="B9" s="106">
+      <c r="B9" s="104">
         <v>192</v>
       </c>
       <c r="C9" s="75"/>
@@ -2688,10 +2688,10 @@
       <c r="G9" s="76"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="105">
+      <c r="A10" s="103">
         <v>444</v>
       </c>
-      <c r="B10" s="106">
+      <c r="B10" s="104">
         <v>193.5</v>
       </c>
       <c r="C10" s="75"/>
@@ -2701,10 +2701,10 @@
       <c r="G10" s="76"/>
     </row>
     <row r="11" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="105">
+      <c r="A11" s="103">
         <v>611</v>
       </c>
-      <c r="B11" s="106">
+      <c r="B11" s="104">
         <v>255.6</v>
       </c>
       <c r="C11" s="75"/>
@@ -2714,10 +2714,10 @@
       <c r="G11" s="76"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="105">
+      <c r="A12" s="103">
         <v>557</v>
       </c>
-      <c r="B12" s="106">
+      <c r="B12" s="104">
         <v>245.9</v>
       </c>
       <c r="C12" s="76"/>
@@ -2727,34 +2727,34 @@
       <c r="G12" s="76"/>
     </row>
     <row r="13" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="105">
+      <c r="A13" s="103">
         <v>702</v>
       </c>
-      <c r="B13" s="106">
+      <c r="B13" s="104">
         <v>207.4</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="105">
+      <c r="A14" s="103">
         <v>443</v>
       </c>
-      <c r="B14" s="106">
+      <c r="B14" s="104">
         <v>185.3</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="105">
+      <c r="A15" s="103">
         <v>430</v>
       </c>
-      <c r="B15" s="106">
+      <c r="B15" s="104">
         <v>166.6</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="105">
+      <c r="A16" s="103">
         <v>481</v>
       </c>
-      <c r="B16" s="106">
+      <c r="B16" s="104">
         <v>202.4</v>
       </c>
     </row>
@@ -2766,23 +2766,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A363DB-4655-4EB1-A693-AD3FA00C72AD}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="27"/>
     <col min="2" max="2" width="9" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.77734375" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="8.88671875" style="27"/>
-    <col min="10" max="10" width="15.109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="27"/>
+    <col min="3" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>208</v>
       </c>
@@ -2790,52 +2787,37 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="103">
+    <row r="2" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="101">
         <v>20</v>
       </c>
-      <c r="B2" s="104">
+      <c r="B2" s="102">
         <v>7088</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="105">
+    <row r="3" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="103">
         <v>30</v>
       </c>
-      <c r="B3" s="106">
+      <c r="B3" s="104">
         <v>7372</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="105">
+    </row>
+    <row r="4" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="103">
         <v>40</v>
       </c>
-      <c r="B4" s="106">
+      <c r="B4" s="104">
         <v>8284</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="105">
+    </row>
+    <row r="5" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="103">
         <v>50</v>
       </c>
-      <c r="B5" s="106">
+      <c r="B5" s="104">
         <v>8324</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -8032,12 +8014,12 @@
       <c r="B1" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
       <c r="G1" s="28" t="s">
         <v>63</v>
       </c>
@@ -9131,11 +9113,11 @@
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">

--- a/static/classes/experimentacao/dados_biost_exp.xlsx
+++ b/static/classes/experimentacao/dados_biost_exp.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9395E9-BA5E-4190-AE86-FEA5C772E0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D493F6C5-AF27-40F7-8036-9037F86A5D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG_DATA" sheetId="32" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="210">
   <si>
     <t>AMB</t>
   </si>
@@ -688,6 +688,9 @@
   </si>
   <si>
     <t>DOSE</t>
+  </si>
+  <si>
+    <t>bj</t>
   </si>
 </sst>
 </file>
@@ -2768,7 +2771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A363DB-4655-4EB1-A693-AD3FA00C72AD}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -4562,10 +4565,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04035592-A0D5-4A24-BF54-61F2A46CEECB}">
   <sheetPr codeName="Planilha12"/>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4573,12 +4576,14 @@
     <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" style="83" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -4600,17 +4605,20 @@
       <c r="G1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" t="s">
         <v>82</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>50</v>
       </c>
@@ -4637,19 +4645,23 @@
         <v>-2.5029375000000016</v>
       </c>
       <c r="H2" s="17">
-        <f>C2-D2-G2</f>
-        <v>1.087625000000001</v>
+        <f>F2-D2</f>
+        <v>1.2708541666666662</v>
       </c>
       <c r="I2" s="17">
+        <f>C2-D2-G2-H2</f>
+        <v>-0.18322916666666522</v>
+      </c>
+      <c r="J2" s="17">
         <f>G2^2</f>
         <v>6.2646961289062579</v>
       </c>
-      <c r="J2" s="17">
-        <f>H2^2</f>
-        <v>1.1829281406250021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K2" s="17">
+        <f>I2^2</f>
+        <v>3.357292751736058E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>50</v>
       </c>
@@ -4676,19 +4688,23 @@
         <v>-2.5029375000000016</v>
       </c>
       <c r="H3" s="17">
-        <f t="shared" ref="H3:H13" si="3">C3-D3-G3</f>
-        <v>-0.48707499999999904</v>
+        <f t="shared" ref="H3:H13" si="3">F3-D3</f>
+        <v>-0.73351250000000157</v>
       </c>
       <c r="I3" s="17">
-        <f t="shared" ref="I3:I13" si="4">G3^2</f>
+        <f t="shared" ref="I3:I13" si="4">C3-D3-G3-H3</f>
+        <v>0.24643750000000253</v>
+      </c>
+      <c r="J3" s="17">
+        <f t="shared" ref="J3:J13" si="5">G3^2</f>
         <v>6.2646961289062579</v>
       </c>
-      <c r="J3" s="17">
-        <f t="shared" ref="J3:J13" si="5">H3^2</f>
-        <v>0.23724205562499906</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K3" s="17">
+        <f t="shared" ref="K3:K13" si="6">I3^2</f>
+        <v>6.0731441406251245E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>50</v>
       </c>
@@ -4716,21 +4732,25 @@
       </c>
       <c r="H4" s="17">
         <f t="shared" si="3"/>
-        <v>-0.35882499999999951</v>
+        <v>-9.8245833333331589E-2</v>
       </c>
       <c r="I4" s="17">
         <f t="shared" si="4"/>
-        <v>6.2646961289062579</v>
+        <v>-0.26057916666666792</v>
       </c>
       <c r="J4" s="17">
         <f t="shared" si="5"/>
-        <v>0.12875538062499964</v>
-      </c>
-      <c r="N4">
+        <v>6.2646961289062579</v>
+      </c>
+      <c r="K4" s="17">
+        <f t="shared" si="6"/>
+        <v>6.7901502100695094E-2</v>
+      </c>
+      <c r="O4">
         <v>-2.5029375000000016</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>50</v>
       </c>
@@ -4758,21 +4778,25 @@
       </c>
       <c r="H5" s="17">
         <f t="shared" si="3"/>
-        <v>-0.24172499999999886</v>
+        <v>-0.4390958333333348</v>
       </c>
       <c r="I5" s="17">
         <f t="shared" si="4"/>
-        <v>6.2646961289062579</v>
+        <v>0.19737083333333594</v>
       </c>
       <c r="J5" s="17">
         <f t="shared" si="5"/>
-        <v>5.8430975624999451E-2</v>
-      </c>
-      <c r="N5">
+        <v>6.2646961289062579</v>
+      </c>
+      <c r="K5" s="17">
+        <f t="shared" si="6"/>
+        <v>3.8955245850695472E-2</v>
+      </c>
+      <c r="O5">
         <v>0.28517499999999885</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>70</v>
       </c>
@@ -4799,21 +4823,25 @@
       </c>
       <c r="H6" s="17">
         <f t="shared" si="3"/>
-        <v>1.7434624999999997</v>
+        <v>1.2708541666666662</v>
       </c>
       <c r="I6" s="17">
         <f t="shared" si="4"/>
-        <v>8.1324780624999343E-2</v>
+        <v>0.47260833333333352</v>
       </c>
       <c r="J6" s="17">
         <f t="shared" si="5"/>
-        <v>3.039661488906249</v>
-      </c>
-      <c r="N6">
+        <v>8.1324780624999343E-2</v>
+      </c>
+      <c r="K6" s="17">
+        <f t="shared" si="6"/>
+        <v>0.22335863673611128</v>
+      </c>
+      <c r="O6">
         <v>2.2177624999999992</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>70</v>
       </c>
@@ -4828,7 +4856,7 @@
         <v>13.723162500000001</v>
       </c>
       <c r="E7" s="17">
-        <f t="shared" ref="E7:E8" si="6">AVERAGE($C$6:$C$9)</f>
+        <f t="shared" ref="E7:E8" si="7">AVERAGE($C$6:$C$9)</f>
         <v>14.0083375</v>
       </c>
       <c r="F7" s="17">
@@ -4840,22 +4868,26 @@
       </c>
       <c r="H7" s="17">
         <f t="shared" si="3"/>
-        <v>-0.70338749999999983</v>
+        <v>-0.73351250000000157</v>
       </c>
       <c r="I7" s="17">
         <f t="shared" si="4"/>
-        <v>8.1324780624999343E-2</v>
+        <v>3.0125000000001734E-2</v>
       </c>
       <c r="J7" s="17">
         <f t="shared" si="5"/>
-        <v>0.49475397515624975</v>
-      </c>
-      <c r="N7">
-        <f>SUMSQ(N4:N6)</f>
+        <v>8.1324780624999343E-2</v>
+      </c>
+      <c r="K7" s="17">
+        <f t="shared" si="6"/>
+        <v>9.0751562500010442E-4</v>
+      </c>
+      <c r="O7">
+        <f>SUMSQ(O4:O6)</f>
         <v>11.264491415937504</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>70</v>
       </c>
@@ -4870,7 +4902,7 @@
         <v>13.723162500000001</v>
       </c>
       <c r="E8" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.0083375</v>
       </c>
       <c r="F8" s="17">
@@ -4882,22 +4914,26 @@
       </c>
       <c r="H8" s="17">
         <f t="shared" si="3"/>
-        <v>-0.12398750000000014</v>
+        <v>-9.8245833333331589E-2</v>
       </c>
       <c r="I8" s="17">
         <f t="shared" si="4"/>
-        <v>8.1324780624999343E-2</v>
+        <v>-2.574166666666855E-2</v>
       </c>
       <c r="J8" s="17">
         <f t="shared" si="5"/>
-        <v>1.5372900156250034E-2</v>
-      </c>
-      <c r="N8">
-        <f>N7*4</f>
+        <v>8.1324780624999343E-2</v>
+      </c>
+      <c r="K8" s="17">
+        <f t="shared" si="6"/>
+        <v>6.6263340277787478E-4</v>
+      </c>
+      <c r="O8">
+        <f>O7*4</f>
         <v>45.057965663750018</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>70</v>
       </c>
@@ -4924,18 +4960,22 @@
       </c>
       <c r="H9" s="17">
         <f t="shared" si="3"/>
-        <v>-0.91608749999999972</v>
+        <v>-0.4390958333333348</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="4"/>
-        <v>8.1324780624999343E-2</v>
+        <v>-0.47699166666666493</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="5"/>
-        <v>0.83921630765624944</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>8.1324780624999343E-2</v>
+      </c>
+      <c r="K9" s="17">
+        <f t="shared" si="6"/>
+        <v>0.22752105006944279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>100</v>
       </c>
@@ -4950,7 +4990,7 @@
         <v>13.723162500000001</v>
       </c>
       <c r="E10" s="17">
-        <f t="shared" ref="E10:E13" si="7">AVERAGE($C$10:$C$13)</f>
+        <f t="shared" ref="E10:E13" si="8">AVERAGE($C$10:$C$13)</f>
         <v>15.940925</v>
       </c>
       <c r="F10" s="17">
@@ -4962,18 +5002,22 @@
       </c>
       <c r="H10" s="17">
         <f t="shared" si="3"/>
-        <v>0.98147499999999965</v>
+        <v>1.2708541666666662</v>
       </c>
       <c r="I10" s="17">
         <f t="shared" si="4"/>
-        <v>4.9184705064062468</v>
+        <v>-0.28937916666666652</v>
       </c>
       <c r="J10" s="17">
         <f t="shared" si="5"/>
-        <v>0.96329317562499928</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.9184705064062468</v>
+      </c>
+      <c r="K10" s="17">
+        <f t="shared" si="6"/>
+        <v>8.3740302100694358E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>100</v>
       </c>
@@ -4988,7 +5032,7 @@
         <v>13.723162500000001</v>
       </c>
       <c r="E11" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.940925</v>
       </c>
       <c r="F11" s="17">
@@ -5000,18 +5044,22 @@
       </c>
       <c r="H11" s="17">
         <f t="shared" si="3"/>
-        <v>-1.0100750000000005</v>
+        <v>-0.73351250000000157</v>
       </c>
       <c r="I11" s="17">
         <f t="shared" si="4"/>
-        <v>4.9184705064062468</v>
+        <v>-0.27656249999999893</v>
       </c>
       <c r="J11" s="17">
         <f t="shared" si="5"/>
-        <v>1.020251505625001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.9184705064062468</v>
+      </c>
+      <c r="K11" s="17">
+        <f t="shared" si="6"/>
+        <v>7.6486816406249408E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>100</v>
       </c>
@@ -5026,7 +5074,7 @@
         <v>13.723162500000001</v>
       </c>
       <c r="E12" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.940925</v>
       </c>
       <c r="F12" s="17">
@@ -5038,18 +5086,22 @@
       </c>
       <c r="H12" s="17">
         <f t="shared" si="3"/>
-        <v>0.18807500000000132</v>
+        <v>-9.8245833333331589E-2</v>
       </c>
       <c r="I12" s="17">
         <f t="shared" si="4"/>
-        <v>4.9184705064062468</v>
+        <v>0.28632083333333291</v>
       </c>
       <c r="J12" s="17">
         <f t="shared" si="5"/>
-        <v>3.53722056250005E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.9184705064062468</v>
+      </c>
+      <c r="K12" s="17">
+        <f t="shared" si="6"/>
+        <v>8.1979619600694206E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>100</v>
       </c>
@@ -5064,7 +5116,7 @@
         <v>13.723162500000001</v>
       </c>
       <c r="E13" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.940925</v>
       </c>
       <c r="F13" s="17">
@@ -5076,18 +5128,22 @@
       </c>
       <c r="H13" s="17">
         <f t="shared" si="3"/>
-        <v>-0.15947500000000048</v>
+        <v>-0.4390958333333348</v>
       </c>
       <c r="I13" s="17">
         <f t="shared" si="4"/>
-        <v>4.9184705064062468</v>
+        <v>0.27962083333333432</v>
       </c>
       <c r="J13" s="17">
         <f t="shared" si="5"/>
-        <v>2.5432275625000153E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.9184705064062468</v>
+      </c>
+      <c r="K13" s="17">
+        <f t="shared" si="6"/>
+        <v>7.8187810434028324E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="17"/>
@@ -5096,20 +5152,21 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="17">
-        <f>SUM(I2:I13)</f>
-        <v>45.057965663750011</v>
-      </c>
+      <c r="I14" s="17"/>
       <c r="J14" s="17">
         <f>SUM(J2:J13)</f>
-        <v>8.0407103868749985</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>45.057965663750011</v>
+      </c>
+      <c r="K14" s="17">
+        <f>SUM(K2:K13)</f>
+        <v>0.97400550125000085</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
     </row>

--- a/static/classes/experimentacao/dados_biost_exp.xlsx
+++ b/static/classes/experimentacao/dados_biost_exp.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D493F6C5-AF27-40F7-8036-9037F86A5D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC925F5-BA8D-421C-B615-A3552F04B9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="934" firstSheet="14" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REG_DATA" sheetId="32" r:id="rId1"/>
@@ -30,9 +30,9 @@
     <sheet name="QUANTI_LINEAR" sheetId="4" r:id="rId20"/>
     <sheet name="QUANTI_QUADRATICA" sheetId="23" r:id="rId21"/>
     <sheet name="FAT1_SI" sheetId="8" r:id="rId22"/>
-    <sheet name="FAT1_CI2" sheetId="26" r:id="rId23"/>
-    <sheet name="FAT1_CI2_TAB" sheetId="27" r:id="rId24"/>
-    <sheet name="FAT1_CI" sheetId="19" r:id="rId25"/>
+    <sheet name="FAT1_CI" sheetId="19" r:id="rId23"/>
+    <sheet name="FAT1_CI2" sheetId="26" r:id="rId24"/>
+    <sheet name="FAT1_CI2_TAB" sheetId="27" r:id="rId25"/>
     <sheet name="FAT1_CI_PRATICA" sheetId="28" r:id="rId26"/>
     <sheet name="FAT2_SI" sheetId="6" r:id="rId27"/>
     <sheet name="FAT2_CI" sheetId="5" r:id="rId28"/>
@@ -40,7 +40,7 @@
     <sheet name="maize" sheetId="2" r:id="rId30"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">FAT1_CI!$A$1:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">FAT1_CI!$A$1:$C$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">FAT1_CI_PRATICA!$H$2:$I$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="27" hidden="1">FAT2_CI!$A$1:$D$41</definedName>
   </definedNames>
@@ -4567,7 +4567,7 @@
   <sheetPr codeName="Planilha12"/>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -7677,800 +7677,6 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E46922-7E70-4D9F-BA36-FFADF1FA5641}">
-  <dimension ref="A1:D25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" s="4">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20" s="4">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21" s="4">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" s="4">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24" s="4">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25" s="4">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928D47F0-6F2C-426A-B704-744224E9AA4C}">
-  <dimension ref="A1:N12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="12.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="105" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="J2" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" s="35">
-        <v>286</v>
-      </c>
-      <c r="L2" s="35">
-        <v>373</v>
-      </c>
-      <c r="M2" s="35">
-        <v>347</v>
-      </c>
-      <c r="N2" s="37">
-        <f>SUM(K2:M2)</f>
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="30">
-        <v>96</v>
-      </c>
-      <c r="D3" s="30">
-        <v>94</v>
-      </c>
-      <c r="E3" s="30">
-        <v>95</v>
-      </c>
-      <c r="F3" s="30">
-        <v>88</v>
-      </c>
-      <c r="G3" s="31">
-        <f>SUM(C3:F3)</f>
-        <v>373</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="K3" s="35">
-        <v>297</v>
-      </c>
-      <c r="L3" s="35">
-        <v>316</v>
-      </c>
-      <c r="M3" s="35">
-        <v>310</v>
-      </c>
-      <c r="N3" s="37">
-        <f>SUM(K3:M3)</f>
-        <v>923</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="30">
-        <v>67</v>
-      </c>
-      <c r="D4" s="30">
-        <v>67</v>
-      </c>
-      <c r="E4" s="30">
-        <v>78</v>
-      </c>
-      <c r="F4" s="30">
-        <v>74</v>
-      </c>
-      <c r="G4" s="31">
-        <f t="shared" ref="G4:G9" si="0">SUM(C4:F4)</f>
-        <v>286</v>
-      </c>
-      <c r="J4" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" s="37">
-        <f>SUM(K2:K3)</f>
-        <v>583</v>
-      </c>
-      <c r="L4" s="37">
-        <f t="shared" ref="L4:M4" si="1">SUM(L2:L3)</f>
-        <v>689</v>
-      </c>
-      <c r="M4" s="37">
-        <f t="shared" si="1"/>
-        <v>657</v>
-      </c>
-      <c r="N4" s="37"/>
-    </row>
-    <row r="5" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="30">
-        <v>89</v>
-      </c>
-      <c r="D5" s="30">
-        <v>92</v>
-      </c>
-      <c r="E5" s="30">
-        <v>84</v>
-      </c>
-      <c r="F5" s="30">
-        <v>82</v>
-      </c>
-      <c r="G5" s="31">
-        <f t="shared" si="0"/>
-        <v>347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="32">
-        <f>SUM(G3:G5)</f>
-        <v>1006</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="17">
-        <f>G11^2/24</f>
-        <v>155043.375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="30">
-        <v>83</v>
-      </c>
-      <c r="D7" s="30">
-        <v>77</v>
-      </c>
-      <c r="E7" s="30">
-        <v>78</v>
-      </c>
-      <c r="F7" s="30">
-        <v>78</v>
-      </c>
-      <c r="G7" s="31">
-        <f t="shared" si="0"/>
-        <v>316</v>
-      </c>
-      <c r="J7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="17">
-        <f>SUMSQ(C3:F9)-K6</f>
-        <v>1635.625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="30">
-        <v>71</v>
-      </c>
-      <c r="D8" s="30">
-        <v>69</v>
-      </c>
-      <c r="E8" s="30">
-        <v>78</v>
-      </c>
-      <c r="F8" s="30">
-        <v>79</v>
-      </c>
-      <c r="G8" s="31">
-        <f t="shared" si="0"/>
-        <v>297</v>
-      </c>
-      <c r="J8" t="s">
-        <v>110</v>
-      </c>
-      <c r="K8" s="17">
-        <f>SUMSQ(C11:F11) / 6 -K6</f>
-        <v>10.458333333343035</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8" s="4">
-        <f>K8/L8</f>
-        <v>3.486111111114345</v>
-      </c>
-      <c r="N8" s="4">
-        <f>M8/$M$12</f>
-        <v>0.17798893773949873</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="29">
-        <v>79</v>
-      </c>
-      <c r="D9" s="29">
-        <v>78</v>
-      </c>
-      <c r="E9" s="29">
-        <v>74</v>
-      </c>
-      <c r="F9" s="29">
-        <v>79</v>
-      </c>
-      <c r="G9" s="31">
-        <f t="shared" si="0"/>
-        <v>310</v>
-      </c>
-      <c r="J9" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" s="17">
-        <f>SUMSQ(N2:N3)/12-K6</f>
-        <v>287.04166666665697</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4">
-        <f t="shared" ref="M9:M12" si="2">K9/L9</f>
-        <v>287.04166666665697</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" ref="N9:N11" si="3">M9/$M$12</f>
-        <v>14.655368032903121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="32">
-        <f>SUM(G7:G9)</f>
-        <v>923</v>
-      </c>
-      <c r="J10" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" s="17">
-        <f>SUMSQ(K4:M4)/8-K6</f>
-        <v>739</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="M10" s="4">
-        <f t="shared" si="2"/>
-        <v>369.5</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="3"/>
-        <v>18.865409161821638</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="30">
-        <f>SUM(C3:C9)</f>
-        <v>485</v>
-      </c>
-      <c r="D11" s="30">
-        <f t="shared" ref="D11:F11" si="4">SUM(D3:D9)</f>
-        <v>477</v>
-      </c>
-      <c r="E11" s="30">
-        <f t="shared" si="4"/>
-        <v>487</v>
-      </c>
-      <c r="F11" s="30">
-        <f t="shared" si="4"/>
-        <v>480</v>
-      </c>
-      <c r="G11" s="33">
-        <f>SUM(C11:F11)</f>
-        <v>1929</v>
-      </c>
-      <c r="J11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="17">
-        <f>SUMSQ(K2:M3)/4-K6-K9-K10</f>
-        <v>305.33333333334303</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="M11" s="4">
-        <f t="shared" si="2"/>
-        <v>152.66666666667152</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="3"/>
-        <v>7.7946390582901088</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J12" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" s="17">
-        <f>K7-SUM(K8:K11)</f>
-        <v>293.79166666665697</v>
-      </c>
-      <c r="L12">
-        <v>15</v>
-      </c>
-      <c r="M12" s="4">
-        <f t="shared" si="2"/>
-        <v>19.586111111110466</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA737F51-98FF-4434-B2A9-78368E16AF2F}">
   <sheetPr codeName="Planilha7"/>
   <dimension ref="A1:I37"/>
@@ -9123,6 +8329,800 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E46922-7E70-4D9F-BA36-FFADF1FA5641}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928D47F0-6F2C-426A-B704-744224E9AA4C}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="J2" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="35">
+        <v>286</v>
+      </c>
+      <c r="L2" s="35">
+        <v>373</v>
+      </c>
+      <c r="M2" s="35">
+        <v>347</v>
+      </c>
+      <c r="N2" s="37">
+        <f>SUM(K2:M2)</f>
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="30">
+        <v>96</v>
+      </c>
+      <c r="D3" s="30">
+        <v>94</v>
+      </c>
+      <c r="E3" s="30">
+        <v>95</v>
+      </c>
+      <c r="F3" s="30">
+        <v>88</v>
+      </c>
+      <c r="G3" s="31">
+        <f>SUM(C3:F3)</f>
+        <v>373</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="35">
+        <v>297</v>
+      </c>
+      <c r="L3" s="35">
+        <v>316</v>
+      </c>
+      <c r="M3" s="35">
+        <v>310</v>
+      </c>
+      <c r="N3" s="37">
+        <f>SUM(K3:M3)</f>
+        <v>923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="30">
+        <v>67</v>
+      </c>
+      <c r="D4" s="30">
+        <v>67</v>
+      </c>
+      <c r="E4" s="30">
+        <v>78</v>
+      </c>
+      <c r="F4" s="30">
+        <v>74</v>
+      </c>
+      <c r="G4" s="31">
+        <f t="shared" ref="G4:G9" si="0">SUM(C4:F4)</f>
+        <v>286</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" s="37">
+        <f>SUM(K2:K3)</f>
+        <v>583</v>
+      </c>
+      <c r="L4" s="37">
+        <f t="shared" ref="L4:M4" si="1">SUM(L2:L3)</f>
+        <v>689</v>
+      </c>
+      <c r="M4" s="37">
+        <f t="shared" si="1"/>
+        <v>657</v>
+      </c>
+      <c r="N4" s="37"/>
+    </row>
+    <row r="5" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="30">
+        <v>89</v>
+      </c>
+      <c r="D5" s="30">
+        <v>92</v>
+      </c>
+      <c r="E5" s="30">
+        <v>84</v>
+      </c>
+      <c r="F5" s="30">
+        <v>82</v>
+      </c>
+      <c r="G5" s="31">
+        <f t="shared" si="0"/>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="32">
+        <f>SUM(G3:G5)</f>
+        <v>1006</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="17">
+        <f>G11^2/24</f>
+        <v>155043.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="30">
+        <v>83</v>
+      </c>
+      <c r="D7" s="30">
+        <v>77</v>
+      </c>
+      <c r="E7" s="30">
+        <v>78</v>
+      </c>
+      <c r="F7" s="30">
+        <v>78</v>
+      </c>
+      <c r="G7" s="31">
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
+      <c r="J7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="17">
+        <f>SUMSQ(C3:F9)-K6</f>
+        <v>1635.625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="30">
+        <v>71</v>
+      </c>
+      <c r="D8" s="30">
+        <v>69</v>
+      </c>
+      <c r="E8" s="30">
+        <v>78</v>
+      </c>
+      <c r="F8" s="30">
+        <v>79</v>
+      </c>
+      <c r="G8" s="31">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+      <c r="J8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="17">
+        <f>SUMSQ(C11:F11) / 6 -K6</f>
+        <v>10.458333333343035</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8" s="4">
+        <f>K8/L8</f>
+        <v>3.486111111114345</v>
+      </c>
+      <c r="N8" s="4">
+        <f>M8/$M$12</f>
+        <v>0.17798893773949873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="29">
+        <v>79</v>
+      </c>
+      <c r="D9" s="29">
+        <v>78</v>
+      </c>
+      <c r="E9" s="29">
+        <v>74</v>
+      </c>
+      <c r="F9" s="29">
+        <v>79</v>
+      </c>
+      <c r="G9" s="31">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="17">
+        <f>SUMSQ(N2:N3)/12-K6</f>
+        <v>287.04166666665697</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" ref="M9:M12" si="2">K9/L9</f>
+        <v>287.04166666665697</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" ref="N9:N11" si="3">M9/$M$12</f>
+        <v>14.655368032903121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="32">
+        <f>SUM(G7:G9)</f>
+        <v>923</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" s="17">
+        <f>SUMSQ(K4:M4)/8-K6</f>
+        <v>739</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="2"/>
+        <v>369.5</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="3"/>
+        <v>18.865409161821638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="30">
+        <f>SUM(C3:C9)</f>
+        <v>485</v>
+      </c>
+      <c r="D11" s="30">
+        <f t="shared" ref="D11:F11" si="4">SUM(D3:D9)</f>
+        <v>477</v>
+      </c>
+      <c r="E11" s="30">
+        <f t="shared" si="4"/>
+        <v>487</v>
+      </c>
+      <c r="F11" s="30">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+      <c r="G11" s="33">
+        <f>SUM(C11:F11)</f>
+        <v>1929</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="17">
+        <f>SUMSQ(K2:M3)/4-K6-K9-K10</f>
+        <v>305.33333333334303</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="2"/>
+        <v>152.66666666667152</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="3"/>
+        <v>7.7946390582901088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="17">
+        <f>K7-SUM(K8:K11)</f>
+        <v>293.79166666665697</v>
+      </c>
+      <c r="L12">
+        <v>15</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="2"/>
+        <v>19.586111111110466</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
